--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48223EB1-99C7-2E40-9991-DFCE1887DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF775EBC-1E83-6D47-B0EE-741B45561E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4462,7 +4462,7 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>1.1200000000000001</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF775EBC-1E83-6D47-B0EE-741B45561E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B09CF85-164B-0547-A7D2-2277BB9EE793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31980" yWindow="60" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$339</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="227">
   <si>
     <t>Activity</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>biosphere</t>
-  </si>
-  <si>
-    <t>air::urban air close to ground</t>
   </si>
   <si>
     <t>CH</t>
@@ -576,9 +573,6 @@
     <t>CO2 uptake</t>
   </si>
   <si>
-    <t>leak</t>
-  </si>
-  <si>
     <t>operational</t>
   </si>
   <si>
@@ -719,6 +713,13 @@
   </si>
   <si>
     <t>Based on a solvent-based DAC facility with annual capture capacity of 1 Mt CO2 and lifetime of 20 years. Qiu, Y., Lamers, P., Daioglou, V. et al. Environmental trade-offs of direct air capture technologies in climate change mitigation toward 2100. Nat Commun 13, 3635 (2022). https://doi.org/10.1038/s41467-022-31146-1 We do not have information on the surface occupied, hence we scale up the land occupation and transformation values for the sorbent-based system.</t>
+  </si>
+  <si>
+    <t>LCI from Qiu, Y., Lamers, P., Daioglou, V. et al. Environmental trade-offs of direct air capture technologies in climate change mitigation toward 2100. Nat Commun 13, 3635 (2022). https://doi.org/10.1038/s41467-022-31146-1
+But original is from: Deutz, S., Bardow, A. Life-cycle assessment of an industrial direct air capture process based on temperature–vacuum swing adsorption. Nat Energy 6, 203–213 (2021). https://doi.org/10.1038/s41560-020-00771-9</t>
+  </si>
+  <si>
+    <t>For the sorbent system, the LCI data are collected from the work of Deutz and Bardow based on the Climeworks system (https://doi.org/10.1038/s41560-020-00771-9). The LCI data represent a plant with an annual capacity of 100 kt CO2/year and a lifetime of 20 years.</t>
   </si>
 </sst>
 </file>
@@ -875,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -915,7 +916,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1021,7 +1022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1163,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T343"/>
+  <dimension ref="A1:T339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1254,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1262,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1298,7 +1299,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1318,7 +1319,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <f>1/(1000000000*20)</f>
@@ -1334,15 +1335,15 @@
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <f>-1/(1000000000*20)</f>
@@ -1358,21 +1359,21 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>3.4369999999999998</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1381,15 +1382,15 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17">
         <v>4.0000000000000001E-3</v>
@@ -1404,21 +1405,21 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1427,15 +1428,15 @@
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0.34499999999999997</v>
@@ -1444,44 +1445,44 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>6.28</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1490,157 +1491,161 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>171</v>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
         <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
+        <v>170</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <f>1/(1000000000*20)</f>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <f>1/(1000000000*20)</f>
-        <v>5.0000000000000002E-11</v>
+        <f>-1/(1000000000*20)</f>
+        <v>-5.0000000000000002E-11</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1652,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>78</v>
@@ -1660,37 +1665,36 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <f>-1/(1000000000*20)</f>
-        <v>-5.0000000000000002E-11</v>
+        <v>3.4369999999999998</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="B37">
-        <v>3.4369999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1699,21 +1703,21 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>174</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B38">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1721,292 +1725,295 @@
       <c r="F38" t="s">
         <v>16</v>
       </c>
-      <c r="G38" t="s">
-        <v>175</v>
+      <c r="G38" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>176</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>79</v>
       </c>
       <c r="B39">
-        <v>3.5000000000000001E-3</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>177</v>
+      <c r="G39" t="s">
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40">
-        <v>0.34499999999999997</v>
+        <v>6.28</v>
       </c>
       <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41">
-        <v>6.28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>138</v>
-      </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" t="s">
-        <v>170</v>
+      <c r="G41" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
-        <v>179</v>
+      <c r="B45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>226</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>10</v>
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
+        <v>208</v>
+      </c>
+      <c r="B55">
+        <v>134000</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="H55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>5400000</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B57">
-        <v>134000</v>
+        <v>34000</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
         <v>51</v>
       </c>
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>212</v>
-      </c>
       <c r="H57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58">
-        <v>5400000</v>
+        <v>45</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10000</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -2015,21 +2022,21 @@
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59">
-        <v>34000</v>
+        <v>76000</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -2038,21 +2045,21 @@
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="2">
-        <v>10000</v>
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <v>16000</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -2061,18 +2068,18 @@
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>76000</v>
+        <v>15200000</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2084,44 +2091,44 @@
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B62">
-        <v>16000</v>
+        <v>66000</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" t="s">
         <v>55</v>
-      </c>
-      <c r="H62" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B63">
-        <v>15200000</v>
+        <v>460000</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -2130,44 +2137,44 @@
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64">
+        <v>42000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
         <v>210</v>
       </c>
-      <c r="B64">
-        <v>66000</v>
-      </c>
-      <c r="C64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>212</v>
-      </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>460000</v>
+        <v>1180000</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -2176,64 +2183,66 @@
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>42000</v>
+        <v>2400000</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="H66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="B67">
-        <v>1180000</v>
+        <v>74000</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="H67" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="S67" s="3"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>2400000</v>
+        <v>50000</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -2245,46 +2254,48 @@
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H68" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="Q68" s="4"/>
+      <c r="S68" s="4"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="B69">
-        <v>74000</v>
+        <v>960000</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="S69" s="3"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B70">
-        <v>50000</v>
+        <v>660000</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -2293,20 +2304,20 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" t="s">
         <v>62</v>
       </c>
-      <c r="H70" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q70" s="4"/>
-      <c r="S70" s="4"/>
+      <c r="Q70" s="3"/>
+      <c r="S70" s="3"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B71">
-        <v>960000</v>
+        <v>5400000</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -2318,253 +2329,249 @@
         <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q71" s="3"/>
-      <c r="S71" s="3"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="B72">
-        <v>660000</v>
-      </c>
-      <c r="C72" t="s">
-        <v>28</v>
+        <f>78380/1000000000/20</f>
+        <v>3.9190000000000001E-6</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>216</v>
+      </c>
+      <c r="E72" t="s">
+        <v>220</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q72" s="3"/>
-      <c r="S72" s="3"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="B73">
-        <v>5400000</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
+        <f>78380/1000000000</f>
+        <v>7.8380000000000005E-5</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>219</v>
+      </c>
+      <c r="E73" t="s">
+        <v>220</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="H73" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B74">
-        <f>78380/1000000000/20</f>
-        <v>3.9190000000000001E-6</v>
+        <f>78380/1000000000</f>
+        <v>7.8380000000000005E-5</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F74" t="s">
         <v>21</v>
       </c>
       <c r="H74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>220</v>
-      </c>
-      <c r="B75">
-        <f>78380/1000000000</f>
-        <v>7.8380000000000005E-5</v>
-      </c>
-      <c r="D75" t="s">
         <v>221</v>
       </c>
-      <c r="E75" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>224</v>
-      </c>
-      <c r="B76">
-        <f>78380/1000000000</f>
-        <v>7.8380000000000005E-5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    </row>
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>66</v>
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>10</v>
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="B87" s="11">
+        <v>-760000000</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="Q87" s="4"/>
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B88">
-        <v>-1</v>
+        <v>67</v>
+      </c>
+      <c r="B88" s="11">
+        <v>-12000000</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="Q88" s="3"/>
+      <c r="S88" s="3"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B89" s="11">
-        <v>-760000000</v>
+        <v>-76000</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
@@ -2573,21 +2580,21 @@
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H89" s="12"/>
-      <c r="Q89" s="4"/>
-      <c r="S89" s="4"/>
+      <c r="Q89" s="3"/>
+      <c r="S89" s="3"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B90" s="11">
-        <v>-12000000</v>
+        <v>-15200000</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2596,21 +2603,20 @@
         <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H90" s="12"/>
-      <c r="Q90" s="3"/>
-      <c r="S90" s="3"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B91" s="11">
-        <v>-76000</v>
+        <v>-16000</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
@@ -2619,21 +2625,19 @@
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H91" s="12"/>
-      <c r="Q91" s="3"/>
-      <c r="S91" s="3"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B92" s="11">
-        <v>-15200000</v>
+        <v>-10000</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
@@ -2642,20 +2646,19 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H92" s="12"/>
-      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B93" s="11">
-        <v>-16000</v>
+        <v>-2400000</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -2664,19 +2667,19 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B94" s="11">
-        <v>-10000</v>
+        <v>-46000</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2685,19 +2688,19 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B95" s="11">
-        <v>-2400000</v>
+        <v>-80000000</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
@@ -2706,19 +2709,19 @@
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B96" s="11">
-        <v>-46000</v>
+        <v>-70000000</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
@@ -2727,145 +2730,146 @@
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97" s="11">
-        <v>-80000000</v>
-      </c>
-      <c r="C97" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>147</v>
-      </c>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" s="11">
-        <v>-70000000</v>
-      </c>
-      <c r="C98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>162</v>
-      </c>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>120</v>
+      <c r="B98" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="B109">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>3</v>
-      </c>
-      <c r="G109" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -2873,606 +2877,615 @@
         <v>120</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <f>1/(100000000*20)</f>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B111">
-        <v>3.0000000000000001E-3</v>
+        <f>-1/(100000000*20)</f>
+        <v>-5.0000000000000003E-10</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>84</v>
+      <c r="G111" t="s">
+        <v>64</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113">
+        <v>5.4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>169</v>
+      </c>
+      <c r="H113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128">
         <f>1/(100000000*20)</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D128" t="s">
         <v>5</v>
       </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>65</v>
-      </c>
-      <c r="H112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>136</v>
-      </c>
-      <c r="B113">
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>64</v>
+      </c>
+      <c r="H128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
         <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>65</v>
-      </c>
-      <c r="H113" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114">
-        <v>0.5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>81</v>
-      </c>
-      <c r="H114" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>82</v>
-      </c>
-      <c r="B115">
-        <v>5.4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>138</v>
-      </c>
-      <c r="D115" t="s">
-        <v>24</v>
-      </c>
-      <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>170</v>
-      </c>
-      <c r="H115" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" t="s">
-        <v>39</v>
-      </c>
-      <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="H116" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>40</v>
-      </c>
-      <c r="B117" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>3</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>173</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B130">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>84</v>
+      <c r="G130" t="s">
+        <v>80</v>
       </c>
       <c r="H130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B131">
-        <f>1/(100000000*20)</f>
-        <v>5.0000000000000003E-10</v>
+        <v>5.4</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="H131" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B132">
-        <f>-1/(100000000*20)</f>
-        <v>-5.0000000000000003E-10</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
-      <c r="G132" t="s">
-        <v>65</v>
+      <c r="G132" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="H132" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B133">
-        <v>0.5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134">
-        <v>5.4</v>
-      </c>
-      <c r="C134" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>170</v>
-      </c>
-      <c r="H134" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>103</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H135" t="s">
-        <v>172</v>
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
-      <c r="D136" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" t="s">
-        <v>39</v>
-      </c>
-      <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="H136" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>40</v>
-      </c>
-      <c r="B137" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>121</v>
+        <v>2</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
         <v>7</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>225</v>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>19</v>
-      </c>
-      <c r="B146" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="B146">
+        <v>8000</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>210</v>
+      </c>
+      <c r="H146" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>108</v>
+      </c>
+      <c r="B147">
+        <v>942000</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
+        <v>208</v>
+      </c>
+      <c r="B148">
+        <v>6000</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>548000.00000000012</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="B150">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="H150" t="s">
         <v>125</v>
@@ -3480,22 +3493,22 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B151">
-        <v>942000</v>
+        <v>16000</v>
       </c>
       <c r="C151" t="s">
         <v>18</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="H151" t="s">
         <v>125</v>
@@ -3503,22 +3516,22 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="B152">
-        <v>6000</v>
+        <v>276000.00000000006</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="H152" t="s">
         <v>126</v>
@@ -3526,13 +3539,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="B153">
-        <v>548000.00000000012</v>
+        <v>224000</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>6</v>
@@ -3541,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H153" t="s">
         <v>126</v>
@@ -3549,10 +3562,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="B154">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="C154" t="s">
         <v>18</v>
@@ -3564,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="H154" t="s">
         <v>126</v>
@@ -3575,10 +3588,10 @@
         <v>122</v>
       </c>
       <c r="B155">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>6</v>
@@ -3595,10 +3608,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B156">
-        <v>276000.00000000006</v>
+        <v>10000</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
@@ -3610,21 +3623,21 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B157">
-        <v>224000</v>
+        <v>160000</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>6</v>
@@ -3633,21 +3646,21 @@
         <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B158">
         <v>10000</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>6</v>
@@ -3656,18 +3669,18 @@
         <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="B159">
-        <v>12000</v>
+        <v>338000</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3679,18 +3692,18 @@
         <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="H159" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="B160">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="C160" t="s">
         <v>18</v>
@@ -3702,18 +3715,18 @@
         <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="H160" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B161">
-        <v>160000</v>
+        <v>94000</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
@@ -3725,15 +3738,15 @@
         <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="H161" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B162">
         <v>10000</v>
@@ -3748,21 +3761,21 @@
         <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H162" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="B163">
-        <v>338000</v>
+        <v>10000</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>6</v>
@@ -3771,10 +3784,10 @@
         <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H163" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -3782,10 +3795,10 @@
         <v>44</v>
       </c>
       <c r="B164">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>6</v>
@@ -3794,7 +3807,7 @@
         <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H164" t="s">
         <v>129</v>
@@ -3802,10 +3815,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B165">
-        <v>94000</v>
+        <v>12000</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -3817,7 +3830,7 @@
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="H165" t="s">
         <v>129</v>
@@ -3825,286 +3838,280 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="B166">
-        <v>10000</v>
-      </c>
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>6</v>
+        <f>7838/100000000/20</f>
+        <v>3.9190000000000001E-6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>216</v>
+      </c>
+      <c r="E166" t="s">
+        <v>220</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="H166" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="B167">
-        <v>10000</v>
-      </c>
-      <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>6</v>
+        <f>7838/100000000</f>
+        <v>7.8380000000000005E-5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" t="s">
+        <v>220</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="H167" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="B168">
-        <v>22000</v>
-      </c>
-      <c r="C168" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>6</v>
+        <f>7838/100000000</f>
+        <v>7.8380000000000005E-5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>219</v>
+      </c>
+      <c r="E168" t="s">
+        <v>220</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H168" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>44</v>
-      </c>
-      <c r="B169">
-        <v>12000</v>
-      </c>
-      <c r="C169" t="s">
-        <v>18</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
-      <c r="H169" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>217</v>
-      </c>
-      <c r="B170">
-        <f>7838/100000000/20</f>
-        <v>3.9190000000000001E-6</v>
-      </c>
-      <c r="D170" t="s">
-        <v>218</v>
-      </c>
-      <c r="E170" t="s">
-        <v>222</v>
-      </c>
-      <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="H170" t="s">
-        <v>219</v>
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="B171">
-        <f>7838/100000000</f>
-        <v>7.8380000000000005E-5</v>
-      </c>
-      <c r="D171" t="s">
-        <v>221</v>
-      </c>
-      <c r="E171" t="s">
-        <v>222</v>
-      </c>
-      <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="H171" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>224</v>
-      </c>
-      <c r="B172">
-        <f>7838/100000000</f>
-        <v>7.8380000000000005E-5</v>
-      </c>
-      <c r="D172" t="s">
-        <v>221</v>
-      </c>
-      <c r="E172" t="s">
-        <v>222</v>
-      </c>
-      <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="H172" t="s">
-        <v>223</v>
+        <v>2</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D173" s="10"/>
-    </row>
-    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>136</v>
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
         <v>7</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" t="s">
+        <v>2</v>
+      </c>
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180">
+        <v>-1</v>
+      </c>
+      <c r="C180" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>9</v>
-      </c>
-      <c r="B180" t="s">
-        <v>119</v>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>19</v>
-      </c>
-      <c r="B181" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B181">
+        <v>-29400000</v>
+      </c>
+      <c r="C181" t="s">
+        <v>137</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q181" s="4"/>
+      <c r="S181" s="4"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>67</v>
+      </c>
+      <c r="B182">
+        <v>-2140000</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q182" s="3"/>
+      <c r="S182" s="3"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>11</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="B183">
+        <v>-116000</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F183" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>2</v>
-      </c>
-      <c r="H183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="Q183" s="3"/>
+      <c r="S183" s="3"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B184">
-        <v>-1</v>
+        <v>-143999.99999999997</v>
       </c>
       <c r="C184" t="s">
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="B185">
-        <v>-29400000</v>
+        <v>-6000000</v>
       </c>
       <c r="C185" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="D185" t="s">
         <v>6</v>
@@ -4113,20 +4120,18 @@
         <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q185" s="4"/>
-      <c r="S185" s="4"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B186">
-        <v>-2140000</v>
+        <v>-20000</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D186" t="s">
         <v>6</v>
@@ -4135,20 +4140,18 @@
         <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q186" s="3"/>
-      <c r="S186" s="3"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B187">
-        <v>-116000</v>
+        <v>-26000</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D187" t="s">
         <v>6</v>
@@ -4157,278 +4160,286 @@
         <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q187" s="3"/>
-      <c r="S187" s="3"/>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188">
-        <v>-143999.99999999997</v>
-      </c>
-      <c r="C188" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>213</v>
-      </c>
-      <c r="B189">
-        <v>-6000000</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>6</v>
-      </c>
-      <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B190">
-        <v>-20000</v>
-      </c>
-      <c r="C190" t="s">
-        <v>138</v>
-      </c>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-      <c r="F190" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>137</v>
-      </c>
-      <c r="B191">
-        <v>-26000</v>
-      </c>
-      <c r="C191" t="s">
-        <v>138</v>
-      </c>
-      <c r="D191" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="G192" s="7"/>
-    </row>
-    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
         <v>7</v>
       </c>
-      <c r="B198" t="s">
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>2</v>
+      </c>
+      <c r="H198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>82</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>9</v>
-      </c>
-      <c r="B199" t="s">
-        <v>181</v>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H199" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
-      </c>
-      <c r="B200" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="B200">
+        <v>0.13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" t="s">
+        <v>90</v>
+      </c>
+      <c r="H200" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q200" s="4"/>
+      <c r="S200" s="4"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>85</v>
+      </c>
+      <c r="B201">
+        <v>0.02</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" t="s">
+        <v>91</v>
+      </c>
+      <c r="H201" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>11</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="B202">
+        <v>0.63</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="H202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>93</v>
       </c>
       <c r="H203" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="B204">
-        <v>0.13</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F204" t="s">
         <v>16</v>
       </c>
       <c r="G204" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="H204" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q204" s="4"/>
-      <c r="S204" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="B205">
-        <v>0.02</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D205" t="s">
         <v>6</v>
       </c>
+      <c r="E205" t="s">
+        <v>88</v>
+      </c>
       <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="H205" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B206">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
       </c>
       <c r="G206" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="H206" t="s">
         <v>101</v>
@@ -4436,13 +4447,13 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B207">
-        <v>1.29</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" t="s">
         <v>6</v>
@@ -4451,62 +4462,65 @@
         <v>16</v>
       </c>
       <c r="G207" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H207" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="B208">
-        <v>-1.1200000000000001</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
       </c>
       <c r="G208" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H208" t="s">
         <v>101</v>
       </c>
-      <c r="M208" s="2"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="B209">
-        <v>4.1999999999999998E-5</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
       </c>
       <c r="D209" t="s">
         <v>6</v>
       </c>
-      <c r="E209" t="s">
-        <v>89</v>
-      </c>
       <c r="F209" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s">
+        <v>150</v>
       </c>
       <c r="H209" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B210">
-        <v>0.71</v>
+        <f>1.24*0.05</f>
+        <v>6.2E-2</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
@@ -4518,21 +4532,22 @@
         <v>16</v>
       </c>
       <c r="G210" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H210" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>86</v>
-      </c>
-      <c r="B211">
-        <v>1.1399999999999999</v>
+        <v>98</v>
+      </c>
+      <c r="B211" s="14">
+        <f>0.36*(AVERAGE(33.94,48.48))*(1-0.95)</f>
+        <v>0.74178000000000055</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" t="s">
         <v>6</v>
@@ -4541,21 +4556,21 @@
         <v>16</v>
       </c>
       <c r="G211" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="H211" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>5.24</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D212" t="s">
         <v>6</v>
@@ -4564,69 +4579,67 @@
         <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="H212" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B213">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F213" t="s">
         <v>16</v>
       </c>
       <c r="G213" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="H213" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B214">
-        <f>1.24*0.05</f>
-        <v>6.2E-2</v>
+        <v>2.69</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F214" t="s">
         <v>16</v>
       </c>
       <c r="G214" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="H214" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>99</v>
       </c>
-      <c r="B215" s="14">
-        <f>0.36*(AVERAGE(33.94,48.48))*(1-0.95)</f>
-        <v>0.74178000000000055</v>
+      <c r="B215">
+        <v>1.65</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" t="s">
         <v>6</v>
@@ -4635,21 +4648,21 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H215" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B216">
-        <v>5.24</v>
+        <v>-0.54</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D216" t="s">
         <v>6</v>
@@ -4658,393 +4671,394 @@
         <v>16</v>
       </c>
       <c r="G216" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="H216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B217">
-        <v>0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F217" t="s">
         <v>16</v>
       </c>
       <c r="G217" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H217" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>87</v>
-      </c>
-      <c r="B218">
-        <v>2.69</v>
-      </c>
-      <c r="C218" t="s">
-        <v>138</v>
-      </c>
-      <c r="D218" t="s">
-        <v>24</v>
-      </c>
-      <c r="F218" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" t="s">
-        <v>93</v>
-      </c>
-      <c r="H218" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>100</v>
-      </c>
-      <c r="B219">
-        <v>1.65</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>6</v>
-      </c>
-      <c r="F219" t="s">
-        <v>16</v>
-      </c>
-      <c r="G219" t="s">
-        <v>148</v>
-      </c>
-      <c r="H219" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B220">
-        <v>-0.54</v>
-      </c>
-      <c r="C220" t="s">
-        <v>138</v>
-      </c>
-      <c r="D220" t="s">
-        <v>6</v>
-      </c>
-      <c r="F220" t="s">
-        <v>16</v>
-      </c>
-      <c r="G220" t="s">
-        <v>147</v>
-      </c>
-      <c r="H220" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B221">
-        <v>-0.36</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>16</v>
-      </c>
-      <c r="G221" t="s">
-        <v>29</v>
-      </c>
-      <c r="H221" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
-      <c r="J222" s="2"/>
-    </row>
-    <row r="223" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="8" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
         <v>7</v>
       </c>
-      <c r="B228" t="s">
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" t="s">
+        <v>3</v>
+      </c>
+      <c r="G228" t="s">
+        <v>2</v>
+      </c>
+      <c r="H228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>102</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" t="s">
-        <v>105</v>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>19</v>
-      </c>
-      <c r="B230" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="B230">
+        <v>9.9999999999999986E-10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230" t="s">
+        <v>50</v>
+      </c>
+      <c r="F230" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" t="s">
+        <v>210</v>
+      </c>
+      <c r="H230" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>159</v>
+      </c>
+      <c r="B231">
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" t="s">
+        <v>160</v>
+      </c>
+      <c r="H231" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="B232">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>5</v>
-      </c>
-      <c r="E232" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F232" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="H232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
         <v>6</v>
       </c>
       <c r="F233" t="s">
-        <v>15</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>104</v>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s">
+        <v>140</v>
+      </c>
+      <c r="H233" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="B234">
-        <v>9.9999999999999986E-10</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C234" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" t="s">
         <v>23</v>
       </c>
-      <c r="D234" t="s">
-        <v>51</v>
-      </c>
       <c r="F234" t="s">
         <v>16</v>
       </c>
       <c r="G234" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="H234" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B235">
-        <v>1.0000000000000001E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F235" t="s">
         <v>16</v>
       </c>
       <c r="G235" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="H235" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>44</v>
-      </c>
       <c r="B236">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0400000000000001E-3</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
-      </c>
-      <c r="D236" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="H236" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B237">
-        <v>2.9999999999999999E-7</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
       </c>
       <c r="G237" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="H237" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B238">
-        <v>3.1999999999999999E-5</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
       </c>
-      <c r="D238" t="s">
-        <v>24</v>
+      <c r="D238" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
       </c>
       <c r="G238" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H238" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B239">
-        <v>9.9999999999999995E-7</v>
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
       </c>
       <c r="G239" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H239" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B240">
-        <v>1.0400000000000001E-3</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>6</v>
@@ -5053,77 +5067,76 @@
         <v>16</v>
       </c>
       <c r="G240" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H240" t="s">
-        <v>113</v>
-      </c>
-      <c r="J240" s="2"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B241">
-        <v>1.3000000000000002E-4</v>
+        <v>1.8E-3</v>
       </c>
       <c r="C241" t="s">
         <v>18</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F241" t="s">
         <v>16</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="H241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B242">
-        <v>1.3000000000000002E-4</v>
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F242" t="s">
         <v>16</v>
       </c>
       <c r="G242" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="H242" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>111</v>
       </c>
-      <c r="B243">
-        <v>1.1999999999999999E-6</v>
+      <c r="B243" s="6">
+        <v>8.2000000000000001E-11</v>
       </c>
       <c r="C243" t="s">
         <v>18</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="F243" t="s">
         <v>16</v>
       </c>
       <c r="G243" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H243" t="s">
         <v>113</v>
@@ -5131,13 +5144,13 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B244">
-        <v>2.5000000000000002E-6</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>6</v>
@@ -5146,30 +5159,30 @@
         <v>16</v>
       </c>
       <c r="G244" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H244" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>154</v>
-      </c>
-      <c r="B245">
-        <v>1.8E-3</v>
+        <v>60</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1.7E-5</v>
       </c>
       <c r="C245" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
       </c>
       <c r="G245" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H245" t="s">
         <v>113</v>
@@ -5177,22 +5190,22 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B246">
-        <v>1.1999999999999999E-4</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H246" t="s">
         <v>113</v>
@@ -5200,36 +5213,36 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>112</v>
-      </c>
-      <c r="B247" s="6">
-        <v>8.2000000000000001E-11</v>
+        <v>208</v>
+      </c>
+      <c r="B247">
+        <v>4.8E-8</v>
       </c>
       <c r="C247" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
       </c>
       <c r="G247" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="H247" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="B248">
-        <v>3.3E-3</v>
+        <v>1.9E-6</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>6</v>
@@ -5238,53 +5251,53 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="H248" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>61</v>
-      </c>
-      <c r="B249" s="2">
-        <v>1.7E-5</v>
+        <v>36</v>
+      </c>
+      <c r="B249">
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F249" t="s">
         <v>16</v>
       </c>
       <c r="G249" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="H249" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B250">
-        <v>3.6999999999999998E-5</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F250" t="s">
         <v>16</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H250" t="s">
         <v>114</v>
@@ -5292,36 +5305,36 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="B251">
-        <v>4.8E-8</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="C251" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F251" t="s">
         <v>16</v>
       </c>
       <c r="G251" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="H251" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="B252">
-        <v>1.9E-6</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="C252" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>6</v>
@@ -5330,67 +5343,68 @@
         <v>16</v>
       </c>
       <c r="G252" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H252" t="s">
-        <v>114</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J252" s="2"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B253">
-        <v>3.4000000000000002E-4</v>
+        <v>-1.9999999999999999E-6</v>
       </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F253" t="s">
         <v>16</v>
       </c>
       <c r="G253" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="H253" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B254">
-        <v>0.11799999999999999</v>
+        <v>-2.7999999999999999E-6</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F254" t="s">
         <v>16</v>
       </c>
       <c r="G254" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="H254" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B255">
-        <v>-4.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-6</v>
       </c>
       <c r="C255" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>6</v>
@@ -5399,111 +5413,74 @@
         <v>16</v>
       </c>
       <c r="G255" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H255" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>68</v>
-      </c>
-      <c r="B256">
-        <v>-2.5999999999999998E-4</v>
-      </c>
-      <c r="C256" t="s">
-        <v>23</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F256" t="s">
-        <v>16</v>
-      </c>
-      <c r="G256" t="s">
-        <v>168</v>
-      </c>
-      <c r="H256" t="s">
-        <v>79</v>
-      </c>
-      <c r="J256" s="2"/>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>116</v>
-      </c>
-      <c r="B257">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="C257" t="s">
-        <v>138</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>16</v>
-      </c>
-      <c r="G257" t="s">
-        <v>159</v>
-      </c>
-      <c r="H257" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>117</v>
-      </c>
-      <c r="B258">
-        <v>-2.7999999999999999E-6</v>
-      </c>
-      <c r="C258" t="s">
-        <v>23</v>
-      </c>
-      <c r="D258" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" t="s">
-        <v>16</v>
-      </c>
-      <c r="G258" t="s">
-        <v>145</v>
-      </c>
-      <c r="H258" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>118</v>
-      </c>
-      <c r="B259">
-        <v>-1.1999999999999999E-6</v>
-      </c>
-      <c r="C259" t="s">
-        <v>138</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" t="s">
-        <v>16</v>
-      </c>
-      <c r="G259" t="s">
-        <v>144</v>
-      </c>
-      <c r="H259" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
+      <c r="M258" s="17"/>
+      <c r="N258" s="17"/>
+      <c r="O258" s="17"/>
+      <c r="P258" s="17"/>
+    </row>
+    <row r="259" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="O259" s="17"/>
+      <c r="P259" s="17"/>
+    </row>
+    <row r="260" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" s="16">
+        <v>1</v>
+      </c>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
+      <c r="M260" s="17"/>
+      <c r="N260" s="17"/>
+      <c r="O260" s="17"/>
+      <c r="P260" s="17"/>
+    </row>
+    <row r="261" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K261" s="17"/>
+      <c r="L261" s="17"/>
+      <c r="M261" s="17"/>
+      <c r="N261" s="17"/>
+      <c r="O261" s="17"/>
+      <c r="P261" s="17"/>
     </row>
     <row r="262" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B262" s="15" t="s">
-        <v>182</v>
+      <c r="A262" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="K262" s="17"/>
       <c r="L262" s="17"/>
@@ -5514,10 +5491,10 @@
     </row>
     <row r="263" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K263" s="17"/>
       <c r="L263" s="17"/>
@@ -5528,10 +5505,10 @@
     </row>
     <row r="264" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B264" s="16">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="K264" s="17"/>
       <c r="L264" s="17"/>
@@ -5542,10 +5519,10 @@
     </row>
     <row r="265" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B265" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="B265" s="18">
+        <v>0.61363636363636365</v>
       </c>
       <c r="K265" s="17"/>
       <c r="L265" s="17"/>
@@ -5555,11 +5532,8 @@
       <c r="P265" s="17"/>
     </row>
     <row r="266" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B266" s="16" t="s">
-        <v>4</v>
+      <c r="A266" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="K266" s="17"/>
       <c r="L266" s="17"/>
@@ -5569,25 +5543,88 @@
       <c r="P266" s="17"/>
     </row>
     <row r="267" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="16" t="s">
+      <c r="A267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B267" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K267" s="17"/>
-      <c r="L267" s="17"/>
-      <c r="M267" s="17"/>
-      <c r="N267" s="17"/>
-      <c r="O267" s="17"/>
-      <c r="P267" s="17"/>
+      <c r="E267" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G267" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H267" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I267" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K267" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L267" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M267" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N267" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O267" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="P267" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S267" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="268" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B268" s="16" t="s">
-        <v>215</v>
+        <v>180</v>
+      </c>
+      <c r="B268" s="16">
+        <v>1</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G268" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H268" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="K268" s="17"/>
       <c r="L268" s="17"/>
@@ -5595,150 +5632,231 @@
       <c r="N268" s="17"/>
       <c r="O268" s="17"/>
       <c r="P268" s="17"/>
+      <c r="T268" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="269" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B269" s="18">
-        <v>0.61363636363636365</v>
-      </c>
-      <c r="K269" s="17"/>
-      <c r="L269" s="17"/>
-      <c r="M269" s="17"/>
-      <c r="N269" s="17"/>
-      <c r="O269" s="17"/>
-      <c r="P269" s="17"/>
+        <v>197</v>
+      </c>
+      <c r="B269" s="20">
+        <v>6.7613636363636362E-2</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F269" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H269" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="I269" s="16">
+        <v>2</v>
+      </c>
+      <c r="J269">
+        <v>-2.6939455949206681</v>
+      </c>
+      <c r="K269" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L269" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M269" s="4">
+        <v>1</v>
+      </c>
+      <c r="N269" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O269" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P269" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q269" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="R269">
+        <v>0.16679850853156178</v>
+      </c>
     </row>
     <row r="270" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K270" s="17"/>
-      <c r="L270" s="17"/>
-      <c r="M270" s="17"/>
-      <c r="N270" s="17"/>
-      <c r="O270" s="17"/>
-      <c r="P270" s="17"/>
+      <c r="A270" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" s="20">
+        <v>0.10738636363636363</v>
+      </c>
+      <c r="D270" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F270" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H270" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="I270" s="16">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>-2.2313220729725551</v>
+      </c>
+      <c r="K270" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L270" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M270" s="4">
+        <v>1</v>
+      </c>
+      <c r="N270" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O270" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P270" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q270" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="R270">
+        <v>0.16679850853156178</v>
+      </c>
     </row>
     <row r="271" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E271" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" s="15" t="s">
+      <c r="A271" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B271" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="D271" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F271" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I271" s="16">
         <v>2</v>
       </c>
-      <c r="H271" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I271" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K271" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L271" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M271" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="N271" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="O271" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="P271" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q271" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R271" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S271" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="T271" s="1" t="s">
-        <v>196</v>
+      <c r="J271">
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="K271" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L271" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M271" s="4">
+        <v>1</v>
+      </c>
+      <c r="N271" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O271" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P271" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q271" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>0.26139455023340635</v>
       </c>
     </row>
     <row r="272" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="16" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="B272" s="16">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I272" s="16">
+        <v>2</v>
+      </c>
+      <c r="J272">
+        <v>-4.6397616307577101</v>
+      </c>
+      <c r="K272" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L272" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M272" s="4">
         <v>1</v>
       </c>
-      <c r="C272" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F272" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G272" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H272" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="K272" s="17"/>
-      <c r="L272" s="17"/>
-      <c r="M272" s="17"/>
-      <c r="N272" s="17"/>
-      <c r="O272" s="17"/>
-      <c r="P272" s="17"/>
-      <c r="T272" t="s">
-        <v>198</v>
+      <c r="N272" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O272" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P272" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q272">
+        <v>1.05</v>
+      </c>
+      <c r="R272">
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="273" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B273" s="20">
-        <v>6.7613636363636362E-2</v>
+        <v>35</v>
+      </c>
+      <c r="B273" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="D273" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E273" s="16" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F273" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H273" s="16" t="s">
-        <v>200</v>
+        <v>16</v>
+      </c>
+      <c r="G273" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="I273" s="16">
         <v>2</v>
       </c>
       <c r="J273">
-        <v>-2.6939455949206681</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="K273" s="4">
         <v>1.1000000000000001</v>
@@ -5758,7 +5876,7 @@
       <c r="P273" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q273" s="4">
+      <c r="Q273">
         <v>1.05</v>
       </c>
       <c r="R273">
@@ -5767,28 +5885,32 @@
     </row>
     <row r="274" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B274" s="20">
-        <v>0.10738636363636363</v>
+        <v>200</v>
+      </c>
+      <c r="B274" s="16">
+        <f>0.4+((3.7-0.4)*0.4)</f>
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F274" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G274" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="H274" s="16" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I274" s="16">
         <v>2</v>
       </c>
       <c r="J274">
-        <v>-2.2313220729725551</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="K274" s="4">
         <v>1.1000000000000001</v>
@@ -5808,7 +5930,7 @@
       <c r="P274" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q274" s="4">
+      <c r="Q274">
         <v>1.05</v>
       </c>
       <c r="R274">
@@ -5817,25 +5939,28 @@
     </row>
     <row r="275" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B275" s="21">
-        <v>1E-4</v>
+        <v>94</v>
+      </c>
+      <c r="B275" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D275" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E275" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="F275" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G275" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="I275" s="16">
         <v>2</v>
       </c>
       <c r="J275">
-        <v>-9.2103403719761818</v>
+        <v>-5.521460917862246</v>
       </c>
       <c r="K275" s="4">
         <v>1.1000000000000001</v>
@@ -5855,22 +5980,22 @@
       <c r="P275" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q275" s="4">
-        <v>1.5</v>
+      <c r="Q275">
+        <v>1.05</v>
       </c>
       <c r="R275">
-        <v>0.26139455023340635</v>
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="276" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="16" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B276" s="16">
-        <v>9.6600000000000002E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D276" s="16" t="s">
         <v>6</v>
@@ -5879,13 +6004,13 @@
         <v>16</v>
       </c>
       <c r="G276" s="16" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="I276" s="16">
         <v>2</v>
       </c>
       <c r="J276">
-        <v>-4.6397616307577101</v>
+        <v>-9.2103403719761818</v>
       </c>
       <c r="K276" s="4">
         <v>1.1000000000000001</v>
@@ -5914,28 +6039,28 @@
     </row>
     <row r="277" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="16" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="B277" s="16">
-        <v>0.1</v>
+        <v>1E-4</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F277" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G277" s="16" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I277" s="16">
         <v>2</v>
       </c>
       <c r="J277">
-        <v>-2.3025850929940455</v>
+        <v>-9.2103403719761818</v>
       </c>
       <c r="K277" s="4">
         <v>1.1000000000000001</v>
@@ -5963,412 +6088,410 @@
       </c>
     </row>
     <row r="278" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B278" s="16">
-        <f>0.4+((3.7-0.4)*0.4)</f>
-        <v>1.7200000000000002</v>
-      </c>
-      <c r="C278" s="16" t="s">
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+      <c r="M278" s="17"/>
+      <c r="N278" s="17"/>
+      <c r="O278" s="17"/>
+      <c r="P278" s="17"/>
+    </row>
+    <row r="279" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="D278" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F278" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G278" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H278" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I278" s="16">
+    </row>
+    <row r="281" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>2</v>
       </c>
-      <c r="J278">
-        <v>0.40546510810816438</v>
-      </c>
-      <c r="K278" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L278" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M278" s="4">
-        <v>1</v>
-      </c>
-      <c r="N278" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O278" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P278" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q278">
-        <v>1.05</v>
-      </c>
-      <c r="R278">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B279" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C279" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D279" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F279" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G279" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I279" s="16">
-        <v>2</v>
-      </c>
-      <c r="J279">
-        <v>-5.521460917862246</v>
-      </c>
-      <c r="K279" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L279" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M279" s="4">
-        <v>1</v>
-      </c>
-      <c r="N279" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O279" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P279" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q279">
-        <v>1.05</v>
-      </c>
-      <c r="R279">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B280" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="C280" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D280" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F280" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G280" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I280" s="16">
-        <v>2</v>
-      </c>
-      <c r="J280">
-        <v>-9.2103403719761818</v>
-      </c>
-      <c r="K280" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L280" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M280" s="4">
-        <v>1</v>
-      </c>
-      <c r="N280" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O280" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P280" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q280">
-        <v>1.05</v>
-      </c>
-      <c r="R280">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B281" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="C281" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D281" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F281" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G281" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I281" s="16">
-        <v>2</v>
-      </c>
-      <c r="J281">
-        <v>-9.2103403719761818</v>
-      </c>
-      <c r="K281" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L281" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M281" s="4">
-        <v>1</v>
-      </c>
-      <c r="N281" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O281" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P281" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q281">
-        <v>1.05</v>
-      </c>
-      <c r="R281">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K282" s="17"/>
-      <c r="L282" s="17"/>
-      <c r="M282" s="17"/>
-      <c r="N282" s="17"/>
-      <c r="O282" s="17"/>
-      <c r="P282" s="17"/>
-    </row>
-    <row r="283" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>206</v>
+      <c r="B282" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>19</v>
+      </c>
+      <c r="B285" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" t="s">
-        <v>4</v>
+        <v>182</v>
+      </c>
+      <c r="B287">
+        <v>0.06</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>5</v>
-      </c>
-      <c r="B288" t="s">
-        <v>6</v>
+        <v>206</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>19</v>
-      </c>
-      <c r="B289" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s">
+        <v>3</v>
+      </c>
+      <c r="G290" t="s">
+        <v>2</v>
+      </c>
+      <c r="H290" t="s">
         <v>9</v>
       </c>
-      <c r="B290" t="s">
-        <v>216</v>
+      <c r="I290" t="s">
+        <v>183</v>
+      </c>
+      <c r="J290" t="s">
+        <v>184</v>
+      </c>
+      <c r="K290" t="s">
+        <v>185</v>
+      </c>
+      <c r="L290" t="s">
+        <v>186</v>
+      </c>
+      <c r="M290" t="s">
+        <v>187</v>
+      </c>
+      <c r="N290" t="s">
+        <v>188</v>
+      </c>
+      <c r="O290" t="s">
+        <v>189</v>
+      </c>
+      <c r="P290" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>191</v>
+      </c>
+      <c r="R290" t="s">
+        <v>192</v>
+      </c>
+      <c r="S290" t="s">
+        <v>193</v>
+      </c>
+      <c r="T290" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B291">
-        <v>0.06</v>
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291" t="s">
+        <v>181</v>
+      </c>
+      <c r="T291" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B292">
+        <f>0.11*(1-B287)</f>
+        <v>0.10339999999999999</v>
+      </c>
+      <c r="D292" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" t="s">
+        <v>88</v>
+      </c>
+      <c r="F292" t="s">
+        <v>21</v>
+      </c>
+      <c r="H292" t="s">
+        <v>207</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>-2.2678230385440798</v>
+      </c>
+      <c r="K292">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L292">
+        <v>1.2</v>
+      </c>
+      <c r="M292">
         <v>1</v>
+      </c>
+      <c r="N292">
+        <v>1.01</v>
+      </c>
+      <c r="O292">
+        <v>1.2</v>
+      </c>
+      <c r="P292">
+        <v>1.2</v>
+      </c>
+      <c r="Q292">
+        <v>1.05</v>
+      </c>
+      <c r="R292">
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="B293">
+        <f>0.11-B292</f>
+        <v>6.6000000000000086E-3</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" t="s">
+        <v>88</v>
+      </c>
+      <c r="F293" t="s">
+        <v>21</v>
+      </c>
+      <c r="H293" t="s">
+        <v>207</v>
+      </c>
+      <c r="I293">
+        <v>2</v>
+      </c>
+      <c r="J293">
+        <v>-5.0417129971418326</v>
+      </c>
+      <c r="K293">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L293">
+        <v>1.2</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>1.01</v>
+      </c>
+      <c r="O293">
+        <v>1.2</v>
+      </c>
+      <c r="P293">
+        <v>1.2</v>
+      </c>
+      <c r="Q293">
+        <v>1.05</v>
+      </c>
+      <c r="R293">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294">
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="D294" t="s">
-        <v>5</v>
-      </c>
-      <c r="E294" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F294" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G294" t="s">
+        <v>33</v>
+      </c>
+      <c r="I294">
         <v>2</v>
       </c>
-      <c r="H294" t="s">
-        <v>9</v>
-      </c>
-      <c r="I294" t="s">
-        <v>185</v>
-      </c>
-      <c r="J294" t="s">
-        <v>186</v>
-      </c>
-      <c r="K294" t="s">
-        <v>187</v>
-      </c>
-      <c r="L294" t="s">
-        <v>188</v>
-      </c>
-      <c r="M294" t="s">
-        <v>189</v>
-      </c>
-      <c r="N294" t="s">
-        <v>190</v>
-      </c>
-      <c r="O294" t="s">
-        <v>191</v>
-      </c>
-      <c r="P294" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q294" t="s">
-        <v>193</v>
-      </c>
-      <c r="R294" t="s">
-        <v>194</v>
-      </c>
-      <c r="S294" t="s">
-        <v>195</v>
-      </c>
-      <c r="T294" t="s">
-        <v>196</v>
+      <c r="J294">
+        <v>-4.6397616307577101</v>
+      </c>
+      <c r="K294">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L294">
+        <v>1.2</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>1.01</v>
+      </c>
+      <c r="O294">
+        <v>1.2</v>
+      </c>
+      <c r="P294">
+        <v>1.2</v>
+      </c>
+      <c r="Q294">
+        <v>1.05</v>
+      </c>
+      <c r="R294">
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="C295" t="s">
         <v>8</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F295" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G295" t="s">
-        <v>183</v>
-      </c>
-      <c r="T295" t="s">
-        <v>198</v>
+        <v>25</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>-4.976233867378923</v>
+      </c>
+      <c r="K295">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L295">
+        <v>1.2</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>1.01</v>
+      </c>
+      <c r="O295">
+        <v>1.2</v>
+      </c>
+      <c r="P295">
+        <v>1.2</v>
+      </c>
+      <c r="Q295">
+        <v>1.05</v>
+      </c>
+      <c r="R295">
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B296">
-        <f>0.11*(1-B291)</f>
-        <v>0.10339999999999999</v>
+        <f>3.66*0.7</f>
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F296" t="s">
-        <v>21</v>
-      </c>
-      <c r="H296" t="s">
-        <v>209</v>
+        <v>16</v>
+      </c>
+      <c r="G296" t="s">
+        <v>201</v>
       </c>
       <c r="I296">
         <v>2</v>
       </c>
       <c r="J296">
-        <v>-2.2678230385440798</v>
+        <v>0.99635805462935334</v>
       </c>
       <c r="K296">
         <v>1.1000000000000001</v>
@@ -6395,31 +6518,30 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>40</v>
+    <row r="297" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="B297">
-        <f>0.11-B296</f>
-        <v>6.6000000000000086E-3</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>18</v>
       </c>
       <c r="D297" t="s">
         <v>6</v>
       </c>
-      <c r="E297" t="s">
-        <v>89</v>
-      </c>
       <c r="F297" t="s">
-        <v>21</v>
-      </c>
-      <c r="H297" t="s">
-        <v>209</v>
+        <v>16</v>
+      </c>
+      <c r="G297" t="s">
+        <v>148</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297">
-        <v>-5.0417129971418326</v>
+        <v>-6.9077552789821368</v>
       </c>
       <c r="K297">
         <v>1.1000000000000001</v>
@@ -6446,237 +6568,36 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>33</v>
-      </c>
-      <c r="B298">
-        <v>9.6600000000000002E-3</v>
-      </c>
-      <c r="C298" t="s">
-        <v>138</v>
-      </c>
-      <c r="D298" t="s">
-        <v>6</v>
-      </c>
-      <c r="F298" t="s">
-        <v>16</v>
-      </c>
-      <c r="G298" t="s">
-        <v>34</v>
-      </c>
-      <c r="I298">
-        <v>2</v>
-      </c>
-      <c r="J298">
-        <v>-4.6397616307577101</v>
-      </c>
-      <c r="K298">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L298">
-        <v>1.2</v>
-      </c>
-      <c r="M298">
-        <v>1</v>
-      </c>
-      <c r="N298">
-        <v>1.01</v>
-      </c>
-      <c r="O298">
-        <v>1.2</v>
-      </c>
-      <c r="P298">
-        <v>1.2</v>
-      </c>
-      <c r="Q298">
-        <v>1.05</v>
-      </c>
-      <c r="R298">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>36</v>
-      </c>
-      <c r="B299">
-        <v>6.9000000000000008E-3</v>
-      </c>
-      <c r="C299" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" t="s">
-        <v>25</v>
-      </c>
-      <c r="F299" t="s">
-        <v>16</v>
-      </c>
-      <c r="G299" t="s">
-        <v>26</v>
-      </c>
-      <c r="I299">
-        <v>2</v>
-      </c>
-      <c r="J299">
-        <v>-4.976233867378923</v>
-      </c>
-      <c r="K299">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L299">
-        <v>1.2</v>
-      </c>
-      <c r="M299">
-        <v>1</v>
-      </c>
-      <c r="N299">
-        <v>1.01</v>
-      </c>
-      <c r="O299">
-        <v>1.2</v>
-      </c>
-      <c r="P299">
-        <v>1.2</v>
-      </c>
-      <c r="Q299">
-        <v>1.05</v>
-      </c>
-      <c r="R299">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>202</v>
-      </c>
-      <c r="B300">
-        <f>3.66*0.7</f>
-        <v>2.5619999999999998</v>
-      </c>
-      <c r="C300" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" t="s">
-        <v>24</v>
-      </c>
-      <c r="F300" t="s">
-        <v>16</v>
-      </c>
-      <c r="G300" t="s">
-        <v>203</v>
-      </c>
-      <c r="I300">
-        <v>2</v>
-      </c>
-      <c r="J300">
-        <v>0.99635805462935334</v>
-      </c>
-      <c r="K300">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L300">
-        <v>1.2</v>
-      </c>
-      <c r="M300">
-        <v>1</v>
-      </c>
-      <c r="N300">
-        <v>1.01</v>
-      </c>
-      <c r="O300">
-        <v>1.2</v>
-      </c>
-      <c r="P300">
-        <v>1.2</v>
-      </c>
-      <c r="Q300">
-        <v>1.05</v>
-      </c>
-      <c r="R300">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="301" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B301">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C301" t="s">
-        <v>18</v>
-      </c>
-      <c r="D301" t="s">
-        <v>6</v>
-      </c>
-      <c r="F301" t="s">
-        <v>16</v>
-      </c>
-      <c r="G301" t="s">
-        <v>149</v>
-      </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
-      <c r="J301">
-        <v>-6.9077552789821368</v>
-      </c>
-      <c r="K301">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L301">
-        <v>1.2</v>
-      </c>
-      <c r="M301">
-        <v>1</v>
-      </c>
-      <c r="N301">
-        <v>1.01</v>
-      </c>
-      <c r="O301">
-        <v>1.2</v>
-      </c>
-      <c r="P301">
-        <v>1.2</v>
-      </c>
-      <c r="Q301">
-        <v>1.05</v>
-      </c>
-      <c r="R301">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-    </row>
-    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="321" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-    </row>
-    <row r="323" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B323" s="2"/>
-    </row>
-    <row r="328" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="330" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A330" s="2"/>
-      <c r="J330" s="2"/>
-    </row>
-    <row r="336" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-    </row>
-    <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A343" s="1"/>
+    <row r="303" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+    </row>
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+    </row>
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="324" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="326" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="2"/>
+      <c r="J326" s="2"/>
+    </row>
+    <row r="332" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+    </row>
+    <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T343" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T339" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D415D5-20A1-8348-8410-7999E2D72DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824ACB91-3647-0446-8B1F-8A1BDD01002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31960" yWindow="60" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$361</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
   <si>
     <t>Activity</t>
   </si>
@@ -744,6 +744,96 @@
   </si>
   <si>
     <t>operation. Uncertainty from deJong et al., 2021</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement production plant, using monoethanolamine</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement plant</t>
+  </si>
+  <si>
+    <t>Carbon capture using MEA: Main source: Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis. Heat for MEA regeneration now produced with same fuel mix as MEA kiln (not natural gas as in Voldsund). Transport and storage from Premise inventories. 90% CO2 capture efficiency (process+fuel CO2). Source: Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>MEA mark-up, lost in reclaimer (1.4 kg MEA/tCO2) CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, p. 26</t>
+  </si>
+  <si>
+    <t>Electricity consumption for fans, pumps and thermal reclaimer (188 MJ/tclk [primary energy], 761 kg CO2/tclk, 0.459 conversion factor primary to secondary energy, 3.6 MJ/kWh) CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 5.3</t>
+  </si>
+  <si>
+    <t>Electricity consumption for cooling water system (123 MJ/tclk [primary energy], 761 kg CO2/tclk, 0.459 conversion factor primary to secondary energy, 3.6 MJ/kWh) CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 5.3</t>
+  </si>
+  <si>
+    <t>market group for tap water</t>
+  </si>
+  <si>
+    <t>Process water mark-up. CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 5.1</t>
+  </si>
+  <si>
+    <t>Spent MEA solvent: Share of airborne emission and solid emissions from Moser 2011</t>
+  </si>
+  <si>
+    <t>Monoethanolamine</t>
+  </si>
+  <si>
+    <t>MEA emissions, rest is regenerated. Share of airborne emission and solid emissions (process: treatment of spent solvent mixture) from Moser 2011</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
+  </si>
+  <si>
+    <t>steam production, as energy carrier, in chemical industry</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>Energy needed for compression and liquefication of CO2 (CPU): (CEMCAP D4.6, table 5.3)</t>
+  </si>
+  <si>
+    <t>SOx removal, needed so that MEA doesn't form amine salts. Stochiometric amount of 1.25 kg NaOH/kg SOx is sufficient (Cempcap 4.6). 0.00035 kg SOx/kg clinker (ecoinvent), 0.828 kg CO2/kg clinker from GCCA data.</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement production plant, using direct separation</t>
+  </si>
+  <si>
+    <t>Carbon capture using Direct Separation. Main source: LEILAC project https://ec.europa.eu/research/participants/documents/downloadPublic?documentIds=080166e5df29e8fc&amp;appId=PPGMS. 95% capture efficiency of process related emissions.  Source: Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>Additional electricity for LEILAC: LEILAC D3.6 Life Cycle Assessment, Table 4-6: 77kWh/t clinker, Table 4-1: 0.558 t process emissions/t clinker</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement production plant, using oxyfuel</t>
+  </si>
+  <si>
+    <t>Carbon capture with Oxyfuel technology, where fuel combustion happens in Oxygen-CO2-mix instead of air, which creates a cleaner CO2 flue gas stream. Main source: Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis. 90% CO2 capture efficiency (process+fuel CO2). Includes changes in electricity demand due to new kiln design for oxy-process, oxygen production with ASU, CO2 compression and purification, CO2 transport. Excludes changes in Non-CO2 emissions: CPU reduces SOx (99.99%), NOx (99.36%), Hg (100%) and CO (100%). Source: Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>stochiometric amount of O2 needed for combustion with pure oxygen. 11% losses due flue gas looping are already included in the ASU process</t>
+  </si>
+  <si>
+    <t>Electricity savings due to equipment changes: additional fans +122 MJ/tclk , electric power generation -182 MJ/tclk with organic rankine cycle, energy savings at Fans, milling, and handling of solids in kiln -62 MJ/tclk, [all in primary energy], 758 kg CO2/tclk, Conversion factor primary to secondary energy 0.459, 3.6 MJ/kWh. Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 6.3</t>
+  </si>
+  <si>
+    <t>Electricity consumption cooling water system. 59 MJ/tclk [primary energy], 758 kg CO2/tclk, Conversion factor primary to secondary energy 0.459, 3.6 MJ/kWh. Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 6.3</t>
+  </si>
+  <si>
+    <t>Compression and purification: Electricity for CPU (440 KJ/kgCO2) (CEMCAP D4.6, table 6.1)</t>
+  </si>
+  <si>
+    <t>industrial gases production, cryogenic air separation</t>
+  </si>
+  <si>
+    <t>oxygen, liquid</t>
+  </si>
+  <si>
+    <t>Compression and purification unit: Electricity for cooling system (0.03 KJ/kg CO2) (CEMCAP D4.6, table 6.1)</t>
   </si>
 </sst>
 </file>
@@ -751,15 +841,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +931,22 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -861,13 +967,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -877,22 +983,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1208,19 +1320,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T366"/>
+  <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.5" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1518,7 +1630,7 @@
       <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f>-1*B17</f>
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -1542,7 +1654,7 @@
       <c r="A20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f>-1*B18</f>
         <v>-3.5000000000000001E-3</v>
       </c>
@@ -1932,7 +2044,7 @@
       <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <f>-1*B39</f>
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -1956,7 +2068,7 @@
       <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <f>-1*B40</f>
         <v>-3.5000000000000001E-3</v>
       </c>
@@ -3114,7 +3226,7 @@
       <c r="I111">
         <v>5</v>
       </c>
-      <c r="J111" s="24">
+      <c r="J111" s="23">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K111">
@@ -3352,7 +3464,7 @@
       <c r="A125" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3705,7 +3817,7 @@
       <c r="A144" t="s">
         <v>19</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4346,7 +4458,7 @@
       <c r="A179" t="s">
         <v>19</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4875,7 +4987,7 @@
         <v>93</v>
       </c>
       <c r="B217">
-        <f>AVERAGE(K217:L217)</f>
+        <f t="shared" ref="B217:B227" si="0">AVERAGE(K217:L217)</f>
         <v>1.9749999999999999</v>
       </c>
       <c r="C217" t="s">
@@ -4909,7 +5021,7 @@
         <v>85</v>
       </c>
       <c r="B218">
-        <f>AVERAGE(K218:L218)</f>
+        <f t="shared" si="0"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="C218" t="s">
@@ -4928,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="J218">
-        <f t="shared" ref="J218:J227" si="0">B218</f>
+        <f t="shared" ref="J218:J227" si="1">B218</f>
         <v>3.1749999999999998</v>
       </c>
       <c r="K218">
@@ -4943,7 +5055,7 @@
         <v>94</v>
       </c>
       <c r="B219">
-        <f>AVERAGE(K219:L219)</f>
+        <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
       <c r="C219" t="s">
@@ -4962,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="J219">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
       <c r="K219">
@@ -4977,7 +5089,7 @@
         <v>95</v>
       </c>
       <c r="B220">
-        <f>AVERAGE(K220:L220)</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="C220" t="s">
@@ -4996,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="J220">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="K220">
@@ -5011,11 +5123,11 @@
         <v>94</v>
       </c>
       <c r="B221">
-        <f>AVERAGE(K221:L221)</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D221" t="s">
         <v>6</v>
@@ -5030,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="J221">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="K221">
@@ -5045,7 +5157,7 @@
         <v>96</v>
       </c>
       <c r="B222">
-        <f>AVERAGE(K222:L222)</f>
+        <f t="shared" si="0"/>
         <v>0.11570000000000008</v>
       </c>
       <c r="C222" t="s">
@@ -5067,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="J222">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11570000000000008</v>
       </c>
       <c r="K222">
@@ -5084,7 +5196,7 @@
         <v>97</v>
       </c>
       <c r="B223">
-        <f>AVERAGE(K223:L223)</f>
+        <f t="shared" si="0"/>
         <v>1.3817000000000013</v>
       </c>
       <c r="C223" t="s">
@@ -5106,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="J223">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3817000000000013</v>
       </c>
       <c r="K223">
@@ -5123,7 +5235,7 @@
         <v>87</v>
       </c>
       <c r="B224">
-        <f>AVERAGE(K224:L224)</f>
+        <f t="shared" si="0"/>
         <v>14.559999999999999</v>
       </c>
       <c r="C224" t="s">
@@ -5142,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="J224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.559999999999999</v>
       </c>
       <c r="K224">
@@ -5157,7 +5269,7 @@
         <v>35</v>
       </c>
       <c r="B225">
-        <f>AVERAGE(K225:L225)</f>
+        <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="C225" t="s">
@@ -5176,7 +5288,7 @@
         <v>5</v>
       </c>
       <c r="J225">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="K225">
@@ -5191,7 +5303,7 @@
         <v>86</v>
       </c>
       <c r="B226">
-        <f>AVERAGE(K226:L226)</f>
+        <f t="shared" si="0"/>
         <v>7.4749999999999996</v>
       </c>
       <c r="C226" t="s">
@@ -5210,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="J226">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4749999999999996</v>
       </c>
       <c r="K226">
@@ -5225,7 +5337,7 @@
         <v>74</v>
       </c>
       <c r="B227">
-        <f>AVERAGE(K227:L227)</f>
+        <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
       <c r="C227" t="s">
@@ -5244,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="J227">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
       <c r="K227">
@@ -7181,7 +7293,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -7231,7 +7343,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>35</v>
       </c>
@@ -7281,7 +7393,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>195</v>
       </c>
@@ -7332,7 +7444,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="21" t="s">
         <v>93</v>
       </c>
@@ -7382,36 +7494,845 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-    </row>
-    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-    </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B346" s="2"/>
-    </row>
-    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="353" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A353" s="2"/>
-      <c r="J353" s="2"/>
-    </row>
-    <row r="359" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-    </row>
-    <row r="366" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A366" s="1"/>
+    <row r="326" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="5"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="5"/>
+      <c r="O335" s="5"/>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
+      <c r="R335" s="5"/>
+      <c r="S335" s="5"/>
+    </row>
+    <row r="336" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="28" t="str">
+        <f>B326</f>
+        <v>carbon dioxide, captured at cement production plant, using monoethanolamine</v>
+      </c>
+      <c r="B336" s="28">
+        <v>1</v>
+      </c>
+      <c r="C336" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F336" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G336" s="28" t="str">
+        <f>B329</f>
+        <v>carbon dioxide, captured at cement plant</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B337" s="29">
+        <v>1</v>
+      </c>
+      <c r="C337" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F337" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G337" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B338" s="29">
+        <f>1.4/1000</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="C338" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D338" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F338" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G338" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H338" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N338" s="29"/>
+    </row>
+    <row r="339" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B339" s="29">
+        <f>0.000355*1.25*(1/0.828)</f>
+        <v>5.3592995169082129E-4</v>
+      </c>
+      <c r="C339" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G339" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H339" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="N339" s="29"/>
+      <c r="P339" s="29"/>
+    </row>
+    <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B340" s="29">
+        <f>(3.76-0.11)/0.9</f>
+        <v>4.0555555555555554</v>
+      </c>
+      <c r="C340" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F340" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G340" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H340" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N340" s="29"/>
+    </row>
+    <row r="341" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B341" s="29">
+        <f>188/761*0.459/3.6</f>
+        <v>3.1498028909329831E-2</v>
+      </c>
+      <c r="C341" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H341" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N341" s="29"/>
+    </row>
+    <row r="342" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B342" s="29">
+        <f>123/761*0.459/3.6</f>
+        <v>2.0607752956636003E-2</v>
+      </c>
+      <c r="C342" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F342" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H342" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N342" s="29"/>
+    </row>
+    <row r="343" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B343" s="29">
+        <f>575/761*0.459/3.6</f>
+        <v>9.63370565045992E-2</v>
+      </c>
+      <c r="C343" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F343" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G343" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H343" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="N343" s="29"/>
+      <c r="Q343" s="30"/>
+    </row>
+    <row r="344" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B344" s="29">
+        <f>0.473</f>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C344" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F344" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G344" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H344" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B345" s="29">
+        <f>-B338*0.227/(0.227+0.006)</f>
+        <v>-1.3639484978540772E-3</v>
+      </c>
+      <c r="C345" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D345" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F345" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H345" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B346" s="29">
+        <f>1.4/1000*(0.006/0.227+0.006)</f>
+        <v>4.5404405286343617E-5</v>
+      </c>
+      <c r="D346" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F346" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H346" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B347" s="29">
+        <f>B344/1000</f>
+        <v>4.7299999999999995E-4</v>
+      </c>
+      <c r="D347" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E347" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F347" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G347" s="29"/>
+    </row>
+    <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="5"/>
+      <c r="M358" s="5"/>
+      <c r="N358" s="5"/>
+      <c r="O358" s="5"/>
+      <c r="P358" s="5"/>
+      <c r="Q358" s="5"/>
+      <c r="R358" s="5"/>
+      <c r="S358" s="5"/>
+    </row>
+    <row r="359" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="28" t="str">
+        <f>B349</f>
+        <v>carbon dioxide, captured at cement production plant, using direct separation</v>
+      </c>
+      <c r="B359" s="28">
+        <v>1</v>
+      </c>
+      <c r="C359" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F359" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G359" s="28" t="str">
+        <f>B352</f>
+        <v>carbon dioxide, captured at cement plant</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A360" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B360" s="29">
+        <v>1</v>
+      </c>
+      <c r="C360" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" s="28"/>
+      <c r="F360" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G360" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H360" s="28"/>
+    </row>
+    <row r="361" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B361" s="32">
+        <f>77*1/0.558/1000</f>
+        <v>0.13799283154121864</v>
+      </c>
+      <c r="C361" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F361" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H361" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N361" s="32"/>
+    </row>
+    <row r="364" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>2</v>
+      </c>
+      <c r="B367" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>19</v>
+      </c>
+      <c r="B370" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H373" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+      <c r="M373" s="5"/>
+      <c r="N373" s="5"/>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+    </row>
+    <row r="374" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="28" t="str">
+        <f>B364</f>
+        <v>carbon dioxide, captured at cement production plant, using oxyfuel</v>
+      </c>
+      <c r="B374" s="28">
+        <v>1</v>
+      </c>
+      <c r="C374" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G374" s="28" t="str">
+        <f>B367</f>
+        <v>carbon dioxide, captured at cement plant</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A375" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B375" s="29">
+        <v>1</v>
+      </c>
+      <c r="C375" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" s="28"/>
+      <c r="F375" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H375" s="28"/>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>262</v>
+      </c>
+      <c r="B376" s="6">
+        <f>B374*32/44/(1-0.11)</f>
+        <v>0.81716036772216549</v>
+      </c>
+      <c r="C376" t="s">
+        <v>27</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376" t="s">
+        <v>16</v>
+      </c>
+      <c r="G376" t="s">
+        <v>263</v>
+      </c>
+      <c r="H376" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" s="6">
+        <f>(122-182-62)/758*0.459/3.6</f>
+        <v>-2.0521108179419524E-2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" t="s">
+        <v>24</v>
+      </c>
+      <c r="F377" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" t="s">
+        <v>25</v>
+      </c>
+      <c r="H377" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="6">
+        <f>59/758*0.459/3.6</f>
+        <v>9.9241424802110813E-3</v>
+      </c>
+      <c r="C378" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" t="s">
+        <v>24</v>
+      </c>
+      <c r="F378" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" t="s">
+        <v>25</v>
+      </c>
+      <c r="H378" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="6">
+        <f>440/3600</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="C379" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" t="s">
+        <v>24</v>
+      </c>
+      <c r="F379" t="s">
+        <v>16</v>
+      </c>
+      <c r="G379" t="s">
+        <v>25</v>
+      </c>
+      <c r="H379" t="s">
+        <v>261</v>
+      </c>
+      <c r="M379" s="27"/>
+      <c r="N379" s="31"/>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="6">
+        <f>0.03/3600</f>
+        <v>8.3333333333333337E-6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" t="s">
+        <v>24</v>
+      </c>
+      <c r="F380" t="s">
+        <v>16</v>
+      </c>
+      <c r="G380" t="s">
+        <v>25</v>
+      </c>
+      <c r="H380" t="s">
+        <v>264</v>
+      </c>
+      <c r="M380" s="27"/>
+      <c r="N380" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T366" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T361" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824ACB91-3647-0446-8B1F-8A1BDD01002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117179F3-9F44-FA47-BEFB-6FE597996E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -827,13 +827,13 @@
     <t>Compression and purification: Electricity for CPU (440 KJ/kgCO2) (CEMCAP D4.6, table 6.1)</t>
   </si>
   <si>
-    <t>industrial gases production, cryogenic air separation</t>
-  </si>
-  <si>
     <t>oxygen, liquid</t>
   </si>
   <si>
     <t>Compression and purification unit: Electricity for cooling system (0.03 KJ/kg CO2) (CEMCAP D4.6, table 6.1)</t>
+  </si>
+  <si>
+    <t>market for oxygen, liquid</t>
   </si>
 </sst>
 </file>
@@ -841,13 +841,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -967,13 +967,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -983,27 +983,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8225,7 +8225,7 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H376" t="s">
         <v>258</v>
@@ -8326,7 +8326,7 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117179F3-9F44-FA47-BEFB-6FE597996E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4250949B-9023-E24C-A5C7-1864AA2E9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="264">
   <si>
     <t>Activity</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
-  </si>
-  <si>
-    <t>steam production, as energy carrier, in chemical industry</t>
   </si>
   <si>
     <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
@@ -1322,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="G376" sqref="G376"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7547,7 +7544,7 @@
         <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.2">
@@ -7624,7 +7621,7 @@
     </row>
     <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B337" s="29">
         <v>1</v>
@@ -7639,7 +7636,7 @@
         <v>16</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -7688,21 +7685,21 @@
         <v>146</v>
       </c>
       <c r="H339" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
     <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="B340" s="29">
         <f>(3.76-0.11)/0.9</f>
         <v>4.0555555555555554</v>
       </c>
       <c r="C340" s="28" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D340" s="28" t="s">
         <v>23</v>
@@ -7711,7 +7708,7 @@
         <v>16</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H340" s="28" t="s">
         <v>247</v>
@@ -7789,7 +7786,7 @@
         <v>25</v>
       </c>
       <c r="H343" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
@@ -7887,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.2">
@@ -7935,7 +7932,7 @@
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
@@ -7943,7 +7940,7 @@
         <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
@@ -8012,7 +8009,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B360" s="29">
         <v>1</v>
@@ -8028,7 +8025,7 @@
         <v>16</v>
       </c>
       <c r="G360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H360" s="28"/>
     </row>
@@ -8053,7 +8050,7 @@
         <v>25</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N361" s="32"/>
     </row>
@@ -8062,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.2">
@@ -8110,7 +8107,7 @@
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
@@ -8118,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8187,7 +8184,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B375" s="29">
         <v>1</v>
@@ -8203,13 +8200,13 @@
         <v>16</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" s="28"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8225,10 +8222,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H376" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -8252,7 +8249,7 @@
         <v>25</v>
       </c>
       <c r="H377" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,7 +8273,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -8300,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="H379" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M379" s="27"/>
       <c r="N379" s="31"/>
@@ -8326,7 +8323,7 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4250949B-9023-E24C-A5C7-1864AA2E9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63415C3E-A3E4-3949-93D8-B41F32435F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$380</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="264">
   <si>
     <t>Activity</t>
   </si>
@@ -1317,10 +1317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J361" sqref="J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1338,7 +1339,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1346,10 +1347,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1413,12 +1414,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1455,8 +1456,11 @@
       <c r="L12" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1541,20 +1545,23 @@
       <c r="I15">
         <v>5</v>
       </c>
-      <c r="J15" s="6">
-        <f>B15</f>
+      <c r="J15">
+        <f>-1/(1000000000*20)</f>
         <v>-5.0000000000000002E-11</v>
       </c>
       <c r="K15" s="6">
+        <f>-1/(1000000000*15)</f>
+        <v>-6.6666666666666669E-11</v>
+      </c>
+      <c r="L15" s="6">
         <f>-1/(1000000000*25)</f>
         <v>-3.9999999999999998E-11</v>
       </c>
-      <c r="L15" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>172</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1647,7 +1654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1743,7 +1750,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1763,7 +1770,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1811,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1827,12 +1835,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1869,8 +1877,11 @@
       <c r="L34" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -1890,7 +1901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1960,15 +1971,18 @@
         <v>-5.0000000000000002E-11</v>
       </c>
       <c r="K37" s="6">
+        <f>-1/(1000000000*15)</f>
+        <v>-6.6666666666666669E-11</v>
+      </c>
+      <c r="L37" s="6">
         <f>-1/(1000000000*25)</f>
         <v>-3.9999999999999998E-11</v>
       </c>
-      <c r="L37" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -2014,7 +2028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -2037,7 +2051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2157,7 +2171,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2200,7 +2214,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2232,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2271,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2264,12 +2279,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2338,7 +2353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -2361,7 +2376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -2453,7 +2468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -2476,7 +2491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -2545,7 +2560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -2616,7 +2631,7 @@
       <c r="Q71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2641,7 +2656,7 @@
       <c r="Q72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +2681,7 @@
       <c r="Q73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2706,7 @@
       <c r="Q74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>217</v>
       </c>
@@ -2777,11 +2792,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2805,7 +2820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2813,7 +2828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2821,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +2852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2845,12 +2860,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -2896,7 +2911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -2919,7 +2934,7 @@
       <c r="Q91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -2942,7 +2957,7 @@
       <c r="Q92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +2980,7 @@
       <c r="Q93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -2987,7 +3002,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3008,7 +3023,7 @@
       </c>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -3029,7 +3044,7 @@
       </c>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -3050,7 +3065,7 @@
       </c>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -3071,7 +3086,8 @@
       </c>
       <c r="H98" s="12"/>
     </row>
-    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3087,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3103,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3135,50 +3151,53 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -3198,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -3233,7 +3252,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3263,16 +3282,16 @@
         <f>B112</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="K112" s="6">
-        <f>1/(1000000000*25)</f>
-        <v>3.9999999999999998E-11</v>
+      <c r="K112">
+        <f>1/(100000000*25)</f>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="L112" s="6">
-        <f>1/(1000000000*15)</f>
-        <v>6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1/(100000000*15)</f>
+        <v>6.6666666666666664E-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -3298,20 +3317,23 @@
       <c r="I113">
         <v>5</v>
       </c>
-      <c r="J113" s="6">
-        <f>B113</f>
+      <c r="J113">
+        <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="K113" s="6">
-        <f>-1/(1000000000*25)</f>
-        <v>-3.9999999999999998E-11</v>
-      </c>
-      <c r="L113" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <f>-1/(100000000*15)</f>
+        <v>-6.6666666666666664E-10</v>
+      </c>
+      <c r="L113">
+        <f>-1/(100000000*25)</f>
+        <v>-4.0000000000000001E-10</v>
+      </c>
+      <c r="M113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -3346,7 +3368,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -3381,7 +3403,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -3401,7 +3423,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -3417,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -3425,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3433,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3441,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3457,7 +3480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -3465,12 +3488,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -3507,8 +3530,11 @@
       <c r="L127" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>169</v>
       </c>
@@ -3528,7 +3554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>82</v>
       </c>
@@ -3563,7 +3589,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -3593,16 +3619,16 @@
         <f>B130</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="K130" s="6">
-        <f>1/(1000000000*25)</f>
-        <v>3.9999999999999998E-11</v>
+      <c r="K130">
+        <f>1/(100000000*25)</f>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="L130" s="6">
-        <f>1/(1000000000*15)</f>
-        <v>6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1/(100000000*15)</f>
+        <v>6.6666666666666664E-10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3628,20 +3654,23 @@
       <c r="I131">
         <v>5</v>
       </c>
-      <c r="J131" s="6">
-        <f>B131</f>
+      <c r="J131">
+        <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="K131" s="6">
-        <f>-1/(1000000000*25)</f>
-        <v>-3.9999999999999998E-11</v>
-      </c>
-      <c r="L131" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <f>-1/(100000000*15)</f>
+        <v>-6.6666666666666664E-10</v>
+      </c>
+      <c r="L131">
+        <f>-1/(100000000*25)</f>
+        <v>-4.0000000000000001E-10</v>
+      </c>
+      <c r="M131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -3676,7 +3705,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -3711,7 +3740,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>100</v>
       </c>
@@ -3734,7 +3763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -3754,7 +3783,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3792,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -3770,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -3778,7 +3808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -3810,7 +3840,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3818,12 +3848,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -3869,7 +3899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>203</v>
       </c>
@@ -3892,7 +3922,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>106</v>
       </c>
@@ -3915,7 +3945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -3938,7 +3968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -3961,7 +3991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>43</v>
       </c>
@@ -3984,7 +4014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -4007,7 +4037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -4030,7 +4060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>44</v>
       </c>
@@ -4053,7 +4083,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -4076,7 +4106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>120</v>
       </c>
@@ -4099,7 +4129,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4122,7 +4152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4145,7 +4175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -4168,7 +4198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4191,7 +4221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -4214,7 +4244,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>125</v>
       </c>
@@ -4237,7 +4267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -4260,7 +4290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4283,7 +4313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>44</v>
       </c>
@@ -4306,7 +4336,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -4329,7 +4359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -4350,7 +4380,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -4371,7 +4401,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -4392,10 +4422,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4433,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4411,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -4419,7 +4449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -4427,7 +4457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -4443,7 +4473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -4451,7 +4481,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -4459,12 +4489,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -4490,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -4510,7 +4540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>66</v>
       </c>
@@ -4532,7 +4562,7 @@
       <c r="Q183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>67</v>
       </c>
@@ -4554,7 +4584,7 @@
       <c r="Q184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>68</v>
       </c>
@@ -4576,7 +4606,7 @@
       <c r="Q185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>73</v>
       </c>
@@ -4596,7 +4626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +4646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>113</v>
       </c>
@@ -4636,7 +4666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>134</v>
       </c>
@@ -4656,10 +4686,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -4683,7 +4713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4691,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4699,7 +4729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4707,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4715,7 +4745,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -4723,12 +4753,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -4754,7 +4784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>82</v>
       </c>
@@ -4774,7 +4804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -4797,7 +4827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>227</v>
       </c>
@@ -4820,7 +4850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -4843,11 +4873,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
@@ -4855,7 +4885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -4863,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -4871,7 +4901,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -4879,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4887,7 +4917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4895,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -4903,7 +4933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -4911,12 +4941,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>11</v>
       </c>
@@ -4957,7 +4987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f>B206</f>
         <v>polyethyleneimine (PEI) production, for sorbent-based direct air capture system</v>
@@ -4979,7 +5009,7 @@
         <v>polyethyleneimine</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>93</v>
       </c>
@@ -5013,7 +5043,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>85</v>
       </c>
@@ -5047,7 +5077,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>94</v>
       </c>
@@ -5081,7 +5111,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>95</v>
       </c>
@@ -5115,7 +5145,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>94</v>
       </c>
@@ -5149,7 +5179,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>96</v>
       </c>
@@ -5188,7 +5218,7 @@
         <v>0.20300000000000015</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>97</v>
       </c>
@@ -5227,7 +5257,7 @@
         <v>2.4240000000000022</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>87</v>
       </c>
@@ -5289,13 +5319,13 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="K225">
+        <v>0.27</v>
+      </c>
+      <c r="L225">
         <v>0.42</v>
       </c>
-      <c r="L225">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>86</v>
       </c>
@@ -5329,7 +5359,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>74</v>
       </c>
@@ -5357,20 +5387,20 @@
         <v>-1.5</v>
       </c>
       <c r="K227">
+        <v>-2.63</v>
+      </c>
+      <c r="L227">
         <v>-0.37</v>
-      </c>
-      <c r="L227">
-        <v>-2.63</v>
       </c>
       <c r="M227" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -5394,7 +5424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -5402,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -5426,7 +5456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -5434,12 +5464,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>11</v>
       </c>
@@ -5477,7 +5507,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>B229</f>
         <v>silica gel production, for sorbent-based direct air capture system</v>
@@ -5499,7 +5529,7 @@
         <v>silica gel</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>84</v>
       </c>
@@ -5521,7 +5551,7 @@
       <c r="Q240" s="4"/>
       <c r="S240" s="4"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>85</v>
       </c>
@@ -5541,7 +5571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>86</v>
       </c>
@@ -5574,7 +5604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>87</v>
       </c>
@@ -5594,7 +5624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>204</v>
       </c>
@@ -5616,7 +5646,7 @@
       </c>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>152</v>
       </c>
@@ -5633,11 +5663,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -5645,7 +5675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -5653,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -5661,7 +5691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -5669,7 +5699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5677,7 +5707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5685,7 +5715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -5693,7 +5723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -5701,12 +5731,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -5732,7 +5762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -5752,7 +5782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>203</v>
       </c>
@@ -5775,7 +5805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>156</v>
       </c>
@@ -5798,7 +5828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>43</v>
       </c>
@@ -5821,7 +5851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>103</v>
       </c>
@@ -5844,7 +5874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>150</v>
       </c>
@@ -5890,7 +5920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>105</v>
       </c>
@@ -5914,7 +5944,7 @@
       </c>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>106</v>
       </c>
@@ -5937,7 +5967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>107</v>
       </c>
@@ -5960,7 +5990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>108</v>
       </c>
@@ -5983,7 +6013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>103</v>
       </c>
@@ -6006,7 +6036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>150</v>
       </c>
@@ -6029,7 +6059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -6052,7 +6082,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>109</v>
       </c>
@@ -6075,7 +6105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>105</v>
       </c>
@@ -6098,7 +6128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>60</v>
       </c>
@@ -6121,7 +6151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>43</v>
       </c>
@@ -6144,7 +6174,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>203</v>
       </c>
@@ -6167,7 +6197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>156</v>
       </c>
@@ -6190,7 +6220,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>36</v>
       </c>
@@ -6236,7 +6266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>66</v>
       </c>
@@ -6259,7 +6289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>67</v>
       </c>
@@ -6283,7 +6313,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>113</v>
       </c>
@@ -6306,7 +6336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>114</v>
       </c>
@@ -6329,7 +6359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>115</v>
       </c>
@@ -6352,7 +6382,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
         <v>0</v>
       </c>
@@ -6366,7 +6397,7 @@
       <c r="O285" s="16"/>
       <c r="P285" s="16"/>
     </row>
-    <row r="286" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
         <v>7</v>
       </c>
@@ -6380,7 +6411,7 @@
       <c r="O286" s="16"/>
       <c r="P286" s="16"/>
     </row>
-    <row r="287" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
         <v>1</v>
       </c>
@@ -6394,7 +6425,7 @@
       <c r="O287" s="16"/>
       <c r="P287" s="16"/>
     </row>
-    <row r="288" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
         <v>2</v>
       </c>
@@ -6408,7 +6439,7 @@
       <c r="O288" s="16"/>
       <c r="P288" s="16"/>
     </row>
-    <row r="289" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
         <v>3</v>
       </c>
@@ -6422,7 +6453,7 @@
       <c r="O289" s="16"/>
       <c r="P289" s="16"/>
     </row>
-    <row r="290" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
         <v>5</v>
       </c>
@@ -6436,7 +6467,7 @@
       <c r="O290" s="16"/>
       <c r="P290" s="16"/>
     </row>
-    <row r="291" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
         <v>9</v>
       </c>
@@ -6450,7 +6481,7 @@
       <c r="O291" s="16"/>
       <c r="P291" s="16"/>
     </row>
-    <row r="292" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
         <v>179</v>
       </c>
@@ -6464,7 +6495,7 @@
       <c r="O292" s="16"/>
       <c r="P292" s="16"/>
     </row>
-    <row r="293" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
         <v>10</v>
       </c>
@@ -6475,7 +6506,7 @@
       <c r="O293" s="16"/>
       <c r="P293" s="16"/>
     </row>
-    <row r="294" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="14" t="s">
         <v>11</v>
       </c>
@@ -6535,7 +6566,7 @@
       </c>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>177</v>
       </c>
@@ -6565,7 +6596,7 @@
       <c r="P295" s="16"/>
       <c r="T295"/>
     </row>
-    <row r="296" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>192</v>
       </c>
@@ -6615,7 +6646,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
         <v>39</v>
       </c>
@@ -6665,7 +6696,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
         <v>194</v>
       </c>
@@ -6712,7 +6743,7 @@
         <v>0.26139455023340635</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
         <v>32</v>
       </c>
@@ -6812,7 +6843,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
         <v>195</v>
       </c>
@@ -6866,7 +6897,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
         <v>93</v>
       </c>
@@ -6916,7 +6947,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="303" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
         <v>94</v>
       </c>
@@ -6966,7 +6997,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
         <v>197</v>
       </c>
@@ -7016,7 +7047,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="305" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
       <c r="M305" s="16"/>
@@ -7024,7 +7055,7 @@
       <c r="O305" s="16"/>
       <c r="P305" s="16"/>
     </row>
-    <row r="306" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>0</v>
       </c>
@@ -7032,7 +7063,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -7040,7 +7071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>1</v>
       </c>
@@ -7048,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -7056,7 +7087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -7064,7 +7095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -7072,7 +7103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -7080,7 +7111,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -7088,7 +7119,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>179</v>
       </c>
@@ -7096,7 +7127,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>201</v>
       </c>
@@ -7104,12 +7135,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
@@ -7168,7 +7199,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>199</v>
       </c>
@@ -7188,7 +7219,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>192</v>
       </c>
@@ -7239,7 +7270,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>39</v>
       </c>
@@ -7290,7 +7321,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -7390,7 +7421,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>195</v>
       </c>
@@ -7441,7 +7472,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="21" t="s">
         <v>93</v>
       </c>
@@ -7491,7 +7522,8 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -7499,7 +7531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -7507,7 +7539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -7515,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2</v>
       </c>
@@ -7523,7 +7555,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -7531,7 +7563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -7539,7 +7571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -7547,7 +7579,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -7555,12 +7587,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>11</v>
       </c>
@@ -7597,7 +7629,7 @@
       <c r="R335" s="5"/>
       <c r="S335" s="5"/>
     </row>
-    <row r="336" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="28" t="str">
         <f>B326</f>
         <v>carbon dioxide, captured at cement production plant, using monoethanolamine</v>
@@ -7619,7 +7651,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
         <v>248</v>
       </c>
@@ -7639,7 +7671,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="28" t="s">
         <v>93</v>
       </c>
@@ -7664,7 +7696,7 @@
       </c>
       <c r="N338" s="29"/>
     </row>
-    <row r="339" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="28" t="s">
         <v>94</v>
       </c>
@@ -7690,7 +7722,7 @@
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
-    <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
         <v>81</v>
       </c>
@@ -7791,7 +7823,7 @@
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
     </row>
-    <row r="344" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="28" t="s">
         <v>241</v>
       </c>
@@ -7815,7 +7847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="345" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="28" t="s">
         <v>74</v>
       </c>
@@ -7839,7 +7871,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="28" t="s">
         <v>244</v>
       </c>
@@ -7860,7 +7892,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="347" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="28" t="s">
         <v>246</v>
       </c>
@@ -7879,7 +7911,8 @@
       </c>
       <c r="G347" s="29"/>
     </row>
-    <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +7920,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -7895,7 +7928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>1</v>
       </c>
@@ -7903,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2</v>
       </c>
@@ -7911,7 +7944,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -7919,7 +7952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -7927,7 +7960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>19</v>
       </c>
@@ -7935,7 +7968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -7943,12 +7976,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>11</v>
       </c>
@@ -7985,7 +8018,7 @@
       <c r="R358" s="5"/>
       <c r="S358" s="5"/>
     </row>
-    <row r="359" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="28" t="str">
         <f>B349</f>
         <v>carbon dioxide, captured at cement production plant, using direct separation</v>
@@ -8007,7 +8040,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
         <v>248</v>
       </c>
@@ -8054,7 +8087,9 @@
       </c>
       <c r="N361" s="32"/>
     </row>
-    <row r="364" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>0</v>
       </c>
@@ -8062,7 +8097,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -8070,7 +8105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>1</v>
       </c>
@@ -8078,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -8086,7 +8121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>3</v>
       </c>
@@ -8094,7 +8129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -8102,7 +8137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>19</v>
       </c>
@@ -8110,7 +8145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -8118,12 +8153,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
@@ -8160,7 +8195,7 @@
       <c r="R373" s="5"/>
       <c r="S373" s="5"/>
     </row>
-    <row r="374" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="28" t="str">
         <f>B364</f>
         <v>carbon dioxide, captured at cement production plant, using oxyfuel</v>
@@ -8182,7 +8217,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
         <v>248</v>
       </c>
@@ -8204,7 +8239,7 @@
       </c>
       <c r="H375" s="28"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>263</v>
       </c>
@@ -8329,7 +8364,14 @@
       <c r="N380" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T361" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T380" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market group for electricity, low voltage"/>
+        <filter val="market group for electricity, medium voltage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63415C3E-A3E4-3949-93D8-B41F32435F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E52CA1-7281-5E45-B851-9BE691379FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,13 +838,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -964,13 +964,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,27 +980,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,11 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J361" sqref="J361"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1347,10 +1346,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1414,12 +1413,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>172</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1770,8 +1769,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1803,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1811,7 +1809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1835,12 +1833,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -2028,7 +2026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2214,8 +2212,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2255,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2279,12 +2276,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -2376,7 +2373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -2399,7 +2396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2445,7 +2442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2583,7 +2580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2606,7 +2603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -2631,7 +2628,7 @@
       <c r="Q71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2656,7 +2653,7 @@
       <c r="Q72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -2681,7 +2678,7 @@
       <c r="Q73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -2706,7 +2703,7 @@
       <c r="Q74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -2729,7 +2726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -2750,7 +2747,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -2771,7 +2768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>217</v>
       </c>
@@ -2792,11 +2789,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2820,7 +2817,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2828,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2852,7 +2849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2860,12 +2857,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -2911,7 +2908,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -2934,7 +2931,7 @@
       <c r="Q91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -2957,7 +2954,7 @@
       <c r="Q92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -2980,7 +2977,7 @@
       <c r="Q93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -3002,7 +2999,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3023,7 +3020,7 @@
       </c>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -3044,7 +3041,7 @@
       </c>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -3086,8 +3083,7 @@
       </c>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -3111,7 +3107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3127,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3135,7 +3131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3151,12 +3147,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3193,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -3217,7 +3213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -3252,7 +3248,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3291,7 +3287,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -3403,7 +3399,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -3423,8 +3419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3432,7 +3427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -3448,7 +3443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3456,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +3475,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -3488,12 +3483,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -3534,7 +3529,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>169</v>
       </c>
@@ -3554,7 +3549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>82</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -3628,7 +3623,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3705,7 +3700,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -3740,7 +3735,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>100</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3778,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -3800,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -3808,7 +3802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3824,7 +3818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3832,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3848,12 +3842,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -3899,7 +3893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>203</v>
       </c>
@@ -3922,7 +3916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>106</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -3968,7 +3962,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -3991,7 +3985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>43</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -4037,7 +4031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>44</v>
       </c>
@@ -4083,7 +4077,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -4106,7 +4100,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>120</v>
       </c>
@@ -4129,7 +4123,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4175,7 +4169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4221,7 +4215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -4244,7 +4238,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>125</v>
       </c>
@@ -4267,7 +4261,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -4290,7 +4284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4313,7 +4307,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>44</v>
       </c>
@@ -4336,7 +4330,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -4380,7 +4374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -4401,7 +4395,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -4422,10 +4416,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4441,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -4449,7 +4443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -4465,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -4481,7 +4475,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -4489,12 +4483,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -4520,7 +4514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -4540,7 +4534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>66</v>
       </c>
@@ -4562,7 +4556,7 @@
       <c r="Q183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>67</v>
       </c>
@@ -4584,7 +4578,7 @@
       <c r="Q184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>68</v>
       </c>
@@ -4606,7 +4600,7 @@
       <c r="Q185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>73</v>
       </c>
@@ -4626,7 +4620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -4646,7 +4640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>113</v>
       </c>
@@ -4666,7 +4660,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>134</v>
       </c>
@@ -4686,10 +4680,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -4705,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -4713,7 +4707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4721,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4729,7 +4723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4745,7 +4739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -4753,12 +4747,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -4784,7 +4778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>82</v>
       </c>
@@ -4804,7 +4798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -4827,7 +4821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>227</v>
       </c>
@@ -4850,7 +4844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -4873,11 +4867,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
@@ -4885,7 +4879,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -4893,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +4895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -4909,7 +4903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4925,7 +4919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -4933,7 +4927,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -4941,12 +4935,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +4981,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f>B206</f>
         <v>polyethyleneimine (PEI) production, for sorbent-based direct air capture system</v>
@@ -5009,7 +5003,7 @@
         <v>polyethyleneimine</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>93</v>
       </c>
@@ -5043,7 +5037,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>85</v>
       </c>
@@ -5077,7 +5071,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>94</v>
       </c>
@@ -5111,7 +5105,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>95</v>
       </c>
@@ -5145,7 +5139,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>94</v>
       </c>
@@ -5179,7 +5173,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>96</v>
       </c>
@@ -5218,7 +5212,7 @@
         <v>0.20300000000000015</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>97</v>
       </c>
@@ -5257,7 +5251,7 @@
         <v>2.4240000000000022</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>87</v>
       </c>
@@ -5325,7 +5319,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>86</v>
       </c>
@@ -5359,7 +5353,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>74</v>
       </c>
@@ -5396,11 +5390,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>0</v>
       </c>
@@ -5408,7 +5402,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -5416,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -5424,7 +5418,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -5432,7 +5426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -5440,7 +5434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -5456,7 +5450,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -5464,12 +5458,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>11</v>
       </c>
@@ -5507,7 +5501,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>B229</f>
         <v>silica gel production, for sorbent-based direct air capture system</v>
@@ -5529,7 +5523,7 @@
         <v>silica gel</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>84</v>
       </c>
@@ -5551,7 +5545,7 @@
       <c r="Q240" s="4"/>
       <c r="S240" s="4"/>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>85</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>86</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>87</v>
       </c>
@@ -5624,7 +5618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>204</v>
       </c>
@@ -5646,7 +5640,7 @@
       </c>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>152</v>
       </c>
@@ -5663,11 +5657,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -5675,7 +5669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -5683,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -5691,7 +5685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -5699,7 +5693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5707,7 +5701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5715,7 +5709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -5723,7 +5717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -5731,12 +5725,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -5762,7 +5756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>203</v>
       </c>
@@ -5805,7 +5799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>156</v>
       </c>
@@ -5828,7 +5822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>43</v>
       </c>
@@ -5851,7 +5845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>103</v>
       </c>
@@ -5874,7 +5868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>150</v>
       </c>
@@ -5920,7 +5914,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>105</v>
       </c>
@@ -5944,7 +5938,7 @@
       </c>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>106</v>
       </c>
@@ -5967,7 +5961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>107</v>
       </c>
@@ -5990,7 +5984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>108</v>
       </c>
@@ -6013,7 +6007,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>103</v>
       </c>
@@ -6036,7 +6030,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>150</v>
       </c>
@@ -6059,7 +6053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -6082,7 +6076,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>109</v>
       </c>
@@ -6105,7 +6099,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>105</v>
       </c>
@@ -6128,7 +6122,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>60</v>
       </c>
@@ -6151,7 +6145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>43</v>
       </c>
@@ -6174,7 +6168,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>203</v>
       </c>
@@ -6197,7 +6191,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>156</v>
       </c>
@@ -6220,7 +6214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>36</v>
       </c>
@@ -6266,7 +6260,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>66</v>
       </c>
@@ -6289,7 +6283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>67</v>
       </c>
@@ -6313,7 +6307,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>113</v>
       </c>
@@ -6336,7 +6330,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>114</v>
       </c>
@@ -6359,7 +6353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>115</v>
       </c>
@@ -6382,8 +6376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
         <v>0</v>
       </c>
@@ -6397,7 +6390,7 @@
       <c r="O285" s="16"/>
       <c r="P285" s="16"/>
     </row>
-    <row r="286" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
         <v>7</v>
       </c>
@@ -6411,7 +6404,7 @@
       <c r="O286" s="16"/>
       <c r="P286" s="16"/>
     </row>
-    <row r="287" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
         <v>1</v>
       </c>
@@ -6425,7 +6418,7 @@
       <c r="O287" s="16"/>
       <c r="P287" s="16"/>
     </row>
-    <row r="288" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
         <v>2</v>
       </c>
@@ -6439,7 +6432,7 @@
       <c r="O288" s="16"/>
       <c r="P288" s="16"/>
     </row>
-    <row r="289" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
         <v>3</v>
       </c>
@@ -6453,7 +6446,7 @@
       <c r="O289" s="16"/>
       <c r="P289" s="16"/>
     </row>
-    <row r="290" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
         <v>5</v>
       </c>
@@ -6467,7 +6460,7 @@
       <c r="O290" s="16"/>
       <c r="P290" s="16"/>
     </row>
-    <row r="291" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
         <v>9</v>
       </c>
@@ -6481,7 +6474,7 @@
       <c r="O291" s="16"/>
       <c r="P291" s="16"/>
     </row>
-    <row r="292" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
         <v>179</v>
       </c>
@@ -6495,7 +6488,7 @@
       <c r="O292" s="16"/>
       <c r="P292" s="16"/>
     </row>
-    <row r="293" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
         <v>10</v>
       </c>
@@ -6506,7 +6499,7 @@
       <c r="O293" s="16"/>
       <c r="P293" s="16"/>
     </row>
-    <row r="294" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="14" t="s">
         <v>11</v>
       </c>
@@ -6566,7 +6559,7 @@
       </c>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>177</v>
       </c>
@@ -6596,7 +6589,7 @@
       <c r="P295" s="16"/>
       <c r="T295"/>
     </row>
-    <row r="296" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>192</v>
       </c>
@@ -6646,7 +6639,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
         <v>39</v>
       </c>
@@ -6696,7 +6689,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
         <v>194</v>
       </c>
@@ -6743,7 +6736,7 @@
         <v>0.26139455023340635</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
         <v>32</v>
       </c>
@@ -6843,7 +6836,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
         <v>195</v>
       </c>
@@ -6897,7 +6890,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
         <v>93</v>
       </c>
@@ -6947,7 +6940,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="303" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
         <v>94</v>
       </c>
@@ -6997,7 +6990,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
         <v>197</v>
       </c>
@@ -7047,7 +7040,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="305" spans="1:19" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
       <c r="M305" s="16"/>
@@ -7055,7 +7048,7 @@
       <c r="O305" s="16"/>
       <c r="P305" s="16"/>
     </row>
-    <row r="306" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>0</v>
       </c>
@@ -7063,7 +7056,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -7071,7 +7064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>1</v>
       </c>
@@ -7079,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -7087,7 +7080,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -7103,7 +7096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -7111,7 +7104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -7119,7 +7112,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>179</v>
       </c>
@@ -7127,7 +7120,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>201</v>
       </c>
@@ -7135,12 +7128,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
@@ -7199,7 +7192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>199</v>
       </c>
@@ -7219,7 +7212,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>192</v>
       </c>
@@ -7270,7 +7263,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>39</v>
       </c>
@@ -7321,7 +7314,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -7421,7 +7414,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>195</v>
       </c>
@@ -7472,7 +7465,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="21" t="s">
         <v>93</v>
       </c>
@@ -7522,8 +7515,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -7531,7 +7523,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -7539,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -7547,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2</v>
       </c>
@@ -7555,7 +7547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -7563,7 +7555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -7571,7 +7563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -7579,7 +7571,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -7587,12 +7579,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>11</v>
       </c>
@@ -7629,7 +7621,7 @@
       <c r="R335" s="5"/>
       <c r="S335" s="5"/>
     </row>
-    <row r="336" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="28" t="str">
         <f>B326</f>
         <v>carbon dioxide, captured at cement production plant, using monoethanolamine</v>
@@ -7651,7 +7643,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="337" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
         <v>248</v>
       </c>
@@ -7671,7 +7663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="338" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="28" t="s">
         <v>93</v>
       </c>
@@ -7696,7 +7688,7 @@
       </c>
       <c r="N338" s="29"/>
     </row>
-    <row r="339" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="28" t="s">
         <v>94</v>
       </c>
@@ -7722,7 +7714,7 @@
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
-    <row r="340" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
         <v>81</v>
       </c>
@@ -7823,7 +7815,7 @@
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
     </row>
-    <row r="344" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="28" t="s">
         <v>241</v>
       </c>
@@ -7847,7 +7839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="345" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="28" t="s">
         <v>74</v>
       </c>
@@ -7871,7 +7863,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="28" t="s">
         <v>244</v>
       </c>
@@ -7892,7 +7884,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="347" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="28" t="s">
         <v>246</v>
       </c>
@@ -7911,8 +7903,7 @@
       </c>
       <c r="G347" s="29"/>
     </row>
-    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="349" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>0</v>
       </c>
@@ -7920,7 +7911,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -7928,7 +7919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>1</v>
       </c>
@@ -7936,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2</v>
       </c>
@@ -7944,7 +7935,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -7952,7 +7943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -7960,7 +7951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>19</v>
       </c>
@@ -7968,7 +7959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -7976,12 +7967,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>11</v>
       </c>
@@ -8018,7 +8009,7 @@
       <c r="R358" s="5"/>
       <c r="S358" s="5"/>
     </row>
-    <row r="359" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="28" t="str">
         <f>B349</f>
         <v>carbon dioxide, captured at cement production plant, using direct separation</v>
@@ -8040,7 +8031,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
         <v>248</v>
       </c>
@@ -8087,9 +8078,7 @@
       </c>
       <c r="N361" s="32"/>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="364" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>0</v>
       </c>
@@ -8097,7 +8086,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -8105,7 +8094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>1</v>
       </c>
@@ -8113,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -8121,7 +8110,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>3</v>
       </c>
@@ -8129,7 +8118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -8137,7 +8126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>19</v>
       </c>
@@ -8145,7 +8134,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -8153,12 +8142,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
@@ -8195,7 +8184,7 @@
       <c r="R373" s="5"/>
       <c r="S373" s="5"/>
     </row>
-    <row r="374" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="28" t="str">
         <f>B364</f>
         <v>carbon dioxide, captured at cement production plant, using oxyfuel</v>
@@ -8217,7 +8206,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
         <v>248</v>
       </c>
@@ -8239,7 +8228,7 @@
       </c>
       <c r="H375" s="28"/>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>263</v>
       </c>
@@ -8364,14 +8353,7 @@
       <c r="N380" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T380" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="market group for electricity, low voltage"/>
-        <filter val="market group for electricity, medium voltage"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T380" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E52CA1-7281-5E45-B851-9BE691379FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FDB82-6FC0-C74C-92E2-F50D2142BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="-660" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$380</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -838,13 +838,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -964,13 +964,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,27 +980,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2731,8 +2731,8 @@
         <v>210</v>
       </c>
       <c r="B76">
-        <f>78380/1000000000/20</f>
-        <v>3.9190000000000001E-6</v>
+        <f>78380*20</f>
+        <v>1567600</v>
       </c>
       <c r="D76" t="s">
         <v>211</v>
@@ -2752,8 +2752,8 @@
         <v>213</v>
       </c>
       <c r="B77">
-        <f>78380/1000000000</f>
-        <v>7.8380000000000005E-5</v>
+        <f>78380</f>
+        <v>78380</v>
       </c>
       <c r="D77" t="s">
         <v>214</v>
@@ -2773,8 +2773,8 @@
         <v>217</v>
       </c>
       <c r="B78">
-        <f>78380/1000000000</f>
-        <v>7.8380000000000005E-5</v>
+        <f>78380</f>
+        <v>78380</v>
       </c>
       <c r="D78" t="s">
         <v>214</v>
@@ -4358,8 +4358,8 @@
         <v>210</v>
       </c>
       <c r="B168">
-        <f>7838/100000000/20</f>
-        <v>3.9190000000000001E-6</v>
+        <f>7838*20</f>
+        <v>156760</v>
       </c>
       <c r="D168" t="s">
         <v>211</v>
@@ -4379,8 +4379,8 @@
         <v>213</v>
       </c>
       <c r="B169">
-        <f>7838/100000000</f>
-        <v>7.8380000000000005E-5</v>
+        <f>7838</f>
+        <v>7838</v>
       </c>
       <c r="D169" t="s">
         <v>214</v>
@@ -4400,8 +4400,8 @@
         <v>217</v>
       </c>
       <c r="B170">
-        <f>7838/100000000</f>
-        <v>7.8380000000000005E-5</v>
+        <f>7838</f>
+        <v>7838</v>
       </c>
       <c r="D170" t="s">
         <v>214</v>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FDB82-6FC0-C74C-92E2-F50D2142BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BEE56E-CCD2-8749-9DE9-C7C6BDC8F1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37680" yWindow="-660" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BEE56E-CCD2-8749-9DE9-C7C6BDC8F1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FDB82-6FC0-C74C-92E2-F50D2142BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37680" yWindow="-660" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3430827-BDA9-094D-8B46-28DE37AC6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87BD7CE-C6F1-674C-866F-5E3871B0F3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$581</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$V$619</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="317">
   <si>
     <t>Activity</t>
   </si>
@@ -876,6 +876,120 @@
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere and stored, with a sorbent-based direct air capture system, 100ktCO2, with heat pump heat, and grid electricity</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored by land-use change</t>
+  </si>
+  <si>
+    <t>Reflects the capture and storage of 1 kg of carbon dioxide as soil organic carbon. No process is modelled currently.</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, to soil or biomass stock</t>
+  </si>
+  <si>
+    <t>soil::agricultural</t>
+  </si>
+  <si>
+    <t>Life cycle assessment of carbon capture and storage in power generation and industry in Europe, Volkart et al., 2013, International Journal of Greenhouse Gas Control</t>
+  </si>
+  <si>
+    <t>Moser et al. (2010)</t>
+  </si>
+  <si>
+    <t>Water, cooling, unspecified natural origin</t>
+  </si>
+  <si>
+    <t>natural resource::in water</t>
+  </si>
+  <si>
+    <t>RECCS 2007</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>We assume 600 gallons of water consumed per ton CO2 captured, the rest is evaporated. Very uncertain. Based on https://netl.doe.gov/sites/default/files/event-proceedings/2014/carbon_storage/10--Christopher-Harto.pdf</t>
+  </si>
+  <si>
+    <t>CCS Europe 2025::Wood::Geological storage::Combustion</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage at wood burning power plant 20 MW post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>Materials/fuels</t>
+  </si>
+  <si>
+    <t>electricity production, at wood burning power plant, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>E_capture = E_el*(1-(eff_CCS/eff_no CCS))</t>
+  </si>
+  <si>
+    <t>n_HX = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
+  </si>
+  <si>
+    <t>market for absorption chiller, 100kW</t>
+  </si>
+  <si>
+    <t>n_absorption chiller = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
+  </si>
+  <si>
+    <t>absorption chiller, 100kW</t>
+  </si>
+  <si>
+    <t>market for charcoal</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>market for gas turbine, 10MW electrical</t>
+  </si>
+  <si>
+    <t>n_GT = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
+  </si>
+  <si>
+    <t>gas turbine, 10MW electrical</t>
+  </si>
+  <si>
+    <t>market for liquid storage tank, chemicals, organics</t>
+  </si>
+  <si>
+    <t>n_tank = V_total*lifetime_ratio/(V_ref*lifetime plant*annual m_flow)</t>
+  </si>
+  <si>
+    <t>liquid storage tank, chemicals, organics</t>
+  </si>
+  <si>
+    <t>market for pump, 40W</t>
+  </si>
+  <si>
+    <t>n_pump = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
+  </si>
+  <si>
+    <t>pump, 40W</t>
+  </si>
+  <si>
+    <t>Waste to treatment</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored, at wood burning power plant, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>Cut-off from the power plant system and emissions. From Life cycle assessment of carbon capture and storage in power generation and industry in Europe, Volkart et al., 2013, International Journal of Greenhouse Gas Control. Includes a negative CO2 flow.</t>
+  </si>
+  <si>
+    <t>Cut-off from the biomass input to the power plant.</t>
+  </si>
+  <si>
+    <t>heat pump production, heat and power co-generation unit, 160kW electrical</t>
+  </si>
+  <si>
+    <t>heat pump, heat and power co-generation unit, 160kW electrical</t>
   </si>
 </sst>
 </file>
@@ -883,13 +997,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1009,13 +1123,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1025,29 +1139,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1363,10 +1486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T581"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E624" sqref="E624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1374,6 +1498,7 @@
     <col min="1" max="1" width="47.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -1392,10 +1517,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1459,12 +1584,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1630,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1525,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1689,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1606,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1754,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -1652,7 +1777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>172</v>
       </c>
@@ -1675,7 +1800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1699,7 +1824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1723,7 +1848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1759,7 +1884,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1815,7 +1940,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1949,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1839,7 +1965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1879,12 +2005,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +2051,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -1945,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1984,7 +2110,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2049,7 +2175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -2072,7 +2198,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -2095,7 +2221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2119,7 +2245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2143,7 +2269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2179,7 +2305,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2215,7 +2341,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2258,7 +2384,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2393,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2274,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2282,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2290,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2314,7 +2441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2322,12 +2449,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2495,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>269</v>
       </c>
@@ -2388,7 +2515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2427,7 +2554,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2469,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -2492,7 +2619,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -2515,7 +2642,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>172</v>
       </c>
@@ -2538,7 +2665,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -2562,7 +2689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -2586,7 +2713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -2622,7 +2749,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -2678,7 +2805,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2814,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2710,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +2846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2734,7 +2862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2742,12 +2870,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>11</v>
       </c>
@@ -2788,7 +2916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -2808,7 +2936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>63</v>
       </c>
@@ -2847,7 +2975,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -2889,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -2912,7 +3040,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -2935,7 +3063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>172</v>
       </c>
@@ -2958,7 +3086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -2982,7 +3110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -3006,7 +3134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -3042,7 +3170,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>195</v>
       </c>
@@ -3078,7 +3206,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -3121,7 +3249,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3258,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3137,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3145,7 +3274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3153,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3177,7 +3306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -3185,12 +3314,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>11</v>
       </c>
@@ -3231,7 +3360,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -3251,7 +3380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -3290,7 +3419,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -3332,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +3484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -3378,7 +3507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>172</v>
       </c>
@@ -3401,7 +3530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>74</v>
       </c>
@@ -3425,7 +3554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>75</v>
       </c>
@@ -3449,7 +3578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -3485,7 +3614,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -3544,7 +3673,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3682,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -3560,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -3568,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3576,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3584,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3592,7 +3722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -3608,12 +3738,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3784,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>273</v>
       </c>
@@ -3674,7 +3804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -3713,7 +3843,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -3755,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -3778,7 +3908,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>170</v>
       </c>
@@ -3801,7 +3931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>172</v>
       </c>
@@ -3824,7 +3954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>74</v>
       </c>
@@ -3848,7 +3978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>75</v>
       </c>
@@ -3872,7 +4002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -3908,7 +4038,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -3947,7 +4077,7 @@
         <v>0.80172413793103448</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -3990,7 +4120,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:12" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +4129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -4006,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -4014,7 +4145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4038,7 +4169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -4046,7 +4177,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -4054,12 +4185,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -4085,7 +4216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>63</v>
       </c>
@@ -4105,7 +4236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>203</v>
       </c>
@@ -4128,7 +4259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>43</v>
       </c>
@@ -4151,7 +4282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>44</v>
       </c>
@@ -4174,7 +4305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -4197,7 +4328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -4220,7 +4351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -4243,7 +4374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>48</v>
       </c>
@@ -4266,7 +4397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -4289,7 +4420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>44</v>
       </c>
@@ -4312,7 +4443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -4335,7 +4466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -4358,7 +4489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -4381,7 +4512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>203</v>
       </c>
@@ -4406,7 +4537,7 @@
       <c r="Q161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4431,7 +4562,7 @@
       <c r="Q162" s="4"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -4456,7 +4587,7 @@
       <c r="Q163" s="3"/>
       <c r="S163" s="3"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -4481,7 +4612,7 @@
       <c r="Q164" s="3"/>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -4504,7 +4635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>210</v>
       </c>
@@ -4525,7 +4656,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>213</v>
       </c>
@@ -4546,7 +4677,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>217</v>
       </c>
@@ -4567,11 +4698,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -4579,7 +4710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -4587,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -4595,7 +4726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4611,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -4619,7 +4750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -4627,7 +4758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -4635,12 +4766,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>65</v>
       </c>
@@ -4686,7 +4817,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>66</v>
       </c>
@@ -4709,7 +4840,7 @@
       <c r="Q181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>67</v>
       </c>
@@ -4732,7 +4863,7 @@
       <c r="Q182" s="3"/>
       <c r="S182" s="3"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>68</v>
       </c>
@@ -4755,7 +4886,7 @@
       <c r="Q183" s="3"/>
       <c r="S183" s="3"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>69</v>
       </c>
@@ -4777,7 +4908,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="13"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>70</v>
       </c>
@@ -4798,7 +4929,7 @@
       </c>
       <c r="H185" s="12"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>71</v>
       </c>
@@ -4819,7 +4950,7 @@
       </c>
       <c r="H186" s="12"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -4840,7 +4971,7 @@
       </c>
       <c r="H187" s="12"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>73</v>
       </c>
@@ -4861,7 +4992,8 @@
       </c>
       <c r="H188" s="12"/>
     </row>
-    <row r="190" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -4869,7 +5001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -4877,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -4885,7 +5017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -4901,7 +5033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4909,7 +5041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -4917,7 +5049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4925,12 +5057,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>11</v>
       </c>
@@ -4971,7 +5103,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>117</v>
       </c>
@@ -4991,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>82</v>
       </c>
@@ -5026,7 +5158,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>118</v>
       </c>
@@ -5065,7 +5197,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>133</v>
       </c>
@@ -5107,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>79</v>
       </c>
@@ -5142,7 +5274,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>81</v>
       </c>
@@ -5197,7 +5329,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>0</v>
       </c>
@@ -5205,7 +5338,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -5213,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -5221,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -5229,7 +5362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +5370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -5245,7 +5378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -5253,7 +5386,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -5261,12 +5394,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -5307,7 +5440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>169</v>
       </c>
@@ -5327,7 +5460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>82</v>
       </c>
@@ -5362,7 +5495,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>118</v>
       </c>
@@ -5401,7 +5534,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>133</v>
       </c>
@@ -5443,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -5478,7 +5611,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>81</v>
       </c>
@@ -5513,7 +5646,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>100</v>
       </c>
@@ -5556,7 +5689,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>0</v>
       </c>
@@ -5564,7 +5698,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -5572,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -5580,7 +5714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -5588,7 +5722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -5596,7 +5730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -5604,7 +5738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -5612,7 +5746,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -5620,12 +5754,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>11</v>
       </c>
@@ -5666,7 +5800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -5686,7 +5820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>82</v>
       </c>
@@ -5721,7 +5855,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>118</v>
       </c>
@@ -5760,7 +5894,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>133</v>
       </c>
@@ -5802,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>79</v>
       </c>
@@ -5837,7 +5971,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -5892,7 +6026,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>0</v>
       </c>
@@ -5900,7 +6035,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -5916,7 +6051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -5924,7 +6059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -5932,7 +6067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -5940,7 +6075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -5948,7 +6083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -5956,12 +6091,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6002,7 +6137,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>265</v>
       </c>
@@ -6022,7 +6157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>82</v>
       </c>
@@ -6057,7 +6192,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>118</v>
       </c>
@@ -6096,7 +6231,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>133</v>
       </c>
@@ -6138,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>79</v>
       </c>
@@ -6173,7 +6308,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -6208,7 +6343,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>100</v>
       </c>
@@ -6251,7 +6386,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="264" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
@@ -6259,7 +6395,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -6267,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -6275,7 +6411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -6283,7 +6419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -6291,7 +6427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -6299,7 +6435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -6307,7 +6443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -6315,12 +6451,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6497,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -6381,7 +6517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>82</v>
       </c>
@@ -6416,7 +6552,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>118</v>
       </c>
@@ -6455,7 +6591,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>133</v>
       </c>
@@ -6497,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>79</v>
       </c>
@@ -6532,7 +6668,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>195</v>
       </c>
@@ -6587,7 +6723,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="282" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>0</v>
       </c>
@@ -6595,7 +6732,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -6603,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -6611,7 +6748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -6619,7 +6756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -6627,7 +6764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -6643,7 +6780,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -6651,12 +6788,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -6697,7 +6834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>276</v>
       </c>
@@ -6717,7 +6854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>82</v>
       </c>
@@ -6752,7 +6889,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>118</v>
       </c>
@@ -6791,7 +6928,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>133</v>
       </c>
@@ -6833,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>79</v>
       </c>
@@ -6868,7 +7005,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -6903,7 +7040,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>100</v>
       </c>
@@ -6946,7 +7083,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="301" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>0</v>
       </c>
@@ -6954,7 +7092,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1</v>
       </c>
@@ -6962,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -6970,7 +7108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -6978,7 +7116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -6986,7 +7124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -6994,7 +7132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -7002,7 +7140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -7010,12 +7148,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>11</v>
       </c>
@@ -7056,7 +7194,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>277</v>
       </c>
@@ -7076,7 +7214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>82</v>
       </c>
@@ -7111,7 +7249,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>118</v>
       </c>
@@ -7150,7 +7288,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -7192,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>79</v>
       </c>
@@ -7227,7 +7365,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>79</v>
       </c>
@@ -7286,7 +7424,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +7433,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1</v>
       </c>
@@ -7302,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2</v>
       </c>
@@ -7310,7 +7449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>3</v>
       </c>
@@ -7318,7 +7457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -7326,7 +7465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -7334,7 +7473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -7342,7 +7481,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>19</v>
       </c>
@@ -7350,12 +7489,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -7396,7 +7535,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>278</v>
       </c>
@@ -7416,7 +7555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>82</v>
       </c>
@@ -7451,7 +7590,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>118</v>
       </c>
@@ -7490,7 +7629,7 @@
         <v>6.6666666666666664E-10</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>133</v>
       </c>
@@ -7532,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -7567,7 +7706,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>79</v>
       </c>
@@ -7606,7 +7745,7 @@
         <v>1.1398467432950192</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -7649,7 +7788,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>0</v>
       </c>
@@ -7657,7 +7797,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -7665,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>2</v>
       </c>
@@ -7673,7 +7813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>3</v>
       </c>
@@ -7681,7 +7821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -7689,7 +7829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -7697,7 +7837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -7705,7 +7845,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>19</v>
       </c>
@@ -7713,12 +7853,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -7744,7 +7884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>118</v>
       </c>
@@ -7764,7 +7904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>203</v>
       </c>
@@ -7787,7 +7927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>106</v>
       </c>
@@ -7810,7 +7950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>203</v>
       </c>
@@ -7833,7 +7973,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>106</v>
       </c>
@@ -7856,7 +7996,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>43</v>
       </c>
@@ -7879,7 +8019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>119</v>
       </c>
@@ -7902,7 +8042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>60</v>
       </c>
@@ -7925,7 +8065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>44</v>
       </c>
@@ -7948,7 +8088,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>119</v>
       </c>
@@ -7971,7 +8111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>120</v>
       </c>
@@ -7994,7 +8134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>156</v>
       </c>
@@ -8017,7 +8157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>59</v>
       </c>
@@ -8040,7 +8180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>121</v>
       </c>
@@ -8063,7 +8203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>44</v>
       </c>
@@ -8086,7 +8226,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -8109,7 +8249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>125</v>
       </c>
@@ -8132,7 +8272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>120</v>
       </c>
@@ -8155,7 +8295,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>156</v>
       </c>
@@ -8178,7 +8318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>44</v>
       </c>
@@ -8201,7 +8341,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -8224,7 +8364,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>210</v>
       </c>
@@ -8245,7 +8385,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>213</v>
       </c>
@@ -8266,7 +8406,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>217</v>
       </c>
@@ -8287,10 +8427,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="D372" s="10"/>
     </row>
-    <row r="373" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>0</v>
       </c>
@@ -8298,7 +8438,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1</v>
       </c>
@@ -8306,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>2</v>
       </c>
@@ -8314,7 +8454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>3</v>
       </c>
@@ -8322,7 +8462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -8330,7 +8470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -8338,7 +8478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -8346,7 +8486,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>19</v>
       </c>
@@ -8354,12 +8494,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -8385,7 +8525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>133</v>
       </c>
@@ -8405,7 +8545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>66</v>
       </c>
@@ -8427,7 +8567,7 @@
       <c r="Q384" s="4"/>
       <c r="S384" s="4"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>67</v>
       </c>
@@ -8449,7 +8589,7 @@
       <c r="Q385" s="3"/>
       <c r="S385" s="3"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>68</v>
       </c>
@@ -8471,7 +8611,7 @@
       <c r="Q386" s="3"/>
       <c r="S386" s="3"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>73</v>
       </c>
@@ -8491,7 +8631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>206</v>
       </c>
@@ -8511,7 +8651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>113</v>
       </c>
@@ -8531,7 +8671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>134</v>
       </c>
@@ -8551,10 +8691,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="G391" s="7"/>
     </row>
-    <row r="392" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -8570,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>2</v>
       </c>
@@ -8578,7 +8718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>3</v>
       </c>
@@ -8586,7 +8726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -8594,7 +8734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -8602,7 +8742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -8610,7 +8750,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>19</v>
       </c>
@@ -8618,12 +8758,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>11</v>
       </c>
@@ -8649,7 +8789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>82</v>
       </c>
@@ -8669,7 +8809,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>221</v>
       </c>
@@ -8692,7 +8832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>227</v>
       </c>
@@ -8715,7 +8855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>26</v>
       </c>
@@ -8738,11 +8878,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="J406" s="2"/>
     </row>
-    <row r="407" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8890,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1</v>
       </c>
@@ -8758,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>2</v>
       </c>
@@ -8766,7 +8906,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>3</v>
       </c>
@@ -8774,7 +8914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -8782,7 +8922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -8790,7 +8930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -8798,7 +8938,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>19</v>
       </c>
@@ -8806,12 +8946,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>11</v>
       </c>
@@ -8852,7 +8992,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="str">
         <f>B407</f>
         <v>polyethyleneimine (PEI) production, for sorbent-based direct air capture system</v>
@@ -8874,7 +9014,7 @@
         <v>polyethyleneimine</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>93</v>
       </c>
@@ -8908,7 +9048,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>85</v>
       </c>
@@ -8942,7 +9082,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>94</v>
       </c>
@@ -8976,7 +9116,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -9010,7 +9150,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>94</v>
       </c>
@@ -9044,7 +9184,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>96</v>
       </c>
@@ -9083,7 +9223,7 @@
         <v>0.20300000000000015</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>97</v>
       </c>
@@ -9122,7 +9262,7 @@
         <v>2.4240000000000022</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>87</v>
       </c>
@@ -9156,7 +9296,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>35</v>
       </c>
@@ -9190,7 +9330,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>86</v>
       </c>
@@ -9224,7 +9364,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>74</v>
       </c>
@@ -9261,11 +9401,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>0</v>
       </c>
@@ -9273,7 +9413,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1</v>
       </c>
@@ -9281,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>2</v>
       </c>
@@ -9289,7 +9429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>3</v>
       </c>
@@ -9297,7 +9437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -9305,7 +9445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -9313,7 +9453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -9321,7 +9461,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>19</v>
       </c>
@@ -9329,12 +9469,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>11</v>
       </c>
@@ -9372,7 +9512,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="str">
         <f>B430</f>
         <v>silica gel production, for sorbent-based direct air capture system</v>
@@ -9394,7 +9534,7 @@
         <v>silica gel</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>84</v>
       </c>
@@ -9416,7 +9556,7 @@
       <c r="Q441" s="4"/>
       <c r="S441" s="4"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>85</v>
       </c>
@@ -9436,7 +9576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>86</v>
       </c>
@@ -9469,7 +9609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>87</v>
       </c>
@@ -9489,7 +9629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>204</v>
       </c>
@@ -9511,7 +9651,7 @@
       </c>
       <c r="M445" s="2"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>152</v>
       </c>
@@ -9528,11 +9668,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="J447" s="2"/>
     </row>
-    <row r="448" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>0</v>
       </c>
@@ -9540,7 +9680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1</v>
       </c>
@@ -9548,7 +9688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2</v>
       </c>
@@ -9556,7 +9696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>3</v>
       </c>
@@ -9564,7 +9704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -9572,7 +9712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -9580,7 +9720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -9588,7 +9728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>19</v>
       </c>
@@ -9596,12 +9736,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>11</v>
       </c>
@@ -9627,7 +9767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>100</v>
       </c>
@@ -9647,7 +9787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>203</v>
       </c>
@@ -9670,7 +9810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>156</v>
       </c>
@@ -9693,7 +9833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>43</v>
       </c>
@@ -9716,7 +9856,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>103</v>
       </c>
@@ -9739,7 +9879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>150</v>
       </c>
@@ -9762,7 +9902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -9785,7 +9925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>105</v>
       </c>
@@ -9809,7 +9949,7 @@
       </c>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>106</v>
       </c>
@@ -9832,7 +9972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>107</v>
       </c>
@@ -9855,7 +9995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -9878,7 +10018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>103</v>
       </c>
@@ -9901,7 +10041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>150</v>
       </c>
@@ -9924,7 +10064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>36</v>
       </c>
@@ -9947,7 +10087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>109</v>
       </c>
@@ -9970,7 +10110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>105</v>
       </c>
@@ -9993,7 +10133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>60</v>
       </c>
@@ -10016,7 +10156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>43</v>
       </c>
@@ -10039,7 +10179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>203</v>
       </c>
@@ -10062,7 +10202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>156</v>
       </c>
@@ -10085,7 +10225,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>36</v>
       </c>
@@ -10108,7 +10248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>79</v>
       </c>
@@ -10131,7 +10271,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>66</v>
       </c>
@@ -10154,7 +10294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="481" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>67</v>
       </c>
@@ -10178,7 +10318,7 @@
       </c>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>113</v>
       </c>
@@ -10201,7 +10341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>114</v>
       </c>
@@ -10224,7 +10364,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>115</v>
       </c>
@@ -10247,7 +10387,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="486" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="14" t="s">
         <v>0</v>
       </c>
@@ -10261,7 +10402,7 @@
       <c r="O486" s="16"/>
       <c r="P486" s="16"/>
     </row>
-    <row r="487" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="15" t="s">
         <v>7</v>
       </c>
@@ -10275,7 +10416,7 @@
       <c r="O487" s="16"/>
       <c r="P487" s="16"/>
     </row>
-    <row r="488" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="15" t="s">
         <v>1</v>
       </c>
@@ -10289,7 +10430,7 @@
       <c r="O488" s="16"/>
       <c r="P488" s="16"/>
     </row>
-    <row r="489" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="15" t="s">
         <v>2</v>
       </c>
@@ -10303,7 +10444,7 @@
       <c r="O489" s="16"/>
       <c r="P489" s="16"/>
     </row>
-    <row r="490" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="15" t="s">
         <v>3</v>
       </c>
@@ -10317,7 +10458,7 @@
       <c r="O490" s="16"/>
       <c r="P490" s="16"/>
     </row>
-    <row r="491" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="15" t="s">
         <v>5</v>
       </c>
@@ -10331,7 +10472,7 @@
       <c r="O491" s="16"/>
       <c r="P491" s="16"/>
     </row>
-    <row r="492" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="15" t="s">
         <v>9</v>
       </c>
@@ -10345,7 +10486,7 @@
       <c r="O492" s="16"/>
       <c r="P492" s="16"/>
     </row>
-    <row r="493" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="15" t="s">
         <v>179</v>
       </c>
@@ -10359,7 +10500,7 @@
       <c r="O493" s="16"/>
       <c r="P493" s="16"/>
     </row>
-    <row r="494" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="14" t="s">
         <v>10</v>
       </c>
@@ -10370,7 +10511,7 @@
       <c r="O494" s="16"/>
       <c r="P494" s="16"/>
     </row>
-    <row r="495" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="14" t="s">
         <v>11</v>
       </c>
@@ -10430,7 +10571,7 @@
       </c>
       <c r="T495" s="1"/>
     </row>
-    <row r="496" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="15" t="s">
         <v>177</v>
       </c>
@@ -10460,7 +10601,7 @@
       <c r="P496" s="16"/>
       <c r="T496"/>
     </row>
-    <row r="497" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="15" t="s">
         <v>192</v>
       </c>
@@ -10510,7 +10651,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="15" t="s">
         <v>39</v>
       </c>
@@ -10560,7 +10701,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="15" t="s">
         <v>194</v>
       </c>
@@ -10607,7 +10748,7 @@
         <v>0.26139455023340635</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="15" t="s">
         <v>32</v>
       </c>
@@ -10657,7 +10798,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="15" t="s">
         <v>35</v>
       </c>
@@ -10707,7 +10848,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="15" t="s">
         <v>195</v>
       </c>
@@ -10761,7 +10902,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="15" t="s">
         <v>93</v>
       </c>
@@ -10811,7 +10952,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="15" t="s">
         <v>94</v>
       </c>
@@ -10861,7 +11002,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="505" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="15" t="s">
         <v>197</v>
       </c>
@@ -10911,7 +11052,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K506" s="16"/>
       <c r="L506" s="16"/>
       <c r="M506" s="16"/>
@@ -10919,7 +11060,7 @@
       <c r="O506" s="16"/>
       <c r="P506" s="16"/>
     </row>
-    <row r="507" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>0</v>
       </c>
@@ -10927,7 +11068,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -10935,7 +11076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>1</v>
       </c>
@@ -10943,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2</v>
       </c>
@@ -10951,7 +11092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>3</v>
       </c>
@@ -10959,7 +11100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>5</v>
       </c>
@@ -10967,7 +11108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>19</v>
       </c>
@@ -10975,7 +11116,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -10983,7 +11124,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>179</v>
       </c>
@@ -10991,7 +11132,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>201</v>
       </c>
@@ -10999,12 +11140,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>11</v>
       </c>
@@ -11063,7 +11204,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>199</v>
       </c>
@@ -11083,7 +11224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>192</v>
       </c>
@@ -11134,7 +11275,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>39</v>
       </c>
@@ -11185,7 +11326,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>32</v>
       </c>
@@ -11235,7 +11376,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>35</v>
       </c>
@@ -11285,7 +11426,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>195</v>
       </c>
@@ -11336,7 +11477,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="21" t="s">
         <v>93</v>
       </c>
@@ -11386,7 +11527,8 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="527" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>0</v>
       </c>
@@ -11394,7 +11536,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -11402,7 +11544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>1</v>
       </c>
@@ -11410,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2</v>
       </c>
@@ -11418,7 +11560,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>3</v>
       </c>
@@ -11426,7 +11568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>5</v>
       </c>
@@ -11434,7 +11576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>19</v>
       </c>
@@ -11442,7 +11584,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -11450,12 +11592,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>11</v>
       </c>
@@ -11492,7 +11634,7 @@
       <c r="R536" s="5"/>
       <c r="S536" s="5"/>
     </row>
-    <row r="537" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="28" t="str">
         <f>B527</f>
         <v>carbon dioxide, captured at cement production plant, using monoethanolamine</v>
@@ -11514,7 +11656,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="538" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="28" t="s">
         <v>248</v>
       </c>
@@ -11534,7 +11676,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="539" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="28" t="s">
         <v>93</v>
       </c>
@@ -11559,7 +11701,7 @@
       </c>
       <c r="N539" s="29"/>
     </row>
-    <row r="540" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="28" t="s">
         <v>94</v>
       </c>
@@ -11585,7 +11727,7 @@
       <c r="N540" s="29"/>
       <c r="P540" s="29"/>
     </row>
-    <row r="541" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="28" t="s">
         <v>81</v>
       </c>
@@ -11610,7 +11752,7 @@
       </c>
       <c r="N541" s="29"/>
     </row>
-    <row r="542" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="28" t="s">
         <v>35</v>
       </c>
@@ -11635,7 +11777,7 @@
       </c>
       <c r="N542" s="29"/>
     </row>
-    <row r="543" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="28" t="s">
         <v>35</v>
       </c>
@@ -11660,7 +11802,7 @@
       </c>
       <c r="N543" s="29"/>
     </row>
-    <row r="544" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="28" t="s">
         <v>35</v>
       </c>
@@ -11686,7 +11828,7 @@
       <c r="N544" s="29"/>
       <c r="Q544" s="30"/>
     </row>
-    <row r="545" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="28" t="s">
         <v>241</v>
       </c>
@@ -11710,7 +11852,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="546" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="28" t="s">
         <v>74</v>
       </c>
@@ -11734,7 +11876,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="547" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="28" t="s">
         <v>244</v>
       </c>
@@ -11755,7 +11897,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="548" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="28" t="s">
         <v>246</v>
       </c>
@@ -11774,7 +11916,8 @@
       </c>
       <c r="G548" s="29"/>
     </row>
-    <row r="550" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="550" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>0</v>
       </c>
@@ -11782,7 +11925,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -11790,7 +11933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>1</v>
       </c>
@@ -11798,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2</v>
       </c>
@@ -11806,7 +11949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>3</v>
       </c>
@@ -11814,7 +11957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>5</v>
       </c>
@@ -11822,7 +11965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>19</v>
       </c>
@@ -11830,7 +11973,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -11838,12 +11981,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>11</v>
       </c>
@@ -11880,7 +12023,7 @@
       <c r="R559" s="5"/>
       <c r="S559" s="5"/>
     </row>
-    <row r="560" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="28" t="str">
         <f>B550</f>
         <v>carbon dioxide, captured at cement production plant, using direct separation</v>
@@ -11902,7 +12045,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="28" t="s">
         <v>248</v>
       </c>
@@ -11924,7 +12067,7 @@
       </c>
       <c r="H561" s="28"/>
     </row>
-    <row r="562" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:19" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="26" t="s">
         <v>35</v>
       </c>
@@ -11949,7 +12092,9 @@
       </c>
       <c r="N562" s="32"/>
     </row>
-    <row r="565" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="565" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>0</v>
       </c>
@@ -11957,7 +12102,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -11965,7 +12110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>1</v>
       </c>
@@ -11973,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2</v>
       </c>
@@ -11981,7 +12126,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>3</v>
       </c>
@@ -11989,7 +12134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>5</v>
       </c>
@@ -11997,7 +12142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>19</v>
       </c>
@@ -12005,7 +12150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -12013,12 +12158,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>11</v>
       </c>
@@ -12055,7 +12200,7 @@
       <c r="R574" s="5"/>
       <c r="S574" s="5"/>
     </row>
-    <row r="575" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="28" t="str">
         <f>B565</f>
         <v>carbon dioxide, captured at cement production plant, using oxyfuel</v>
@@ -12077,7 +12222,7 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="28" t="s">
         <v>248</v>
       </c>
@@ -12099,7 +12244,7 @@
       </c>
       <c r="H576" s="28"/>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>263</v>
       </c>
@@ -12123,7 +12268,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>35</v>
       </c>
@@ -12147,7 +12292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="579" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" ht="16.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>35</v>
       </c>
@@ -12171,7 +12316,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>35</v>
       </c>
@@ -12197,7 +12342,7 @@
       <c r="M580" s="27"/>
       <c r="N580" s="31"/>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>35</v>
       </c>
@@ -12223,8 +12368,735 @@
       <c r="M581" s="27"/>
       <c r="N581" s="31"/>
     </row>
+    <row r="582" spans="1:22" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="583" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B583" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="584" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>9</v>
+      </c>
+      <c r="B584" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="585" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>7</v>
+      </c>
+      <c r="B585" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>2</v>
+      </c>
+      <c r="B586" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>5</v>
+      </c>
+      <c r="B587" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B588" s="35"/>
+    </row>
+    <row r="589" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B589" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H589" s="1"/>
+      <c r="I589" s="1"/>
+      <c r="J589" s="1"/>
+      <c r="K589" s="1"/>
+      <c r="L589" s="1"/>
+      <c r="M589" s="1"/>
+      <c r="N589" s="1"/>
+      <c r="O589" s="1"/>
+      <c r="P589" s="1"/>
+      <c r="Q589" s="1"/>
+      <c r="R589" s="1"/>
+      <c r="S589" s="1"/>
+      <c r="T589" s="1"/>
+      <c r="U589" s="1"/>
+      <c r="V589" s="1"/>
+    </row>
+    <row r="590" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A590" t="str">
+        <f>B583</f>
+        <v>carbon dioxide, captured and stored by land-use change</v>
+      </c>
+      <c r="B590" s="35">
+        <v>1</v>
+      </c>
+      <c r="C590" t="str">
+        <f>B587</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E590" t="str">
+        <f>B585</f>
+        <v>RER</v>
+      </c>
+      <c r="F590" t="s">
+        <v>15</v>
+      </c>
+      <c r="G590" t="str">
+        <f>B586</f>
+        <v>carbon dioxide, captured and stored</v>
+      </c>
+    </row>
+    <row r="591" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>282</v>
+      </c>
+      <c r="B591" s="36">
+        <v>1</v>
+      </c>
+      <c r="C591" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" t="s">
+        <v>283</v>
+      </c>
+      <c r="F591" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="592" spans="1:22" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="593" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M593" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>7</v>
+      </c>
+      <c r="B594" t="s">
+        <v>8</v>
+      </c>
+      <c r="M594" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+      <c r="M595" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>2</v>
+      </c>
+      <c r="B596" t="s">
+        <v>281</v>
+      </c>
+      <c r="M596" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>3</v>
+      </c>
+      <c r="B597" t="s">
+        <v>4</v>
+      </c>
+      <c r="M597" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" t="s">
+        <v>6</v>
+      </c>
+      <c r="M598" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>9</v>
+      </c>
+      <c r="B599" t="s">
+        <v>313</v>
+      </c>
+      <c r="M599" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>19</v>
+      </c>
+      <c r="B600" t="s">
+        <v>284</v>
+      </c>
+      <c r="M600" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M601" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>11</v>
+      </c>
+      <c r="B602" t="s">
+        <v>12</v>
+      </c>
+      <c r="C602" t="s">
+        <v>7</v>
+      </c>
+      <c r="D602" t="s">
+        <v>5</v>
+      </c>
+      <c r="E602" t="s">
+        <v>13</v>
+      </c>
+      <c r="F602" t="s">
+        <v>3</v>
+      </c>
+      <c r="G602" t="s">
+        <v>180</v>
+      </c>
+      <c r="H602" t="s">
+        <v>9</v>
+      </c>
+      <c r="I602" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>194</v>
+      </c>
+      <c r="B603">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="D603" t="s">
+        <v>6</v>
+      </c>
+      <c r="E603" t="s">
+        <v>88</v>
+      </c>
+      <c r="F603" t="s">
+        <v>21</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603" t="s">
+        <v>285</v>
+      </c>
+      <c r="I603" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>244</v>
+      </c>
+      <c r="B604">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="D604" t="s">
+        <v>6</v>
+      </c>
+      <c r="E604" t="s">
+        <v>88</v>
+      </c>
+      <c r="F604" t="s">
+        <v>21</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604" t="s">
+        <v>285</v>
+      </c>
+      <c r="I604" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>286</v>
+      </c>
+      <c r="B605">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="D605" t="s">
+        <v>50</v>
+      </c>
+      <c r="E605" t="s">
+        <v>287</v>
+      </c>
+      <c r="F605" t="s">
+        <v>21</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605" t="s">
+        <v>288</v>
+      </c>
+      <c r="I605" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>246</v>
+      </c>
+      <c r="B606" s="33">
+        <f>((B605*1000)-(600*3.78541/1000))/1000</f>
+        <v>8.0928753999999992E-2</v>
+      </c>
+      <c r="D606" t="s">
+        <v>50</v>
+      </c>
+      <c r="E606" t="s">
+        <v>289</v>
+      </c>
+      <c r="F606" t="s">
+        <v>21</v>
+      </c>
+      <c r="H606" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A607" t="str">
+        <f>B593</f>
+        <v>carbon dioxide, captured and stored, at wood burning power plant, pipeline 200km, storage 1000m</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+      <c r="C607" t="s">
+        <v>8</v>
+      </c>
+      <c r="D607" t="s">
+        <v>6</v>
+      </c>
+      <c r="E607" t="s">
+        <v>291</v>
+      </c>
+      <c r="F607" t="s">
+        <v>15</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607" t="s">
+        <v>191</v>
+      </c>
+      <c r="I607" t="str">
+        <f>B596</f>
+        <v>carbon dioxide, captured and stored</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>292</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608" t="s">
+        <v>8</v>
+      </c>
+      <c r="D608" t="s">
+        <v>6</v>
+      </c>
+      <c r="E608" t="s">
+        <v>293</v>
+      </c>
+      <c r="F608" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>294</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609" t="s">
+        <v>8</v>
+      </c>
+      <c r="D609" t="s">
+        <v>24</v>
+      </c>
+      <c r="E609" t="s">
+        <v>293</v>
+      </c>
+      <c r="F609" t="s">
+        <v>16</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>315</v>
+      </c>
+      <c r="B610">
+        <v>1.9099999999999998E-9</v>
+      </c>
+      <c r="C610" t="s">
+        <v>8</v>
+      </c>
+      <c r="D610" t="s">
+        <v>5</v>
+      </c>
+      <c r="E610" t="s">
+        <v>293</v>
+      </c>
+      <c r="F610" t="s">
+        <v>16</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610" t="s">
+        <v>296</v>
+      </c>
+      <c r="I610" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>297</v>
+      </c>
+      <c r="B611">
+        <v>1.15E-8</v>
+      </c>
+      <c r="C611" t="s">
+        <v>18</v>
+      </c>
+      <c r="D611" t="s">
+        <v>5</v>
+      </c>
+      <c r="E611" t="s">
+        <v>293</v>
+      </c>
+      <c r="F611" t="s">
+        <v>16</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611" t="s">
+        <v>298</v>
+      </c>
+      <c r="I611" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>300</v>
+      </c>
+      <c r="B612">
+        <v>8.2600000000000002E-5</v>
+      </c>
+      <c r="C612" t="s">
+        <v>18</v>
+      </c>
+      <c r="D612" t="s">
+        <v>6</v>
+      </c>
+      <c r="E612" t="s">
+        <v>293</v>
+      </c>
+      <c r="F612" t="s">
+        <v>16</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612" t="s">
+        <v>288</v>
+      </c>
+      <c r="I612" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>302</v>
+      </c>
+      <c r="B613">
+        <v>1.9099999999999998E-9</v>
+      </c>
+      <c r="C613" t="s">
+        <v>18</v>
+      </c>
+      <c r="D613" t="s">
+        <v>5</v>
+      </c>
+      <c r="E613" t="s">
+        <v>293</v>
+      </c>
+      <c r="F613" t="s">
+        <v>16</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613" t="s">
+        <v>303</v>
+      </c>
+      <c r="I613" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>305</v>
+      </c>
+      <c r="B614">
+        <v>6.4400000000000005E-10</v>
+      </c>
+      <c r="C614" t="s">
+        <v>18</v>
+      </c>
+      <c r="D614" t="s">
+        <v>5</v>
+      </c>
+      <c r="E614" t="s">
+        <v>293</v>
+      </c>
+      <c r="F614" t="s">
+        <v>16</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614" t="s">
+        <v>306</v>
+      </c>
+      <c r="I614" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>93</v>
+      </c>
+      <c r="B615">
+        <v>2.8400000000000002E-4</v>
+      </c>
+      <c r="C615" t="s">
+        <v>18</v>
+      </c>
+      <c r="D615" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615" t="s">
+        <v>293</v>
+      </c>
+      <c r="F615" t="s">
+        <v>16</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615" t="s">
+        <v>285</v>
+      </c>
+      <c r="I615" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>308</v>
+      </c>
+      <c r="B616">
+        <v>1.3399999999999999E-8</v>
+      </c>
+      <c r="C616" t="s">
+        <v>18</v>
+      </c>
+      <c r="D616" t="s">
+        <v>5</v>
+      </c>
+      <c r="E616" t="s">
+        <v>293</v>
+      </c>
+      <c r="F616" t="s">
+        <v>16</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616" t="s">
+        <v>309</v>
+      </c>
+      <c r="I616" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>94</v>
+      </c>
+      <c r="B617">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="C617" t="s">
+        <v>18</v>
+      </c>
+      <c r="D617" t="s">
+        <v>6</v>
+      </c>
+      <c r="E617" t="s">
+        <v>293</v>
+      </c>
+      <c r="F617" t="s">
+        <v>16</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617" t="s">
+        <v>288</v>
+      </c>
+      <c r="I617" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>74</v>
+      </c>
+      <c r="B618">
+        <v>-2.2699999999999999E-4</v>
+      </c>
+      <c r="C618" t="s">
+        <v>22</v>
+      </c>
+      <c r="D618" t="s">
+        <v>6</v>
+      </c>
+      <c r="E618" t="s">
+        <v>311</v>
+      </c>
+      <c r="F618" t="s">
+        <v>16</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618" t="s">
+        <v>285</v>
+      </c>
+      <c r="I618" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>40</v>
+      </c>
+      <c r="B619">
+        <v>1</v>
+      </c>
+      <c r="D619" t="s">
+        <v>6</v>
+      </c>
+      <c r="E619" t="s">
+        <v>38</v>
+      </c>
+      <c r="F619" t="s">
+        <v>21</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619" t="s">
+        <v>314</v>
+      </c>
+      <c r="M619" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T581" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V619" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Carbon dioxide, in air"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFAD961-D345-2045-BF60-6F35D841A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF5984-4AF7-0749-88AF-DF179BD6522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34820" yWindow="-300" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="319">
   <si>
     <t>Activity</t>
   </si>
@@ -966,6 +966,36 @@
   </si>
   <si>
     <t>carbon dioxide, captured and stored, by land-use change</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored, from a hydrogen production plant using steam methane reforming of biomethane</t>
+  </si>
+  <si>
+    <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
+  </si>
+  <si>
+    <t>This dataset models the pre-combustion capture and compression of carbon dioxide via aqueous methyl diethanolamine (MDEA) absorption in a steam methane reforming (SMR) plant using biomethane as feedstock. The functional unit is 1 kg of CO₂ captured and compressed to 110 bar, suitable for pipeline transport or geological storage. The dataset includes solvent circulation, regeneration via low-pressure steam, CO₂ dehydration and compression, electricity and cooling requirements, as well as infrastructure amortized over a 25-year plant lifetime with a hydrogen output of 75,000 tonnes per year. It excludes upstream hydrogen production, tail gas combustion, and biomethane generation. The system is modeled for European conditions using attributional life cycle assessment with the ecoinvent v3.5 database (cut-off system model), and simulation results derived from Aspen Plus v8.6. MDEA solvent losses are assumed at 5 g per kg of CO₂ captured, and electricity and steam requirements are based on optimized process performance with a CO₂ capture efficiency of 98%. The dataset supports prospective LCAs of low-carbon or net-negative hydrogen systems, and is consistent with data and assumptions reported in Antonini et al. (2020).</t>
+  </si>
+  <si>
+    <t>For auxiliaries, controls, minor pumping/compression</t>
+  </si>
+  <si>
+    <t>For condensing or cooling (varies by setup)</t>
+  </si>
+  <si>
+    <t>Final compression of captured CO₂ for storage/transport</t>
+  </si>
+  <si>
+    <t>MDEA losses from degradation or blowdown</t>
+  </si>
+  <si>
+    <t>Solvent circulation, flue gas fans, CO₂ dehydration</t>
+  </si>
+  <si>
+    <t>Allocation of capital goods per kg CO₂ (25-year life, 75 kt/y plant)</t>
+  </si>
+  <si>
+    <t>Heat recovery &amp; regeneration infrastructure</t>
   </si>
 </sst>
 </file>
@@ -973,13 +1003,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
@@ -1100,13 +1130,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1116,29 +1146,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1148,12 +1178,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1469,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V621"/>
+  <dimension ref="A1:V645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="B307" sqref="B307"/>
+    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
+      <selection activeCell="C642" sqref="C642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8986,7 +9014,7 @@
       <c r="A418" t="s">
         <v>91</v>
       </c>
-      <c r="B418" s="41">
+      <c r="B418" s="38">
         <f t="shared" ref="B418:B428" si="0">AVERAGE(K418:L418)</f>
         <v>1.9749999999999999</v>
       </c>
@@ -10874,7 +10902,7 @@
       <c r="A503" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B503" s="40">
+      <c r="B503" s="39">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C503" s="15" t="s">
@@ -11450,7 +11478,7 @@
       <c r="A525" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B525" s="39">
+      <c r="B525" s="38">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C525" t="s">
@@ -11607,7 +11635,7 @@
         <f>B527</f>
         <v>carbon dioxide, captured, at cement production plant, using monoethanolamine</v>
       </c>
-      <c r="B537" s="38">
+      <c r="B537" s="37">
         <v>1</v>
       </c>
       <c r="C537" s="28" t="s">
@@ -11640,7 +11668,7 @@
       <c r="F538" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G538" s="37" t="s">
+      <c r="G538" t="s">
         <v>99</v>
       </c>
     </row>
@@ -11648,7 +11676,7 @@
       <c r="A539" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B539" s="38">
+      <c r="B539" s="37">
         <f>1.4/1000</f>
         <v>1.4E-3</v>
       </c>
@@ -11848,7 +11876,7 @@
       <c r="A547" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B547" s="42">
+      <c r="B547" s="37">
         <f>1.4/1000*(0.006/0.227+0.006)</f>
         <v>4.5404405286343617E-5</v>
       </c>
@@ -12029,7 +12057,7 @@
       <c r="F561" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G561" s="37" t="s">
+      <c r="G561" t="s">
         <v>99</v>
       </c>
       <c r="H561" s="28"/>
@@ -12204,7 +12232,7 @@
       <c r="F576" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G576" s="37" t="s">
+      <c r="G576" t="s">
         <v>99</v>
       </c>
       <c r="H576" s="28"/>
@@ -12613,7 +12641,7 @@
       <c r="A604" t="s">
         <v>234</v>
       </c>
-      <c r="B604" s="41">
+      <c r="B604" s="38">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="D604" t="s">
@@ -12738,7 +12766,7 @@
       <c r="H608" t="s">
         <v>184</v>
       </c>
-      <c r="I608" s="37" t="s">
+      <c r="I608" t="s">
         <v>99</v>
       </c>
     </row>
@@ -12976,7 +13004,7 @@
       <c r="A617" t="s">
         <v>91</v>
       </c>
-      <c r="B617" s="41">
+      <c r="B617" s="38">
         <v>1.4E-3</v>
       </c>
       <c r="C617" t="s">
@@ -13114,6 +13142,414 @@
       <c r="M621" t="s">
         <v>184</v>
       </c>
+    </row>
+    <row r="623" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>2</v>
+      </c>
+      <c r="B625" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>3</v>
+      </c>
+      <c r="B626" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>5</v>
+      </c>
+      <c r="B627" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>7</v>
+      </c>
+      <c r="B628" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>18</v>
+      </c>
+      <c r="B629" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>9</v>
+      </c>
+      <c r="B630" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A632" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H632" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I632" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J632" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K632" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L632" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="M632" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A633" t="str">
+        <f>B623</f>
+        <v>carbon dioxide, captured and stored, from a hydrogen production plant using steam methane reforming of biomethane</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633" t="s">
+        <v>8</v>
+      </c>
+      <c r="D633" t="s">
+        <v>6</v>
+      </c>
+      <c r="F633" t="s">
+        <v>15</v>
+      </c>
+      <c r="G633" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>34</v>
+      </c>
+      <c r="B634" s="23">
+        <f>AVERAGE(0.15,0.25)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C634" t="s">
+        <v>8</v>
+      </c>
+      <c r="D634" t="s">
+        <v>23</v>
+      </c>
+      <c r="F634" t="s">
+        <v>16</v>
+      </c>
+      <c r="G634" t="s">
+        <v>24</v>
+      </c>
+      <c r="H634" t="s">
+        <v>312</v>
+      </c>
+      <c r="I634">
+        <v>5</v>
+      </c>
+      <c r="J634" s="23">
+        <f>B634</f>
+        <v>0.2</v>
+      </c>
+      <c r="K634">
+        <v>0.15</v>
+      </c>
+      <c r="L634">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>31</v>
+      </c>
+      <c r="B635">
+        <f>AVERAGE(1,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C635" t="s">
+        <v>132</v>
+      </c>
+      <c r="D635" t="s">
+        <v>6</v>
+      </c>
+      <c r="F635" t="s">
+        <v>16</v>
+      </c>
+      <c r="G635" t="s">
+        <v>32</v>
+      </c>
+      <c r="H635" t="s">
+        <v>313</v>
+      </c>
+      <c r="I635">
+        <v>5</v>
+      </c>
+      <c r="J635" s="23">
+        <f>B635</f>
+        <v>1.5</v>
+      </c>
+      <c r="K635">
+        <v>1</v>
+      </c>
+      <c r="L635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>34</v>
+      </c>
+      <c r="B636">
+        <f>AVERAGE(0.1,0.15)</f>
+        <v>0.125</v>
+      </c>
+      <c r="C636" t="s">
+        <v>8</v>
+      </c>
+      <c r="D636" t="s">
+        <v>23</v>
+      </c>
+      <c r="F636" t="s">
+        <v>16</v>
+      </c>
+      <c r="G636" t="s">
+        <v>24</v>
+      </c>
+      <c r="H636" t="s">
+        <v>314</v>
+      </c>
+      <c r="I636">
+        <v>5</v>
+      </c>
+      <c r="J636" s="23">
+        <f>B636</f>
+        <v>0.125</v>
+      </c>
+      <c r="K636">
+        <v>0.1</v>
+      </c>
+      <c r="L636">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A637" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B637">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C637" t="s">
+        <v>17</v>
+      </c>
+      <c r="D637" t="s">
+        <v>6</v>
+      </c>
+      <c r="F637" t="s">
+        <v>16</v>
+      </c>
+      <c r="G637" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H637" t="s">
+        <v>315</v>
+      </c>
+      <c r="I637">
+        <v>5</v>
+      </c>
+      <c r="J637" s="23">
+        <f>B637</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K637">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L637">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>34</v>
+      </c>
+      <c r="B638">
+        <f>AVERAGE(0.08,0.12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C638" t="s">
+        <v>8</v>
+      </c>
+      <c r="D638" t="s">
+        <v>23</v>
+      </c>
+      <c r="F638" t="s">
+        <v>16</v>
+      </c>
+      <c r="G638" t="s">
+        <v>24</v>
+      </c>
+      <c r="H638" t="s">
+        <v>316</v>
+      </c>
+      <c r="I638">
+        <v>5</v>
+      </c>
+      <c r="J638" s="23">
+        <f>B638</f>
+        <v>0.1</v>
+      </c>
+      <c r="K638">
+        <v>0.08</v>
+      </c>
+      <c r="L638">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>42</v>
+      </c>
+      <c r="B639" s="6">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C639" t="s">
+        <v>17</v>
+      </c>
+      <c r="D639" t="s">
+        <v>6</v>
+      </c>
+      <c r="F639" t="s">
+        <v>16</v>
+      </c>
+      <c r="G639" t="s">
+        <v>30</v>
+      </c>
+      <c r="H639" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>43</v>
+      </c>
+      <c r="B640" s="6">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C640" t="s">
+        <v>8</v>
+      </c>
+      <c r="D640" t="s">
+        <v>6</v>
+      </c>
+      <c r="F640" t="s">
+        <v>16</v>
+      </c>
+      <c r="G640" t="s">
+        <v>50</v>
+      </c>
+      <c r="H640" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>196</v>
+      </c>
+      <c r="B641" s="6">
+        <f>B635*-1/1000</f>
+        <v>-1.5E-3</v>
+      </c>
+      <c r="C641" t="s">
+        <v>132</v>
+      </c>
+      <c r="D641" t="s">
+        <v>49</v>
+      </c>
+      <c r="F641" t="s">
+        <v>16</v>
+      </c>
+      <c r="G641" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A642" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642" t="s">
+        <v>6</v>
+      </c>
+      <c r="F642" t="s">
+        <v>16</v>
+      </c>
+      <c r="G642" t="s">
+        <v>99</v>
+      </c>
+      <c r="H642" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="M645" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:V621" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF5984-4AF7-0749-88AF-DF179BD6522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32B30B-2A92-B645-B004-392F8BD1A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34300" yWindow="80" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>electricity, medium voltage</t>
   </si>
   <si>
-    <t>heat production, natural gas, at industrial furnace &gt;100kW</t>
-  </si>
-  <si>
     <t>amine-based silica production, for sorbent-based direct air capture system</t>
   </si>
   <si>
@@ -996,6 +993,9 @@
   </si>
   <si>
     <t>Heat recovery &amp; regeneration infrastructure</t>
+  </si>
+  <si>
+    <t>market for heat, district or industrial, natural gas</t>
   </si>
 </sst>
 </file>
@@ -1003,14 +1003,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1130,13 +1130,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1146,29 +1146,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1178,10 +1178,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1499,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="C642" sqref="C642"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G541" sqref="G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1551,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1625,19 +1624,19 @@
         <v>9</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1658,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1750,7 +1749,7 @@
         <v>3.4369999999999998</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1762,12 +1761,12 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17">
         <v>4.0000000000000001E-3</v>
@@ -1782,15 +1781,15 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18">
         <v>3.5000000000000001E-3</v>
@@ -1805,10 +1804,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1820,7 +1819,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1829,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>76</v>
@@ -1853,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>76</v>
@@ -1879,7 +1878,7 @@
         <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -1897,13 +1896,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="B22">
         <v>6.28</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1912,10 +1911,10 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -1948,7 +1947,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1956,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1972,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2046,24 +2045,24 @@
         <v>9</v>
       </c>
       <c r="I34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L34" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M34" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2078,7 +2077,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2170,7 +2169,7 @@
         <v>3.4369999999999998</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -2182,12 +2181,12 @@
         <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39">
         <v>4.0000000000000001E-3</v>
@@ -2202,15 +2201,15 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40">
         <v>3.5000000000000001E-3</v>
@@ -2225,10 +2224,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2240,7 +2239,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -2249,7 +2248,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>76</v>
@@ -2273,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>76</v>
@@ -2299,7 +2298,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2317,13 +2316,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="B44">
         <v>6.28</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -2332,10 +2331,10 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2353,25 +2352,25 @@
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2391,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2399,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2415,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2489,24 +2488,24 @@
         <v>9</v>
       </c>
       <c r="I57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K57" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L57" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M57" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2521,7 +2520,7 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2613,7 +2612,7 @@
         <v>3.4369999999999998</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -2625,12 +2624,12 @@
         <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B62">
         <v>4.0000000000000001E-3</v>
@@ -2645,15 +2644,15 @@
         <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63">
         <v>3.5000000000000001E-3</v>
@@ -2668,10 +2667,10 @@
         <v>16</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -2683,7 +2682,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -2692,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>76</v>
@@ -2716,7 +2715,7 @@
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>76</v>
@@ -2742,7 +2741,7 @@
         <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -2760,7 +2759,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B67">
         <v>6.28</v>
@@ -2775,10 +2774,10 @@
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I67">
         <v>5</v>
@@ -2811,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2819,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2835,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -2909,24 +2908,24 @@
         <v>9</v>
       </c>
       <c r="I79" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J79" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J79" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K79" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L79" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L79" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M79" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2941,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3033,7 +3032,7 @@
         <v>3.4369999999999998</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
@@ -3045,12 +3044,12 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84">
         <v>4.0000000000000001E-3</v>
@@ -3065,15 +3064,15 @@
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85">
         <v>3.5000000000000001E-3</v>
@@ -3088,10 +3087,10 @@
         <v>16</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -3103,7 +3102,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -3112,7 +3111,7 @@
         <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>76</v>
@@ -3136,7 +3135,7 @@
         <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>76</v>
@@ -3162,7 +3161,7 @@
         <v>78</v>
       </c>
       <c r="H88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I88">
         <v>5</v>
@@ -3180,7 +3179,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89">
         <v>6.28</v>
@@ -3195,10 +3194,10 @@
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I89">
         <v>5</v>
@@ -3216,25 +3215,25 @@
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3254,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3262,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3278,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3352,24 +3351,24 @@
         <v>9</v>
       </c>
       <c r="I102" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J102" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K102" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L102" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L102" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M102" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3384,7 +3383,7 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -3476,7 +3475,7 @@
         <v>3.4369999999999998</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
@@ -3488,12 +3487,12 @@
         <v>32</v>
       </c>
       <c r="H106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B107">
         <v>4.0000000000000001E-3</v>
@@ -3508,15 +3507,15 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B108">
         <v>3.5000000000000001E-3</v>
@@ -3531,10 +3530,10 @@
         <v>16</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -3546,7 +3545,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
@@ -3555,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>76</v>
@@ -3579,7 +3578,7 @@
         <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>76</v>
@@ -3605,7 +3604,7 @@
         <v>78</v>
       </c>
       <c r="H111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I111">
         <v>5</v>
@@ -3642,7 +3641,7 @@
         <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I112">
         <v>5</v>
@@ -3677,7 +3676,7 @@
         <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3685,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3701,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3775,24 +3774,24 @@
         <v>9</v>
       </c>
       <c r="I124" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J124" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J124" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K124" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L124" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L124" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M124" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3807,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -3899,7 +3898,7 @@
         <v>3.4369999999999998</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
@@ -3911,12 +3910,12 @@
         <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B129">
         <v>4.0000000000000001E-3</v>
@@ -3931,15 +3930,15 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B130">
         <v>3.5000000000000001E-3</v>
@@ -3954,10 +3953,10 @@
         <v>16</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -3969,7 +3968,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
@@ -3978,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>76</v>
@@ -4002,7 +4001,7 @@
         <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>76</v>
@@ -4028,7 +4027,7 @@
         <v>78</v>
       </c>
       <c r="H133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I133">
         <v>5</v>
@@ -4065,7 +4064,7 @@
         <v>78</v>
       </c>
       <c r="H134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I134">
         <v>5</v>
@@ -4085,25 +4084,25 @@
     </row>
     <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>97</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4123,7 +4122,7 @@
         <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4243,7 +4242,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B149">
         <v>134000</v>
@@ -4258,7 +4257,7 @@
         <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H149" t="s">
         <v>48</v>
@@ -4404,7 +4403,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B156">
         <v>66000</v>
@@ -4419,7 +4418,7 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H156" t="s">
         <v>54</v>
@@ -4450,7 +4449,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B158">
         <v>42000</v>
@@ -4465,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H158" t="s">
         <v>56</v>
@@ -4519,7 +4518,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B161">
         <v>74000</v>
@@ -4534,7 +4533,7 @@
         <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H161" t="s">
         <v>61</v>
@@ -4634,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H165" t="s">
         <v>61</v>
@@ -4642,65 +4641,65 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B166">
         <f>78380*20</f>
         <v>1567600</v>
       </c>
       <c r="D166" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E166" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167">
         <f>78380</f>
         <v>78380</v>
       </c>
       <c r="D167" t="s">
+        <v>205</v>
+      </c>
+      <c r="E167" t="s">
         <v>206</v>
-      </c>
-      <c r="E167" t="s">
-        <v>207</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B168">
         <f>78380</f>
         <v>78380</v>
       </c>
       <c r="D168" t="s">
+        <v>205</v>
+      </c>
+      <c r="E168" t="s">
         <v>206</v>
-      </c>
-      <c r="E168" t="s">
-        <v>207</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -4830,7 +4829,7 @@
         <v>-760000000</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D181" t="s">
         <v>6</v>
@@ -4839,7 +4838,7 @@
         <v>16</v>
       </c>
       <c r="G181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H181" s="12"/>
       <c r="Q181" s="4"/>
@@ -4862,7 +4861,7 @@
         <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H182" s="12"/>
       <c r="Q182" s="3"/>
@@ -4885,7 +4884,7 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H183" s="12"/>
       <c r="Q183" s="3"/>
@@ -4908,7 +4907,7 @@
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H184" s="12"/>
       <c r="I184" s="13"/>
@@ -4930,7 +4929,7 @@
         <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H185" s="12"/>
     </row>
@@ -4951,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H186" s="12"/>
     </row>
@@ -4972,7 +4971,7 @@
         <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H187" s="12"/>
     </row>
@@ -5002,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -5018,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -5050,7 +5049,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
@@ -5092,24 +5091,24 @@
         <v>9</v>
       </c>
       <c r="I199" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J199" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J199" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K199" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L199" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L199" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M199" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5124,12 +5123,12 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B201">
         <v>3.0000000000000001E-3</v>
@@ -5144,10 +5143,10 @@
         <v>16</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H201" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I201">
         <v>5</v>
@@ -5164,7 +5163,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B202">
         <f>1/(100000000*20)</f>
@@ -5203,7 +5202,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B203">
         <f>-1/(100000000*20)</f>
@@ -5263,7 +5262,7 @@
         <v>78</v>
       </c>
       <c r="H204" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I204">
         <v>5</v>
@@ -5280,13 +5279,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="B205">
         <v>5.4</v>
       </c>
       <c r="C205" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D205" t="s">
         <v>22</v>
@@ -5295,10 +5294,10 @@
         <v>16</v>
       </c>
       <c r="G205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H205" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I205">
         <v>5</v>
@@ -5330,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="H206" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5338,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5354,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -5386,7 +5385,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -5394,7 +5393,7 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5428,24 +5427,24 @@
         <v>9</v>
       </c>
       <c r="I217" t="s">
+        <v>172</v>
+      </c>
+      <c r="J217" t="s">
         <v>173</v>
       </c>
-      <c r="J217" t="s">
-        <v>174</v>
-      </c>
       <c r="K217" t="s">
+        <v>216</v>
+      </c>
+      <c r="L217" t="s">
         <v>217</v>
       </c>
-      <c r="L217" t="s">
-        <v>218</v>
-      </c>
       <c r="M217" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5460,12 +5459,12 @@
         <v>15</v>
       </c>
       <c r="G218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B219">
         <v>3.0000000000000001E-3</v>
@@ -5480,10 +5479,10 @@
         <v>16</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H219" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I219">
         <v>5</v>
@@ -5500,7 +5499,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B220">
         <f>1/(100000000*20)</f>
@@ -5539,7 +5538,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B221">
         <f>-1/(100000000*20)</f>
@@ -5599,7 +5598,7 @@
         <v>78</v>
       </c>
       <c r="H222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I222">
         <v>5</v>
@@ -5616,13 +5615,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="B223">
         <v>5.4</v>
       </c>
       <c r="C223" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D223" t="s">
         <v>22</v>
@@ -5631,10 +5630,10 @@
         <v>16</v>
       </c>
       <c r="G223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I223">
         <v>5</v>
@@ -5651,25 +5650,25 @@
     </row>
     <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>97</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" t="s">
-        <v>16</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H224" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -5689,7 +5688,7 @@
         <v>20</v>
       </c>
       <c r="H225" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5697,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -5713,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -5745,7 +5744,7 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -5787,24 +5786,24 @@
         <v>9</v>
       </c>
       <c r="I236" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J236" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J236" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K236" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L236" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L236" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M236" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5819,12 +5818,12 @@
         <v>15</v>
       </c>
       <c r="G237" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B238">
         <v>3.0000000000000001E-3</v>
@@ -5839,10 +5838,10 @@
         <v>16</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H238" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I238">
         <v>5</v>
@@ -5859,7 +5858,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B239">
         <f>1/(100000000*20)</f>
@@ -5898,7 +5897,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B240">
         <f>-1/(100000000*20)</f>
@@ -5958,7 +5957,7 @@
         <v>78</v>
       </c>
       <c r="H241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I241">
         <v>5</v>
@@ -5975,7 +5974,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B242">
         <v>5.4</v>
@@ -5990,10 +5989,10 @@
         <v>16</v>
       </c>
       <c r="G242" t="s">
+        <v>251</v>
+      </c>
+      <c r="H242" t="s">
         <v>252</v>
-      </c>
-      <c r="H242" t="s">
-        <v>253</v>
       </c>
       <c r="I242">
         <v>5</v>
@@ -6025,7 +6024,7 @@
         <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6033,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -6049,7 +6048,7 @@
         <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -6081,7 +6080,7 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -6089,7 +6088,7 @@
         <v>18</v>
       </c>
       <c r="B252" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6123,24 +6122,24 @@
         <v>9</v>
       </c>
       <c r="I254" t="s">
+        <v>172</v>
+      </c>
+      <c r="J254" t="s">
         <v>173</v>
       </c>
-      <c r="J254" t="s">
-        <v>174</v>
-      </c>
       <c r="K254" t="s">
+        <v>216</v>
+      </c>
+      <c r="L254" t="s">
         <v>217</v>
       </c>
-      <c r="L254" t="s">
-        <v>218</v>
-      </c>
       <c r="M254" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6155,12 +6154,12 @@
         <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B256">
         <v>3.0000000000000001E-3</v>
@@ -6175,10 +6174,10 @@
         <v>16</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H256" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I256">
         <v>5</v>
@@ -6195,7 +6194,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B257">
         <f>1/(100000000*20)</f>
@@ -6234,7 +6233,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B258">
         <f>-1/(100000000*20)</f>
@@ -6294,7 +6293,7 @@
         <v>78</v>
       </c>
       <c r="H259" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I259">
         <v>5</v>
@@ -6311,7 +6310,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B260">
         <v>5.4</v>
@@ -6326,10 +6325,10 @@
         <v>16</v>
       </c>
       <c r="G260" t="s">
+        <v>251</v>
+      </c>
+      <c r="H260" t="s">
         <v>252</v>
-      </c>
-      <c r="H260" t="s">
-        <v>253</v>
       </c>
       <c r="I260">
         <v>5</v>
@@ -6346,25 +6345,25 @@
     </row>
     <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>97</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" t="s">
+        <v>16</v>
+      </c>
+      <c r="G261" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-      <c r="C261" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" t="s">
-        <v>16</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H261" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -6384,7 +6383,7 @@
         <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6392,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -6408,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -6440,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
@@ -6482,24 +6481,24 @@
         <v>9</v>
       </c>
       <c r="I273" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J273" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J273" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K273" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L273" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M273" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6514,12 +6513,12 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B275">
         <v>3.0000000000000001E-3</v>
@@ -6534,10 +6533,10 @@
         <v>16</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H275" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I275">
         <v>5</v>
@@ -6554,7 +6553,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B276">
         <f>1/(100000000*20)</f>
@@ -6593,7 +6592,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B277">
         <f>-1/(100000000*20)</f>
@@ -6653,7 +6652,7 @@
         <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I278">
         <v>5</v>
@@ -6670,7 +6669,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B279">
         <v>5.4</v>
@@ -6685,10 +6684,10 @@
         <v>16</v>
       </c>
       <c r="G279" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H279" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I279">
         <v>5</v>
@@ -6720,7 +6719,7 @@
         <v>20</v>
       </c>
       <c r="H280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6728,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
@@ -6744,7 +6743,7 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
@@ -6776,7 +6775,7 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
@@ -6784,7 +6783,7 @@
         <v>18</v>
       </c>
       <c r="B289" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6818,24 +6817,24 @@
         <v>9</v>
       </c>
       <c r="I291" t="s">
+        <v>172</v>
+      </c>
+      <c r="J291" t="s">
         <v>173</v>
       </c>
-      <c r="J291" t="s">
-        <v>174</v>
-      </c>
       <c r="K291" t="s">
+        <v>216</v>
+      </c>
+      <c r="L291" t="s">
         <v>217</v>
       </c>
-      <c r="L291" t="s">
-        <v>218</v>
-      </c>
       <c r="M291" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6850,12 +6849,12 @@
         <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B293">
         <v>3.0000000000000001E-3</v>
@@ -6870,10 +6869,10 @@
         <v>16</v>
       </c>
       <c r="G293" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H293" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I293">
         <v>5</v>
@@ -6890,7 +6889,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B294">
         <f>1/(100000000*20)</f>
@@ -6929,7 +6928,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B295">
         <f>-1/(100000000*20)</f>
@@ -6989,7 +6988,7 @@
         <v>78</v>
       </c>
       <c r="H296" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -7006,7 +7005,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B297">
         <v>5.4</v>
@@ -7021,10 +7020,10 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H297" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I297">
         <v>5</v>
@@ -7041,25 +7040,25 @@
     </row>
     <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>97</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-      <c r="C298" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" t="s">
-        <v>6</v>
-      </c>
-      <c r="F298" t="s">
-        <v>16</v>
-      </c>
-      <c r="G298" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H298" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
@@ -7079,7 +7078,7 @@
         <v>20</v>
       </c>
       <c r="H299" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7087,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
@@ -7103,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
@@ -7135,7 +7134,7 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
@@ -7177,24 +7176,24 @@
         <v>9</v>
       </c>
       <c r="I310" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J310" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J310" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K310" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L310" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L310" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M310" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -7209,12 +7208,12 @@
         <v>15</v>
       </c>
       <c r="G311" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B312">
         <v>3.0000000000000001E-3</v>
@@ -7229,10 +7228,10 @@
         <v>16</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H312" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I312">
         <v>5</v>
@@ -7249,7 +7248,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B313">
         <f>1/(100000000*20)</f>
@@ -7288,7 +7287,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B314">
         <f>-1/(100000000*20)</f>
@@ -7348,7 +7347,7 @@
         <v>78</v>
       </c>
       <c r="H315" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I315">
         <v>5</v>
@@ -7384,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="H316" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I316">
         <v>5</v>
@@ -7419,7 +7418,7 @@
         <v>20</v>
       </c>
       <c r="H317" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="319" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7427,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
@@ -7443,7 +7442,7 @@
         <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -7475,7 +7474,7 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -7483,7 +7482,7 @@
         <v>18</v>
       </c>
       <c r="B326" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7517,24 +7516,24 @@
         <v>9</v>
       </c>
       <c r="I328" t="s">
+        <v>172</v>
+      </c>
+      <c r="J328" t="s">
         <v>173</v>
       </c>
-      <c r="J328" t="s">
-        <v>174</v>
-      </c>
       <c r="K328" t="s">
+        <v>216</v>
+      </c>
+      <c r="L328" t="s">
         <v>217</v>
       </c>
-      <c r="L328" t="s">
-        <v>218</v>
-      </c>
       <c r="M328" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -7549,12 +7548,12 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B330">
         <v>3.0000000000000001E-3</v>
@@ -7569,10 +7568,10 @@
         <v>16</v>
       </c>
       <c r="G330" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H330" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I330">
         <v>5</v>
@@ -7589,7 +7588,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B331">
         <f>1/(100000000*20)</f>
@@ -7628,7 +7627,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B332">
         <f>-1/(100000000*20)</f>
@@ -7688,7 +7687,7 @@
         <v>78</v>
       </c>
       <c r="H333" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I333">
         <v>5</v>
@@ -7724,7 +7723,7 @@
         <v>78</v>
       </c>
       <c r="H334" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I334">
         <v>5</v>
@@ -7744,25 +7743,25 @@
     </row>
     <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>97</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+      <c r="F335" t="s">
+        <v>16</v>
+      </c>
+      <c r="G335" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-      <c r="C335" t="s">
-        <v>8</v>
-      </c>
-      <c r="D335" t="s">
-        <v>6</v>
-      </c>
-      <c r="F335" t="s">
-        <v>16</v>
-      </c>
-      <c r="G335" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H335" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
@@ -7782,7 +7781,7 @@
         <v>20</v>
       </c>
       <c r="H336" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7790,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -7838,7 +7837,7 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -7846,7 +7845,7 @@
         <v>18</v>
       </c>
       <c r="B345" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7882,7 +7881,7 @@
     </row>
     <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -7902,7 +7901,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B349">
         <v>8000</v>
@@ -7917,15 +7916,15 @@
         <v>16</v>
       </c>
       <c r="G349" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H349" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B350">
         <v>942000</v>
@@ -7943,12 +7942,12 @@
         <v>33</v>
       </c>
       <c r="H350" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B351">
         <v>6000</v>
@@ -7963,15 +7962,15 @@
         <v>16</v>
       </c>
       <c r="G351" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H351" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B352">
         <v>548000.00000000012</v>
@@ -7989,7 +7988,7 @@
         <v>33</v>
       </c>
       <c r="H352" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -8012,12 +8011,12 @@
         <v>30</v>
       </c>
       <c r="H353" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B354">
         <v>16000</v>
@@ -8032,10 +8031,10 @@
         <v>16</v>
       </c>
       <c r="G354" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H354" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -8055,10 +8054,10 @@
         <v>16</v>
       </c>
       <c r="G355" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H355" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -8081,12 +8080,12 @@
         <v>50</v>
       </c>
       <c r="H356" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B357">
         <v>10000</v>
@@ -8101,15 +8100,15 @@
         <v>16</v>
       </c>
       <c r="G357" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H357" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B358">
         <v>12000</v>
@@ -8124,15 +8123,15 @@
         <v>16</v>
       </c>
       <c r="G358" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H358" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B359">
         <v>10000</v>
@@ -8147,10 +8146,10 @@
         <v>16</v>
       </c>
       <c r="G359" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H359" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -8173,12 +8172,12 @@
         <v>60</v>
       </c>
       <c r="H360" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B361">
         <v>10000</v>
@@ -8193,10 +8192,10 @@
         <v>16</v>
       </c>
       <c r="G361" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H361" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -8219,7 +8218,7 @@
         <v>50</v>
       </c>
       <c r="H362" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -8242,12 +8241,12 @@
         <v>30</v>
       </c>
       <c r="H363" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B364">
         <v>94000</v>
@@ -8262,15 +8261,15 @@
         <v>16</v>
       </c>
       <c r="G364" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H364" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B365">
         <v>10000</v>
@@ -8285,15 +8284,15 @@
         <v>16</v>
       </c>
       <c r="G365" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H365" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B366">
         <v>10000</v>
@@ -8308,10 +8307,10 @@
         <v>16</v>
       </c>
       <c r="G366" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H366" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -8334,7 +8333,7 @@
         <v>50</v>
       </c>
       <c r="H367" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -8357,70 +8356,70 @@
         <v>30</v>
       </c>
       <c r="H368" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B369">
         <f>7838*20</f>
         <v>156760</v>
       </c>
       <c r="D369" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E369" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F369" t="s">
         <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B370">
         <f>7838</f>
         <v>7838</v>
       </c>
       <c r="D370" t="s">
+        <v>205</v>
+      </c>
+      <c r="E370" t="s">
         <v>206</v>
-      </c>
-      <c r="E370" t="s">
-        <v>207</v>
       </c>
       <c r="F370" t="s">
         <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B371">
         <f>7838</f>
         <v>7838</v>
       </c>
       <c r="D371" t="s">
+        <v>205</v>
+      </c>
+      <c r="E371" t="s">
         <v>206</v>
-      </c>
-      <c r="E371" t="s">
-        <v>207</v>
       </c>
       <c r="F371" t="s">
         <v>20</v>
       </c>
       <c r="H371" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8431,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.2">
@@ -8479,7 +8478,7 @@
         <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.2">
@@ -8487,7 +8486,7 @@
         <v>18</v>
       </c>
       <c r="B380" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -8523,7 +8522,7 @@
     </row>
     <row r="383" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B383">
         <v>-1</v>
@@ -8549,7 +8548,7 @@
         <v>-29400000</v>
       </c>
       <c r="C384" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D384" t="s">
         <v>6</v>
@@ -8558,7 +8557,7 @@
         <v>16</v>
       </c>
       <c r="G384" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q384" s="4"/>
       <c r="S384" s="4"/>
@@ -8580,7 +8579,7 @@
         <v>16</v>
       </c>
       <c r="G385" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q385" s="3"/>
       <c r="S385" s="3"/>
@@ -8602,7 +8601,7 @@
         <v>16</v>
       </c>
       <c r="G386" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q386" s="3"/>
       <c r="S386" s="3"/>
@@ -8629,7 +8628,7 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B388">
         <v>-6000000</v>
@@ -8649,13 +8648,13 @@
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B389">
         <v>-20000</v>
       </c>
       <c r="C389" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D389" t="s">
         <v>6</v>
@@ -8664,18 +8663,18 @@
         <v>16</v>
       </c>
       <c r="G389" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B390">
         <v>-26000</v>
       </c>
       <c r="C390" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D390" t="s">
         <v>6</v>
@@ -8684,7 +8683,7 @@
         <v>16</v>
       </c>
       <c r="G390" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -8695,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.2">
@@ -8711,7 +8710,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
@@ -8743,7 +8742,7 @@
         <v>9</v>
       </c>
       <c r="B398" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
@@ -8751,7 +8750,7 @@
         <v>18</v>
       </c>
       <c r="B399" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="400" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -8787,7 +8786,7 @@
     </row>
     <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -8802,12 +8801,12 @@
         <v>15</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B403">
         <v>0.36</v>
@@ -8822,15 +8821,15 @@
         <v>16</v>
       </c>
       <c r="G403" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H403" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B404">
         <v>0.64</v>
@@ -8845,10 +8844,10 @@
         <v>16</v>
       </c>
       <c r="G404" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H404" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
@@ -8883,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
@@ -8899,7 +8898,7 @@
         <v>2</v>
       </c>
       <c r="B409" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
@@ -8931,7 +8930,7 @@
         <v>9</v>
       </c>
       <c r="B413" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
@@ -8939,7 +8938,7 @@
         <v>18</v>
       </c>
       <c r="B414" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8973,19 +8972,19 @@
         <v>9</v>
       </c>
       <c r="I416" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J416" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J416" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K416" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L416" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L416" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M416" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9012,7 +9011,7 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B418" s="38">
         <f t="shared" ref="B418:B428" si="0">AVERAGE(K418:L418)</f>
@@ -9028,7 +9027,7 @@
         <v>16</v>
       </c>
       <c r="G418" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I418">
         <v>5</v>
@@ -9046,7 +9045,7 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B419">
         <f t="shared" si="0"/>
@@ -9062,7 +9061,7 @@
         <v>16</v>
       </c>
       <c r="G419" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I419">
         <v>5</v>
@@ -9080,7 +9079,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B420">
         <f t="shared" si="0"/>
@@ -9096,7 +9095,7 @@
         <v>16</v>
       </c>
       <c r="G420" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I420">
         <v>5</v>
@@ -9114,7 +9113,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B421">
         <f t="shared" si="0"/>
@@ -9130,7 +9129,7 @@
         <v>16</v>
       </c>
       <c r="G421" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I421">
         <v>5</v>
@@ -9148,7 +9147,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B422">
         <f t="shared" si="0"/>
@@ -9164,7 +9163,7 @@
         <v>16</v>
       </c>
       <c r="G422" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I422">
         <v>5</v>
@@ -9182,7 +9181,7 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B423">
         <f t="shared" si="0"/>
@@ -9198,10 +9197,10 @@
         <v>16</v>
       </c>
       <c r="G423" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H423" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I423">
         <v>5</v>
@@ -9221,7 +9220,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B424">
         <f t="shared" si="0"/>
@@ -9237,10 +9236,10 @@
         <v>16</v>
       </c>
       <c r="G424" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H424" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I424">
         <v>5</v>
@@ -9260,7 +9259,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B425">
         <f t="shared" si="0"/>
@@ -9276,7 +9275,7 @@
         <v>16</v>
       </c>
       <c r="G425" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I425">
         <v>5</v>
@@ -9328,14 +9327,14 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B427">
         <f t="shared" si="0"/>
         <v>7.4749999999999996</v>
       </c>
       <c r="C427" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D427" t="s">
         <v>22</v>
@@ -9344,7 +9343,7 @@
         <v>16</v>
       </c>
       <c r="G427" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I427">
         <v>5</v>
@@ -9369,7 +9368,7 @@
         <v>-1.5</v>
       </c>
       <c r="C428" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D428" t="s">
         <v>6</v>
@@ -9378,7 +9377,7 @@
         <v>16</v>
       </c>
       <c r="G428" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I428">
         <v>5</v>
@@ -9406,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
@@ -9422,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="B432" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.2">
@@ -9454,7 +9453,7 @@
         <v>9</v>
       </c>
       <c r="B436" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.2">
@@ -9462,7 +9461,7 @@
         <v>18</v>
       </c>
       <c r="B437" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="438" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -9496,16 +9495,16 @@
         <v>9</v>
       </c>
       <c r="I439" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J439" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J439" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K439" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L439" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="L439" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="440" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -9532,7 +9531,7 @@
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B441">
         <v>3.9</v>
@@ -9547,14 +9546,14 @@
         <v>16</v>
       </c>
       <c r="G441" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q441" s="4"/>
       <c r="S441" s="4"/>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B442">
         <v>0.66</v>
@@ -9569,12 +9568,12 @@
         <v>16</v>
       </c>
       <c r="G442" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B443">
         <v>19.5</v>
@@ -9589,7 +9588,7 @@
         <v>16</v>
       </c>
       <c r="G443" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I443">
         <v>5</v>
@@ -9607,7 +9606,7 @@
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B444">
         <v>40</v>
@@ -9622,12 +9621,12 @@
         <v>16</v>
       </c>
       <c r="G444" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="445" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B445">
         <f>-35/1000</f>
@@ -9643,13 +9642,13 @@
         <v>16</v>
       </c>
       <c r="G445" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M445" s="2"/>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B446" s="6">
         <v>1.2999999999999999E-3</v>
@@ -9658,7 +9657,7 @@
         <v>6</v>
       </c>
       <c r="E446" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F446" t="s">
         <v>20</v>
@@ -9673,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
@@ -9689,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
@@ -9721,7 +9720,7 @@
         <v>9</v>
       </c>
       <c r="B454" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.2">
@@ -9765,7 +9764,7 @@
     </row>
     <row r="458" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -9780,12 +9779,12 @@
         <v>15</v>
       </c>
       <c r="G458" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B459">
         <v>9.9999999999999986E-10</v>
@@ -9800,15 +9799,15 @@
         <v>16</v>
       </c>
       <c r="G459" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H459" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B460">
         <v>1.0000000000000001E-7</v>
@@ -9823,10 +9822,10 @@
         <v>16</v>
       </c>
       <c r="G460" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H460" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
@@ -9849,12 +9848,12 @@
         <v>30</v>
       </c>
       <c r="H461" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B462">
         <v>2.9999999999999999E-7</v>
@@ -9869,15 +9868,15 @@
         <v>16</v>
       </c>
       <c r="G462" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H462" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B463">
         <v>3.1999999999999999E-5</v>
@@ -9892,10 +9891,10 @@
         <v>16</v>
       </c>
       <c r="G463" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H463" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
@@ -9918,12 +9917,12 @@
         <v>78</v>
       </c>
       <c r="H464" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="465" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B465">
         <v>1.0400000000000001E-3</v>
@@ -9938,16 +9937,16 @@
         <v>16</v>
       </c>
       <c r="G465" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H465" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J465" s="2"/>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B466">
         <v>1.3000000000000002E-4</v>
@@ -9965,12 +9964,12 @@
         <v>33</v>
       </c>
       <c r="H466" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B467">
         <v>1.3000000000000002E-4</v>
@@ -9985,15 +9984,15 @@
         <v>16</v>
       </c>
       <c r="G467" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H467" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B468">
         <v>1.1999999999999999E-6</v>
@@ -10008,15 +10007,15 @@
         <v>16</v>
       </c>
       <c r="G468" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H468" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B469">
         <v>2.5000000000000002E-6</v>
@@ -10031,15 +10030,15 @@
         <v>16</v>
       </c>
       <c r="G469" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H469" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B470">
         <v>1.8E-3</v>
@@ -10054,10 +10053,10 @@
         <v>16</v>
       </c>
       <c r="G470" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H470" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
@@ -10080,12 +10079,12 @@
         <v>36</v>
       </c>
       <c r="H471" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B472" s="6">
         <v>8.2000000000000001E-11</v>
@@ -10094,21 +10093,21 @@
         <v>17</v>
       </c>
       <c r="D472" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F472" t="s">
         <v>16</v>
       </c>
       <c r="G472" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H472" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B473">
         <v>3.3E-3</v>
@@ -10123,10 +10122,10 @@
         <v>16</v>
       </c>
       <c r="G473" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H473" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="474" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10146,10 +10145,10 @@
         <v>16</v>
       </c>
       <c r="G474" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H474" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
@@ -10172,12 +10171,12 @@
         <v>30</v>
       </c>
       <c r="H475" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B476">
         <v>4.8E-8</v>
@@ -10192,15 +10191,15 @@
         <v>16</v>
       </c>
       <c r="G476" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H476" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B477">
         <v>1.9E-6</v>
@@ -10215,10 +10214,10 @@
         <v>16</v>
       </c>
       <c r="G477" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H477" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
@@ -10241,7 +10240,7 @@
         <v>36</v>
       </c>
       <c r="H478" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
@@ -10264,7 +10263,7 @@
         <v>78</v>
       </c>
       <c r="H479" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
@@ -10275,7 +10274,7 @@
         <v>-4.4000000000000003E-3</v>
       </c>
       <c r="C480" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>6</v>
@@ -10284,7 +10283,7 @@
         <v>16</v>
       </c>
       <c r="G480" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H480" t="s">
         <v>76</v>
@@ -10307,7 +10306,7 @@
         <v>16</v>
       </c>
       <c r="G481" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H481" t="s">
         <v>76</v>
@@ -10316,13 +10315,13 @@
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B482">
         <v>-1.9999999999999999E-6</v>
       </c>
       <c r="C482" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D482" s="10" t="s">
         <v>6</v>
@@ -10331,7 +10330,7 @@
         <v>16</v>
       </c>
       <c r="G482" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H482" t="s">
         <v>76</v>
@@ -10339,7 +10338,7 @@
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B483">
         <v>-2.7999999999999999E-6</v>
@@ -10354,7 +10353,7 @@
         <v>16</v>
       </c>
       <c r="G483" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H483" t="s">
         <v>76</v>
@@ -10362,13 +10361,13 @@
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B484">
         <v>-1.1999999999999999E-6</v>
       </c>
       <c r="C484" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D484" s="10" t="s">
         <v>6</v>
@@ -10377,7 +10376,7 @@
         <v>16</v>
       </c>
       <c r="G484" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H484" t="s">
         <v>76</v>
@@ -10388,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K486" s="16"/>
       <c r="L486" s="16"/>
@@ -10430,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="B489" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K489" s="16"/>
       <c r="L489" s="16"/>
@@ -10472,7 +10471,7 @@
         <v>9</v>
       </c>
       <c r="B492" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K492" s="16"/>
       <c r="L492" s="16"/>
@@ -10483,7 +10482,7 @@
     </row>
     <row r="493" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B493" s="17">
         <v>0.61363636363636365</v>
@@ -10532,43 +10531,43 @@
         <v>9</v>
       </c>
       <c r="I495" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J495" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J495" s="1" t="s">
+      <c r="K495" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="K495" s="18" t="s">
+      <c r="L495" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="L495" s="18" t="s">
+      <c r="M495" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="M495" s="18" t="s">
+      <c r="N495" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="N495" s="18" t="s">
+      <c r="O495" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="O495" s="18" t="s">
+      <c r="P495" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="P495" s="18" t="s">
+      <c r="Q495" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q495" s="1" t="s">
+      <c r="R495" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R495" s="1" t="s">
+      <c r="S495" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="S495" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="T495" s="1"/>
     </row>
     <row r="496" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B496" s="15">
         <v>1</v>
@@ -10587,7 +10586,7 @@
         <v>carbon dioxide, captured</v>
       </c>
       <c r="H496" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K496" s="16"/>
       <c r="L496" s="16"/>
@@ -10599,7 +10598,7 @@
     </row>
     <row r="497" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B497" s="19">
         <v>6.7613636363636362E-2</v>
@@ -10608,13 +10607,13 @@
         <v>6</v>
       </c>
       <c r="E497" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F497" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H497" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I497" s="15">
         <v>2</v>
@@ -10658,13 +10657,13 @@
         <v>6</v>
       </c>
       <c r="E498" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F498" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H498" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I498" s="15">
         <v>2</v>
@@ -10699,7 +10698,7 @@
     </row>
     <row r="499" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B499" s="20">
         <v>1E-4</v>
@@ -10708,7 +10707,7 @@
         <v>6</v>
       </c>
       <c r="E499" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F499" s="15" t="s">
         <v>20</v>
@@ -10752,7 +10751,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D500" s="15" t="s">
         <v>6</v>
@@ -10846,7 +10845,7 @@
     </row>
     <row r="502" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B502" s="15">
         <f>0.4+((3.7-0.4)*0.4)</f>
@@ -10862,10 +10861,10 @@
         <v>16</v>
       </c>
       <c r="G502" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H502" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I502" s="15">
         <v>2</v>
@@ -10900,7 +10899,7 @@
     </row>
     <row r="503" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B503" s="39">
         <v>4.0000000000000001E-3</v>
@@ -10915,7 +10914,7 @@
         <v>16</v>
       </c>
       <c r="G503" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I503" s="15">
         <v>2</v>
@@ -10950,7 +10949,7 @@
     </row>
     <row r="504" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B504" s="15">
         <v>1E-4</v>
@@ -10965,7 +10964,7 @@
         <v>16</v>
       </c>
       <c r="G504" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I504" s="15">
         <v>2</v>
@@ -11000,7 +10999,7 @@
     </row>
     <row r="505" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B505" s="15">
         <v>1E-4</v>
@@ -11015,7 +11014,7 @@
         <v>16</v>
       </c>
       <c r="G505" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I505" s="15">
         <v>2</v>
@@ -11061,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.2">
@@ -11085,7 +11084,7 @@
         <v>2</v>
       </c>
       <c r="B510" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.2">
@@ -11109,7 +11108,7 @@
         <v>18</v>
       </c>
       <c r="B513" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.2">
@@ -11117,12 +11116,12 @@
         <v>9</v>
       </c>
       <c r="B514" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B515">
         <v>0.06</v>
@@ -11130,7 +11129,7 @@
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -11167,42 +11166,42 @@
         <v>9</v>
       </c>
       <c r="I518" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J518" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J518" s="5" t="s">
+      <c r="K518" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K518" s="5" t="s">
+      <c r="L518" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L518" s="5" t="s">
+      <c r="M518" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M518" s="5" t="s">
+      <c r="N518" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N518" s="5" t="s">
+      <c r="O518" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O518" s="5" t="s">
+      <c r="P518" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="P518" s="5" t="s">
+      <c r="Q518" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="Q518" s="5" t="s">
+      <c r="R518" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="R518" s="5" t="s">
+      <c r="S518" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="S518" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -11223,7 +11222,7 @@
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B520">
         <f>0.11*(1-B515)</f>
@@ -11233,13 +11232,13 @@
         <v>6</v>
       </c>
       <c r="E520" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F520" t="s">
         <v>20</v>
       </c>
       <c r="H520" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -11284,13 +11283,13 @@
         <v>6</v>
       </c>
       <c r="E521" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F521" t="s">
         <v>20</v>
       </c>
       <c r="H521" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I521">
         <v>2</v>
@@ -11331,7 +11330,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C522" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D522" t="s">
         <v>6</v>
@@ -11425,7 +11424,7 @@
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B524">
         <f>3.66*0.7</f>
@@ -11441,7 +11440,7 @@
         <v>16</v>
       </c>
       <c r="G524" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -11476,7 +11475,7 @@
     </row>
     <row r="525" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B525" s="38">
         <v>4.0000000000000001E-3</v>
@@ -11491,7 +11490,7 @@
         <v>16</v>
       </c>
       <c r="G525" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I525">
         <v>2</v>
@@ -11529,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="528" spans="1:19" x14ac:dyDescent="0.2">
@@ -11553,7 +11552,7 @@
         <v>2</v>
       </c>
       <c r="B530" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.2">
@@ -11577,7 +11576,7 @@
         <v>18</v>
       </c>
       <c r="B533" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.2">
@@ -11585,7 +11584,7 @@
         <v>9</v>
       </c>
       <c r="B534" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.2">
@@ -11654,27 +11653,27 @@
     </row>
     <row r="538" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B538" s="29">
+        <v>1</v>
+      </c>
+      <c r="C538" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D538" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F538" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G538" t="s">
         <v>98</v>
-      </c>
-      <c r="B538" s="29">
-        <v>1</v>
-      </c>
-      <c r="C538" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D538" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F538" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G538" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="539" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B539" s="37">
         <f>1.4/1000</f>
@@ -11690,16 +11689,16 @@
         <v>16</v>
       </c>
       <c r="G539" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H539" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N539" s="29"/>
     </row>
     <row r="540" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B540" s="29">
         <f>0.000355*1.25*(1/0.828)</f>
@@ -11715,24 +11714,24 @@
         <v>16</v>
       </c>
       <c r="G540" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H540" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N540" s="29"/>
       <c r="P540" s="29"/>
     </row>
     <row r="541" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="28" t="s">
-        <v>79</v>
+      <c r="A541" t="s">
+        <v>318</v>
       </c>
       <c r="B541" s="29">
         <f>(3.76-0.11)/0.9</f>
         <v>4.0555555555555554</v>
       </c>
       <c r="C541" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D541" s="28" t="s">
         <v>22</v>
@@ -11741,10 +11740,10 @@
         <v>16</v>
       </c>
       <c r="G541" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H541" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N541" s="29"/>
     </row>
@@ -11769,7 +11768,7 @@
         <v>24</v>
       </c>
       <c r="H542" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N542" s="29"/>
     </row>
@@ -11794,7 +11793,7 @@
         <v>24</v>
       </c>
       <c r="H543" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N543" s="29"/>
     </row>
@@ -11819,14 +11818,14 @@
         <v>24</v>
       </c>
       <c r="H544" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N544" s="29"/>
       <c r="Q544" s="30"/>
     </row>
     <row r="545" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B545" s="29">
         <f>0.473</f>
@@ -11845,7 +11844,7 @@
         <v>32</v>
       </c>
       <c r="H545" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="546" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -11857,7 +11856,7 @@
         <v>-1.3639484978540772E-3</v>
       </c>
       <c r="C546" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D546" s="28" t="s">
         <v>6</v>
@@ -11866,15 +11865,15 @@
         <v>16</v>
       </c>
       <c r="G546" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H546" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="547" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B547" s="37">
         <f>1.4/1000*(0.006/0.227+0.006)</f>
@@ -11884,18 +11883,18 @@
         <v>6</v>
       </c>
       <c r="E547" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F547" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H547" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="548" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B548" s="29">
         <f>B545/1000</f>
@@ -11905,7 +11904,7 @@
         <v>49</v>
       </c>
       <c r="E548" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F548" s="28" t="s">
         <v>20</v>
@@ -11917,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.2">
@@ -11941,7 +11940,7 @@
         <v>2</v>
       </c>
       <c r="B553" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.2">
@@ -11965,7 +11964,7 @@
         <v>18</v>
       </c>
       <c r="B556" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.2">
@@ -11973,7 +11972,7 @@
         <v>9</v>
       </c>
       <c r="B557" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.2">
@@ -12042,7 +12041,7 @@
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B561" s="29">
         <v>1</v>
@@ -12058,7 +12057,7 @@
         <v>16</v>
       </c>
       <c r="G561" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H561" s="28"/>
     </row>
@@ -12083,7 +12082,7 @@
         <v>24</v>
       </c>
       <c r="H562" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N562" s="32"/>
     </row>
@@ -12092,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.2">
@@ -12116,7 +12115,7 @@
         <v>2</v>
       </c>
       <c r="B568" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.2">
@@ -12140,7 +12139,7 @@
         <v>18</v>
       </c>
       <c r="B571" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.2">
@@ -12148,7 +12147,7 @@
         <v>9</v>
       </c>
       <c r="B572" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.2">
@@ -12217,7 +12216,7 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A576" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B576" s="29">
         <v>1</v>
@@ -12233,13 +12232,13 @@
         <v>16</v>
       </c>
       <c r="G576" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H576" s="28"/>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B577" s="6">
         <f>B575*32/44/(1-0.11)</f>
@@ -12255,10 +12254,10 @@
         <v>16</v>
       </c>
       <c r="G577" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H577" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.2">
@@ -12282,7 +12281,7 @@
         <v>24</v>
       </c>
       <c r="H578" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="579" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12306,7 +12305,7 @@
         <v>24</v>
       </c>
       <c r="H579" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.2">
@@ -12330,7 +12329,7 @@
         <v>24</v>
       </c>
       <c r="H580" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M580" s="27"/>
       <c r="N580" s="31"/>
@@ -12356,7 +12355,7 @@
         <v>24</v>
       </c>
       <c r="H581" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M581" s="27"/>
       <c r="N581" s="31"/>
@@ -12366,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="B583" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.2">
@@ -12374,7 +12373,7 @@
         <v>9</v>
       </c>
       <c r="B584" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.2">
@@ -12390,7 +12389,7 @@
         <v>2</v>
       </c>
       <c r="B586" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.2">
@@ -12471,16 +12470,16 @@
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
+        <v>256</v>
+      </c>
+      <c r="B591" s="36">
+        <v>1</v>
+      </c>
+      <c r="C591" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" t="s">
         <v>257</v>
-      </c>
-      <c r="B591" s="36">
-        <v>1</v>
-      </c>
-      <c r="C591" t="s">
-        <v>6</v>
-      </c>
-      <c r="D591" t="s">
-        <v>258</v>
       </c>
       <c r="F591" t="s">
         <v>20</v>
@@ -12491,10 +12490,10 @@
         <v>0</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M593" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.2">
@@ -12505,7 +12504,7 @@
         <v>8</v>
       </c>
       <c r="M594" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.2">
@@ -12516,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="M595" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.2">
@@ -12524,10 +12523,10 @@
         <v>2</v>
       </c>
       <c r="B596" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M596" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.2">
@@ -12538,7 +12537,7 @@
         <v>4</v>
       </c>
       <c r="M597" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.2">
@@ -12549,7 +12548,7 @@
         <v>6</v>
       </c>
       <c r="M598" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.2">
@@ -12557,10 +12556,10 @@
         <v>9</v>
       </c>
       <c r="B599" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M599" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.2">
@@ -12568,10 +12567,10 @@
         <v>18</v>
       </c>
       <c r="B600" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M600" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="601" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12579,7 +12578,7 @@
         <v>10</v>
       </c>
       <c r="M601" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.2">
@@ -12602,7 +12601,7 @@
         <v>3</v>
       </c>
       <c r="G602" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -12613,7 +12612,7 @@
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B603">
         <v>1.2300000000000001E-4</v>
@@ -12622,7 +12621,7 @@
         <v>6</v>
       </c>
       <c r="E603" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F603" t="s">
         <v>20</v>
@@ -12631,15 +12630,15 @@
         <v>0</v>
       </c>
       <c r="H603" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I603" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B604" s="38">
         <v>6.0000000000000002E-6</v>
@@ -12648,7 +12647,7 @@
         <v>6</v>
       </c>
       <c r="E604" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F604" t="s">
         <v>20</v>
@@ -12657,15 +12656,15 @@
         <v>0</v>
       </c>
       <c r="H604" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I604" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B605">
         <v>8.3199999999999996E-2</v>
@@ -12674,7 +12673,7 @@
         <v>49</v>
       </c>
       <c r="E605" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F605" t="s">
         <v>20</v>
@@ -12683,15 +12682,15 @@
         <v>0</v>
       </c>
       <c r="H605" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I605" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B606" s="33">
         <f>((B605*1000)-(600*3.78541/1000))/1000</f>
@@ -12701,7 +12700,7 @@
         <v>49</v>
       </c>
       <c r="E606" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F606" t="s">
         <v>20</v>
@@ -12710,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.2">
@@ -12734,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I607" t="str">
         <f>B596</f>
@@ -12743,7 +12742,7 @@
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -12755,7 +12754,7 @@
         <v>6</v>
       </c>
       <c r="E608" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F608" t="s">
         <v>16</v>
@@ -12764,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="H608" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I608" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="609" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -12791,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="H609" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I609" s="28" t="s">
         <v>24</v>
@@ -12819,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="H610" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I610" s="28" t="s">
         <v>24</v>
@@ -12847,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="H611" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I611" s="28" t="s">
         <v>24</v>
@@ -12857,7 +12856,7 @@
     </row>
     <row r="612" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B612">
         <v>1.9099999999999998E-9</v>
@@ -12869,7 +12868,7 @@
         <v>5</v>
       </c>
       <c r="E612" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F612" t="s">
         <v>16</v>
@@ -12878,15 +12877,15 @@
         <v>0</v>
       </c>
       <c r="H612" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I612" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="613" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B613">
         <v>1.15E-8</v>
@@ -12898,7 +12897,7 @@
         <v>5</v>
       </c>
       <c r="E613" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F613" t="s">
         <v>16</v>
@@ -12907,15 +12906,15 @@
         <v>0</v>
       </c>
       <c r="H613" t="s">
+        <v>268</v>
+      </c>
+      <c r="I613" t="s">
         <v>269</v>
-      </c>
-      <c r="I613" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="614" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B614">
         <v>8.2600000000000002E-5</v>
@@ -12927,7 +12926,7 @@
         <v>6</v>
       </c>
       <c r="E614" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F614" t="s">
         <v>16</v>
@@ -12936,15 +12935,15 @@
         <v>0</v>
       </c>
       <c r="H614" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I614" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="615" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B615">
         <v>1.9099999999999998E-9</v>
@@ -12956,7 +12955,7 @@
         <v>5</v>
       </c>
       <c r="E615" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F615" t="s">
         <v>16</v>
@@ -12965,15 +12964,15 @@
         <v>0</v>
       </c>
       <c r="H615" t="s">
+        <v>273</v>
+      </c>
+      <c r="I615" t="s">
         <v>274</v>
-      </c>
-      <c r="I615" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="616" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B616">
         <v>6.4400000000000005E-10</v>
@@ -12985,7 +12984,7 @@
         <v>5</v>
       </c>
       <c r="E616" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F616" t="s">
         <v>16</v>
@@ -12994,15 +12993,15 @@
         <v>0</v>
       </c>
       <c r="H616" t="s">
+        <v>276</v>
+      </c>
+      <c r="I616" t="s">
         <v>277</v>
-      </c>
-      <c r="I616" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="617" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B617" s="38">
         <v>1.4E-3</v>
@@ -13014,7 +13013,7 @@
         <v>6</v>
       </c>
       <c r="E617" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F617" t="s">
         <v>16</v>
@@ -13023,15 +13022,15 @@
         <v>0</v>
       </c>
       <c r="H617" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I617" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="618" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B618">
         <v>1.3399999999999999E-8</v>
@@ -13043,7 +13042,7 @@
         <v>5</v>
       </c>
       <c r="E618" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F618" t="s">
         <v>16</v>
@@ -13052,15 +13051,15 @@
         <v>0</v>
       </c>
       <c r="H618" t="s">
+        <v>279</v>
+      </c>
+      <c r="I618" t="s">
         <v>280</v>
-      </c>
-      <c r="I618" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="619" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B619">
         <v>3.0400000000000002E-4</v>
@@ -13072,7 +13071,7 @@
         <v>6</v>
       </c>
       <c r="E619" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F619" t="s">
         <v>16</v>
@@ -13081,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="H619" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I619" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="620" spans="1:17" x14ac:dyDescent="0.2">
@@ -13102,7 +13101,7 @@
         <v>6</v>
       </c>
       <c r="E620" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F620" t="s">
         <v>16</v>
@@ -13111,10 +13110,10 @@
         <v>0</v>
       </c>
       <c r="H620" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I620" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="621" spans="1:17" x14ac:dyDescent="0.2">
@@ -13137,10 +13136,10 @@
         <v>0</v>
       </c>
       <c r="H621" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M621" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="623" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -13148,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="624" spans="1:17" x14ac:dyDescent="0.2">
@@ -13164,7 +13163,7 @@
         <v>2</v>
       </c>
       <c r="B625" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.2">
@@ -13196,15 +13195,15 @@
         <v>18</v>
       </c>
       <c r="B629" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>9</v>
       </c>
-      <c r="B630" s="40" t="s">
-        <v>311</v>
+      <c r="B630" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="631" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13238,19 +13237,19 @@
         <v>9</v>
       </c>
       <c r="I632" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J632" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J632" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="K632" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L632" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L632" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="M632" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.2">
@@ -13271,7 +13270,7 @@
         <v>15</v>
       </c>
       <c r="G633" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.2">
@@ -13295,7 +13294,7 @@
         <v>24</v>
       </c>
       <c r="H634" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I634">
         <v>5</v>
@@ -13320,7 +13319,7 @@
         <v>1.5</v>
       </c>
       <c r="C635" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D635" t="s">
         <v>6</v>
@@ -13332,7 +13331,7 @@
         <v>32</v>
       </c>
       <c r="H635" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I635">
         <v>5</v>
@@ -13369,7 +13368,7 @@
         <v>24</v>
       </c>
       <c r="H636" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I636">
         <v>5</v>
@@ -13387,7 +13386,7 @@
     </row>
     <row r="637" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B637">
         <v>5.0000000000000001E-3</v>
@@ -13402,10 +13401,10 @@
         <v>16</v>
       </c>
       <c r="G637" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H637" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I637">
         <v>5</v>
@@ -13442,7 +13441,7 @@
         <v>24</v>
       </c>
       <c r="H638" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I638">
         <v>5</v>
@@ -13478,7 +13477,7 @@
         <v>30</v>
       </c>
       <c r="H639" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.2">
@@ -13501,19 +13500,19 @@
         <v>50</v>
       </c>
       <c r="H640" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B641" s="6">
         <f>B635*-1/1000</f>
         <v>-1.5E-3</v>
       </c>
       <c r="C641" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D641" t="s">
         <v>49</v>
@@ -13522,30 +13521,30 @@
         <v>16</v>
       </c>
       <c r="G641" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A642" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642" t="s">
+        <v>6</v>
+      </c>
+      <c r="F642" t="s">
+        <v>16</v>
+      </c>
+      <c r="G642" t="s">
         <v>98</v>
       </c>
-      <c r="B642">
-        <v>1</v>
-      </c>
-      <c r="C642" t="s">
-        <v>8</v>
-      </c>
-      <c r="D642" t="s">
-        <v>6</v>
-      </c>
-      <c r="F642" t="s">
-        <v>16</v>
-      </c>
-      <c r="G642" t="s">
-        <v>99</v>
-      </c>
       <c r="H642" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="645" spans="1:13" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32B30B-2A92-B645-B004-392F8BD1A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28BFAD-10F0-114B-A8B4-C331D85F0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34300" yWindow="80" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="80" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="322">
   <si>
     <t>Activity</t>
   </si>
@@ -996,6 +996,15 @@
   </si>
   <si>
     <t>market for heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored, from a biomass fermentation plant</t>
+  </si>
+  <si>
+    <t>Dees J, Oke K, Goldstein H, McCoy ST, Sanchez DL, Simon AJ, Li W. Cost and Life Cycle Emissions of Ethanol Produced with an Oxyfuel Boiler and Carbon Capture and Storage. Environ Sci Technol. 2023 Apr 4;57(13):5391-5403. doi: 10.1021/acs.est.2c04784. Epub 2023 Mar 21. PMID: 36943504; PMCID: PMC10077580.</t>
+  </si>
+  <si>
+    <t>For the fermentation-only CCS (FERMCCS) scenario, Dees et al. performed a full material balance to determine the quantity of CO2 capturable from a 40 M-gal (151 ML) per year ethanol plant. Fermentation CO2 is captured at a rate of 13,089 kg/h and assumed to be at 100% purity. Fermentation CO2 is dehydrated, compressed, liquefied, and pumped at 150 bar, which is assumed to be sufficient to transport the gas by pipeline 100 miles to geologic storage without need for further compression. This is carried out by the CO2 processing unit (CPU) and modeled using Aspen Plus V11. The additional electricity demand for the CPU is estimated to be 110 kWh/t CO2 using this model.</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V645"/>
+  <dimension ref="A1:V658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G541" sqref="G541"/>
+    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
+      <selection activeCell="A612" sqref="A612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13547,8 +13556,244 @@
         <v>183</v>
       </c>
     </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>39</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="D643" t="s">
+        <v>6</v>
+      </c>
+      <c r="E643" t="s">
+        <v>37</v>
+      </c>
+      <c r="F643" t="s">
+        <v>20</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643" t="s">
+        <v>284</v>
+      </c>
+      <c r="M643" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="645" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="M645" s="2"/>
+      <c r="A645" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>1</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>2</v>
+      </c>
+      <c r="B647" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>3</v>
+      </c>
+      <c r="B648" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>5</v>
+      </c>
+      <c r="B649" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>7</v>
+      </c>
+      <c r="B650" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>18</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>9</v>
+      </c>
+      <c r="B652" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A654" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F654" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G654" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H654" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I654" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J654" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K654" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L654" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M654" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A655" t="str">
+        <f>B645</f>
+        <v>carbon dioxide, captured and stored, from a biomass fermentation plant</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+      <c r="C655" t="s">
+        <v>8</v>
+      </c>
+      <c r="D655" t="s">
+        <v>6</v>
+      </c>
+      <c r="F655" t="s">
+        <v>15</v>
+      </c>
+      <c r="G655" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>34</v>
+      </c>
+      <c r="B656" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="C656" t="s">
+        <v>8</v>
+      </c>
+      <c r="D656" t="s">
+        <v>23</v>
+      </c>
+      <c r="F656" t="s">
+        <v>16</v>
+      </c>
+      <c r="G656" t="s">
+        <v>24</v>
+      </c>
+      <c r="H656" t="s">
+        <v>311</v>
+      </c>
+      <c r="I656">
+        <v>5</v>
+      </c>
+      <c r="J656" s="23">
+        <f>B656</f>
+        <v>0.11</v>
+      </c>
+      <c r="K656">
+        <v>0.1</v>
+      </c>
+      <c r="L656">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A657" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B657">
+        <v>1</v>
+      </c>
+      <c r="C657" t="s">
+        <v>8</v>
+      </c>
+      <c r="D657" t="s">
+        <v>6</v>
+      </c>
+      <c r="F657" t="s">
+        <v>16</v>
+      </c>
+      <c r="G657" t="s">
+        <v>98</v>
+      </c>
+      <c r="H657" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>39</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+      <c r="D658" t="s">
+        <v>6</v>
+      </c>
+      <c r="E658" t="s">
+        <v>37</v>
+      </c>
+      <c r="F658" t="s">
+        <v>20</v>
+      </c>
+      <c r="H658" t="s">
+        <v>284</v>
+      </c>
+      <c r="M658" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V621" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28BFAD-10F0-114B-A8B4-C331D85F0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F2CD5-055C-3F46-AA42-8D857D2E85C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="80" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$V$621</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$V$620</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="321">
   <si>
     <t>Activity</t>
   </si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>concrete, normal strength</t>
-  </si>
-  <si>
-    <t>market for spent anion exchange resin from potable water production</t>
   </si>
   <si>
     <t>Originally 3.7 MJ, without heat recovery. 0.4 MJ using heat from teh MSWI plant. However, when doing so, 40% of teh heat is lost and cannot be redistributed to the heating district system. Hence, we add this loss to the amount of external heat needed.</t>
@@ -1012,14 +1009,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1139,13 +1136,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1155,29 +1152,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1187,9 +1184,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1505,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V658"/>
+  <dimension ref="A1:V657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
-      <selection activeCell="A612" sqref="A612"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1559,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1639,10 +1638,10 @@
         <v>173</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>182</v>
@@ -1666,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1887,7 +1886,7 @@
         <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -1905,7 +1904,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22">
         <v>6.28</v>
@@ -1923,7 +1922,7 @@
         <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -1964,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1980,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2060,10 +2059,10 @@
         <v>173</v>
       </c>
       <c r="K34" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>182</v>
@@ -2071,7 +2070,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2086,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2307,7 +2306,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2325,7 +2324,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44">
         <v>6.28</v>
@@ -2343,7 +2342,7 @@
         <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2407,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2423,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2503,10 +2502,10 @@
         <v>173</v>
       </c>
       <c r="K57" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>182</v>
@@ -2514,7 +2513,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2529,7 +2528,7 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2750,7 +2749,7 @@
         <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -2786,7 +2785,7 @@
         <v>188</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I67">
         <v>5</v>
@@ -2827,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2843,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -2923,10 +2922,10 @@
         <v>173</v>
       </c>
       <c r="K79" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L79" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M79" s="5" t="s">
         <v>182</v>
@@ -2934,7 +2933,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2949,7 +2948,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3170,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="H88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I88">
         <v>5</v>
@@ -3206,7 +3205,7 @@
         <v>188</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I89">
         <v>5</v>
@@ -3270,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3286,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3366,10 +3365,10 @@
         <v>173</v>
       </c>
       <c r="K102" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L102" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>182</v>
@@ -3377,7 +3376,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3392,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -3613,7 +3612,7 @@
         <v>78</v>
       </c>
       <c r="H111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I111">
         <v>5</v>
@@ -3650,7 +3649,7 @@
         <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I112">
         <v>5</v>
@@ -3693,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3709,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3789,10 +3788,10 @@
         <v>173</v>
       </c>
       <c r="K124" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L124" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>182</v>
@@ -3800,7 +3799,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3815,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -4036,7 +4035,7 @@
         <v>78</v>
       </c>
       <c r="H133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I133">
         <v>5</v>
@@ -4073,7 +4072,7 @@
         <v>78</v>
       </c>
       <c r="H134" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I134">
         <v>5</v>
@@ -4187,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4650,65 +4649,65 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B166">
         <f>78380*20</f>
         <v>1567600</v>
       </c>
       <c r="D166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B167">
         <f>78380</f>
         <v>78380</v>
       </c>
       <c r="D167" t="s">
+        <v>204</v>
+      </c>
+      <c r="E167" t="s">
         <v>205</v>
-      </c>
-      <c r="E167" t="s">
-        <v>206</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <f>78380</f>
         <v>78380</v>
       </c>
       <c r="D168" t="s">
+        <v>204</v>
+      </c>
+      <c r="E168" t="s">
         <v>205</v>
-      </c>
-      <c r="E168" t="s">
-        <v>206</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -5010,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -5026,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -5106,10 +5105,10 @@
         <v>173</v>
       </c>
       <c r="K199" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L199" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L199" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M199" s="5" t="s">
         <v>182</v>
@@ -5117,7 +5116,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5132,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5271,7 +5270,7 @@
         <v>78</v>
       </c>
       <c r="H204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I204">
         <v>5</v>
@@ -5288,7 +5287,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205">
         <v>5.4</v>
@@ -5306,7 +5305,7 @@
         <v>162</v>
       </c>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I205">
         <v>5</v>
@@ -5346,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5362,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -5394,7 +5393,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -5402,7 +5401,7 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5442,10 +5441,10 @@
         <v>173</v>
       </c>
       <c r="K217" t="s">
+        <v>215</v>
+      </c>
+      <c r="L217" t="s">
         <v>216</v>
-      </c>
-      <c r="L217" t="s">
-        <v>217</v>
       </c>
       <c r="M217" s="5" t="s">
         <v>182</v>
@@ -5453,7 +5452,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5468,7 +5467,7 @@
         <v>15</v>
       </c>
       <c r="G218" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5607,7 +5606,7 @@
         <v>78</v>
       </c>
       <c r="H222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I222">
         <v>5</v>
@@ -5624,7 +5623,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B223">
         <v>5.4</v>
@@ -5642,7 +5641,7 @@
         <v>162</v>
       </c>
       <c r="H223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I223">
         <v>5</v>
@@ -5705,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -5721,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -5801,10 +5800,10 @@
         <v>173</v>
       </c>
       <c r="K236" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L236" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L236" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M236" s="5" t="s">
         <v>182</v>
@@ -5812,7 +5811,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5827,7 +5826,7 @@
         <v>15</v>
       </c>
       <c r="G237" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5966,7 +5965,7 @@
         <v>78</v>
       </c>
       <c r="H241" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I241">
         <v>5</v>
@@ -5983,7 +5982,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B242">
         <v>5.4</v>
@@ -5998,10 +5997,10 @@
         <v>16</v>
       </c>
       <c r="G242" t="s">
+        <v>250</v>
+      </c>
+      <c r="H242" t="s">
         <v>251</v>
-      </c>
-      <c r="H242" t="s">
-        <v>252</v>
       </c>
       <c r="I242">
         <v>5</v>
@@ -6041,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -6057,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -6089,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -6097,7 +6096,7 @@
         <v>18</v>
       </c>
       <c r="B252" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6137,10 +6136,10 @@
         <v>173</v>
       </c>
       <c r="K254" t="s">
+        <v>215</v>
+      </c>
+      <c r="L254" t="s">
         <v>216</v>
-      </c>
-      <c r="L254" t="s">
-        <v>217</v>
       </c>
       <c r="M254" s="5" t="s">
         <v>182</v>
@@ -6148,7 +6147,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6163,7 +6162,7 @@
         <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6302,7 +6301,7 @@
         <v>78</v>
       </c>
       <c r="H259" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I259">
         <v>5</v>
@@ -6319,7 +6318,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B260">
         <v>5.4</v>
@@ -6334,10 +6333,10 @@
         <v>16</v>
       </c>
       <c r="G260" t="s">
+        <v>250</v>
+      </c>
+      <c r="H260" t="s">
         <v>251</v>
-      </c>
-      <c r="H260" t="s">
-        <v>252</v>
       </c>
       <c r="I260">
         <v>5</v>
@@ -6400,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -6416,7 +6415,7 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -6496,10 +6495,10 @@
         <v>173</v>
       </c>
       <c r="K273" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L273" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M273" s="5" t="s">
         <v>182</v>
@@ -6507,7 +6506,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6522,7 +6521,7 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6661,7 +6660,7 @@
         <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I278">
         <v>5</v>
@@ -6696,7 +6695,7 @@
         <v>188</v>
       </c>
       <c r="H279" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I279">
         <v>5</v>
@@ -6736,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
@@ -6752,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
@@ -6784,7 +6783,7 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
@@ -6792,7 +6791,7 @@
         <v>18</v>
       </c>
       <c r="B289" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6832,10 +6831,10 @@
         <v>173</v>
       </c>
       <c r="K291" t="s">
+        <v>215</v>
+      </c>
+      <c r="L291" t="s">
         <v>216</v>
-      </c>
-      <c r="L291" t="s">
-        <v>217</v>
       </c>
       <c r="M291" s="5" t="s">
         <v>182</v>
@@ -6843,7 +6842,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6858,7 +6857,7 @@
         <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6997,7 +6996,7 @@
         <v>78</v>
       </c>
       <c r="H296" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -7032,7 +7031,7 @@
         <v>188</v>
       </c>
       <c r="H297" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I297">
         <v>5</v>
@@ -7095,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
@@ -7111,7 +7110,7 @@
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
@@ -7191,10 +7190,10 @@
         <v>173</v>
       </c>
       <c r="K310" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L310" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L310" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M310" s="5" t="s">
         <v>182</v>
@@ -7202,7 +7201,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -7217,7 +7216,7 @@
         <v>15</v>
       </c>
       <c r="G311" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7356,7 +7355,7 @@
         <v>78</v>
       </c>
       <c r="H315" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I315">
         <v>5</v>
@@ -7392,7 +7391,7 @@
         <v>78</v>
       </c>
       <c r="H316" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I316">
         <v>5</v>
@@ -7435,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
@@ -7451,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -7483,7 +7482,7 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -7491,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="B326" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7531,10 +7530,10 @@
         <v>173</v>
       </c>
       <c r="K328" t="s">
+        <v>215</v>
+      </c>
+      <c r="L328" t="s">
         <v>216</v>
-      </c>
-      <c r="L328" t="s">
-        <v>217</v>
       </c>
       <c r="M328" s="5" t="s">
         <v>182</v>
@@ -7542,7 +7541,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -7557,7 +7556,7 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7696,7 +7695,7 @@
         <v>78</v>
       </c>
       <c r="H333" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I333">
         <v>5</v>
@@ -7732,7 +7731,7 @@
         <v>78</v>
       </c>
       <c r="H334" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I334">
         <v>5</v>
@@ -7846,15 +7845,15 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
-      <c r="B345" t="s">
-        <v>222</v>
+      <c r="B345" s="41" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7912,7 +7911,7 @@
       <c r="A349" t="s">
         <v>194</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="40">
         <v>8000</v>
       </c>
       <c r="C349" t="s">
@@ -7935,7 +7934,7 @@
       <c r="A350" t="s">
         <v>103</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="40">
         <v>942000</v>
       </c>
       <c r="C350" t="s">
@@ -7958,7 +7957,7 @@
       <c r="A351" t="s">
         <v>194</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="40">
         <v>6000</v>
       </c>
       <c r="C351" t="s">
@@ -7981,7 +7980,7 @@
       <c r="A352" t="s">
         <v>103</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="40">
         <v>548000.00000000012</v>
       </c>
       <c r="C352" t="s">
@@ -8004,7 +8003,7 @@
       <c r="A353" t="s">
         <v>42</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="40">
         <v>120000</v>
       </c>
       <c r="C353" t="s">
@@ -8027,7 +8026,7 @@
       <c r="A354" t="s">
         <v>115</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="40">
         <v>16000</v>
       </c>
       <c r="C354" t="s">
@@ -8050,7 +8049,7 @@
       <c r="A355" t="s">
         <v>59</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="40">
         <v>276000.00000000006</v>
       </c>
       <c r="C355" t="s">
@@ -8073,7 +8072,7 @@
       <c r="A356" t="s">
         <v>43</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="40">
         <v>224000</v>
       </c>
       <c r="C356" t="s">
@@ -8096,7 +8095,7 @@
       <c r="A357" t="s">
         <v>115</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="40">
         <v>10000</v>
       </c>
       <c r="C357" t="s">
@@ -8119,7 +8118,7 @@
       <c r="A358" t="s">
         <v>116</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="40">
         <v>12000</v>
       </c>
       <c r="C358" t="s">
@@ -8142,7 +8141,7 @@
       <c r="A359" t="s">
         <v>152</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="40">
         <v>10000</v>
       </c>
       <c r="C359" t="s">
@@ -8165,7 +8164,7 @@
       <c r="A360" t="s">
         <v>58</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="40">
         <v>160000</v>
       </c>
       <c r="C360" t="s">
@@ -8188,7 +8187,7 @@
       <c r="A361" t="s">
         <v>117</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="40">
         <v>10000</v>
       </c>
       <c r="C361" t="s">
@@ -8211,7 +8210,7 @@
       <c r="A362" t="s">
         <v>43</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="40">
         <v>338000</v>
       </c>
       <c r="C362" t="s">
@@ -8234,7 +8233,7 @@
       <c r="A363" t="s">
         <v>42</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="40">
         <v>28000</v>
       </c>
       <c r="C363" t="s">
@@ -8257,7 +8256,7 @@
       <c r="A364" t="s">
         <v>121</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="40">
         <v>94000</v>
       </c>
       <c r="C364" t="s">
@@ -8280,7 +8279,7 @@
       <c r="A365" t="s">
         <v>116</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="40">
         <v>10000</v>
       </c>
       <c r="C365" t="s">
@@ -8303,7 +8302,7 @@
       <c r="A366" t="s">
         <v>152</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="40">
         <v>10000</v>
       </c>
       <c r="C366" t="s">
@@ -8326,7 +8325,7 @@
       <c r="A367" t="s">
         <v>43</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="40">
         <v>22000</v>
       </c>
       <c r="C367" t="s">
@@ -8349,7 +8348,7 @@
       <c r="A368" t="s">
         <v>42</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="40">
         <v>12000</v>
       </c>
       <c r="C368" t="s">
@@ -8370,65 +8369,65 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B369">
         <f>7838*20</f>
         <v>156760</v>
       </c>
       <c r="D369" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E369" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F369" t="s">
         <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B370">
         <f>7838</f>
         <v>7838</v>
       </c>
       <c r="D370" t="s">
+        <v>204</v>
+      </c>
+      <c r="E370" t="s">
         <v>205</v>
-      </c>
-      <c r="E370" t="s">
-        <v>206</v>
       </c>
       <c r="F370" t="s">
         <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B371">
         <f>7838</f>
         <v>7838</v>
       </c>
       <c r="D371" t="s">
+        <v>204</v>
+      </c>
+      <c r="E371" t="s">
         <v>205</v>
-      </c>
-      <c r="E371" t="s">
-        <v>206</v>
       </c>
       <c r="F371" t="s">
         <v>20</v>
       </c>
       <c r="H371" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8495,7 +8494,7 @@
         <v>18</v>
       </c>
       <c r="B380" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="381" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -8553,8 +8552,9 @@
       <c r="A384" t="s">
         <v>65</v>
       </c>
-      <c r="B384">
-        <v>-29400000</v>
+      <c r="B384" s="11">
+        <f>-1*(B349+B351)*2200</f>
+        <v>-30800000</v>
       </c>
       <c r="C384" t="s">
         <v>131</v>
@@ -8562,6 +8562,7 @@
       <c r="D384" t="s">
         <v>6</v>
       </c>
+      <c r="E384" s="11"/>
       <c r="F384" t="s">
         <v>16</v>
       </c>
@@ -8576,7 +8577,8 @@
         <v>66</v>
       </c>
       <c r="B385">
-        <v>-2140000</v>
+        <f>-1*(B350+B352+B353+B355+B362+B363+B367+B368)</f>
+        <v>-2286000</v>
       </c>
       <c r="C385" t="s">
         <v>21</v>
@@ -8598,6 +8600,7 @@
         <v>67</v>
       </c>
       <c r="B386">
+        <f>-1*(B358+B364+B365)</f>
         <v>-116000</v>
       </c>
       <c r="C386" t="s">
@@ -8620,7 +8623,8 @@
         <v>72</v>
       </c>
       <c r="B387">
-        <v>-143999.99999999997</v>
+        <f>-1*(B360)</f>
+        <v>-160000</v>
       </c>
       <c r="C387" t="s">
         <v>8</v>
@@ -8637,13 +8641,14 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="B388">
-        <v>-6000000</v>
+        <f>-1*(B359+B366)</f>
+        <v>-20000</v>
       </c>
       <c r="C388" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="D388" t="s">
         <v>6</v>
@@ -8652,15 +8657,16 @@
         <v>16</v>
       </c>
       <c r="G388" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B389">
-        <v>-20000</v>
+        <f>-1*(B357+B354)</f>
+        <v>-26000</v>
       </c>
       <c r="C389" t="s">
         <v>131</v>
@@ -8672,133 +8678,133 @@
         <v>16</v>
       </c>
       <c r="G389" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>130</v>
-      </c>
-      <c r="B390">
-        <v>-26000</v>
-      </c>
-      <c r="C390" t="s">
-        <v>131</v>
-      </c>
-      <c r="D390" t="s">
-        <v>6</v>
-      </c>
-      <c r="F390" t="s">
-        <v>16</v>
-      </c>
-      <c r="G390" t="s">
         <v>150</v>
       </c>
     </row>
+    <row r="390" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="G390" s="7"/>
+    </row>
     <row r="391" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="G391" s="7"/>
-    </row>
-    <row r="392" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
+      <c r="A391" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1</v>
-      </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>2</v>
-      </c>
-      <c r="B394" s="7" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="B394" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B395" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B397" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" t="s">
+        <v>5</v>
+      </c>
+      <c r="E400" t="s">
+        <v>13</v>
+      </c>
+      <c r="F400" t="s">
+        <v>3</v>
+      </c>
+      <c r="G400" t="s">
+        <v>2</v>
+      </c>
+      <c r="H400" t="s">
         <v>9</v>
       </c>
-      <c r="B398" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>18</v>
-      </c>
-      <c r="B399" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="400" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A400" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>11</v>
-      </c>
-      <c r="B401" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D401" t="s">
-        <v>5</v>
-      </c>
-      <c r="E401" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F401" t="s">
-        <v>3</v>
-      </c>
-      <c r="G401" t="s">
-        <v>2</v>
-      </c>
-      <c r="H401" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G401" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -8807,227 +8813,241 @@
         <v>6</v>
       </c>
       <c r="F402" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>80</v>
+        <v>212</v>
+      </c>
+      <c r="H402" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
+        <v>217</v>
+      </c>
+      <c r="B403">
+        <v>0.64</v>
+      </c>
+      <c r="C403" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+      <c r="F403" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H403" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>25</v>
+      </c>
+      <c r="B404">
+        <v>-1</v>
+      </c>
+      <c r="C404" t="s">
+        <v>26</v>
+      </c>
+      <c r="D404" t="s">
+        <v>6</v>
+      </c>
+      <c r="F404" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" t="s">
+        <v>27</v>
+      </c>
+      <c r="H404" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A405" s="2"/>
+      <c r="J405" s="2"/>
+    </row>
+    <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>2</v>
+      </c>
+      <c r="B408" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B403">
-        <v>0.36</v>
-      </c>
-      <c r="C403" t="s">
-        <v>8</v>
-      </c>
-      <c r="D403" t="s">
-        <v>6</v>
-      </c>
-      <c r="F403" t="s">
-        <v>16</v>
-      </c>
-      <c r="G403" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H403" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>218</v>
-      </c>
-      <c r="B404">
-        <v>0.64</v>
-      </c>
-      <c r="C404" t="s">
-        <v>8</v>
-      </c>
-      <c r="D404" t="s">
-        <v>6</v>
-      </c>
-      <c r="F404" t="s">
-        <v>16</v>
-      </c>
-      <c r="G404" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H404" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>25</v>
-      </c>
-      <c r="B405">
-        <v>-1</v>
-      </c>
-      <c r="C405" t="s">
-        <v>26</v>
-      </c>
-      <c r="D405" t="s">
-        <v>6</v>
-      </c>
-      <c r="F405" t="s">
-        <v>16</v>
-      </c>
-      <c r="G405" t="s">
-        <v>27</v>
-      </c>
-      <c r="H405" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A406" s="2"/>
-      <c r="J406" s="2"/>
-    </row>
-    <row r="407" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A407" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>1</v>
-      </c>
-      <c r="B408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>2</v>
-      </c>
-      <c r="B409" s="22" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="B409" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B411" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B412" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H415" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B413" t="s">
+      <c r="I415" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J415" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K415" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A415" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A416" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D416" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E416" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F416" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G416" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H416" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I416" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J416" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K416" s="5" t="s">
+      <c r="L415" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="L416" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M416" s="5" t="s">
+      <c r="M415" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A417" t="str">
-        <f>B407</f>
+    <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" t="str">
+        <f>B406</f>
         <v>polyethyleneimine (PEI) production, for sorbent-based direct air capture system</v>
       </c>
-      <c r="B417">
-        <v>1</v>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+      <c r="F416" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" s="7" t="str">
+        <f>B408</f>
+        <v>polyethyleneimine</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>90</v>
+      </c>
+      <c r="B417" s="38">
+        <f t="shared" ref="B417:B427" si="0">AVERAGE(K417:L417)</f>
+        <v>1.9749999999999999</v>
       </c>
       <c r="C417" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D417" t="s">
         <v>6</v>
       </c>
       <c r="F417" t="s">
-        <v>15</v>
-      </c>
-      <c r="G417" s="7" t="str">
-        <f>B409</f>
-        <v>polyethyleneimine</v>
+        <v>16</v>
+      </c>
+      <c r="G417" t="s">
+        <v>141</v>
+      </c>
+      <c r="I417">
+        <v>5</v>
+      </c>
+      <c r="J417">
+        <f>B417</f>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="K417">
+        <v>1.42</v>
+      </c>
+      <c r="L417">
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>90</v>
-      </c>
-      <c r="B418" s="38">
-        <f t="shared" ref="B418:B428" si="0">AVERAGE(K418:L418)</f>
-        <v>1.9749999999999999</v>
+        <v>82</v>
+      </c>
+      <c r="B418">
+        <f t="shared" si="0"/>
+        <v>3.1749999999999998</v>
       </c>
       <c r="C418" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D418" t="s">
         <v>6</v>
@@ -9036,32 +9056,32 @@
         <v>16</v>
       </c>
       <c r="G418" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="I418">
         <v>5</v>
       </c>
       <c r="J418">
-        <f>B418</f>
-        <v>1.9749999999999999</v>
+        <f t="shared" ref="J418:J427" si="1">B418</f>
+        <v>3.1749999999999998</v>
       </c>
       <c r="K418">
-        <v>1.42</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L418">
-        <v>2.5299999999999998</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B419">
         <f t="shared" si="0"/>
-        <v>3.1749999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="C419" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D419" t="s">
         <v>6</v>
@@ -9070,32 +9090,32 @@
         <v>16</v>
       </c>
       <c r="G419" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I419">
         <v>5</v>
       </c>
       <c r="J419">
-        <f t="shared" ref="J419:J428" si="1">B419</f>
-        <v>3.1749999999999998</v>
+        <f t="shared" si="1"/>
+        <v>2.59</v>
       </c>
       <c r="K419">
-        <v>2.2799999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="L419">
-        <v>4.07</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B420">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C420" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D420" t="s">
         <v>6</v>
@@ -9104,32 +9124,32 @@
         <v>16</v>
       </c>
       <c r="G420" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I420">
         <v>5</v>
       </c>
       <c r="J420">
         <f t="shared" si="1"/>
-        <v>2.59</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K420">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="L420">
-        <v>3.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B421">
         <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="C421" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D421" t="s">
         <v>6</v>
@@ -9138,7 +9158,7 @@
         <v>16</v>
       </c>
       <c r="G421" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I421">
         <v>5</v>
@@ -9156,11 +9176,11 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B422">
         <f t="shared" si="0"/>
-        <v>0.19500000000000001</v>
+        <v>0.11570000000000008</v>
       </c>
       <c r="C422" t="s">
         <v>17</v>
@@ -9172,32 +9192,37 @@
         <v>16</v>
       </c>
       <c r="G422" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="H422" t="s">
+        <v>220</v>
       </c>
       <c r="I422">
         <v>5</v>
       </c>
       <c r="J422">
         <f t="shared" si="1"/>
-        <v>0.19500000000000001</v>
+        <v>0.11570000000000008</v>
       </c>
       <c r="K422">
-        <v>0.16</v>
+        <f>2.84*(1-99%)</f>
+        <v>2.8400000000000022E-2</v>
       </c>
       <c r="L422">
-        <v>0.23</v>
+        <f>4.06*(1-95%)</f>
+        <v>0.20300000000000015</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B423">
         <f t="shared" si="0"/>
-        <v>0.11570000000000008</v>
+        <v>1.3817000000000013</v>
       </c>
       <c r="C423" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D423" t="s">
         <v>6</v>
@@ -9206,34 +9231,34 @@
         <v>16</v>
       </c>
       <c r="G423" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H423" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I423">
         <v>5</v>
       </c>
       <c r="J423">
         <f t="shared" si="1"/>
-        <v>0.11570000000000008</v>
+        <v>1.3817000000000013</v>
       </c>
       <c r="K423">
-        <f>2.84*(1-99%)</f>
-        <v>2.8400000000000022E-2</v>
+        <f>33.94*(1-99%)</f>
+        <v>0.33940000000000026</v>
       </c>
       <c r="L423">
-        <f>4.06*(1-95%)</f>
-        <v>0.20300000000000015</v>
+        <f>48.48*(1-95%)</f>
+        <v>2.4240000000000022</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B424">
         <f t="shared" si="0"/>
-        <v>1.3817000000000013</v>
+        <v>14.559999999999999</v>
       </c>
       <c r="C424" t="s">
         <v>26</v>
@@ -9245,305 +9270,288 @@
         <v>16</v>
       </c>
       <c r="G424" t="s">
-        <v>145</v>
-      </c>
-      <c r="H424" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="I424">
         <v>5</v>
       </c>
       <c r="J424">
         <f t="shared" si="1"/>
-        <v>1.3817000000000013</v>
+        <v>14.559999999999999</v>
       </c>
       <c r="K424">
-        <f>33.94*(1-99%)</f>
-        <v>0.33940000000000026</v>
+        <v>11.99</v>
       </c>
       <c r="L424">
-        <f>48.48*(1-95%)</f>
-        <v>2.4240000000000022</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B425">
         <f t="shared" si="0"/>
-        <v>14.559999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C425" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D425" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F425" t="s">
         <v>16</v>
       </c>
       <c r="G425" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I425">
         <v>5</v>
       </c>
       <c r="J425">
         <f t="shared" si="1"/>
-        <v>14.559999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="K425">
-        <v>11.99</v>
+        <v>0.27</v>
       </c>
       <c r="L425">
-        <v>17.13</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B426">
         <f t="shared" si="0"/>
-        <v>0.34499999999999997</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="C426" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D426" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F426" t="s">
         <v>16</v>
       </c>
       <c r="G426" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I426">
         <v>5</v>
       </c>
       <c r="J426">
         <f t="shared" si="1"/>
-        <v>0.34499999999999997</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="K426">
-        <v>0.27</v>
+        <v>2.35</v>
       </c>
       <c r="L426">
-        <v>0.42</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B427">
         <f t="shared" si="0"/>
-        <v>7.4749999999999996</v>
+        <v>-1.5</v>
       </c>
       <c r="C427" t="s">
         <v>131</v>
       </c>
       <c r="D427" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F427" t="s">
         <v>16</v>
       </c>
       <c r="G427" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I427">
         <v>5</v>
       </c>
       <c r="J427">
         <f t="shared" si="1"/>
-        <v>7.4749999999999996</v>
+        <v>-1.5</v>
       </c>
       <c r="K427">
-        <v>2.35</v>
+        <v>-2.63</v>
       </c>
       <c r="L427">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>73</v>
-      </c>
-      <c r="B428">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-      <c r="C428" t="s">
-        <v>131</v>
-      </c>
-      <c r="D428" t="s">
-        <v>6</v>
-      </c>
-      <c r="F428" t="s">
-        <v>16</v>
-      </c>
-      <c r="G428" t="s">
-        <v>140</v>
-      </c>
-      <c r="I428">
-        <v>5</v>
-      </c>
-      <c r="J428">
-        <f t="shared" si="1"/>
-        <v>-1.5</v>
-      </c>
-      <c r="K428">
-        <v>-2.63</v>
-      </c>
-      <c r="L428">
         <v>-0.37</v>
       </c>
-      <c r="M428" t="b">
-        <v>1</v>
-      </c>
+      <c r="M427" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="2"/>
+      <c r="J428" s="2"/>
     </row>
     <row r="429" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A429" s="2"/>
-      <c r="J429" s="2"/>
-    </row>
-    <row r="430" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
+      <c r="A429" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B429" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>1</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>2</v>
+      </c>
+      <c r="B431" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>1</v>
-      </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>2</v>
-      </c>
-      <c r="B432" s="22" t="s">
-        <v>219</v>
+        <v>3</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B433" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B434" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B435" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A438" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H438" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B436" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>18</v>
-      </c>
-      <c r="B437" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="438" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A438" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A439" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B439" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C439" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D439" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E439" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F439" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G439" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H439" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I439" s="5" t="s">
+      <c r="I438" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J439" s="5" t="s">
+      <c r="J438" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K439" s="5" t="s">
+      <c r="K438" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L438" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="L439" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="440" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A440" t="str">
-        <f>B430</f>
+    </row>
+    <row r="439" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" t="str">
+        <f>B429</f>
         <v>silica gel production, for sorbent-based direct air capture system</v>
       </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439" t="s">
+        <v>8</v>
+      </c>
+      <c r="D439" t="s">
+        <v>6</v>
+      </c>
+      <c r="F439" t="s">
+        <v>15</v>
+      </c>
+      <c r="G439" s="7" t="str">
+        <f>B431</f>
+        <v>silica gel</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>81</v>
+      </c>
       <c r="B440">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="C440" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D440" t="s">
         <v>6</v>
       </c>
       <c r="F440" t="s">
-        <v>15</v>
-      </c>
-      <c r="G440" s="7" t="str">
-        <f>B432</f>
-        <v>silica gel</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G440" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q440" s="4"/>
+      <c r="S440" s="4"/>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B441">
-        <v>3.9</v>
+        <v>0.66</v>
       </c>
       <c r="C441" t="s">
         <v>26</v>
@@ -9555,271 +9563,272 @@
         <v>16</v>
       </c>
       <c r="G441" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q441" s="4"/>
-      <c r="S441" s="4"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B442">
-        <v>0.66</v>
+        <v>19.5</v>
       </c>
       <c r="C442" t="s">
         <v>26</v>
       </c>
       <c r="D442" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F442" t="s">
         <v>16</v>
       </c>
       <c r="G442" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="I442">
+        <v>5</v>
+      </c>
+      <c r="J442">
+        <f>B442</f>
+        <v>19.5</v>
+      </c>
+      <c r="K442">
+        <v>15</v>
+      </c>
+      <c r="L442">
+        <v>24</v>
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B443">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="C443" t="s">
         <v>26</v>
       </c>
       <c r="D443" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F443" t="s">
         <v>16</v>
       </c>
       <c r="G443" t="s">
-        <v>88</v>
-      </c>
-      <c r="I443">
-        <v>5</v>
-      </c>
-      <c r="J443">
-        <f>B443</f>
-        <v>19.5</v>
-      </c>
-      <c r="K443">
-        <v>15</v>
-      </c>
-      <c r="L443">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="444" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B444">
-        <v>40</v>
+        <f>-35/1000</f>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="C444" t="s">
         <v>26</v>
       </c>
       <c r="D444" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F444" t="s">
         <v>16</v>
       </c>
       <c r="G444" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="445" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="M444" s="2"/>
+    </row>
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>195</v>
-      </c>
-      <c r="B445">
-        <f>-35/1000</f>
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="C445" t="s">
-        <v>26</v>
+        <v>148</v>
+      </c>
+      <c r="B445" s="6">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="s">
+        <v>85</v>
+      </c>
+      <c r="F445" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A446" s="2"/>
+      <c r="J446" s="2"/>
+    </row>
+    <row r="447" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>2</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>3</v>
+      </c>
+      <c r="B450" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>9</v>
+      </c>
+      <c r="B453" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>11</v>
+      </c>
+      <c r="B456" t="s">
+        <v>12</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" t="s">
+        <v>5</v>
+      </c>
+      <c r="E456" t="s">
+        <v>13</v>
+      </c>
+      <c r="F456" t="s">
+        <v>3</v>
+      </c>
+      <c r="G456" t="s">
+        <v>2</v>
+      </c>
+      <c r="H456" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>97</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457" t="s">
+        <v>8</v>
+      </c>
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="F457" t="s">
+        <v>15</v>
+      </c>
+      <c r="G457" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>194</v>
+      </c>
+      <c r="B458">
+        <v>9.9999999999999986E-10</v>
+      </c>
+      <c r="C458" t="s">
+        <v>21</v>
+      </c>
+      <c r="D458" t="s">
         <v>49</v>
       </c>
-      <c r="F445" t="s">
-        <v>16</v>
-      </c>
-      <c r="G445" t="s">
-        <v>149</v>
-      </c>
-      <c r="M445" s="2"/>
-    </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>148</v>
-      </c>
-      <c r="B446" s="6">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="D446" t="s">
-        <v>6</v>
-      </c>
-      <c r="E446" t="s">
-        <v>85</v>
-      </c>
-      <c r="F446" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="447" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A447" s="2"/>
-      <c r="J447" s="2"/>
-    </row>
-    <row r="448" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A448" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>1</v>
-      </c>
-      <c r="B449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>2</v>
-      </c>
-      <c r="B450" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>3</v>
-      </c>
-      <c r="B451" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>5</v>
-      </c>
-      <c r="B452" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>7</v>
-      </c>
-      <c r="B453" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>9</v>
-      </c>
-      <c r="B454" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>18</v>
-      </c>
-      <c r="B455" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A456" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>11</v>
-      </c>
-      <c r="B457" t="s">
-        <v>12</v>
-      </c>
-      <c r="C457" t="s">
-        <v>7</v>
-      </c>
-      <c r="D457" t="s">
-        <v>5</v>
-      </c>
-      <c r="E457" t="s">
-        <v>13</v>
-      </c>
-      <c r="F457" t="s">
-        <v>3</v>
-      </c>
-      <c r="G457" t="s">
-        <v>2</v>
-      </c>
-      <c r="H457" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>97</v>
-      </c>
-      <c r="B458">
-        <v>1</v>
-      </c>
-      <c r="C458" t="s">
-        <v>8</v>
-      </c>
-      <c r="D458" t="s">
-        <v>6</v>
-      </c>
       <c r="F458" t="s">
-        <v>15</v>
-      </c>
-      <c r="G458" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G458" t="s">
+        <v>196</v>
+      </c>
+      <c r="H458" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B459">
-        <v>9.9999999999999986E-10</v>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="C459" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D459" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F459" t="s">
         <v>16</v>
       </c>
       <c r="G459" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="H459" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="B460">
-        <v>1.0000000000000001E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C460" t="s">
         <v>17</v>
@@ -9831,18 +9840,18 @@
         <v>16</v>
       </c>
       <c r="G460" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="H460" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B461">
-        <v>9.9999999999999995E-7</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="C461" t="s">
         <v>17</v>
@@ -9854,90 +9863,91 @@
         <v>16</v>
       </c>
       <c r="G461" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="H461" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B462">
-        <v>2.9999999999999999E-7</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C462" t="s">
         <v>17</v>
       </c>
       <c r="D462" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F462" t="s">
         <v>16</v>
       </c>
       <c r="G462" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H462" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="B463">
-        <v>3.1999999999999999E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C463" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D463" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F463" t="s">
         <v>16</v>
       </c>
       <c r="G463" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="H463" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B464">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0400000000000001E-3</v>
       </c>
       <c r="C464" t="s">
-        <v>8</v>
-      </c>
-      <c r="D464" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D464" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F464" t="s">
         <v>16</v>
       </c>
       <c r="G464" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="H464" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="J464" s="2"/>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B465">
-        <v>1.0400000000000001E-3</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="C465" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>6</v>
@@ -9946,16 +9956,15 @@
         <v>16</v>
       </c>
       <c r="G465" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="H465" t="s">
         <v>107</v>
       </c>
-      <c r="J465" s="2"/>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B466">
         <v>1.3000000000000002E-4</v>
@@ -9970,7 +9979,7 @@
         <v>16</v>
       </c>
       <c r="G466" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="H466" t="s">
         <v>107</v>
@@ -9978,10 +9987,10 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B467">
-        <v>1.3000000000000002E-4</v>
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="C467" t="s">
         <v>17</v>
@@ -9993,7 +10002,7 @@
         <v>16</v>
       </c>
       <c r="G467" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H467" t="s">
         <v>107</v>
@@ -10001,10 +10010,10 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B468">
-        <v>1.1999999999999999E-6</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="C468" t="s">
         <v>17</v>
@@ -10016,7 +10025,7 @@
         <v>16</v>
       </c>
       <c r="G468" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H468" t="s">
         <v>107</v>
@@ -10024,22 +10033,22 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B469">
-        <v>2.5000000000000002E-6</v>
+        <v>1.8E-3</v>
       </c>
       <c r="C469" t="s">
         <v>17</v>
       </c>
       <c r="D469" s="10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F469" t="s">
         <v>16</v>
       </c>
       <c r="G469" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H469" t="s">
         <v>107</v>
@@ -10047,22 +10056,22 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="B470">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="C470" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D470" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F470" t="s">
         <v>16</v>
       </c>
       <c r="G470" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="H470" t="s">
         <v>107</v>
@@ -10070,59 +10079,59 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>35</v>
-      </c>
-      <c r="B471">
-        <v>1.1999999999999999E-4</v>
+        <v>106</v>
+      </c>
+      <c r="B471" s="6">
+        <v>8.2000000000000001E-11</v>
       </c>
       <c r="C471" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D471" s="10" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="F471" t="s">
         <v>16</v>
       </c>
       <c r="G471" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="H471" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>106</v>
-      </c>
-      <c r="B472" s="6">
-        <v>8.2000000000000001E-11</v>
+        <v>102</v>
+      </c>
+      <c r="B472">
+        <v>3.3E-3</v>
       </c>
       <c r="C472" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D472" s="10" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="F472" t="s">
         <v>16</v>
       </c>
       <c r="G472" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H472" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>102</v>
-      </c>
-      <c r="B473">
-        <v>3.3E-3</v>
+        <v>59</v>
+      </c>
+      <c r="B473" s="2">
+        <v>1.7E-5</v>
       </c>
       <c r="C473" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>6</v>
@@ -10131,18 +10140,18 @@
         <v>16</v>
       </c>
       <c r="G473" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H473" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>59</v>
-      </c>
-      <c r="B474" s="2">
-        <v>1.7E-5</v>
+        <v>42</v>
+      </c>
+      <c r="B474">
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="C474" t="s">
         <v>17</v>
@@ -10154,7 +10163,7 @@
         <v>16</v>
       </c>
       <c r="G474" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="H474" t="s">
         <v>108</v>
@@ -10162,22 +10171,22 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="B475">
-        <v>3.6999999999999998E-5</v>
+        <v>4.8E-8</v>
       </c>
       <c r="C475" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D475" s="10" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F475" t="s">
         <v>16</v>
       </c>
       <c r="G475" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="H475" t="s">
         <v>108</v>
@@ -10185,22 +10194,22 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B476">
-        <v>4.8E-8</v>
+        <v>1.9E-6</v>
       </c>
       <c r="C476" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D476" s="10" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F476" t="s">
         <v>16</v>
       </c>
       <c r="G476" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="H476" t="s">
         <v>108</v>
@@ -10208,22 +10217,22 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="B477">
-        <v>1.9E-6</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="C477" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D477" s="10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F477" t="s">
         <v>16</v>
       </c>
       <c r="G477" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="H477" t="s">
         <v>108</v>
@@ -10231,59 +10240,59 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B478">
-        <v>3.4000000000000002E-4</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="C478" t="s">
         <v>8</v>
       </c>
       <c r="D478" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F478" t="s">
         <v>16</v>
       </c>
       <c r="G478" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H478" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B479">
-        <v>0.11799999999999999</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="C479" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D479" s="10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F479" t="s">
         <v>16</v>
       </c>
       <c r="G479" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="H479" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B480">
-        <v>-4.4000000000000003E-3</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="C480" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>6</v>
@@ -10292,21 +10301,22 @@
         <v>16</v>
       </c>
       <c r="G480" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H480" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="481" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="J480" s="2"/>
+    </row>
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B481">
-        <v>-2.5999999999999998E-4</v>
+        <v>-1.9999999999999999E-6</v>
       </c>
       <c r="C481" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>6</v>
@@ -10315,22 +10325,21 @@
         <v>16</v>
       </c>
       <c r="G481" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H481" t="s">
         <v>76</v>
       </c>
-      <c r="J481" s="2"/>
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B482">
-        <v>-1.9999999999999999E-6</v>
+        <v>-2.7999999999999999E-6</v>
       </c>
       <c r="C482" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D482" s="10" t="s">
         <v>6</v>
@@ -10339,7 +10348,7 @@
         <v>16</v>
       </c>
       <c r="G482" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H482" t="s">
         <v>76</v>
@@ -10347,13 +10356,13 @@
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B483">
-        <v>-2.7999999999999999E-6</v>
+        <v>-1.1999999999999999E-6</v>
       </c>
       <c r="C483" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D483" s="10" t="s">
         <v>6</v>
@@ -10362,41 +10371,32 @@
         <v>16</v>
       </c>
       <c r="G483" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H483" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>112</v>
-      </c>
-      <c r="B484">
-        <v>-1.1999999999999999E-6</v>
-      </c>
-      <c r="C484" t="s">
-        <v>131</v>
-      </c>
-      <c r="D484" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F484" t="s">
-        <v>16</v>
-      </c>
-      <c r="G484" t="s">
-        <v>137</v>
-      </c>
-      <c r="H484" t="s">
-        <v>76</v>
-      </c>
+    <row r="485" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="K485" s="16"/>
+      <c r="L485" s="16"/>
+      <c r="M485" s="16"/>
+      <c r="N485" s="16"/>
+      <c r="O485" s="16"/>
+      <c r="P485" s="16"/>
     </row>
     <row r="486" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A486" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B486" s="14" t="s">
-        <v>302</v>
+      <c r="A486" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="K486" s="16"/>
       <c r="L486" s="16"/>
@@ -10407,10 +10407,10 @@
     </row>
     <row r="487" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B487" s="15" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B487" s="15">
+        <v>1</v>
       </c>
       <c r="K487" s="16"/>
       <c r="L487" s="16"/>
@@ -10421,10 +10421,10 @@
     </row>
     <row r="488" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B488" s="15">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B488" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="K488" s="16"/>
       <c r="L488" s="16"/>
@@ -10435,10 +10435,10 @@
     </row>
     <row r="489" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B489" s="15" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="K489" s="16"/>
       <c r="L489" s="16"/>
@@ -10449,10 +10449,10 @@
     </row>
     <row r="490" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B490" s="15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K490" s="16"/>
       <c r="L490" s="16"/>
@@ -10463,10 +10463,10 @@
     </row>
     <row r="491" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B491" s="15" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="K491" s="16"/>
       <c r="L491" s="16"/>
@@ -10477,10 +10477,10 @@
     </row>
     <row r="492" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B492" s="15" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="B492" s="17">
+        <v>0.61363636363636365</v>
       </c>
       <c r="K492" s="16"/>
       <c r="L492" s="16"/>
@@ -10490,11 +10490,8 @@
       <c r="P492" s="16"/>
     </row>
     <row r="493" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B493" s="17">
-        <v>0.61363636363636365</v>
+      <c r="A493" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="K493" s="16"/>
       <c r="L493" s="16"/>
@@ -10505,112 +10502,151 @@
     </row>
     <row r="494" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K494" s="16"/>
-      <c r="L494" s="16"/>
-      <c r="M494" s="16"/>
-      <c r="N494" s="16"/>
-      <c r="O494" s="16"/>
-      <c r="P494" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="B494" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C494" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D494" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E494" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F494" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G494" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H494" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I494" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K494" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L494" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M494" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N494" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O494" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P494" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S494" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="T494" s="1"/>
     </row>
     <row r="495" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A495" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B495" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C495" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D495" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E495" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F495" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G495" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H495" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I495" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="J495" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K495" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L495" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="M495" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N495" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="O495" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="P495" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q495" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="R495" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="S495" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="T495" s="1"/>
+      <c r="A495" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B495" s="15">
+        <v>1</v>
+      </c>
+      <c r="C495" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D495" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F495" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G495" s="15" t="str">
+        <f>B488</f>
+        <v>carbon dioxide, captured</v>
+      </c>
+      <c r="H495" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K495" s="16"/>
+      <c r="L495" s="16"/>
+      <c r="M495" s="16"/>
+      <c r="N495" s="16"/>
+      <c r="O495" s="16"/>
+      <c r="P495" s="16"/>
+      <c r="T495"/>
     </row>
     <row r="496" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B496" s="15">
-        <v>1</v>
-      </c>
-      <c r="C496" s="15" t="s">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="B496" s="19">
+        <v>6.7613636363636362E-2</v>
       </c>
       <c r="D496" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="E496" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F496" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G496" s="15" t="str">
-        <f>B489</f>
-        <v>carbon dioxide, captured</v>
+        <v>20</v>
       </c>
       <c r="H496" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K496" s="16"/>
-      <c r="L496" s="16"/>
-      <c r="M496" s="16"/>
-      <c r="N496" s="16"/>
-      <c r="O496" s="16"/>
-      <c r="P496" s="16"/>
-      <c r="T496"/>
+        <v>185</v>
+      </c>
+      <c r="I496" s="15">
+        <v>2</v>
+      </c>
+      <c r="J496">
+        <v>-2.6939455949206681</v>
+      </c>
+      <c r="K496" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L496" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M496" s="4">
+        <v>1</v>
+      </c>
+      <c r="N496" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O496" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P496" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q496" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="R496">
+        <v>0.16679850853156178</v>
+      </c>
     </row>
     <row r="497" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="15" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="B497" s="19">
-        <v>6.7613636363636362E-2</v>
+        <v>0.10738636363636363</v>
       </c>
       <c r="D497" s="15" t="s">
         <v>6</v>
@@ -10628,7 +10664,7 @@
         <v>2</v>
       </c>
       <c r="J497">
-        <v>-2.6939455949206681</v>
+        <v>-2.2313220729725551</v>
       </c>
       <c r="K497" s="4">
         <v>1.1000000000000001</v>
@@ -10657,10 +10693,10 @@
     </row>
     <row r="498" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B498" s="19">
-        <v>0.10738636363636363</v>
+        <v>186</v>
+      </c>
+      <c r="B498" s="20">
+        <v>1E-4</v>
       </c>
       <c r="D498" s="15" t="s">
         <v>6</v>
@@ -10671,14 +10707,11 @@
       <c r="F498" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H498" s="15" t="s">
-        <v>185</v>
-      </c>
       <c r="I498" s="15">
         <v>2</v>
       </c>
       <c r="J498">
-        <v>-2.2313220729725551</v>
+        <v>-9.2103403719761818</v>
       </c>
       <c r="K498" s="4">
         <v>1.1000000000000001</v>
@@ -10699,33 +10732,36 @@
         <v>1.2</v>
       </c>
       <c r="Q498" s="4">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="R498">
-        <v>0.16679850853156178</v>
+        <v>0.26139455023340635</v>
       </c>
     </row>
     <row r="499" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B499" s="20">
-        <v>1E-4</v>
+        <v>31</v>
+      </c>
+      <c r="B499" s="15">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="C499" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="D499" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E499" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="F499" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="G499" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="I499" s="15">
         <v>2</v>
       </c>
       <c r="J499">
-        <v>-9.2103403719761818</v>
+        <v>-4.6397616307577101</v>
       </c>
       <c r="K499" s="4">
         <v>1.1000000000000001</v>
@@ -10745,37 +10781,37 @@
       <c r="P499" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q499" s="4">
-        <v>1.5</v>
+      <c r="Q499">
+        <v>1.05</v>
       </c>
       <c r="R499">
-        <v>0.26139455023340635</v>
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="500" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B500" s="15">
-        <v>9.6600000000000002E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D500" s="15" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F500" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G500" s="15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I500" s="15">
         <v>2</v>
       </c>
       <c r="J500">
-        <v>-4.6397616307577101</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="K500" s="4">
         <v>1.1000000000000001</v>
@@ -10804,28 +10840,32 @@
     </row>
     <row r="501" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="15" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B501" s="15">
-        <v>0.1</v>
+        <f>0.4+((3.7-0.4)*0.4)</f>
+        <v>1.7200000000000002</v>
       </c>
       <c r="C501" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D501" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F501" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G501" s="15" t="s">
-        <v>24</v>
+        <v>188</v>
+      </c>
+      <c r="H501" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="I501" s="15">
         <v>2</v>
       </c>
       <c r="J501">
-        <v>-2.3025850929940455</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="K501" s="4">
         <v>1.1000000000000001</v>
@@ -10854,32 +10894,28 @@
     </row>
     <row r="502" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B502" s="15">
-        <f>0.4+((3.7-0.4)*0.4)</f>
-        <v>1.7200000000000002</v>
+        <v>90</v>
+      </c>
+      <c r="B502" s="39">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C502" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D502" s="15" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F502" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G502" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H502" s="15" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="I502" s="15">
         <v>2</v>
       </c>
       <c r="J502">
-        <v>0.40546510810816438</v>
+        <v>-5.521460917862246</v>
       </c>
       <c r="K502" s="4">
         <v>1.1000000000000001</v>
@@ -10908,10 +10944,10 @@
     </row>
     <row r="503" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B503" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>91</v>
+      </c>
+      <c r="B503" s="15">
+        <v>1E-4</v>
       </c>
       <c r="C503" s="15" t="s">
         <v>17</v>
@@ -10923,13 +10959,13 @@
         <v>16</v>
       </c>
       <c r="G503" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I503" s="15">
         <v>2</v>
       </c>
       <c r="J503">
-        <v>-5.521460917862246</v>
+        <v>-9.2103403719761818</v>
       </c>
       <c r="K503" s="4">
         <v>1.1000000000000001</v>
@@ -10958,7 +10994,7 @@
     </row>
     <row r="504" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="15" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="B504" s="15">
         <v>1E-4</v>
@@ -10973,7 +11009,7 @@
         <v>16</v>
       </c>
       <c r="G504" s="15" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I504" s="15">
         <v>2</v>
@@ -11007,235 +11043,236 @@
       </c>
     </row>
     <row r="505" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A505" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B505" s="15">
-        <v>1E-4</v>
-      </c>
-      <c r="C505" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D505" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F505" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G505" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="I505" s="15">
+      <c r="K505" s="16"/>
+      <c r="L505" s="16"/>
+      <c r="M505" s="16"/>
+      <c r="N505" s="16"/>
+      <c r="O505" s="16"/>
+      <c r="P505" s="16"/>
+    </row>
+    <row r="506" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A508" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
         <v>2</v>
       </c>
-      <c r="J505">
-        <v>-9.2103403719761818</v>
-      </c>
-      <c r="K505" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L505" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M505" s="4">
-        <v>1</v>
-      </c>
-      <c r="N505" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O505" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P505" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q505">
-        <v>1.05</v>
-      </c>
-      <c r="R505">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="506" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K506" s="16"/>
-      <c r="L506" s="16"/>
-      <c r="M506" s="16"/>
-      <c r="N506" s="16"/>
-      <c r="O506" s="16"/>
-      <c r="P506" s="16"/>
-    </row>
-    <row r="507" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A507" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B507" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>7</v>
-      </c>
-      <c r="B508" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="509" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A509" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B509">
-        <v>1</v>
+      <c r="B509" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B510" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B511" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B512" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B513" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>9</v>
-      </c>
-      <c r="B514" t="s">
-        <v>200</v>
+        <v>171</v>
+      </c>
+      <c r="B514">
+        <v>0.06</v>
       </c>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B515">
-        <v>0.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>192</v>
-      </c>
-      <c r="B516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
+    <row r="517" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B517" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C518" s="5" t="s">
+      <c r="C517" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D518" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E518" s="5" t="s">
+      <c r="D517" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E517" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F518" s="5" t="s">
+      <c r="F517" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G518" s="5" t="s">
+      <c r="G517" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H518" s="5" t="s">
+      <c r="H517" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I518" s="5" t="s">
+      <c r="I517" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J518" s="5" t="s">
+      <c r="J517" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K518" s="5" t="s">
+      <c r="K517" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L518" s="5" t="s">
+      <c r="L517" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M518" s="5" t="s">
+      <c r="M517" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N518" s="5" t="s">
+      <c r="N517" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O518" s="5" t="s">
+      <c r="O517" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="P518" s="5" t="s">
+      <c r="P517" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="Q518" s="5" t="s">
+      <c r="Q517" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="R518" s="5" t="s">
+      <c r="R517" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="S518" s="5" t="s">
+      <c r="S517" s="5" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>302</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518" t="s">
+        <v>8</v>
+      </c>
+      <c r="D518" t="s">
+        <v>6</v>
+      </c>
+      <c r="F518" t="s">
+        <v>15</v>
+      </c>
+      <c r="G518" t="str">
+        <f>B509</f>
+        <v>carbon dioxide, captured</v>
       </c>
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="B519">
-        <v>1</v>
-      </c>
-      <c r="C519" t="s">
-        <v>8</v>
+        <f>0.11*(1-B514)</f>
+        <v>0.10339999999999999</v>
       </c>
       <c r="D519" t="s">
         <v>6</v>
       </c>
+      <c r="E519" t="s">
+        <v>85</v>
+      </c>
       <c r="F519" t="s">
-        <v>15</v>
-      </c>
-      <c r="G519" t="str">
-        <f>B510</f>
-        <v>carbon dioxide, captured</v>
+        <v>20</v>
+      </c>
+      <c r="H519" t="s">
+        <v>193</v>
+      </c>
+      <c r="I519">
+        <v>2</v>
+      </c>
+      <c r="J519">
+        <v>-2.2678230385440798</v>
+      </c>
+      <c r="K519">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L519">
+        <v>1.2</v>
+      </c>
+      <c r="M519">
+        <v>1</v>
+      </c>
+      <c r="N519">
+        <v>1.01</v>
+      </c>
+      <c r="O519">
+        <v>1.2</v>
+      </c>
+      <c r="P519">
+        <v>1.2</v>
+      </c>
+      <c r="Q519">
+        <v>1.05</v>
+      </c>
+      <c r="R519">
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="B520">
-        <f>0.11*(1-B515)</f>
-        <v>0.10339999999999999</v>
+        <f>0.11-B519</f>
+        <v>6.6000000000000086E-3</v>
       </c>
       <c r="D520" t="s">
         <v>6</v>
@@ -11253,7 +11290,7 @@
         <v>2</v>
       </c>
       <c r="J520">
-        <v>-2.2678230385440798</v>
+        <v>-5.0417129971418326</v>
       </c>
       <c r="K520">
         <v>1.1000000000000001</v>
@@ -11282,29 +11319,28 @@
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B521">
-        <f>0.11-B520</f>
-        <v>6.6000000000000086E-3</v>
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="C521" t="s">
+        <v>131</v>
       </c>
       <c r="D521" t="s">
         <v>6</v>
       </c>
-      <c r="E521" t="s">
-        <v>85</v>
-      </c>
       <c r="F521" t="s">
-        <v>20</v>
-      </c>
-      <c r="H521" t="s">
-        <v>193</v>
+        <v>16</v>
+      </c>
+      <c r="G521" t="s">
+        <v>32</v>
       </c>
       <c r="I521">
         <v>2</v>
       </c>
       <c r="J521">
-        <v>-5.0417129971418326</v>
+        <v>-4.6397616307577101</v>
       </c>
       <c r="K521">
         <v>1.1000000000000001</v>
@@ -11333,28 +11369,28 @@
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B522">
-        <v>9.6600000000000002E-3</v>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="C522" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D522" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F522" t="s">
         <v>16</v>
       </c>
       <c r="G522" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I522">
         <v>2</v>
       </c>
       <c r="J522">
-        <v>-4.6397616307577101</v>
+        <v>-4.976233867378923</v>
       </c>
       <c r="K522">
         <v>1.1000000000000001</v>
@@ -11383,28 +11419,29 @@
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B523">
-        <v>6.9000000000000008E-3</v>
+        <f>3.66*0.7</f>
+        <v>2.5619999999999998</v>
       </c>
       <c r="C523" t="s">
         <v>8</v>
       </c>
       <c r="D523" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F523" t="s">
         <v>16</v>
       </c>
       <c r="G523" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="I523">
         <v>2</v>
       </c>
       <c r="J523">
-        <v>-4.976233867378923</v>
+        <v>0.99635805462935334</v>
       </c>
       <c r="K523">
         <v>1.1000000000000001</v>
@@ -11431,31 +11468,30 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
-        <v>187</v>
-      </c>
-      <c r="B524">
-        <f>3.66*0.7</f>
-        <v>2.5619999999999998</v>
+    <row r="524" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A524" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B524" s="38">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C524" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D524" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F524" t="s">
         <v>16</v>
       </c>
       <c r="G524" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I524">
         <v>2</v>
       </c>
       <c r="J524">
-        <v>0.99635805462935334</v>
+        <v>-6.9077552789821368</v>
       </c>
       <c r="K524">
         <v>1.1000000000000001</v>
@@ -11482,168 +11518,139 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A525" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B525" s="38">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C525" t="s">
-        <v>17</v>
-      </c>
-      <c r="D525" t="s">
-        <v>6</v>
-      </c>
-      <c r="F525" t="s">
-        <v>16</v>
-      </c>
-      <c r="G525" t="s">
-        <v>141</v>
-      </c>
-      <c r="I525">
+    <row r="526" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>7</v>
+      </c>
+      <c r="B527" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A528" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
         <v>2</v>
       </c>
-      <c r="J525">
-        <v>-6.9077552789821368</v>
-      </c>
-      <c r="K525">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L525">
-        <v>1.2</v>
-      </c>
-      <c r="M525">
-        <v>1</v>
-      </c>
-      <c r="N525">
-        <v>1.01</v>
-      </c>
-      <c r="O525">
-        <v>1.2</v>
-      </c>
-      <c r="P525">
-        <v>1.2</v>
-      </c>
-      <c r="Q525">
-        <v>1.05</v>
-      </c>
-      <c r="R525">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="527" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A527" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B527" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A528" t="s">
-        <v>7</v>
-      </c>
-      <c r="B528" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="529" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A529" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B529">
-        <v>1</v>
+      <c r="B529" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B530" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B531" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B532" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B533" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E535" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G535" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H535" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B534" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A535" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="536" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A536" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C536" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D536" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E536" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F536" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G536" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H536" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I536" s="5"/>
-      <c r="J536" s="5"/>
-      <c r="K536" s="5"/>
-      <c r="L536" s="5"/>
-      <c r="M536" s="5"/>
-      <c r="N536" s="5"/>
-      <c r="O536" s="5"/>
-      <c r="P536" s="5"/>
-      <c r="Q536" s="5"/>
-      <c r="R536" s="5"/>
-      <c r="S536" s="5"/>
+      <c r="I535" s="5"/>
+      <c r="J535" s="5"/>
+      <c r="K535" s="5"/>
+      <c r="L535" s="5"/>
+      <c r="M535" s="5"/>
+      <c r="N535" s="5"/>
+      <c r="O535" s="5"/>
+      <c r="P535" s="5"/>
+      <c r="Q535" s="5"/>
+      <c r="R535" s="5"/>
+      <c r="S535" s="5"/>
+    </row>
+    <row r="536" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="28" t="str">
+        <f>B526</f>
+        <v>carbon dioxide, captured, at cement production plant, using monoethanolamine</v>
+      </c>
+      <c r="B536" s="37">
+        <v>1</v>
+      </c>
+      <c r="C536" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D536" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F536" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G536" s="28" t="str">
+        <f>B529</f>
+        <v>carbon dioxide, captured</v>
+      </c>
     </row>
     <row r="537" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="28" t="str">
-        <f>B527</f>
-        <v>carbon dioxide, captured, at cement production plant, using monoethanolamine</v>
-      </c>
-      <c r="B537" s="37">
+      <c r="A537" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B537" s="29">
         <v>1</v>
       </c>
       <c r="C537" s="28" t="s">
@@ -11653,22 +11660,22 @@
         <v>6</v>
       </c>
       <c r="F537" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G537" s="28" t="str">
-        <f>B530</f>
-        <v>carbon dioxide, captured</v>
+        <v>16</v>
+      </c>
+      <c r="G537" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="538" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B538" s="29">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="B538" s="37">
+        <f>1.4/1000</f>
+        <v>1.4E-3</v>
       </c>
       <c r="C538" s="28" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D538" s="28" t="s">
         <v>6</v>
@@ -11676,17 +11683,21 @@
       <c r="F538" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G538" t="s">
-        <v>98</v>
-      </c>
+      <c r="G538" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H538" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N538" s="29"/>
     </row>
     <row r="539" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B539" s="37">
-        <f>1.4/1000</f>
-        <v>1.4E-3</v>
+        <v>91</v>
+      </c>
+      <c r="B539" s="29">
+        <f>0.000355*1.25*(1/0.828)</f>
+        <v>5.3592995169082129E-4</v>
       </c>
       <c r="C539" s="28" t="s">
         <v>17</v>
@@ -11698,61 +11709,61 @@
         <v>16</v>
       </c>
       <c r="G539" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H539" s="28" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="N539" s="29"/>
+      <c r="P539" s="29"/>
     </row>
     <row r="540" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="28" t="s">
-        <v>91</v>
+      <c r="A540" t="s">
+        <v>317</v>
       </c>
       <c r="B540" s="29">
-        <f>0.000355*1.25*(1/0.828)</f>
-        <v>5.3592995169082129E-4</v>
-      </c>
-      <c r="C540" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D540" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F540" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G540" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H540" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="N540" s="29"/>
-      <c r="P540" s="29"/>
-    </row>
-    <row r="541" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
-        <v>318</v>
-      </c>
-      <c r="B541" s="29">
         <f>(3.76-0.11)/0.9</f>
         <v>4.0555555555555554</v>
       </c>
+      <c r="C540" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D540" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F540" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G540" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H540" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="N540" s="29"/>
+    </row>
+    <row r="541" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B541" s="29">
+        <f>188/761*0.459/3.6</f>
+        <v>3.1498028909329831E-2</v>
+      </c>
       <c r="C541" s="28" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D541" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F541" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G541" s="28" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="H541" s="28" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N541" s="29"/>
     </row>
@@ -11761,8 +11772,8 @@
         <v>34</v>
       </c>
       <c r="B542" s="29">
-        <f>188/761*0.459/3.6</f>
-        <v>3.1498028909329831E-2</v>
+        <f>123/761*0.459/3.6</f>
+        <v>2.0607752956636003E-2</v>
       </c>
       <c r="C542" s="28" t="s">
         <v>8</v>
@@ -11786,8 +11797,8 @@
         <v>34</v>
       </c>
       <c r="B543" s="29">
-        <f>123/761*0.459/3.6</f>
-        <v>2.0607752956636003E-2</v>
+        <f>575/761*0.459/3.6</f>
+        <v>9.63370565045992E-2</v>
       </c>
       <c r="C543" s="28" t="s">
         <v>8</v>
@@ -11802,46 +11813,45 @@
         <v>24</v>
       </c>
       <c r="H543" s="28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N543" s="29"/>
+      <c r="Q543" s="30"/>
     </row>
     <row r="544" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="28" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="B544" s="29">
-        <f>575/761*0.459/3.6</f>
-        <v>9.63370565045992E-2</v>
+        <f>0.473</f>
+        <v>0.47299999999999998</v>
       </c>
       <c r="C544" s="28" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D544" s="28" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F544" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G544" s="28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H544" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="N544" s="29"/>
-      <c r="Q544" s="30"/>
+        <v>230</v>
+      </c>
     </row>
     <row r="545" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="28" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="B545" s="29">
-        <f>0.473</f>
-        <v>0.47299999999999998</v>
+        <f>-B538*0.227/(0.227+0.006)</f>
+        <v>-1.3639484978540772E-3</v>
       </c>
       <c r="C545" s="28" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="D545" s="28" t="s">
         <v>6</v>
@@ -11850,7 +11860,7 @@
         <v>16</v>
       </c>
       <c r="G545" s="28" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="H545" s="28" t="s">
         <v>231</v>
@@ -11858,38 +11868,35 @@
     </row>
     <row r="546" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B546" s="29">
-        <f>-B539*0.227/(0.227+0.006)</f>
-        <v>-1.3639484978540772E-3</v>
-      </c>
-      <c r="C546" s="28" t="s">
-        <v>131</v>
+        <v>232</v>
+      </c>
+      <c r="B546" s="37">
+        <f>1.4/1000*(0.006/0.227+0.006)</f>
+        <v>4.5404405286343617E-5</v>
       </c>
       <c r="D546" s="28" t="s">
         <v>6</v>
       </c>
+      <c r="E546" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="F546" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G546" s="28" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H546" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="547" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B547" s="37">
-        <f>1.4/1000*(0.006/0.227+0.006)</f>
-        <v>4.5404405286343617E-5</v>
+        <v>234</v>
+      </c>
+      <c r="B547" s="29">
+        <f>B544/1000</f>
+        <v>4.7299999999999995E-4</v>
       </c>
       <c r="D547" s="28" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E547" s="28" t="s">
         <v>85</v>
@@ -11897,141 +11904,141 @@
       <c r="F547" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H547" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="548" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B548" s="29">
-        <f>B545/1000</f>
-        <v>4.7299999999999995E-4</v>
-      </c>
-      <c r="D548" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E548" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F548" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G548" s="29"/>
-    </row>
-    <row r="550" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="s">
+      <c r="G547" s="29"/>
+    </row>
+    <row r="549" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B550" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
+      <c r="B549" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
         <v>7</v>
       </c>
-      <c r="B551" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="552" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A552" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B552">
-        <v>1</v>
+      <c r="B550" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A551" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>2</v>
+      </c>
+      <c r="B552" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B553" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B554" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B555" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B556" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D558" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H558" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B557" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="559" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C559" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D559" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E559" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F559" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G559" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H559" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I559" s="5"/>
-      <c r="J559" s="5"/>
-      <c r="K559" s="5"/>
-      <c r="L559" s="5"/>
-      <c r="M559" s="5"/>
-      <c r="N559" s="5"/>
-      <c r="O559" s="5"/>
-      <c r="P559" s="5"/>
-      <c r="Q559" s="5"/>
-      <c r="R559" s="5"/>
-      <c r="S559" s="5"/>
-    </row>
-    <row r="560" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="28" t="str">
-        <f>B550</f>
+      <c r="I558" s="5"/>
+      <c r="J558" s="5"/>
+      <c r="K558" s="5"/>
+      <c r="L558" s="5"/>
+      <c r="M558" s="5"/>
+      <c r="N558" s="5"/>
+      <c r="O558" s="5"/>
+      <c r="P558" s="5"/>
+      <c r="Q558" s="5"/>
+      <c r="R558" s="5"/>
+      <c r="S558" s="5"/>
+    </row>
+    <row r="559" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="28" t="str">
+        <f>B549</f>
         <v>carbon dioxide, captured, at cement production plant, using direct separation</v>
       </c>
-      <c r="B560" s="28">
+      <c r="B559" s="28">
+        <v>1</v>
+      </c>
+      <c r="C559" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D559" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F559" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G559" s="28" t="str">
+        <f>B552</f>
+        <v>carbon dioxide, captured</v>
+      </c>
+    </row>
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A560" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B560" s="29">
         <v>1</v>
       </c>
       <c r="C560" s="28" t="s">
@@ -12040,242 +12047,245 @@
       <c r="D560" s="28" t="s">
         <v>6</v>
       </c>
+      <c r="E560" s="28"/>
       <c r="F560" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G560" s="28" t="str">
-        <f>B553</f>
-        <v>carbon dioxide, captured</v>
-      </c>
-    </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A561" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B561" s="29">
-        <v>1</v>
-      </c>
-      <c r="C561" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D561" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E561" s="28"/>
-      <c r="F561" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G561" t="s">
+        <v>16</v>
+      </c>
+      <c r="G560" t="s">
         <v>98</v>
       </c>
-      <c r="H561" s="28"/>
-    </row>
-    <row r="562" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="26" t="s">
+      <c r="H560" s="28"/>
+    </row>
+    <row r="561" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B562" s="32">
+      <c r="B561" s="32">
         <f>77*1/0.558/1000</f>
         <v>0.13799283154121864</v>
       </c>
-      <c r="C562" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D562" s="26" t="s">
+      <c r="C561" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D561" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F562" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G562" s="26" t="s">
+      <c r="F561" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G561" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H562" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="N562" s="32"/>
-    </row>
-    <row r="565" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A565" s="1" t="s">
+      <c r="H561" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="N561" s="32"/>
+    </row>
+    <row r="564" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B565" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A566" t="s">
+      <c r="B564" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
         <v>7</v>
       </c>
-      <c r="B566" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="567" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A567" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B567">
-        <v>1</v>
+      <c r="B565" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>2</v>
+      </c>
+      <c r="B567" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B568" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B569" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B570" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B571" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D573" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G573" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H573" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B572" t="s">
+      <c r="I573" s="5"/>
+      <c r="J573" s="5"/>
+      <c r="K573" s="5"/>
+      <c r="L573" s="5"/>
+      <c r="M573" s="5"/>
+      <c r="N573" s="5"/>
+      <c r="O573" s="5"/>
+      <c r="P573" s="5"/>
+      <c r="Q573" s="5"/>
+      <c r="R573" s="5"/>
+      <c r="S573" s="5"/>
+    </row>
+    <row r="574" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="28" t="str">
+        <f>B564</f>
+        <v>carbon dioxide, captured, at cement production plant, using oxyfuel</v>
+      </c>
+      <c r="B574" s="28">
+        <v>1</v>
+      </c>
+      <c r="C574" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D574" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F574" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G574" s="28" t="str">
+        <f>B567</f>
+        <v>carbon dioxide, captured</v>
+      </c>
+    </row>
+    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A575" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B575" s="29">
+        <v>1</v>
+      </c>
+      <c r="C575" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D575" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E575" s="28"/>
+      <c r="F575" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G575" t="s">
+        <v>98</v>
+      </c>
+      <c r="H575" s="28"/>
+    </row>
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>248</v>
+      </c>
+      <c r="B576" s="6">
+        <f>B574*32/44/(1-0.11)</f>
+        <v>0.81716036772216549</v>
+      </c>
+      <c r="C576" t="s">
+        <v>26</v>
+      </c>
+      <c r="D576" t="s">
+        <v>6</v>
+      </c>
+      <c r="F576" t="s">
+        <v>16</v>
+      </c>
+      <c r="G576" t="s">
+        <v>246</v>
+      </c>
+      <c r="H576" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A573" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="574" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A574" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C574" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D574" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E574" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F574" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G574" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H574" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I574" s="5"/>
-      <c r="J574" s="5"/>
-      <c r="K574" s="5"/>
-      <c r="L574" s="5"/>
-      <c r="M574" s="5"/>
-      <c r="N574" s="5"/>
-      <c r="O574" s="5"/>
-      <c r="P574" s="5"/>
-      <c r="Q574" s="5"/>
-      <c r="R574" s="5"/>
-      <c r="S574" s="5"/>
-    </row>
-    <row r="575" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="28" t="str">
-        <f>B565</f>
-        <v>carbon dioxide, captured, at cement production plant, using oxyfuel</v>
-      </c>
-      <c r="B575" s="28">
-        <v>1</v>
-      </c>
-      <c r="C575" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D575" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F575" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G575" s="28" t="str">
-        <f>B568</f>
-        <v>carbon dioxide, captured</v>
-      </c>
-    </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A576" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B576" s="29">
-        <v>1</v>
-      </c>
-      <c r="C576" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D576" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E576" s="28"/>
-      <c r="F576" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G576" t="s">
-        <v>98</v>
-      </c>
-      <c r="H576" s="28"/>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="B577" s="6">
-        <f>B575*32/44/(1-0.11)</f>
-        <v>0.81716036772216549</v>
+        <f>(122-182-62)/758*0.459/3.6</f>
+        <v>-2.0521108179419524E-2</v>
       </c>
       <c r="C577" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D577" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F577" t="s">
         <v>16</v>
       </c>
       <c r="G577" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="H577" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>34</v>
       </c>
       <c r="B578" s="6">
-        <f>(122-182-62)/758*0.459/3.6</f>
-        <v>-2.0521108179419524E-2</v>
+        <f>59/758*0.459/3.6</f>
+        <v>9.9241424802110813E-3</v>
       </c>
       <c r="C578" t="s">
         <v>8</v>
@@ -12289,17 +12299,17 @@
       <c r="G578" t="s">
         <v>24</v>
       </c>
-      <c r="H578" t="s">
+      <c r="H578" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="579" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>34</v>
       </c>
       <c r="B579" s="6">
-        <f>59/758*0.459/3.6</f>
-        <v>9.9241424802110813E-3</v>
+        <f>440/3600</f>
+        <v>0.12222222222222222</v>
       </c>
       <c r="C579" t="s">
         <v>8</v>
@@ -12313,17 +12323,19 @@
       <c r="G579" t="s">
         <v>24</v>
       </c>
-      <c r="H579" s="26" t="s">
+      <c r="H579" t="s">
         <v>245</v>
       </c>
+      <c r="M579" s="27"/>
+      <c r="N579" s="31"/>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>34</v>
       </c>
       <c r="B580" s="6">
-        <f>440/3600</f>
-        <v>0.12222222222222222</v>
+        <f>0.03/3600</f>
+        <v>8.3333333333333337E-6</v>
       </c>
       <c r="C580" t="s">
         <v>8</v>
@@ -12338,293 +12350,293 @@
         <v>24</v>
       </c>
       <c r="H580" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M580" s="27"/>
       <c r="N580" s="31"/>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
-        <v>34</v>
-      </c>
-      <c r="B581" s="6">
-        <f>0.03/3600</f>
-        <v>8.3333333333333337E-6</v>
-      </c>
-      <c r="C581" t="s">
-        <v>8</v>
-      </c>
-      <c r="D581" t="s">
-        <v>23</v>
-      </c>
-      <c r="F581" t="s">
-        <v>16</v>
-      </c>
-      <c r="G581" t="s">
-        <v>24</v>
-      </c>
-      <c r="H581" t="s">
-        <v>248</v>
-      </c>
-      <c r="M581" s="27"/>
-      <c r="N581" s="31"/>
-    </row>
-    <row r="583" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A583" s="1" t="s">
+    <row r="582" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B583" s="34" t="s">
-        <v>307</v>
+      <c r="B582" s="34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>9</v>
+      </c>
+      <c r="B583" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B584" s="35" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B585" s="35" t="s">
-        <v>8</v>
+        <v>294</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
+        <v>5</v>
+      </c>
+      <c r="B586" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A587" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B587" s="35"/>
+    </row>
+    <row r="588" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B588" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G588" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B586" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
-        <v>5</v>
-      </c>
-      <c r="B587" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A588" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B588" s="35"/>
-    </row>
-    <row r="589" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A589" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B589" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C589" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D589" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E589" s="1" t="s">
+      <c r="H588" s="1"/>
+      <c r="I588" s="1"/>
+      <c r="J588" s="1"/>
+      <c r="K588" s="1"/>
+      <c r="L588" s="1"/>
+      <c r="M588" s="1"/>
+      <c r="N588" s="1"/>
+      <c r="O588" s="1"/>
+      <c r="P588" s="1"/>
+      <c r="Q588" s="1"/>
+      <c r="R588" s="1"/>
+      <c r="S588" s="1"/>
+      <c r="T588" s="1"/>
+      <c r="U588" s="1"/>
+      <c r="V588" s="1"/>
+    </row>
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A589" t="str">
+        <f>B582</f>
+        <v>carbon dioxide, captured and stored, by land-use change</v>
+      </c>
+      <c r="B589" s="35">
+        <v>1</v>
+      </c>
+      <c r="C589" t="str">
+        <f>B586</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E589" t="str">
+        <f>B584</f>
+        <v>RER</v>
+      </c>
+      <c r="F589" t="s">
+        <v>15</v>
+      </c>
+      <c r="G589" t="str">
+        <f>B585</f>
+        <v>carbon dioxide, captured</v>
+      </c>
+    </row>
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>255</v>
+      </c>
+      <c r="B590" s="36">
+        <v>1</v>
+      </c>
+      <c r="C590" t="s">
+        <v>6</v>
+      </c>
+      <c r="D590" t="s">
+        <v>256</v>
+      </c>
+      <c r="F590" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="592" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M592" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
         <v>7</v>
       </c>
-      <c r="F589" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G589" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H589" s="1"/>
-      <c r="I589" s="1"/>
-      <c r="J589" s="1"/>
-      <c r="K589" s="1"/>
-      <c r="L589" s="1"/>
-      <c r="M589" s="1"/>
-      <c r="N589" s="1"/>
-      <c r="O589" s="1"/>
-      <c r="P589" s="1"/>
-      <c r="Q589" s="1"/>
-      <c r="R589" s="1"/>
-      <c r="S589" s="1"/>
-      <c r="T589" s="1"/>
-      <c r="U589" s="1"/>
-      <c r="V589" s="1"/>
-    </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A590" t="str">
-        <f>B583</f>
-        <v>carbon dioxide, captured and stored, by land-use change</v>
-      </c>
-      <c r="B590" s="35">
-        <v>1</v>
-      </c>
-      <c r="C590" t="str">
-        <f>B587</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E590" t="str">
-        <f>B585</f>
-        <v>RER</v>
-      </c>
-      <c r="F590" t="s">
-        <v>15</v>
-      </c>
-      <c r="G590" t="str">
-        <f>B586</f>
-        <v>carbon dioxide, captured</v>
-      </c>
-    </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A591" t="s">
-        <v>256</v>
-      </c>
-      <c r="B591" s="36">
-        <v>1</v>
-      </c>
-      <c r="C591" t="s">
-        <v>6</v>
-      </c>
-      <c r="D591" t="s">
-        <v>257</v>
-      </c>
-      <c r="F591" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="593" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A593" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>282</v>
+      <c r="B593" t="s">
+        <v>8</v>
       </c>
       <c r="M593" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>7</v>
-      </c>
-      <c r="B594" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
       </c>
       <c r="M594" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1</v>
-      </c>
-      <c r="B595">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B595" t="s">
+        <v>294</v>
       </c>
       <c r="M595" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B596" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="M596" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B597" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M597" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B598" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="M598" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B599" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="M599" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A600" t="s">
-        <v>18</v>
-      </c>
-      <c r="B600" t="s">
-        <v>258</v>
+    <row r="600" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M600" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A601" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M601" t="s">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>11</v>
+      </c>
+      <c r="B601" t="s">
+        <v>12</v>
+      </c>
+      <c r="C601" t="s">
+        <v>7</v>
+      </c>
+      <c r="D601" t="s">
+        <v>5</v>
+      </c>
+      <c r="E601" t="s">
+        <v>13</v>
+      </c>
+      <c r="F601" t="s">
+        <v>3</v>
+      </c>
+      <c r="G601" t="s">
+        <v>172</v>
+      </c>
+      <c r="H601" t="s">
+        <v>9</v>
+      </c>
+      <c r="I601" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>186</v>
+      </c>
+      <c r="B602">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="D602" t="s">
+        <v>6</v>
+      </c>
+      <c r="E602" t="s">
+        <v>85</v>
+      </c>
+      <c r="F602" t="s">
+        <v>20</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602" t="s">
+        <v>258</v>
+      </c>
+      <c r="I602" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
-        <v>11</v>
-      </c>
-      <c r="B602" t="s">
-        <v>12</v>
-      </c>
-      <c r="C602" t="s">
-        <v>7</v>
-      </c>
-      <c r="D602" t="s">
-        <v>5</v>
-      </c>
-      <c r="E602" t="s">
-        <v>13</v>
-      </c>
-      <c r="F602" t="s">
-        <v>3</v>
-      </c>
-      <c r="G602" t="s">
-        <v>172</v>
-      </c>
-      <c r="H602" t="s">
-        <v>9</v>
-      </c>
-      <c r="I602" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>186</v>
-      </c>
-      <c r="B603">
-        <v>1.2300000000000001E-4</v>
+        <v>232</v>
+      </c>
+      <c r="B603" s="38">
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="D603" t="s">
         <v>6</v>
@@ -12639,24 +12651,24 @@
         <v>0</v>
       </c>
       <c r="H603" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I603" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>233</v>
-      </c>
-      <c r="B604" s="38">
-        <v>6.0000000000000002E-6</v>
+        <v>259</v>
+      </c>
+      <c r="B604">
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="D604" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E604" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="F604" t="s">
         <v>20</v>
@@ -12665,24 +12677,25 @@
         <v>0</v>
       </c>
       <c r="H604" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I604" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>260</v>
-      </c>
-      <c r="B605">
-        <v>8.3199999999999996E-2</v>
+        <v>234</v>
+      </c>
+      <c r="B605" s="33">
+        <f>((B604*1000)-(600*3.78541/1000))/1000</f>
+        <v>8.0928753999999992E-2</v>
       </c>
       <c r="D605" t="s">
         <v>49</v>
       </c>
       <c r="E605" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F605" t="s">
         <v>20</v>
@@ -12691,52 +12704,55 @@
         <v>0</v>
       </c>
       <c r="H605" t="s">
-        <v>262</v>
-      </c>
-      <c r="I605" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A606" t="s">
-        <v>235</v>
-      </c>
-      <c r="B606" s="33">
-        <f>((B605*1000)-(600*3.78541/1000))/1000</f>
-        <v>8.0928753999999992E-2</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A606" t="str">
+        <f>B592</f>
+        <v>carbon dioxide, captured and stored, at wood burning power plant, pipeline 200km, storage 1000m</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606" t="s">
+        <v>8</v>
       </c>
       <c r="D606" t="s">
-        <v>49</v>
-      </c>
-      <c r="E606" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="F606" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G606">
         <v>0</v>
       </c>
       <c r="H606" t="s">
+        <v>183</v>
+      </c>
+      <c r="I606" t="str">
+        <f>B595</f>
+        <v>carbon dioxide, captured</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A607" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+      <c r="C607" t="s">
+        <v>8</v>
+      </c>
+      <c r="D607" t="s">
+        <v>6</v>
+      </c>
+      <c r="E607" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A607" t="str">
-        <f>B593</f>
-        <v>carbon dioxide, captured and stored, at wood burning power plant, pipeline 200km, storage 1000m</v>
-      </c>
-      <c r="B607">
-        <v>1</v>
-      </c>
-      <c r="C607" t="s">
-        <v>8</v>
-      </c>
-      <c r="D607" t="s">
-        <v>6</v>
-      </c>
       <c r="F607" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -12744,47 +12760,45 @@
       <c r="H607" t="s">
         <v>183</v>
       </c>
-      <c r="I607" t="str">
-        <f>B596</f>
-        <v>carbon dioxide, captured</v>
-      </c>
-    </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I607" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B608">
-        <v>1</v>
-      </c>
-      <c r="C608" t="s">
-        <v>8</v>
-      </c>
-      <c r="D608" t="s">
-        <v>6</v>
-      </c>
-      <c r="E608" t="s">
-        <v>265</v>
-      </c>
-      <c r="F608" t="s">
-        <v>16</v>
-      </c>
-      <c r="G608">
+        <v>34</v>
+      </c>
+      <c r="B608" s="29">
+        <f>188/761*0.459/3.6</f>
+        <v>3.1498028909329831E-2</v>
+      </c>
+      <c r="C608" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D608" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F608" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608" s="28">
         <v>0</v>
       </c>
-      <c r="H608" t="s">
-        <v>183</v>
-      </c>
-      <c r="I608" t="s">
-        <v>98</v>
-      </c>
+      <c r="H608" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I608" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N608" s="29"/>
     </row>
     <row r="609" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B609" s="29">
-        <f>188/761*0.459/3.6</f>
-        <v>3.1498028909329831E-2</v>
+        <f>123/761*0.459/3.6</f>
+        <v>2.0607752956636003E-2</v>
       </c>
       <c r="C609" s="28" t="s">
         <v>8</v>
@@ -12811,8 +12825,8 @@
         <v>34</v>
       </c>
       <c r="B610" s="29">
-        <f>123/761*0.459/3.6</f>
-        <v>2.0607752956636003E-2</v>
+        <f>575/761*0.459/3.6</f>
+        <v>9.63370565045992E-2</v>
       </c>
       <c r="C610" s="28" t="s">
         <v>8</v>
@@ -12827,57 +12841,58 @@
         <v>0</v>
       </c>
       <c r="H610" s="28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I610" s="28" t="s">
         <v>24</v>
       </c>
       <c r="N610" s="29"/>
-    </row>
-    <row r="611" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B611" s="29">
-        <f>575/761*0.459/3.6</f>
-        <v>9.63370565045992E-2</v>
-      </c>
-      <c r="C611" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D611" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F611" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G611" s="28">
+      <c r="Q610" s="30"/>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>284</v>
+      </c>
+      <c r="B611">
+        <v>1.9099999999999998E-9</v>
+      </c>
+      <c r="C611" t="s">
+        <v>8</v>
+      </c>
+      <c r="D611" t="s">
+        <v>5</v>
+      </c>
+      <c r="E611" t="s">
+        <v>264</v>
+      </c>
+      <c r="F611" t="s">
+        <v>16</v>
+      </c>
+      <c r="G611">
         <v>0</v>
       </c>
-      <c r="H611" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="I611" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N611" s="29"/>
-      <c r="Q611" s="30"/>
+      <c r="H611" t="s">
+        <v>265</v>
+      </c>
+      <c r="I611" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="612" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B612">
-        <v>1.9099999999999998E-9</v>
+        <v>1.15E-8</v>
       </c>
       <c r="C612" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D612" t="s">
         <v>5</v>
       </c>
       <c r="E612" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F612" t="s">
         <v>16</v>
@@ -12886,27 +12901,27 @@
         <v>0</v>
       </c>
       <c r="H612" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I612" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="613" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B613">
-        <v>1.15E-8</v>
+        <v>8.2600000000000002E-5</v>
       </c>
       <c r="C613" t="s">
         <v>17</v>
       </c>
       <c r="D613" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E613" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F613" t="s">
         <v>16</v>
@@ -12915,27 +12930,27 @@
         <v>0</v>
       </c>
       <c r="H613" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I613" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="614" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B614">
-        <v>8.2600000000000002E-5</v>
+        <v>1.9099999999999998E-9</v>
       </c>
       <c r="C614" t="s">
         <v>17</v>
       </c>
       <c r="D614" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E614" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F614" t="s">
         <v>16</v>
@@ -12944,18 +12959,18 @@
         <v>0</v>
       </c>
       <c r="H614" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I614" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="615" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B615">
-        <v>1.9099999999999998E-9</v>
+        <v>6.4400000000000005E-10</v>
       </c>
       <c r="C615" t="s">
         <v>17</v>
@@ -12964,7 +12979,7 @@
         <v>5</v>
       </c>
       <c r="E615" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F615" t="s">
         <v>16</v>
@@ -12973,27 +12988,27 @@
         <v>0</v>
       </c>
       <c r="H615" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I615" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="616" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>275</v>
-      </c>
-      <c r="B616">
-        <v>6.4400000000000005E-10</v>
+        <v>90</v>
+      </c>
+      <c r="B616" s="38">
+        <v>1.4E-3</v>
       </c>
       <c r="C616" t="s">
         <v>17</v>
       </c>
       <c r="D616" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E616" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F616" t="s">
         <v>16</v>
@@ -13001,28 +13016,28 @@
       <c r="G616">
         <v>0</v>
       </c>
-      <c r="H616" t="s">
-        <v>276</v>
+      <c r="H616" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="I616" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
     </row>
     <row r="617" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>90</v>
-      </c>
-      <c r="B617" s="38">
-        <v>1.4E-3</v>
+        <v>277</v>
+      </c>
+      <c r="B617">
+        <v>1.3399999999999999E-8</v>
       </c>
       <c r="C617" t="s">
         <v>17</v>
       </c>
       <c r="D617" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E617" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F617" t="s">
         <v>16</v>
@@ -13030,28 +13045,28 @@
       <c r="G617">
         <v>0</v>
       </c>
-      <c r="H617" s="28" t="s">
-        <v>227</v>
+      <c r="H617" t="s">
+        <v>278</v>
       </c>
       <c r="I617" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
     </row>
     <row r="618" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="B618">
-        <v>1.3399999999999999E-8</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="C618" t="s">
         <v>17</v>
       </c>
       <c r="D618" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E618" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F618" t="s">
         <v>16</v>
@@ -13060,27 +13075,28 @@
         <v>0</v>
       </c>
       <c r="H618" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="I618" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
     </row>
     <row r="619" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B619">
-        <v>3.0400000000000002E-4</v>
+        <f>-1*B616</f>
+        <v>-1.4E-3</v>
       </c>
       <c r="C619" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D619" t="s">
         <v>6</v>
       </c>
       <c r="E619" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F619" t="s">
         <v>16</v>
@@ -13089,218 +13105,225 @@
         <v>0</v>
       </c>
       <c r="H619" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I619" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="620" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B620">
-        <f>-1*B617</f>
-        <v>-1.4E-3</v>
-      </c>
-      <c r="C620" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D620" t="s">
         <v>6</v>
       </c>
       <c r="E620" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="F620" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G620">
         <v>0</v>
       </c>
       <c r="H620" t="s">
-        <v>259</v>
-      </c>
-      <c r="I620" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A621" t="s">
-        <v>39</v>
-      </c>
-      <c r="B621">
-        <v>1</v>
-      </c>
-      <c r="D621" t="s">
-        <v>6</v>
-      </c>
-      <c r="E621" t="s">
-        <v>37</v>
-      </c>
-      <c r="F621" t="s">
-        <v>20</v>
-      </c>
-      <c r="G621">
+        <v>283</v>
+      </c>
+      <c r="M620" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H621" t="s">
-        <v>284</v>
-      </c>
-      <c r="M621" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="623" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A623" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>308</v>
+      <c r="B622" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1</v>
+      </c>
+      <c r="B623">
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1</v>
-      </c>
-      <c r="B624">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B624" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B625" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B626" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B627" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B628" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B629" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A630" t="s">
+    <row r="630" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A631" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E631" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G631" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H631" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B630" t="s">
+      <c r="I631" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J631" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K631" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L631" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M631" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A632" t="str">
+        <f>B622</f>
+        <v>carbon dioxide, captured and stored, from a hydrogen production plant using steam methane reforming of biomethane</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632" t="s">
+        <v>8</v>
+      </c>
+      <c r="D632" t="s">
+        <v>6</v>
+      </c>
+      <c r="F632" t="s">
+        <v>15</v>
+      </c>
+      <c r="G632" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>34</v>
+      </c>
+      <c r="B633" s="23">
+        <f>AVERAGE(0.15,0.25)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C633" t="s">
+        <v>8</v>
+      </c>
+      <c r="D633" t="s">
+        <v>23</v>
+      </c>
+      <c r="F633" t="s">
+        <v>16</v>
+      </c>
+      <c r="G633" t="s">
+        <v>24</v>
+      </c>
+      <c r="H633" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="631" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A631" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A632" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B632" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C632" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D632" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E632" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F632" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G632" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H632" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I632" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J632" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K632" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L632" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M632" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A633" t="str">
-        <f>B623</f>
-        <v>carbon dioxide, captured and stored, from a hydrogen production plant using steam methane reforming of biomethane</v>
-      </c>
-      <c r="B633">
-        <v>1</v>
-      </c>
-      <c r="C633" t="s">
-        <v>8</v>
-      </c>
-      <c r="D633" t="s">
-        <v>6</v>
-      </c>
-      <c r="F633" t="s">
-        <v>15</v>
-      </c>
-      <c r="G633" t="s">
-        <v>295</v>
+      <c r="I633">
+        <v>5</v>
+      </c>
+      <c r="J633" s="23">
+        <f>B633</f>
+        <v>0.2</v>
+      </c>
+      <c r="K633">
+        <v>0.15</v>
+      </c>
+      <c r="L633">
+        <v>0.25</v>
       </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>34</v>
-      </c>
-      <c r="B634" s="23">
-        <f>AVERAGE(0.15,0.25)</f>
-        <v>0.2</v>
+        <v>31</v>
+      </c>
+      <c r="B634">
+        <f>AVERAGE(1,2)</f>
+        <v>1.5</v>
       </c>
       <c r="C634" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D634" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F634" t="s">
         <v>16</v>
       </c>
       <c r="G634" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H634" t="s">
         <v>311</v>
@@ -13310,34 +13333,34 @@
       </c>
       <c r="J634" s="23">
         <f>B634</f>
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="K634">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="L634">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B635">
-        <f>AVERAGE(1,2)</f>
-        <v>1.5</v>
+        <f>AVERAGE(0.1,0.15)</f>
+        <v>0.125</v>
       </c>
       <c r="C635" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D635" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F635" t="s">
         <v>16</v>
       </c>
       <c r="G635" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H635" t="s">
         <v>312</v>
@@ -13347,34 +13370,33 @@
       </c>
       <c r="J635" s="23">
         <f>B635</f>
-        <v>1.5</v>
+        <v>0.125</v>
       </c>
       <c r="K635">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L635">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A636" t="s">
-        <v>34</v>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A636" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="B636">
-        <f>AVERAGE(0.1,0.15)</f>
-        <v>0.125</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C636" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D636" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F636" t="s">
         <v>16</v>
       </c>
-      <c r="G636" t="s">
-        <v>24</v>
+      <c r="G636" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="H636" t="s">
         <v>313</v>
@@ -13384,33 +13406,34 @@
       </c>
       <c r="J636" s="23">
         <f>B636</f>
-        <v>0.125</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K636">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L636">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>34</v>
+      </c>
+      <c r="B637">
+        <f>AVERAGE(0.08,0.12)</f>
         <v>0.1</v>
       </c>
-      <c r="L636">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="637" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A637" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B637">
-        <v>5.0000000000000001E-3</v>
-      </c>
       <c r="C637" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D637" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F637" t="s">
         <v>16</v>
       </c>
-      <c r="G637" s="15" t="s">
-        <v>141</v>
+      <c r="G637" t="s">
+        <v>24</v>
       </c>
       <c r="H637" t="s">
         <v>314</v>
@@ -13420,61 +13443,47 @@
       </c>
       <c r="J637" s="23">
         <f>B637</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="K637">
-        <v>4.0000000000000001E-3</v>
+        <v>0.08</v>
       </c>
       <c r="L637">
-        <v>6.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>34</v>
-      </c>
-      <c r="B638">
-        <f>AVERAGE(0.08,0.12)</f>
-        <v>0.1</v>
+        <v>42</v>
+      </c>
+      <c r="B638" s="6">
+        <v>1.2E-5</v>
       </c>
       <c r="C638" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D638" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F638" t="s">
         <v>16</v>
       </c>
       <c r="G638" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H638" t="s">
         <v>315</v>
       </c>
-      <c r="I638">
-        <v>5</v>
-      </c>
-      <c r="J638" s="23">
-        <f>B638</f>
-        <v>0.1</v>
-      </c>
-      <c r="K638">
-        <v>0.08</v>
-      </c>
-      <c r="L638">
-        <v>0.12</v>
-      </c>
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B639" s="6">
-        <v>1.2E-5</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="C639" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D639" t="s">
         <v>6</v>
@@ -13483,7 +13492,7 @@
         <v>16</v>
       </c>
       <c r="G639" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H639" t="s">
         <v>316</v>
@@ -13491,312 +13500,289 @@
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="B640" s="6">
-        <v>3.9999999999999998E-6</v>
+        <f>B634*-1/1000</f>
+        <v>-1.5E-3</v>
       </c>
       <c r="C640" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D640" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F640" t="s">
         <v>16</v>
       </c>
       <c r="G640" t="s">
-        <v>50</v>
-      </c>
-      <c r="H640" t="s">
-        <v>317</v>
+        <v>149</v>
       </c>
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A641" t="s">
-        <v>195</v>
-      </c>
-      <c r="B641" s="6">
-        <f>B635*-1/1000</f>
-        <v>-1.5E-3</v>
+      <c r="A641" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B641">
+        <v>1</v>
       </c>
       <c r="C641" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D641" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F641" t="s">
         <v>16</v>
       </c>
       <c r="G641" t="s">
-        <v>149</v>
+        <v>98</v>
+      </c>
+      <c r="H641" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A642" s="28" t="s">
-        <v>97</v>
+      <c r="A642" t="s">
+        <v>39</v>
       </c>
       <c r="B642">
         <v>1</v>
       </c>
-      <c r="C642" t="s">
-        <v>8</v>
-      </c>
       <c r="D642" t="s">
         <v>6</v>
       </c>
+      <c r="E642" t="s">
+        <v>37</v>
+      </c>
       <c r="F642" t="s">
-        <v>16</v>
-      </c>
-      <c r="G642" t="s">
-        <v>98</v>
+        <v>20</v>
+      </c>
+      <c r="G642">
+        <v>0</v>
       </c>
       <c r="H642" t="s">
+        <v>283</v>
+      </c>
+      <c r="M642" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A643" t="s">
-        <v>39</v>
-      </c>
-      <c r="B643">
-        <v>1</v>
-      </c>
-      <c r="D643" t="s">
-        <v>6</v>
-      </c>
-      <c r="E643" t="s">
-        <v>37</v>
-      </c>
-      <c r="F643" t="s">
-        <v>20</v>
-      </c>
-      <c r="G643">
+    <row r="644" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H643" t="s">
-        <v>284</v>
-      </c>
-      <c r="M643" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="645" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A645" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>319</v>
+      <c r="B644" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>1</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1</v>
-      </c>
-      <c r="B646">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B646" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B647" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B648" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B649" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>7</v>
-      </c>
-      <c r="B650" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>18</v>
-      </c>
-      <c r="B651" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B651" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A652" t="s">
+    <row r="652" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A653" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E653" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F653" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G653" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H653" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B652" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="653" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A653" s="1" t="s">
-        <v>10</v>
+      <c r="I653" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J653" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K653" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L653" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M653" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A654" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B654" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C654" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D654" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E654" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F654" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G654" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H654" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I654" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J654" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K654" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L654" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M654" s="5" t="s">
-        <v>182</v>
+      <c r="A654" t="str">
+        <f>B644</f>
+        <v>carbon dioxide, captured and stored, from a biomass fermentation plant</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+      <c r="C654" t="s">
+        <v>8</v>
+      </c>
+      <c r="D654" t="s">
+        <v>6</v>
+      </c>
+      <c r="F654" t="s">
+        <v>15</v>
+      </c>
+      <c r="G654" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A655" t="str">
-        <f>B645</f>
-        <v>carbon dioxide, captured and stored, from a biomass fermentation plant</v>
-      </c>
-      <c r="B655">
-        <v>1</v>
+      <c r="A655" t="s">
+        <v>34</v>
+      </c>
+      <c r="B655" s="23">
+        <v>0.11</v>
       </c>
       <c r="C655" t="s">
         <v>8</v>
       </c>
       <c r="D655" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F655" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G655" t="s">
-        <v>295</v>
+        <v>24</v>
+      </c>
+      <c r="H655" t="s">
+        <v>310</v>
+      </c>
+      <c r="I655">
+        <v>5</v>
+      </c>
+      <c r="J655" s="23">
+        <f>B655</f>
+        <v>0.11</v>
+      </c>
+      <c r="K655">
+        <v>0.1</v>
+      </c>
+      <c r="L655">
+        <v>0.2</v>
       </c>
     </row>
     <row r="656" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A656" t="s">
-        <v>34</v>
-      </c>
-      <c r="B656" s="23">
-        <v>0.11</v>
+      <c r="A656" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B656">
+        <v>1</v>
       </c>
       <c r="C656" t="s">
         <v>8</v>
       </c>
       <c r="D656" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F656" t="s">
         <v>16</v>
       </c>
       <c r="G656" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="H656" t="s">
-        <v>311</v>
-      </c>
-      <c r="I656">
-        <v>5</v>
-      </c>
-      <c r="J656" s="23">
-        <f>B656</f>
-        <v>0.11</v>
-      </c>
-      <c r="K656">
-        <v>0.1</v>
-      </c>
-      <c r="L656">
-        <v>0.2</v>
+        <v>183</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A657" s="28" t="s">
-        <v>97</v>
+      <c r="A657" t="s">
+        <v>39</v>
       </c>
       <c r="B657">
         <v>1</v>
       </c>
-      <c r="C657" t="s">
-        <v>8</v>
-      </c>
       <c r="D657" t="s">
         <v>6</v>
       </c>
+      <c r="E657" t="s">
+        <v>37</v>
+      </c>
       <c r="F657" t="s">
-        <v>16</v>
-      </c>
-      <c r="G657" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="H657" t="s">
+        <v>283</v>
+      </c>
+      <c r="M657" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A658" t="s">
-        <v>39</v>
-      </c>
-      <c r="B658">
-        <v>1</v>
-      </c>
-      <c r="D658" t="s">
-        <v>6</v>
-      </c>
-      <c r="E658" t="s">
-        <v>37</v>
-      </c>
-      <c r="F658" t="s">
-        <v>20</v>
-      </c>
-      <c r="H658" t="s">
-        <v>284</v>
-      </c>
-      <c r="M658" t="s">
-        <v>183</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:V621" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V620" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F2CD5-055C-3F46-AA42-8D857D2E85C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28BFAD-10F0-114B-A8B4-C331D85F0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="80" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$V$620</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$V$621</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="322">
   <si>
     <t>Activity</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>concrete, normal strength</t>
+  </si>
+  <si>
+    <t>market for spent anion exchange resin from potable water production</t>
   </si>
   <si>
     <t>Originally 3.7 MJ, without heat recovery. 0.4 MJ using heat from teh MSWI plant. However, when doing so, 40% of teh heat is lost and cannot be redistributed to the heating district system. Hence, we add this loss to the amount of external heat needed.</t>
@@ -1009,14 +1012,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1136,13 +1139,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1152,29 +1155,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1184,11 +1187,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1504,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V657"/>
+  <dimension ref="A1:V658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
+      <selection activeCell="A612" sqref="A612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1558,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1638,10 +1639,10 @@
         <v>173</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>182</v>
@@ -1665,7 +1666,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1886,7 +1887,7 @@
         <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -1904,7 +1905,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B22">
         <v>6.28</v>
@@ -1922,7 +1923,7 @@
         <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -1963,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1979,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2059,10 +2060,10 @@
         <v>173</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>182</v>
@@ -2070,7 +2071,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2085,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2306,7 +2307,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2324,7 +2325,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B44">
         <v>6.28</v>
@@ -2342,7 +2343,7 @@
         <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2406,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2422,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2502,10 +2503,10 @@
         <v>173</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>182</v>
@@ -2513,7 +2514,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2528,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2749,7 +2750,7 @@
         <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -2785,7 +2786,7 @@
         <v>188</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I67">
         <v>5</v>
@@ -2826,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2842,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -2922,10 +2923,10 @@
         <v>173</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M79" s="5" t="s">
         <v>182</v>
@@ -2933,7 +2934,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2948,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3169,7 +3170,7 @@
         <v>78</v>
       </c>
       <c r="H88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I88">
         <v>5</v>
@@ -3205,7 +3206,7 @@
         <v>188</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I89">
         <v>5</v>
@@ -3269,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3285,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3365,10 +3366,10 @@
         <v>173</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>182</v>
@@ -3376,7 +3377,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3391,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -3612,7 +3613,7 @@
         <v>78</v>
       </c>
       <c r="H111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I111">
         <v>5</v>
@@ -3649,7 +3650,7 @@
         <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I112">
         <v>5</v>
@@ -3692,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3708,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3788,10 +3789,10 @@
         <v>173</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>182</v>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3814,7 +3815,7 @@
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -4035,7 +4036,7 @@
         <v>78</v>
       </c>
       <c r="H133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I133">
         <v>5</v>
@@ -4072,7 +4073,7 @@
         <v>78</v>
       </c>
       <c r="H134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I134">
         <v>5</v>
@@ -4186,7 +4187,7 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4649,65 +4650,65 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B166">
         <f>78380*20</f>
         <v>1567600</v>
       </c>
       <c r="D166" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E166" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B167">
         <f>78380</f>
         <v>78380</v>
       </c>
       <c r="D167" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E167" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
       <c r="H167" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B168">
         <f>78380</f>
         <v>78380</v>
       </c>
       <c r="D168" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -5009,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -5025,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -5105,10 +5106,10 @@
         <v>173</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M199" s="5" t="s">
         <v>182</v>
@@ -5116,7 +5117,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5131,7 +5132,7 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5270,7 +5271,7 @@
         <v>78</v>
       </c>
       <c r="H204" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I204">
         <v>5</v>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B205">
         <v>5.4</v>
@@ -5305,7 +5306,7 @@
         <v>162</v>
       </c>
       <c r="H205" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I205">
         <v>5</v>
@@ -5345,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5361,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -5393,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -5401,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5441,10 +5442,10 @@
         <v>173</v>
       </c>
       <c r="K217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M217" s="5" t="s">
         <v>182</v>
@@ -5452,7 +5453,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5467,7 +5468,7 @@
         <v>15</v>
       </c>
       <c r="G218" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5606,7 +5607,7 @@
         <v>78</v>
       </c>
       <c r="H222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I222">
         <v>5</v>
@@ -5623,7 +5624,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B223">
         <v>5.4</v>
@@ -5641,7 +5642,7 @@
         <v>162</v>
       </c>
       <c r="H223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I223">
         <v>5</v>
@@ -5704,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -5720,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -5800,10 +5801,10 @@
         <v>173</v>
       </c>
       <c r="K236" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M236" s="5" t="s">
         <v>182</v>
@@ -5811,7 +5812,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5826,7 +5827,7 @@
         <v>15</v>
       </c>
       <c r="G237" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5965,7 +5966,7 @@
         <v>78</v>
       </c>
       <c r="H241" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I241">
         <v>5</v>
@@ -5982,7 +5983,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B242">
         <v>5.4</v>
@@ -5997,10 +5998,10 @@
         <v>16</v>
       </c>
       <c r="G242" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H242" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I242">
         <v>5</v>
@@ -6040,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -6056,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -6088,7 +6089,7 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -6096,7 +6097,7 @@
         <v>18</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6136,10 +6137,10 @@
         <v>173</v>
       </c>
       <c r="K254" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L254" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M254" s="5" t="s">
         <v>182</v>
@@ -6147,7 +6148,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6162,7 +6163,7 @@
         <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6301,7 +6302,7 @@
         <v>78</v>
       </c>
       <c r="H259" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I259">
         <v>5</v>
@@ -6318,7 +6319,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B260">
         <v>5.4</v>
@@ -6333,10 +6334,10 @@
         <v>16</v>
       </c>
       <c r="G260" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H260" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I260">
         <v>5</v>
@@ -6399,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -6415,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -6495,10 +6496,10 @@
         <v>173</v>
       </c>
       <c r="K273" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M273" s="5" t="s">
         <v>182</v>
@@ -6506,7 +6507,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6521,7 +6522,7 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6660,7 +6661,7 @@
         <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I278">
         <v>5</v>
@@ -6695,7 +6696,7 @@
         <v>188</v>
       </c>
       <c r="H279" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I279">
         <v>5</v>
@@ -6735,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
@@ -6751,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
@@ -6783,7 +6784,7 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
@@ -6791,7 +6792,7 @@
         <v>18</v>
       </c>
       <c r="B289" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6831,10 +6832,10 @@
         <v>173</v>
       </c>
       <c r="K291" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L291" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M291" s="5" t="s">
         <v>182</v>
@@ -6842,7 +6843,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6857,7 +6858,7 @@
         <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6996,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="H296" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -7031,7 +7032,7 @@
         <v>188</v>
       </c>
       <c r="H297" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I297">
         <v>5</v>
@@ -7094,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
@@ -7110,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
@@ -7190,10 +7191,10 @@
         <v>173</v>
       </c>
       <c r="K310" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M310" s="5" t="s">
         <v>182</v>
@@ -7201,7 +7202,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -7216,7 +7217,7 @@
         <v>15</v>
       </c>
       <c r="G311" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7355,7 +7356,7 @@
         <v>78</v>
       </c>
       <c r="H315" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I315">
         <v>5</v>
@@ -7391,7 +7392,7 @@
         <v>78</v>
       </c>
       <c r="H316" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I316">
         <v>5</v>
@@ -7434,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
@@ -7450,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -7482,7 +7483,7 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -7490,7 +7491,7 @@
         <v>18</v>
       </c>
       <c r="B326" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7530,10 +7531,10 @@
         <v>173</v>
       </c>
       <c r="K328" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L328" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M328" s="5" t="s">
         <v>182</v>
@@ -7541,7 +7542,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -7556,7 +7557,7 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7695,7 +7696,7 @@
         <v>78</v>
       </c>
       <c r="H333" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I333">
         <v>5</v>
@@ -7731,7 +7732,7 @@
         <v>78</v>
       </c>
       <c r="H334" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I334">
         <v>5</v>
@@ -7845,15 +7846,15 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
-      <c r="B345" s="41" t="s">
-        <v>221</v>
+      <c r="B345" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7911,7 +7912,7 @@
       <c r="A349" t="s">
         <v>194</v>
       </c>
-      <c r="B349" s="40">
+      <c r="B349">
         <v>8000</v>
       </c>
       <c r="C349" t="s">
@@ -7934,7 +7935,7 @@
       <c r="A350" t="s">
         <v>103</v>
       </c>
-      <c r="B350" s="40">
+      <c r="B350">
         <v>942000</v>
       </c>
       <c r="C350" t="s">
@@ -7957,7 +7958,7 @@
       <c r="A351" t="s">
         <v>194</v>
       </c>
-      <c r="B351" s="40">
+      <c r="B351">
         <v>6000</v>
       </c>
       <c r="C351" t="s">
@@ -7980,7 +7981,7 @@
       <c r="A352" t="s">
         <v>103</v>
       </c>
-      <c r="B352" s="40">
+      <c r="B352">
         <v>548000.00000000012</v>
       </c>
       <c r="C352" t="s">
@@ -8003,7 +8004,7 @@
       <c r="A353" t="s">
         <v>42</v>
       </c>
-      <c r="B353" s="40">
+      <c r="B353">
         <v>120000</v>
       </c>
       <c r="C353" t="s">
@@ -8026,7 +8027,7 @@
       <c r="A354" t="s">
         <v>115</v>
       </c>
-      <c r="B354" s="40">
+      <c r="B354">
         <v>16000</v>
       </c>
       <c r="C354" t="s">
@@ -8049,7 +8050,7 @@
       <c r="A355" t="s">
         <v>59</v>
       </c>
-      <c r="B355" s="40">
+      <c r="B355">
         <v>276000.00000000006</v>
       </c>
       <c r="C355" t="s">
@@ -8072,7 +8073,7 @@
       <c r="A356" t="s">
         <v>43</v>
       </c>
-      <c r="B356" s="40">
+      <c r="B356">
         <v>224000</v>
       </c>
       <c r="C356" t="s">
@@ -8095,7 +8096,7 @@
       <c r="A357" t="s">
         <v>115</v>
       </c>
-      <c r="B357" s="40">
+      <c r="B357">
         <v>10000</v>
       </c>
       <c r="C357" t="s">
@@ -8118,7 +8119,7 @@
       <c r="A358" t="s">
         <v>116</v>
       </c>
-      <c r="B358" s="40">
+      <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358" t="s">
@@ -8141,7 +8142,7 @@
       <c r="A359" t="s">
         <v>152</v>
       </c>
-      <c r="B359" s="40">
+      <c r="B359">
         <v>10000</v>
       </c>
       <c r="C359" t="s">
@@ -8164,7 +8165,7 @@
       <c r="A360" t="s">
         <v>58</v>
       </c>
-      <c r="B360" s="40">
+      <c r="B360">
         <v>160000</v>
       </c>
       <c r="C360" t="s">
@@ -8187,7 +8188,7 @@
       <c r="A361" t="s">
         <v>117</v>
       </c>
-      <c r="B361" s="40">
+      <c r="B361">
         <v>10000</v>
       </c>
       <c r="C361" t="s">
@@ -8210,7 +8211,7 @@
       <c r="A362" t="s">
         <v>43</v>
       </c>
-      <c r="B362" s="40">
+      <c r="B362">
         <v>338000</v>
       </c>
       <c r="C362" t="s">
@@ -8233,7 +8234,7 @@
       <c r="A363" t="s">
         <v>42</v>
       </c>
-      <c r="B363" s="40">
+      <c r="B363">
         <v>28000</v>
       </c>
       <c r="C363" t="s">
@@ -8256,7 +8257,7 @@
       <c r="A364" t="s">
         <v>121</v>
       </c>
-      <c r="B364" s="40">
+      <c r="B364">
         <v>94000</v>
       </c>
       <c r="C364" t="s">
@@ -8279,7 +8280,7 @@
       <c r="A365" t="s">
         <v>116</v>
       </c>
-      <c r="B365" s="40">
+      <c r="B365">
         <v>10000</v>
       </c>
       <c r="C365" t="s">
@@ -8302,7 +8303,7 @@
       <c r="A366" t="s">
         <v>152</v>
       </c>
-      <c r="B366" s="40">
+      <c r="B366">
         <v>10000</v>
       </c>
       <c r="C366" t="s">
@@ -8325,7 +8326,7 @@
       <c r="A367" t="s">
         <v>43</v>
       </c>
-      <c r="B367" s="40">
+      <c r="B367">
         <v>22000</v>
       </c>
       <c r="C367" t="s">
@@ -8348,7 +8349,7 @@
       <c r="A368" t="s">
         <v>42</v>
       </c>
-      <c r="B368" s="40">
+      <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368" t="s">
@@ -8369,65 +8370,65 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B369">
         <f>7838*20</f>
         <v>156760</v>
       </c>
       <c r="D369" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E369" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F369" t="s">
         <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B370">
         <f>7838</f>
         <v>7838</v>
       </c>
       <c r="D370" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E370" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F370" t="s">
         <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B371">
         <f>7838</f>
         <v>7838</v>
       </c>
       <c r="D371" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E371" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F371" t="s">
         <v>20</v>
       </c>
       <c r="H371" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8494,7 +8495,7 @@
         <v>18</v>
       </c>
       <c r="B380" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -8552,9 +8553,8 @@
       <c r="A384" t="s">
         <v>65</v>
       </c>
-      <c r="B384" s="11">
-        <f>-1*(B349+B351)*2200</f>
-        <v>-30800000</v>
+      <c r="B384">
+        <v>-29400000</v>
       </c>
       <c r="C384" t="s">
         <v>131</v>
@@ -8562,7 +8562,6 @@
       <c r="D384" t="s">
         <v>6</v>
       </c>
-      <c r="E384" s="11"/>
       <c r="F384" t="s">
         <v>16</v>
       </c>
@@ -8577,8 +8576,7 @@
         <v>66</v>
       </c>
       <c r="B385">
-        <f>-1*(B350+B352+B353+B355+B362+B363+B367+B368)</f>
-        <v>-2286000</v>
+        <v>-2140000</v>
       </c>
       <c r="C385" t="s">
         <v>21</v>
@@ -8600,7 +8598,6 @@
         <v>67</v>
       </c>
       <c r="B386">
-        <f>-1*(B358+B364+B365)</f>
         <v>-116000</v>
       </c>
       <c r="C386" t="s">
@@ -8623,8 +8620,7 @@
         <v>72</v>
       </c>
       <c r="B387">
-        <f>-1*(B360)</f>
-        <v>-160000</v>
+        <v>-143999.99999999997</v>
       </c>
       <c r="C387" t="s">
         <v>8</v>
@@ -8641,14 +8637,13 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="B388">
-        <f>-1*(B359+B366)</f>
-        <v>-20000</v>
+        <v>-6000000</v>
       </c>
       <c r="C388" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D388" t="s">
         <v>6</v>
@@ -8657,16 +8652,15 @@
         <v>16</v>
       </c>
       <c r="G388" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B389">
-        <f>-1*(B357+B354)</f>
-        <v>-26000</v>
+        <v>-20000</v>
       </c>
       <c r="C389" t="s">
         <v>131</v>
@@ -8678,133 +8672,133 @@
         <v>16</v>
       </c>
       <c r="G389" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>130</v>
+      </c>
+      <c r="B390">
+        <v>-26000</v>
+      </c>
+      <c r="C390" t="s">
+        <v>131</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+      <c r="F390" t="s">
+        <v>16</v>
+      </c>
+      <c r="G390" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="G390" s="7"/>
-    </row>
     <row r="391" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A391" s="1" t="s">
+      <c r="G391" s="7"/>
+    </row>
+    <row r="392" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B392" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>1</v>
-      </c>
-      <c r="B392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>1</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>2</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B394" s="7" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>3</v>
-      </c>
-      <c r="B394" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B395" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B396" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>18</v>
       </c>
-      <c r="B398" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="399" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A399" s="1" t="s">
+      <c r="B399" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>11</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B401" t="s">
         <v>12</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C401" t="s">
         <v>7</v>
       </c>
-      <c r="D400" t="s">
-        <v>5</v>
-      </c>
-      <c r="E400" t="s">
+      <c r="D401" t="s">
+        <v>5</v>
+      </c>
+      <c r="E401" t="s">
         <v>13</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F401" t="s">
         <v>3</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G401" t="s">
         <v>2</v>
       </c>
-      <c r="H400" t="s">
+      <c r="H401" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>79</v>
-      </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-      <c r="C401" t="s">
-        <v>8</v>
-      </c>
-      <c r="D401" t="s">
-        <v>6</v>
-      </c>
-      <c r="F401" t="s">
-        <v>15</v>
-      </c>
-      <c r="G401" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B402">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -8813,343 +8807,329 @@
         <v>6</v>
       </c>
       <c r="F402" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H402" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B403">
+        <v>0.36</v>
+      </c>
+      <c r="C403" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+      <c r="F403" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H403" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>218</v>
+      </c>
+      <c r="B404">
         <v>0.64</v>
       </c>
-      <c r="C403" t="s">
-        <v>8</v>
-      </c>
-      <c r="D403" t="s">
-        <v>6</v>
-      </c>
-      <c r="F403" t="s">
-        <v>16</v>
-      </c>
-      <c r="G403" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H403" t="s">
+      <c r="C404" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" t="s">
+        <v>6</v>
+      </c>
+      <c r="F404" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H404" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>25</v>
       </c>
-      <c r="B404">
+      <c r="B405">
         <v>-1</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C405" t="s">
         <v>26</v>
       </c>
-      <c r="D404" t="s">
-        <v>6</v>
-      </c>
-      <c r="F404" t="s">
-        <v>16</v>
-      </c>
-      <c r="G404" t="s">
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+      <c r="F405" t="s">
+        <v>16</v>
+      </c>
+      <c r="G405" t="s">
         <v>27</v>
       </c>
-      <c r="H404" t="s">
+      <c r="H405" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A405" s="2"/>
-      <c r="J405" s="2"/>
-    </row>
     <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="2"/>
+      <c r="J406" s="2"/>
+    </row>
+    <row r="407" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>1</v>
-      </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B407" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>1</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>2</v>
       </c>
-      <c r="B408" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>3</v>
-      </c>
-      <c r="B409" t="s">
-        <v>4</v>
+      <c r="B409" s="22" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B410" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B411" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B412" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
         <v>18</v>
       </c>
-      <c r="B413" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A414" s="1" t="s">
+      <c r="B414" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A415" s="5" t="s">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A416" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="B416" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C415" s="5" t="s">
+      <c r="C416" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D415" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E415" s="5" t="s">
+      <c r="D416" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E416" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F415" s="5" t="s">
+      <c r="F416" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G415" s="5" t="s">
+      <c r="G416" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H415" s="5" t="s">
+      <c r="H416" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I415" s="5" t="s">
+      <c r="I416" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J415" s="5" t="s">
+      <c r="J416" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K415" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L415" s="5" t="s">
+      <c r="K416" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="M415" s="5" t="s">
+      <c r="L416" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M416" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A416" t="str">
-        <f>B406</f>
+    <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A417" t="str">
+        <f>B407</f>
         <v>polyethyleneimine (PEI) production, for sorbent-based direct air capture system</v>
       </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-      <c r="C416" t="s">
-        <v>8</v>
-      </c>
-      <c r="D416" t="s">
-        <v>6</v>
-      </c>
-      <c r="F416" t="s">
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417" t="s">
+        <v>6</v>
+      </c>
+      <c r="F417" t="s">
         <v>15</v>
       </c>
-      <c r="G416" s="7" t="str">
-        <f>B408</f>
+      <c r="G417" s="7" t="str">
+        <f>B409</f>
         <v>polyethyleneimine</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>90</v>
-      </c>
-      <c r="B417" s="38">
-        <f t="shared" ref="B417:B427" si="0">AVERAGE(K417:L417)</f>
-        <v>1.9749999999999999</v>
-      </c>
-      <c r="C417" t="s">
-        <v>17</v>
-      </c>
-      <c r="D417" t="s">
-        <v>6</v>
-      </c>
-      <c r="F417" t="s">
-        <v>16</v>
-      </c>
-      <c r="G417" t="s">
-        <v>141</v>
-      </c>
-      <c r="I417">
-        <v>5</v>
-      </c>
-      <c r="J417">
-        <f>B417</f>
-        <v>1.9749999999999999</v>
-      </c>
-      <c r="K417">
-        <v>1.42</v>
-      </c>
-      <c r="L417">
-        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>90</v>
+      </c>
+      <c r="B418" s="38">
+        <f t="shared" ref="B418:B428" si="0">AVERAGE(K418:L418)</f>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="C418" t="s">
+        <v>17</v>
+      </c>
+      <c r="D418" t="s">
+        <v>6</v>
+      </c>
+      <c r="F418" t="s">
+        <v>16</v>
+      </c>
+      <c r="G418" t="s">
+        <v>141</v>
+      </c>
+      <c r="I418">
+        <v>5</v>
+      </c>
+      <c r="J418">
+        <f>B418</f>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="K418">
+        <v>1.42</v>
+      </c>
+      <c r="L418">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
         <v>82</v>
       </c>
-      <c r="B418">
+      <c r="B419">
         <f t="shared" si="0"/>
         <v>3.1749999999999998</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C419" t="s">
         <v>26</v>
       </c>
-      <c r="D418" t="s">
-        <v>6</v>
-      </c>
-      <c r="F418" t="s">
-        <v>16</v>
-      </c>
-      <c r="G418" t="s">
+      <c r="D419" t="s">
+        <v>6</v>
+      </c>
+      <c r="F419" t="s">
+        <v>16</v>
+      </c>
+      <c r="G419" t="s">
         <v>87</v>
       </c>
-      <c r="I418">
-        <v>5</v>
-      </c>
-      <c r="J418">
-        <f t="shared" ref="J418:J427" si="1">B418</f>
+      <c r="I419">
+        <v>5</v>
+      </c>
+      <c r="J419">
+        <f t="shared" ref="J419:J428" si="1">B419</f>
         <v>3.1749999999999998</v>
       </c>
-      <c r="K418">
+      <c r="K419">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L418">
+      <c r="L419">
         <v>4.07</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
         <v>91</v>
       </c>
-      <c r="B419">
+      <c r="B420">
         <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C420" t="s">
         <v>17</v>
       </c>
-      <c r="D419" t="s">
-        <v>6</v>
-      </c>
-      <c r="F419" t="s">
-        <v>16</v>
-      </c>
-      <c r="G419" t="s">
+      <c r="D420" t="s">
+        <v>6</v>
+      </c>
+      <c r="F420" t="s">
+        <v>16</v>
+      </c>
+      <c r="G420" t="s">
         <v>142</v>
       </c>
-      <c r="I419">
-        <v>5</v>
-      </c>
-      <c r="J419">
+      <c r="I420">
+        <v>5</v>
+      </c>
+      <c r="J420">
         <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
-      <c r="K419">
+      <c r="K420">
         <v>1.86</v>
       </c>
-      <c r="L419">
+      <c r="L420">
         <v>3.32</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>92</v>
-      </c>
-      <c r="B420">
-        <f t="shared" si="0"/>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="C420" t="s">
-        <v>26</v>
-      </c>
-      <c r="D420" t="s">
-        <v>6</v>
-      </c>
-      <c r="F420" t="s">
-        <v>16</v>
-      </c>
-      <c r="G420" t="s">
-        <v>143</v>
-      </c>
-      <c r="I420">
-        <v>5</v>
-      </c>
-      <c r="J420">
-        <f t="shared" si="1"/>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="K420">
-        <v>0.16</v>
-      </c>
-      <c r="L420">
-        <v>0.23</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B421">
         <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="C421" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D421" t="s">
         <v>6</v>
@@ -9158,7 +9138,7 @@
         <v>16</v>
       </c>
       <c r="G421" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I421">
         <v>5</v>
@@ -9176,11 +9156,11 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B422">
         <f t="shared" si="0"/>
-        <v>0.11570000000000008</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C422" t="s">
         <v>17</v>
@@ -9192,366 +9172,378 @@
         <v>16</v>
       </c>
       <c r="G422" t="s">
-        <v>144</v>
-      </c>
-      <c r="H422" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="I422">
         <v>5</v>
       </c>
       <c r="J422">
         <f t="shared" si="1"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K422">
+        <v>0.16</v>
+      </c>
+      <c r="L422">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>93</v>
+      </c>
+      <c r="B423">
+        <f t="shared" si="0"/>
         <v>0.11570000000000008</v>
       </c>
-      <c r="K422">
+      <c r="C423" t="s">
+        <v>17</v>
+      </c>
+      <c r="D423" t="s">
+        <v>6</v>
+      </c>
+      <c r="F423" t="s">
+        <v>16</v>
+      </c>
+      <c r="G423" t="s">
+        <v>144</v>
+      </c>
+      <c r="H423" t="s">
+        <v>221</v>
+      </c>
+      <c r="I423">
+        <v>5</v>
+      </c>
+      <c r="J423">
+        <f t="shared" si="1"/>
+        <v>0.11570000000000008</v>
+      </c>
+      <c r="K423">
         <f>2.84*(1-99%)</f>
         <v>2.8400000000000022E-2</v>
       </c>
-      <c r="L422">
+      <c r="L423">
         <f>4.06*(1-95%)</f>
         <v>0.20300000000000015</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
         <v>94</v>
       </c>
-      <c r="B423">
+      <c r="B424">
         <f t="shared" si="0"/>
         <v>1.3817000000000013</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C424" t="s">
         <v>26</v>
       </c>
-      <c r="D423" t="s">
-        <v>6</v>
-      </c>
-      <c r="F423" t="s">
-        <v>16</v>
-      </c>
-      <c r="G423" t="s">
+      <c r="D424" t="s">
+        <v>6</v>
+      </c>
+      <c r="F424" t="s">
+        <v>16</v>
+      </c>
+      <c r="G424" t="s">
         <v>145</v>
       </c>
-      <c r="H423" t="s">
-        <v>220</v>
-      </c>
-      <c r="I423">
-        <v>5</v>
-      </c>
-      <c r="J423">
+      <c r="H424" t="s">
+        <v>221</v>
+      </c>
+      <c r="I424">
+        <v>5</v>
+      </c>
+      <c r="J424">
         <f t="shared" si="1"/>
         <v>1.3817000000000013</v>
       </c>
-      <c r="K423">
+      <c r="K424">
         <f>33.94*(1-99%)</f>
         <v>0.33940000000000026</v>
       </c>
-      <c r="L423">
+      <c r="L424">
         <f>48.48*(1-95%)</f>
         <v>2.4240000000000022</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
         <v>84</v>
       </c>
-      <c r="B424">
+      <c r="B425">
         <f t="shared" si="0"/>
         <v>14.559999999999999</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C425" t="s">
         <v>26</v>
       </c>
-      <c r="D424" t="s">
-        <v>6</v>
-      </c>
-      <c r="F424" t="s">
-        <v>16</v>
-      </c>
-      <c r="G424" t="s">
+      <c r="D425" t="s">
+        <v>6</v>
+      </c>
+      <c r="F425" t="s">
+        <v>16</v>
+      </c>
+      <c r="G425" t="s">
         <v>89</v>
       </c>
-      <c r="I424">
-        <v>5</v>
-      </c>
-      <c r="J424">
+      <c r="I425">
+        <v>5</v>
+      </c>
+      <c r="J425">
         <f t="shared" si="1"/>
         <v>14.559999999999999</v>
       </c>
-      <c r="K424">
+      <c r="K425">
         <v>11.99</v>
       </c>
-      <c r="L424">
+      <c r="L425">
         <v>17.13</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
         <v>34</v>
       </c>
-      <c r="B425">
+      <c r="B426">
         <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="C425" t="s">
-        <v>8</v>
-      </c>
-      <c r="D425" t="s">
+      <c r="C426" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" t="s">
         <v>23</v>
       </c>
-      <c r="F425" t="s">
-        <v>16</v>
-      </c>
-      <c r="G425" t="s">
+      <c r="F426" t="s">
+        <v>16</v>
+      </c>
+      <c r="G426" t="s">
         <v>24</v>
       </c>
-      <c r="I425">
-        <v>5</v>
-      </c>
-      <c r="J425">
+      <c r="I426">
+        <v>5</v>
+      </c>
+      <c r="J426">
         <f t="shared" si="1"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="K425">
+      <c r="K426">
         <v>0.27</v>
       </c>
-      <c r="L425">
+      <c r="L426">
         <v>0.42</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
         <v>83</v>
       </c>
-      <c r="B426">
+      <c r="B427">
         <f t="shared" si="0"/>
         <v>7.4749999999999996</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C427" t="s">
         <v>131</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D427" t="s">
         <v>22</v>
       </c>
-      <c r="F426" t="s">
-        <v>16</v>
-      </c>
-      <c r="G426" t="s">
+      <c r="F427" t="s">
+        <v>16</v>
+      </c>
+      <c r="G427" t="s">
         <v>88</v>
       </c>
-      <c r="I426">
-        <v>5</v>
-      </c>
-      <c r="J426">
+      <c r="I427">
+        <v>5</v>
+      </c>
+      <c r="J427">
         <f t="shared" si="1"/>
         <v>7.4749999999999996</v>
       </c>
-      <c r="K426">
+      <c r="K427">
         <v>2.35</v>
       </c>
-      <c r="L426">
+      <c r="L427">
         <v>12.6</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
         <v>73</v>
       </c>
-      <c r="B427">
+      <c r="B428">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C428" t="s">
         <v>131</v>
       </c>
-      <c r="D427" t="s">
-        <v>6</v>
-      </c>
-      <c r="F427" t="s">
-        <v>16</v>
-      </c>
-      <c r="G427" t="s">
+      <c r="D428" t="s">
+        <v>6</v>
+      </c>
+      <c r="F428" t="s">
+        <v>16</v>
+      </c>
+      <c r="G428" t="s">
         <v>140</v>
       </c>
-      <c r="I427">
-        <v>5</v>
-      </c>
-      <c r="J427">
+      <c r="I428">
+        <v>5</v>
+      </c>
+      <c r="J428">
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-      <c r="K427">
+      <c r="K428">
         <v>-2.63</v>
       </c>
-      <c r="L427">
+      <c r="L428">
         <v>-0.37</v>
       </c>
-      <c r="M427" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A428" s="2"/>
-      <c r="J428" s="2"/>
+      <c r="M428" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="2"/>
+      <c r="J429" s="2"/>
+    </row>
+    <row r="430" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>1</v>
-      </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B430" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
+        <v>1</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
         <v>2</v>
       </c>
-      <c r="B431" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>3</v>
-      </c>
-      <c r="B432" t="s">
-        <v>4</v>
+      <c r="B432" s="22" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B433" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B434" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B435" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
         <v>18</v>
       </c>
-      <c r="B436" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="437" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
+      <c r="B437" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A438" s="5" t="s">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A439" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B438" s="5" t="s">
+      <c r="B439" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C438" s="5" t="s">
+      <c r="C439" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D438" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E438" s="5" t="s">
+      <c r="D439" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E439" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="F439" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G438" s="5" t="s">
+      <c r="G439" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H438" s="5" t="s">
+      <c r="H439" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I438" s="5" t="s">
+      <c r="I439" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J438" s="5" t="s">
+      <c r="J439" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K438" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L438" s="5" t="s">
+      <c r="K439" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="439" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A439" t="str">
-        <f>B429</f>
+      <c r="L439" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" t="str">
+        <f>B430</f>
         <v>silica gel production, for sorbent-based direct air capture system</v>
       </c>
-      <c r="B439">
-        <v>1</v>
-      </c>
-      <c r="C439" t="s">
-        <v>8</v>
-      </c>
-      <c r="D439" t="s">
-        <v>6</v>
-      </c>
-      <c r="F439" t="s">
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440" t="s">
+        <v>8</v>
+      </c>
+      <c r="D440" t="s">
+        <v>6</v>
+      </c>
+      <c r="F440" t="s">
         <v>15</v>
       </c>
-      <c r="G439" s="7" t="str">
-        <f>B431</f>
+      <c r="G440" s="7" t="str">
+        <f>B432</f>
         <v>silica gel</v>
       </c>
-    </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>81</v>
-      </c>
-      <c r="B440">
-        <v>3.9</v>
-      </c>
-      <c r="C440" t="s">
-        <v>26</v>
-      </c>
-      <c r="D440" t="s">
-        <v>6</v>
-      </c>
-      <c r="F440" t="s">
-        <v>16</v>
-      </c>
-      <c r="G440" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q440" s="4"/>
-      <c r="S440" s="4"/>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B441">
-        <v>0.66</v>
+        <v>3.9</v>
       </c>
       <c r="C441" t="s">
         <v>26</v>
@@ -9563,272 +9555,271 @@
         <v>16</v>
       </c>
       <c r="G441" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Q441" s="4"/>
+      <c r="S441" s="4"/>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B442">
-        <v>19.5</v>
+        <v>0.66</v>
       </c>
       <c r="C442" t="s">
         <v>26</v>
       </c>
       <c r="D442" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F442" t="s">
         <v>16</v>
       </c>
       <c r="G442" t="s">
-        <v>88</v>
-      </c>
-      <c r="I442">
-        <v>5</v>
-      </c>
-      <c r="J442">
-        <f>B442</f>
-        <v>19.5</v>
-      </c>
-      <c r="K442">
-        <v>15</v>
-      </c>
-      <c r="L442">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B443">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="C443" t="s">
         <v>26</v>
       </c>
       <c r="D443" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F443" t="s">
         <v>16</v>
       </c>
       <c r="G443" t="s">
+        <v>88</v>
+      </c>
+      <c r="I443">
+        <v>5</v>
+      </c>
+      <c r="J443">
+        <f>B443</f>
+        <v>19.5</v>
+      </c>
+      <c r="K443">
+        <v>15</v>
+      </c>
+      <c r="L443">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>84</v>
+      </c>
+      <c r="B444">
+        <v>40</v>
+      </c>
+      <c r="C444" t="s">
+        <v>26</v>
+      </c>
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+      <c r="F444" t="s">
+        <v>16</v>
+      </c>
+      <c r="G444" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
+    <row r="445" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
         <v>195</v>
       </c>
-      <c r="B444">
+      <c r="B445">
         <f>-35/1000</f>
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C445" t="s">
         <v>26</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D445" t="s">
         <v>49</v>
       </c>
-      <c r="F444" t="s">
-        <v>16</v>
-      </c>
-      <c r="G444" t="s">
+      <c r="F445" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" t="s">
         <v>149</v>
       </c>
-      <c r="M444" s="2"/>
-    </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
+      <c r="M445" s="2"/>
+    </row>
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
         <v>148</v>
       </c>
-      <c r="B445" s="6">
+      <c r="B446" s="6">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D445" t="s">
-        <v>6</v>
-      </c>
-      <c r="E445" t="s">
+      <c r="D446" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" t="s">
         <v>85</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F446" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A446" s="2"/>
-      <c r="J446" s="2"/>
-    </row>
     <row r="447" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="2"/>
+      <c r="J447" s="2"/>
+    </row>
+    <row r="448" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>1</v>
-      </c>
-      <c r="B448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>1</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
         <v>2</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B450" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
         <v>3</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B451" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>5</v>
-      </c>
-      <c r="B451" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
         <v>7</v>
       </c>
-      <c r="B452" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
+      <c r="B453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
         <v>9</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B454" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
         <v>18</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B455" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A455" s="1" t="s">
+    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
         <v>11</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B457" t="s">
         <v>12</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C457" t="s">
         <v>7</v>
       </c>
-      <c r="D456" t="s">
-        <v>5</v>
-      </c>
-      <c r="E456" t="s">
+      <c r="D457" t="s">
+        <v>5</v>
+      </c>
+      <c r="E457" t="s">
         <v>13</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F457" t="s">
         <v>3</v>
       </c>
-      <c r="G456" t="s">
+      <c r="G457" t="s">
         <v>2</v>
       </c>
-      <c r="H456" t="s">
+      <c r="H457" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+    <row r="458" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
         <v>97</v>
       </c>
-      <c r="B457">
-        <v>1</v>
-      </c>
-      <c r="C457" t="s">
-        <v>8</v>
-      </c>
-      <c r="D457" t="s">
-        <v>6</v>
-      </c>
-      <c r="F457" t="s">
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458" t="s">
+        <v>8</v>
+      </c>
+      <c r="D458" t="s">
+        <v>6</v>
+      </c>
+      <c r="F458" t="s">
         <v>15</v>
       </c>
-      <c r="G457" s="8" t="s">
+      <c r="G458" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
         <v>194</v>
       </c>
-      <c r="B458">
+      <c r="B459">
         <v>9.9999999999999986E-10</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C459" t="s">
         <v>21</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D459" t="s">
         <v>49</v>
       </c>
-      <c r="F458" t="s">
-        <v>16</v>
-      </c>
-      <c r="G458" t="s">
+      <c r="F459" t="s">
+        <v>16</v>
+      </c>
+      <c r="G459" t="s">
         <v>196</v>
-      </c>
-      <c r="H458" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>152</v>
-      </c>
-      <c r="B459">
-        <v>1.0000000000000001E-7</v>
-      </c>
-      <c r="C459" t="s">
-        <v>17</v>
-      </c>
-      <c r="D459" t="s">
-        <v>6</v>
-      </c>
-      <c r="F459" t="s">
-        <v>16</v>
-      </c>
-      <c r="G459" t="s">
-        <v>153</v>
       </c>
       <c r="H459" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B460">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="C460" t="s">
         <v>17</v>
@@ -9840,18 +9831,18 @@
         <v>16</v>
       </c>
       <c r="G460" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="H460" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B461">
-        <v>2.9999999999999999E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C461" t="s">
         <v>17</v>
@@ -9863,108 +9854,108 @@
         <v>16</v>
       </c>
       <c r="G461" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="H461" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B462">
-        <v>3.1999999999999999E-5</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="C462" t="s">
         <v>17</v>
       </c>
       <c r="D462" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F462" t="s">
         <v>16</v>
       </c>
       <c r="G462" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H462" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="B463">
-        <v>9.9999999999999995E-7</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C463" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D463" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F463" t="s">
         <v>16</v>
       </c>
       <c r="G463" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="H463" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
+        <v>77</v>
+      </c>
+      <c r="B464">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C464" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" t="s">
+        <v>23</v>
+      </c>
+      <c r="F464" t="s">
+        <v>16</v>
+      </c>
+      <c r="G464" t="s">
+        <v>78</v>
+      </c>
+      <c r="H464" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
         <v>102</v>
       </c>
-      <c r="B464">
+      <c r="B465">
         <v>1.0400000000000001E-3</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C465" t="s">
         <v>21</v>
       </c>
-      <c r="D464" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F464" t="s">
-        <v>16</v>
-      </c>
-      <c r="G464" t="s">
+      <c r="D465" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F465" t="s">
+        <v>16</v>
+      </c>
+      <c r="G465" t="s">
         <v>132</v>
-      </c>
-      <c r="H464" t="s">
-        <v>107</v>
-      </c>
-      <c r="J464" s="2"/>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>103</v>
-      </c>
-      <c r="B465">
-        <v>1.3000000000000002E-4</v>
-      </c>
-      <c r="C465" t="s">
-        <v>17</v>
-      </c>
-      <c r="D465" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F465" t="s">
-        <v>16</v>
-      </c>
-      <c r="G465" t="s">
-        <v>33</v>
       </c>
       <c r="H465" t="s">
         <v>107</v>
       </c>
+      <c r="J465" s="2"/>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B466">
         <v>1.3000000000000002E-4</v>
@@ -9979,7 +9970,7 @@
         <v>16</v>
       </c>
       <c r="G466" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="H466" t="s">
         <v>107</v>
@@ -9987,10 +9978,10 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B467">
-        <v>1.1999999999999999E-6</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="C467" t="s">
         <v>17</v>
@@ -10002,7 +9993,7 @@
         <v>16</v>
       </c>
       <c r="G467" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H467" t="s">
         <v>107</v>
@@ -10010,10 +10001,10 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B468">
-        <v>2.5000000000000002E-6</v>
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="C468" t="s">
         <v>17</v>
@@ -10025,7 +10016,7 @@
         <v>16</v>
       </c>
       <c r="G468" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H468" t="s">
         <v>107</v>
@@ -10033,22 +10024,22 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B469">
-        <v>1.8E-3</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="C469" t="s">
         <v>17</v>
       </c>
       <c r="D469" s="10" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F469" t="s">
         <v>16</v>
       </c>
       <c r="G469" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H469" t="s">
         <v>107</v>
@@ -10056,22 +10047,22 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B470">
-        <v>1.1999999999999999E-4</v>
+        <v>1.8E-3</v>
       </c>
       <c r="C470" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D470" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F470" t="s">
         <v>16</v>
       </c>
       <c r="G470" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="H470" t="s">
         <v>107</v>
@@ -10079,59 +10070,59 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>106</v>
-      </c>
-      <c r="B471" s="6">
-        <v>8.2000000000000001E-11</v>
+        <v>35</v>
+      </c>
+      <c r="B471">
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="C471" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D471" s="10" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F471" t="s">
         <v>16</v>
       </c>
       <c r="G471" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H471" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>102</v>
-      </c>
-      <c r="B472">
-        <v>3.3E-3</v>
+        <v>106</v>
+      </c>
+      <c r="B472" s="6">
+        <v>8.2000000000000001E-11</v>
       </c>
       <c r="C472" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D472" s="10" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="F472" t="s">
         <v>16</v>
       </c>
       <c r="G472" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H472" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>59</v>
-      </c>
-      <c r="B473" s="2">
-        <v>1.7E-5</v>
+        <v>102</v>
+      </c>
+      <c r="B473">
+        <v>3.3E-3</v>
       </c>
       <c r="C473" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>6</v>
@@ -10140,18 +10131,18 @@
         <v>16</v>
       </c>
       <c r="G473" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H473" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>42</v>
-      </c>
-      <c r="B474">
-        <v>3.6999999999999998E-5</v>
+        <v>59</v>
+      </c>
+      <c r="B474" s="2">
+        <v>1.7E-5</v>
       </c>
       <c r="C474" t="s">
         <v>17</v>
@@ -10163,7 +10154,7 @@
         <v>16</v>
       </c>
       <c r="G474" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H474" t="s">
         <v>108</v>
@@ -10171,22 +10162,22 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="B475">
-        <v>4.8E-8</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="C475" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D475" s="10" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F475" t="s">
         <v>16</v>
       </c>
       <c r="G475" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="H475" t="s">
         <v>108</v>
@@ -10194,22 +10185,22 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="B476">
-        <v>1.9E-6</v>
+        <v>4.8E-8</v>
       </c>
       <c r="C476" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D476" s="10" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F476" t="s">
         <v>16</v>
       </c>
       <c r="G476" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="H476" t="s">
         <v>108</v>
@@ -10217,22 +10208,22 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="B477">
-        <v>3.4000000000000002E-4</v>
+        <v>1.9E-6</v>
       </c>
       <c r="C477" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D477" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F477" t="s">
         <v>16</v>
       </c>
       <c r="G477" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="H477" t="s">
         <v>108</v>
@@ -10240,83 +10231,82 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B478">
-        <v>0.11799999999999999</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="C478" t="s">
         <v>8</v>
       </c>
       <c r="D478" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F478" t="s">
         <v>16</v>
       </c>
       <c r="G478" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H478" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
+        <v>77</v>
+      </c>
+      <c r="B479">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C479" t="s">
+        <v>8</v>
+      </c>
+      <c r="D479" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F479" t="s">
+        <v>16</v>
+      </c>
+      <c r="G479" t="s">
+        <v>78</v>
+      </c>
+      <c r="H479" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
         <v>65</v>
       </c>
-      <c r="B479">
+      <c r="B480">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C480" t="s">
         <v>131</v>
       </c>
-      <c r="D479" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F479" t="s">
-        <v>16</v>
-      </c>
-      <c r="G479" t="s">
+      <c r="D480" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F480" t="s">
+        <v>16</v>
+      </c>
+      <c r="G480" t="s">
         <v>161</v>
-      </c>
-      <c r="H479" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
-        <v>66</v>
-      </c>
-      <c r="B480">
-        <v>-2.5999999999999998E-4</v>
-      </c>
-      <c r="C480" t="s">
-        <v>21</v>
-      </c>
-      <c r="D480" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F480" t="s">
-        <v>16</v>
-      </c>
-      <c r="G480" t="s">
-        <v>160</v>
       </c>
       <c r="H480" t="s">
         <v>76</v>
       </c>
-      <c r="J480" s="2"/>
-    </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B481">
-        <v>-1.9999999999999999E-6</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="C481" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>6</v>
@@ -10325,21 +10315,22 @@
         <v>16</v>
       </c>
       <c r="G481" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H481" t="s">
         <v>76</v>
       </c>
+      <c r="J481" s="2"/>
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B482">
-        <v>-2.7999999999999999E-6</v>
+        <v>-1.9999999999999999E-6</v>
       </c>
       <c r="C482" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D482" s="10" t="s">
         <v>6</v>
@@ -10348,7 +10339,7 @@
         <v>16</v>
       </c>
       <c r="G482" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H482" t="s">
         <v>76</v>
@@ -10356,13 +10347,13 @@
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B483">
-        <v>-1.1999999999999999E-6</v>
+        <v>-2.7999999999999999E-6</v>
       </c>
       <c r="C483" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D483" s="10" t="s">
         <v>6</v>
@@ -10371,32 +10362,41 @@
         <v>16</v>
       </c>
       <c r="G483" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H483" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="485" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A485" s="14" t="s">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>112</v>
+      </c>
+      <c r="B484">
+        <v>-1.1999999999999999E-6</v>
+      </c>
+      <c r="C484" t="s">
+        <v>131</v>
+      </c>
+      <c r="D484" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F484" t="s">
+        <v>16</v>
+      </c>
+      <c r="G484" t="s">
+        <v>137</v>
+      </c>
+      <c r="H484" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="486" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B485" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="K485" s="16"/>
-      <c r="L485" s="16"/>
-      <c r="M485" s="16"/>
-      <c r="N485" s="16"/>
-      <c r="O485" s="16"/>
-      <c r="P485" s="16"/>
-    </row>
-    <row r="486" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A486" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B486" s="15" t="s">
-        <v>8</v>
+      <c r="B486" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="K486" s="16"/>
       <c r="L486" s="16"/>
@@ -10407,10 +10407,10 @@
     </row>
     <row r="487" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B487" s="15">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B487" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="K487" s="16"/>
       <c r="L487" s="16"/>
@@ -10421,10 +10421,10 @@
     </row>
     <row r="488" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B488" s="15" t="s">
-        <v>294</v>
+        <v>1</v>
+      </c>
+      <c r="B488" s="15">
+        <v>1</v>
       </c>
       <c r="K488" s="16"/>
       <c r="L488" s="16"/>
@@ -10435,10 +10435,10 @@
     </row>
     <row r="489" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B489" s="15" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="K489" s="16"/>
       <c r="L489" s="16"/>
@@ -10449,10 +10449,10 @@
     </row>
     <row r="490" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B490" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K490" s="16"/>
       <c r="L490" s="16"/>
@@ -10463,10 +10463,10 @@
     </row>
     <row r="491" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B491" s="15" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="K491" s="16"/>
       <c r="L491" s="16"/>
@@ -10477,10 +10477,10 @@
     </row>
     <row r="492" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B492" s="17">
-        <v>0.61363636363636365</v>
+        <v>9</v>
+      </c>
+      <c r="B492" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="K492" s="16"/>
       <c r="L492" s="16"/>
@@ -10490,8 +10490,11 @@
       <c r="P492" s="16"/>
     </row>
     <row r="493" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="14" t="s">
-        <v>10</v>
+      <c r="A493" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B493" s="17">
+        <v>0.61363636363636365</v>
       </c>
       <c r="K493" s="16"/>
       <c r="L493" s="16"/>
@@ -10502,151 +10505,112 @@
     </row>
     <row r="494" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K494" s="16"/>
+      <c r="L494" s="16"/>
+      <c r="M494" s="16"/>
+      <c r="N494" s="16"/>
+      <c r="O494" s="16"/>
+      <c r="P494" s="16"/>
+    </row>
+    <row r="495" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="B495" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C494" s="14" t="s">
+      <c r="C495" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D494" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E494" s="14" t="s">
+      <c r="D495" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E495" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F494" s="14" t="s">
+      <c r="F495" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G494" s="14" t="s">
+      <c r="G495" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H494" s="14" t="s">
+      <c r="H495" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I494" s="14" t="s">
+      <c r="I495" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J494" s="1" t="s">
+      <c r="J495" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K494" s="18" t="s">
+      <c r="K495" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L494" s="18" t="s">
+      <c r="L495" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="M494" s="18" t="s">
+      <c r="M495" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="N494" s="18" t="s">
+      <c r="N495" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="O494" s="18" t="s">
+      <c r="O495" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="P494" s="18" t="s">
+      <c r="P495" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="Q494" s="1" t="s">
+      <c r="Q495" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R494" s="1" t="s">
+      <c r="R495" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S494" s="14" t="s">
+      <c r="S495" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="T494" s="1"/>
-    </row>
-    <row r="495" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A495" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B495" s="15">
-        <v>1</v>
-      </c>
-      <c r="C495" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D495" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F495" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G495" s="15" t="str">
-        <f>B488</f>
-        <v>carbon dioxide, captured</v>
-      </c>
-      <c r="H495" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K495" s="16"/>
-      <c r="L495" s="16"/>
-      <c r="M495" s="16"/>
-      <c r="N495" s="16"/>
-      <c r="O495" s="16"/>
-      <c r="P495" s="16"/>
-      <c r="T495"/>
+      <c r="T495" s="1"/>
     </row>
     <row r="496" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B496" s="19">
-        <v>6.7613636363636362E-2</v>
+        <v>302</v>
+      </c>
+      <c r="B496" s="15">
+        <v>1</v>
+      </c>
+      <c r="C496" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D496" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E496" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="F496" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G496" s="15" t="str">
+        <f>B489</f>
+        <v>carbon dioxide, captured</v>
       </c>
       <c r="H496" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="I496" s="15">
-        <v>2</v>
-      </c>
-      <c r="J496">
-        <v>-2.6939455949206681</v>
-      </c>
-      <c r="K496" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L496" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M496" s="4">
-        <v>1</v>
-      </c>
-      <c r="N496" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O496" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P496" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q496" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="R496">
-        <v>0.16679850853156178</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K496" s="16"/>
+      <c r="L496" s="16"/>
+      <c r="M496" s="16"/>
+      <c r="N496" s="16"/>
+      <c r="O496" s="16"/>
+      <c r="P496" s="16"/>
+      <c r="T496"/>
     </row>
     <row r="497" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="15" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="B497" s="19">
-        <v>0.10738636363636363</v>
+        <v>6.7613636363636362E-2</v>
       </c>
       <c r="D497" s="15" t="s">
         <v>6</v>
@@ -10664,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="J497">
-        <v>-2.2313220729725551</v>
+        <v>-2.6939455949206681</v>
       </c>
       <c r="K497" s="4">
         <v>1.1000000000000001</v>
@@ -10693,10 +10657,10 @@
     </row>
     <row r="498" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B498" s="20">
-        <v>1E-4</v>
+        <v>38</v>
+      </c>
+      <c r="B498" s="19">
+        <v>0.10738636363636363</v>
       </c>
       <c r="D498" s="15" t="s">
         <v>6</v>
@@ -10707,11 +10671,14 @@
       <c r="F498" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="H498" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="I498" s="15">
         <v>2</v>
       </c>
       <c r="J498">
-        <v>-9.2103403719761818</v>
+        <v>-2.2313220729725551</v>
       </c>
       <c r="K498" s="4">
         <v>1.1000000000000001</v>
@@ -10732,36 +10699,33 @@
         <v>1.2</v>
       </c>
       <c r="Q498" s="4">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="R498">
-        <v>0.26139455023340635</v>
+        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="499" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B499" s="15">
-        <v>9.6600000000000002E-3</v>
-      </c>
-      <c r="C499" s="15" t="s">
-        <v>131</v>
+        <v>186</v>
+      </c>
+      <c r="B499" s="20">
+        <v>1E-4</v>
       </c>
       <c r="D499" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="E499" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F499" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G499" s="15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I499" s="15">
         <v>2</v>
       </c>
       <c r="J499">
-        <v>-4.6397616307577101</v>
+        <v>-9.2103403719761818</v>
       </c>
       <c r="K499" s="4">
         <v>1.1000000000000001</v>
@@ -10781,37 +10745,37 @@
       <c r="P499" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q499">
-        <v>1.05</v>
+      <c r="Q499" s="4">
+        <v>1.5</v>
       </c>
       <c r="R499">
-        <v>0.16679850853156178</v>
+        <v>0.26139455023340635</v>
       </c>
     </row>
     <row r="500" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B500" s="15">
-        <v>0.1</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D500" s="15" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F500" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G500" s="15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I500" s="15">
         <v>2</v>
       </c>
       <c r="J500">
-        <v>-2.3025850929940455</v>
+        <v>-4.6397616307577101</v>
       </c>
       <c r="K500" s="4">
         <v>1.1000000000000001</v>
@@ -10840,82 +10804,82 @@
     </row>
     <row r="501" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B501" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C501" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D501" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F501" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G501" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I501" s="15">
+        <v>2</v>
+      </c>
+      <c r="J501">
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="K501" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L501" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M501" s="4">
+        <v>1</v>
+      </c>
+      <c r="N501" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O501" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P501" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q501">
+        <v>1.05</v>
+      </c>
+      <c r="R501">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="502" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A502" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B501" s="15">
+      <c r="B502" s="15">
         <f>0.4+((3.7-0.4)*0.4)</f>
         <v>1.7200000000000002</v>
       </c>
-      <c r="C501" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D501" s="15" t="s">
+      <c r="C502" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D502" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F501" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G501" s="15" t="s">
+      <c r="F502" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G502" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H501" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I501" s="15">
-        <v>2</v>
-      </c>
-      <c r="J501">
-        <v>0.40546510810816438</v>
-      </c>
-      <c r="K501" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L501" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M501" s="4">
-        <v>1</v>
-      </c>
-      <c r="N501" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O501" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P501" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q501">
-        <v>1.05</v>
-      </c>
-      <c r="R501">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="502" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A502" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B502" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C502" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D502" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F502" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G502" s="15" t="s">
-        <v>141</v>
+      <c r="H502" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="I502" s="15">
         <v>2</v>
       </c>
       <c r="J502">
-        <v>-5.521460917862246</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="K502" s="4">
         <v>1.1000000000000001</v>
@@ -10944,10 +10908,10 @@
     </row>
     <row r="503" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B503" s="15">
-        <v>1E-4</v>
+        <v>90</v>
+      </c>
+      <c r="B503" s="39">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C503" s="15" t="s">
         <v>17</v>
@@ -10959,13 +10923,13 @@
         <v>16</v>
       </c>
       <c r="G503" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I503" s="15">
         <v>2</v>
       </c>
       <c r="J503">
-        <v>-9.2103403719761818</v>
+        <v>-5.521460917862246</v>
       </c>
       <c r="K503" s="4">
         <v>1.1000000000000001</v>
@@ -10994,7 +10958,7 @@
     </row>
     <row r="504" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="15" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="B504" s="15">
         <v>1E-4</v>
@@ -11009,7 +10973,7 @@
         <v>16</v>
       </c>
       <c r="G504" s="15" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="I504" s="15">
         <v>2</v>
@@ -11043,236 +11007,235 @@
       </c>
     </row>
     <row r="505" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K505" s="16"/>
-      <c r="L505" s="16"/>
-      <c r="M505" s="16"/>
-      <c r="N505" s="16"/>
-      <c r="O505" s="16"/>
-      <c r="P505" s="16"/>
-    </row>
-    <row r="506" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A506" s="1" t="s">
+      <c r="A505" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B505" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C505" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D505" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F505" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G505" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I505" s="15">
+        <v>2</v>
+      </c>
+      <c r="J505">
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="K505" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L505" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M505" s="4">
+        <v>1</v>
+      </c>
+      <c r="N505" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O505" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P505" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q505">
+        <v>1.05</v>
+      </c>
+      <c r="R505">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="506" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K506" s="16"/>
+      <c r="L506" s="16"/>
+      <c r="M506" s="16"/>
+      <c r="N506" s="16"/>
+      <c r="O506" s="16"/>
+      <c r="P506" s="16"/>
+    </row>
+    <row r="507" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B506" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
+      <c r="B507" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
         <v>7</v>
       </c>
-      <c r="B507" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="508" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A508" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
-        <v>2</v>
-      </c>
-      <c r="B509" t="s">
-        <v>294</v>
+      <c r="B508" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A509" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B510" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B511" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B512" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B513" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>171</v>
-      </c>
-      <c r="B514">
-        <v>0.06</v>
+        <v>9</v>
+      </c>
+      <c r="B514" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
+        <v>192</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A517" s="1" t="s">
+    <row r="518" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C517" s="5" t="s">
+      <c r="C518" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D517" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E517" s="5" t="s">
+      <c r="D518" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E518" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F517" s="5" t="s">
+      <c r="F518" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G517" s="5" t="s">
+      <c r="G518" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H517" s="5" t="s">
+      <c r="H518" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I517" s="5" t="s">
+      <c r="I518" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J517" s="5" t="s">
+      <c r="J518" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K517" s="5" t="s">
+      <c r="K518" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L517" s="5" t="s">
+      <c r="L518" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M517" s="5" t="s">
+      <c r="M518" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N517" s="5" t="s">
+      <c r="N518" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O517" s="5" t="s">
+      <c r="O518" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="P517" s="5" t="s">
+      <c r="P518" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="Q517" s="5" t="s">
+      <c r="Q518" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="R517" s="5" t="s">
+      <c r="R518" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="S517" s="5" t="s">
+      <c r="S518" s="5" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
-        <v>302</v>
-      </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-      <c r="C518" t="s">
-        <v>8</v>
-      </c>
-      <c r="D518" t="s">
-        <v>6</v>
-      </c>
-      <c r="F518" t="s">
-        <v>15</v>
-      </c>
-      <c r="G518" t="str">
-        <f>B509</f>
-        <v>carbon dioxide, captured</v>
       </c>
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="B519">
-        <f>0.11*(1-B514)</f>
-        <v>0.10339999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="C519" t="s">
+        <v>8</v>
       </c>
       <c r="D519" t="s">
         <v>6</v>
       </c>
-      <c r="E519" t="s">
-        <v>85</v>
-      </c>
       <c r="F519" t="s">
-        <v>20</v>
-      </c>
-      <c r="H519" t="s">
-        <v>193</v>
-      </c>
-      <c r="I519">
-        <v>2</v>
-      </c>
-      <c r="J519">
-        <v>-2.2678230385440798</v>
-      </c>
-      <c r="K519">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L519">
-        <v>1.2</v>
-      </c>
-      <c r="M519">
-        <v>1</v>
-      </c>
-      <c r="N519">
-        <v>1.01</v>
-      </c>
-      <c r="O519">
-        <v>1.2</v>
-      </c>
-      <c r="P519">
-        <v>1.2</v>
-      </c>
-      <c r="Q519">
-        <v>1.05</v>
-      </c>
-      <c r="R519">
-        <v>0.16679850853156178</v>
+        <v>15</v>
+      </c>
+      <c r="G519" t="str">
+        <f>B510</f>
+        <v>carbon dioxide, captured</v>
       </c>
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="B520">
-        <f>0.11-B519</f>
-        <v>6.6000000000000086E-3</v>
+        <f>0.11*(1-B515)</f>
+        <v>0.10339999999999999</v>
       </c>
       <c r="D520" t="s">
         <v>6</v>
@@ -11290,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="J520">
-        <v>-5.0417129971418326</v>
+        <v>-2.2678230385440798</v>
       </c>
       <c r="K520">
         <v>1.1000000000000001</v>
@@ -11319,28 +11282,29 @@
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B521">
-        <v>9.6600000000000002E-3</v>
-      </c>
-      <c r="C521" t="s">
-        <v>131</v>
+        <f>0.11-B520</f>
+        <v>6.6000000000000086E-3</v>
       </c>
       <c r="D521" t="s">
         <v>6</v>
       </c>
+      <c r="E521" t="s">
+        <v>85</v>
+      </c>
       <c r="F521" t="s">
-        <v>16</v>
-      </c>
-      <c r="G521" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="H521" t="s">
+        <v>193</v>
       </c>
       <c r="I521">
         <v>2</v>
       </c>
       <c r="J521">
-        <v>-4.6397616307577101</v>
+        <v>-5.0417129971418326</v>
       </c>
       <c r="K521">
         <v>1.1000000000000001</v>
@@ -11369,28 +11333,28 @@
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B522">
-        <v>6.9000000000000008E-3</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="C522" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D522" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F522" t="s">
         <v>16</v>
       </c>
       <c r="G522" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I522">
         <v>2</v>
       </c>
       <c r="J522">
-        <v>-4.976233867378923</v>
+        <v>-4.6397616307577101</v>
       </c>
       <c r="K522">
         <v>1.1000000000000001</v>
@@ -11419,79 +11383,79 @@
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
+        <v>34</v>
+      </c>
+      <c r="B523">
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="C523" t="s">
+        <v>8</v>
+      </c>
+      <c r="D523" t="s">
+        <v>23</v>
+      </c>
+      <c r="F523" t="s">
+        <v>16</v>
+      </c>
+      <c r="G523" t="s">
+        <v>24</v>
+      </c>
+      <c r="I523">
+        <v>2</v>
+      </c>
+      <c r="J523">
+        <v>-4.976233867378923</v>
+      </c>
+      <c r="K523">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L523">
+        <v>1.2</v>
+      </c>
+      <c r="M523">
+        <v>1</v>
+      </c>
+      <c r="N523">
+        <v>1.01</v>
+      </c>
+      <c r="O523">
+        <v>1.2</v>
+      </c>
+      <c r="P523">
+        <v>1.2</v>
+      </c>
+      <c r="Q523">
+        <v>1.05</v>
+      </c>
+      <c r="R523">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
         <v>187</v>
       </c>
-      <c r="B523">
+      <c r="B524">
         <f>3.66*0.7</f>
         <v>2.5619999999999998</v>
       </c>
-      <c r="C523" t="s">
-        <v>8</v>
-      </c>
-      <c r="D523" t="s">
+      <c r="C524" t="s">
+        <v>8</v>
+      </c>
+      <c r="D524" t="s">
         <v>22</v>
       </c>
-      <c r="F523" t="s">
-        <v>16</v>
-      </c>
-      <c r="G523" t="s">
+      <c r="F524" t="s">
+        <v>16</v>
+      </c>
+      <c r="G524" t="s">
         <v>188</v>
-      </c>
-      <c r="I523">
-        <v>2</v>
-      </c>
-      <c r="J523">
-        <v>0.99635805462935334</v>
-      </c>
-      <c r="K523">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L523">
-        <v>1.2</v>
-      </c>
-      <c r="M523">
-        <v>1</v>
-      </c>
-      <c r="N523">
-        <v>1.01</v>
-      </c>
-      <c r="O523">
-        <v>1.2</v>
-      </c>
-      <c r="P523">
-        <v>1.2</v>
-      </c>
-      <c r="Q523">
-        <v>1.05</v>
-      </c>
-      <c r="R523">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="524" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A524" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B524" s="38">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C524" t="s">
-        <v>17</v>
-      </c>
-      <c r="D524" t="s">
-        <v>6</v>
-      </c>
-      <c r="F524" t="s">
-        <v>16</v>
-      </c>
-      <c r="G524" t="s">
-        <v>141</v>
       </c>
       <c r="I524">
         <v>2</v>
       </c>
       <c r="J524">
-        <v>-6.9077552789821368</v>
+        <v>0.99635805462935334</v>
       </c>
       <c r="K524">
         <v>1.1000000000000001</v>
@@ -11518,252 +11482,277 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A526" s="1" t="s">
+    <row r="525" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A525" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B525" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C525" t="s">
+        <v>17</v>
+      </c>
+      <c r="D525" t="s">
+        <v>6</v>
+      </c>
+      <c r="F525" t="s">
+        <v>16</v>
+      </c>
+      <c r="G525" t="s">
+        <v>141</v>
+      </c>
+      <c r="I525">
+        <v>2</v>
+      </c>
+      <c r="J525">
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="K525">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L525">
+        <v>1.2</v>
+      </c>
+      <c r="M525">
+        <v>1</v>
+      </c>
+      <c r="N525">
+        <v>1.01</v>
+      </c>
+      <c r="O525">
+        <v>1.2</v>
+      </c>
+      <c r="P525">
+        <v>1.2</v>
+      </c>
+      <c r="Q525">
+        <v>1.05</v>
+      </c>
+      <c r="R525">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B526" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
+      <c r="B527" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
         <v>7</v>
       </c>
-      <c r="B527" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="528" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A528" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
-        <v>2</v>
-      </c>
-      <c r="B529" t="s">
-        <v>294</v>
+      <c r="B528" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A529" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B530" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B531" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B532" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B533" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
+        <v>9</v>
+      </c>
+      <c r="B534" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A535" s="1" t="s">
+    <row r="536" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C535" s="5" t="s">
+      <c r="C536" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D535" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E535" s="5" t="s">
+      <c r="D536" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E536" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F535" s="5" t="s">
+      <c r="F536" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G535" s="5" t="s">
+      <c r="G536" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H535" s="5" t="s">
+      <c r="H536" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I535" s="5"/>
-      <c r="J535" s="5"/>
-      <c r="K535" s="5"/>
-      <c r="L535" s="5"/>
-      <c r="M535" s="5"/>
-      <c r="N535" s="5"/>
-      <c r="O535" s="5"/>
-      <c r="P535" s="5"/>
-      <c r="Q535" s="5"/>
-      <c r="R535" s="5"/>
-      <c r="S535" s="5"/>
-    </row>
-    <row r="536" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="28" t="str">
-        <f>B526</f>
+      <c r="I536" s="5"/>
+      <c r="J536" s="5"/>
+      <c r="K536" s="5"/>
+      <c r="L536" s="5"/>
+      <c r="M536" s="5"/>
+      <c r="N536" s="5"/>
+      <c r="O536" s="5"/>
+      <c r="P536" s="5"/>
+      <c r="Q536" s="5"/>
+      <c r="R536" s="5"/>
+      <c r="S536" s="5"/>
+    </row>
+    <row r="537" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="28" t="str">
+        <f>B527</f>
         <v>carbon dioxide, captured, at cement production plant, using monoethanolamine</v>
       </c>
-      <c r="B536" s="37">
-        <v>1</v>
-      </c>
-      <c r="C536" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D536" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F536" s="28" t="s">
+      <c r="B537" s="37">
+        <v>1</v>
+      </c>
+      <c r="C537" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D537" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F537" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G536" s="28" t="str">
-        <f>B529</f>
+      <c r="G537" s="28" t="str">
+        <f>B530</f>
         <v>carbon dioxide, captured</v>
-      </c>
-    </row>
-    <row r="537" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B537" s="29">
-        <v>1</v>
-      </c>
-      <c r="C537" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D537" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F537" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G537" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="538" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B538" s="29">
+        <v>1</v>
+      </c>
+      <c r="C538" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D538" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F538" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G538" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="539" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B538" s="37">
+      <c r="B539" s="37">
         <f>1.4/1000</f>
         <v>1.4E-3</v>
       </c>
-      <c r="C538" s="28" t="s">
+      <c r="C539" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D538" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F538" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G538" s="28" t="s">
+      <c r="D539" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F539" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G539" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H538" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="N538" s="29"/>
-    </row>
-    <row r="539" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="28" t="s">
+      <c r="H539" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="N539" s="29"/>
+    </row>
+    <row r="540" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B539" s="29">
+      <c r="B540" s="29">
         <f>0.000355*1.25*(1/0.828)</f>
         <v>5.3592995169082129E-4</v>
       </c>
-      <c r="C539" s="28" t="s">
+      <c r="C540" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D539" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F539" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G539" s="28" t="s">
+      <c r="D540" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F540" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G540" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H539" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="N539" s="29"/>
-      <c r="P539" s="29"/>
-    </row>
-    <row r="540" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
-        <v>317</v>
-      </c>
-      <c r="B540" s="29">
+      <c r="H540" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N540" s="29"/>
+      <c r="P540" s="29"/>
+    </row>
+    <row r="541" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>318</v>
+      </c>
+      <c r="B541" s="29">
         <f>(3.76-0.11)/0.9</f>
         <v>4.0555555555555554</v>
       </c>
-      <c r="C540" s="28" t="s">
+      <c r="C541" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D540" s="28" t="s">
+      <c r="D541" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F540" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G540" s="28" t="s">
+      <c r="F541" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G541" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="H540" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="N540" s="29"/>
-    </row>
-    <row r="541" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B541" s="29">
-        <f>188/761*0.459/3.6</f>
-        <v>3.1498028909329831E-2</v>
-      </c>
-      <c r="C541" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D541" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F541" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G541" s="28" t="s">
-        <v>24</v>
-      </c>
       <c r="H541" s="28" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="N541" s="29"/>
     </row>
@@ -11772,8 +11761,8 @@
         <v>34</v>
       </c>
       <c r="B542" s="29">
-        <f>123/761*0.459/3.6</f>
-        <v>2.0607752956636003E-2</v>
+        <f>188/761*0.459/3.6</f>
+        <v>3.1498028909329831E-2</v>
       </c>
       <c r="C542" s="28" t="s">
         <v>8</v>
@@ -11797,70 +11786,71 @@
         <v>34</v>
       </c>
       <c r="B543" s="29">
+        <f>123/761*0.459/3.6</f>
+        <v>2.0607752956636003E-2</v>
+      </c>
+      <c r="C543" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D543" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F543" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G543" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H543" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="N543" s="29"/>
+    </row>
+    <row r="544" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B544" s="29">
         <f>575/761*0.459/3.6</f>
         <v>9.63370565045992E-2</v>
       </c>
-      <c r="C543" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D543" s="28" t="s">
+      <c r="C544" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D544" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F543" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G543" s="28" t="s">
+      <c r="F544" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G544" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H543" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="N543" s="29"/>
-      <c r="Q543" s="30"/>
-    </row>
-    <row r="544" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="B544" s="29">
+      <c r="H544" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N544" s="29"/>
+      <c r="Q544" s="30"/>
+    </row>
+    <row r="545" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B545" s="29">
         <f>0.473</f>
         <v>0.47299999999999998</v>
       </c>
-      <c r="C544" s="28" t="s">
+      <c r="C545" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D544" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F544" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G544" s="28" t="s">
+      <c r="D545" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F545" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G545" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="H544" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="545" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B545" s="29">
-        <f>-B538*0.227/(0.227+0.006)</f>
-        <v>-1.3639484978540772E-3</v>
-      </c>
-      <c r="C545" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D545" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F545" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G545" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="H545" s="28" t="s">
         <v>231</v>
@@ -11868,35 +11858,38 @@
     </row>
     <row r="546" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B546" s="29">
+        <f>-B539*0.227/(0.227+0.006)</f>
+        <v>-1.3639484978540772E-3</v>
+      </c>
+      <c r="C546" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D546" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F546" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G546" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H546" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B546" s="37">
+    </row>
+    <row r="547" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B547" s="37">
         <f>1.4/1000*(0.006/0.227+0.006)</f>
         <v>4.5404405286343617E-5</v>
       </c>
-      <c r="D546" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E546" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F546" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H546" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="547" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="B547" s="29">
-        <f>B544/1000</f>
-        <v>4.7299999999999995E-4</v>
-      </c>
       <c r="D547" s="28" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E547" s="28" t="s">
         <v>85</v>
@@ -11904,413 +11897,410 @@
       <c r="F547" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G547" s="29"/>
-    </row>
-    <row r="549" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A549" s="1" t="s">
+      <c r="H547" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="548" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B548" s="29">
+        <f>B545/1000</f>
+        <v>4.7299999999999995E-4</v>
+      </c>
+      <c r="D548" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E548" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F548" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G548" s="29"/>
+    </row>
+    <row r="550" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B549" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
+      <c r="B550" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
         <v>7</v>
       </c>
-      <c r="B550" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="551" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A551" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B551">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
-        <v>2</v>
-      </c>
-      <c r="B552" t="s">
-        <v>294</v>
+      <c r="B551" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A552" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B553" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B554" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B555" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B556" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
+        <v>9</v>
+      </c>
+      <c r="B557" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A558" s="1" t="s">
+    <row r="559" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="B559" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C558" s="5" t="s">
+      <c r="C559" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D558" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E558" s="5" t="s">
+      <c r="D559" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E559" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F558" s="5" t="s">
+      <c r="F559" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G558" s="5" t="s">
+      <c r="G559" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H558" s="5" t="s">
+      <c r="H559" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I558" s="5"/>
-      <c r="J558" s="5"/>
-      <c r="K558" s="5"/>
-      <c r="L558" s="5"/>
-      <c r="M558" s="5"/>
-      <c r="N558" s="5"/>
-      <c r="O558" s="5"/>
-      <c r="P558" s="5"/>
-      <c r="Q558" s="5"/>
-      <c r="R558" s="5"/>
-      <c r="S558" s="5"/>
-    </row>
-    <row r="559" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="28" t="str">
-        <f>B549</f>
+      <c r="I559" s="5"/>
+      <c r="J559" s="5"/>
+      <c r="K559" s="5"/>
+      <c r="L559" s="5"/>
+      <c r="M559" s="5"/>
+      <c r="N559" s="5"/>
+      <c r="O559" s="5"/>
+      <c r="P559" s="5"/>
+      <c r="Q559" s="5"/>
+      <c r="R559" s="5"/>
+      <c r="S559" s="5"/>
+    </row>
+    <row r="560" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="28" t="str">
+        <f>B550</f>
         <v>carbon dioxide, captured, at cement production plant, using direct separation</v>
       </c>
-      <c r="B559" s="28">
-        <v>1</v>
-      </c>
-      <c r="C559" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D559" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F559" s="28" t="s">
+      <c r="B560" s="28">
+        <v>1</v>
+      </c>
+      <c r="C560" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D560" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F560" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G559" s="28" t="str">
-        <f>B552</f>
+      <c r="G560" s="28" t="str">
+        <f>B553</f>
         <v>carbon dioxide, captured</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A560" s="28" t="s">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A561" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B560" s="29">
-        <v>1</v>
-      </c>
-      <c r="C560" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D560" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E560" s="28"/>
-      <c r="F560" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G560" t="s">
+      <c r="B561" s="29">
+        <v>1</v>
+      </c>
+      <c r="C561" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D561" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E561" s="28"/>
+      <c r="F561" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G561" t="s">
         <v>98</v>
       </c>
-      <c r="H560" s="28"/>
-    </row>
-    <row r="561" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="26" t="s">
+      <c r="H561" s="28"/>
+    </row>
+    <row r="562" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B561" s="32">
+      <c r="B562" s="32">
         <f>77*1/0.558/1000</f>
         <v>0.13799283154121864</v>
       </c>
-      <c r="C561" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D561" s="26" t="s">
+      <c r="C562" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D562" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F561" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G561" s="26" t="s">
+      <c r="F562" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G562" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H561" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="N561" s="32"/>
-    </row>
-    <row r="564" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A564" s="1" t="s">
+      <c r="H562" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="N562" s="32"/>
+    </row>
+    <row r="565" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B564" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A565" t="s">
+      <c r="B565" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
         <v>7</v>
       </c>
-      <c r="B565" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="566" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A566" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B566">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A567" t="s">
-        <v>2</v>
-      </c>
-      <c r="B567" t="s">
-        <v>294</v>
+      <c r="B566" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A567" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B568" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B569" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B570" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B571" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
+        <v>9</v>
+      </c>
+      <c r="B572" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A573" s="1" t="s">
+    <row r="574" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="B574" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C573" s="5" t="s">
+      <c r="C574" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D573" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E573" s="5" t="s">
+      <c r="D574" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E574" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F573" s="5" t="s">
+      <c r="F574" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G573" s="5" t="s">
+      <c r="G574" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H573" s="5" t="s">
+      <c r="H574" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I573" s="5"/>
-      <c r="J573" s="5"/>
-      <c r="K573" s="5"/>
-      <c r="L573" s="5"/>
-      <c r="M573" s="5"/>
-      <c r="N573" s="5"/>
-      <c r="O573" s="5"/>
-      <c r="P573" s="5"/>
-      <c r="Q573" s="5"/>
-      <c r="R573" s="5"/>
-      <c r="S573" s="5"/>
-    </row>
-    <row r="574" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="28" t="str">
-        <f>B564</f>
+      <c r="I574" s="5"/>
+      <c r="J574" s="5"/>
+      <c r="K574" s="5"/>
+      <c r="L574" s="5"/>
+      <c r="M574" s="5"/>
+      <c r="N574" s="5"/>
+      <c r="O574" s="5"/>
+      <c r="P574" s="5"/>
+      <c r="Q574" s="5"/>
+      <c r="R574" s="5"/>
+      <c r="S574" s="5"/>
+    </row>
+    <row r="575" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="28" t="str">
+        <f>B565</f>
         <v>carbon dioxide, captured, at cement production plant, using oxyfuel</v>
       </c>
-      <c r="B574" s="28">
-        <v>1</v>
-      </c>
-      <c r="C574" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D574" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F574" s="28" t="s">
+      <c r="B575" s="28">
+        <v>1</v>
+      </c>
+      <c r="C575" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D575" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F575" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G574" s="28" t="str">
-        <f>B567</f>
+      <c r="G575" s="28" t="str">
+        <f>B568</f>
         <v>carbon dioxide, captured</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A575" s="28" t="s">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A576" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B575" s="29">
-        <v>1</v>
-      </c>
-      <c r="C575" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D575" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E575" s="28"/>
-      <c r="F575" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G575" t="s">
+      <c r="B576" s="29">
+        <v>1</v>
+      </c>
+      <c r="C576" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D576" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E576" s="28"/>
+      <c r="F576" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G576" t="s">
         <v>98</v>
       </c>
-      <c r="H575" s="28"/>
-    </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A576" t="s">
-        <v>248</v>
-      </c>
-      <c r="B576" s="6">
-        <f>B574*32/44/(1-0.11)</f>
-        <v>0.81716036772216549</v>
-      </c>
-      <c r="C576" t="s">
-        <v>26</v>
-      </c>
-      <c r="D576" t="s">
-        <v>6</v>
-      </c>
-      <c r="F576" t="s">
-        <v>16</v>
-      </c>
-      <c r="G576" t="s">
-        <v>246</v>
-      </c>
-      <c r="H576" t="s">
-        <v>242</v>
-      </c>
+      <c r="H576" s="28"/>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
+        <v>249</v>
+      </c>
+      <c r="B577" s="6">
+        <f>B575*32/44/(1-0.11)</f>
+        <v>0.81716036772216549</v>
+      </c>
+      <c r="C577" t="s">
+        <v>26</v>
+      </c>
+      <c r="D577" t="s">
+        <v>6</v>
+      </c>
+      <c r="F577" t="s">
+        <v>16</v>
+      </c>
+      <c r="G577" t="s">
+        <v>247</v>
+      </c>
+      <c r="H577" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
         <v>34</v>
       </c>
-      <c r="B577" s="6">
+      <c r="B578" s="6">
         <f>(122-182-62)/758*0.459/3.6</f>
         <v>-2.0521108179419524E-2</v>
       </c>
-      <c r="C577" t="s">
-        <v>8</v>
-      </c>
-      <c r="D577" t="s">
+      <c r="C578" t="s">
+        <v>8</v>
+      </c>
+      <c r="D578" t="s">
         <v>23</v>
       </c>
-      <c r="F577" t="s">
-        <v>16</v>
-      </c>
-      <c r="G577" t="s">
+      <c r="F578" t="s">
+        <v>16</v>
+      </c>
+      <c r="G578" t="s">
         <v>24</v>
       </c>
-      <c r="H577" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="578" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" t="s">
+      <c r="H578" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="579" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
         <v>34</v>
       </c>
-      <c r="B578" s="6">
+      <c r="B579" s="6">
         <f>59/758*0.459/3.6</f>
         <v>9.9241424802110813E-3</v>
       </c>
-      <c r="C578" t="s">
-        <v>8</v>
-      </c>
-      <c r="D578" t="s">
-        <v>23</v>
-      </c>
-      <c r="F578" t="s">
-        <v>16</v>
-      </c>
-      <c r="G578" t="s">
-        <v>24</v>
-      </c>
-      <c r="H578" s="26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
-        <v>34</v>
-      </c>
-      <c r="B579" s="6">
-        <f>440/3600</f>
-        <v>0.12222222222222222</v>
-      </c>
       <c r="C579" t="s">
         <v>8</v>
       </c>
@@ -12323,320 +12313,318 @@
       <c r="G579" t="s">
         <v>24</v>
       </c>
-      <c r="H579" t="s">
+      <c r="H579" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="M579" s="27"/>
-      <c r="N579" s="31"/>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>34</v>
       </c>
       <c r="B580" s="6">
+        <f>440/3600</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="C580" t="s">
+        <v>8</v>
+      </c>
+      <c r="D580" t="s">
+        <v>23</v>
+      </c>
+      <c r="F580" t="s">
+        <v>16</v>
+      </c>
+      <c r="G580" t="s">
+        <v>24</v>
+      </c>
+      <c r="H580" t="s">
+        <v>246</v>
+      </c>
+      <c r="M580" s="27"/>
+      <c r="N580" s="31"/>
+    </row>
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>34</v>
+      </c>
+      <c r="B581" s="6">
         <f>0.03/3600</f>
         <v>8.3333333333333337E-6</v>
       </c>
-      <c r="C580" t="s">
-        <v>8</v>
-      </c>
-      <c r="D580" t="s">
+      <c r="C581" t="s">
+        <v>8</v>
+      </c>
+      <c r="D581" t="s">
         <v>23</v>
       </c>
-      <c r="F580" t="s">
-        <v>16</v>
-      </c>
-      <c r="G580" t="s">
+      <c r="F581" t="s">
+        <v>16</v>
+      </c>
+      <c r="G581" t="s">
         <v>24</v>
       </c>
-      <c r="H580" t="s">
-        <v>247</v>
-      </c>
-      <c r="M580" s="27"/>
-      <c r="N580" s="31"/>
-    </row>
-    <row r="582" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A582" s="1" t="s">
+      <c r="H581" t="s">
+        <v>248</v>
+      </c>
+      <c r="M581" s="27"/>
+      <c r="N581" s="31"/>
+    </row>
+    <row r="583" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B582" s="34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
-        <v>9</v>
-      </c>
-      <c r="B583" s="35" t="s">
-        <v>254</v>
+      <c r="B583" s="34" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B584" s="35" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B585" s="35" t="s">
-        <v>294</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B586" s="35" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A587" s="5" t="s">
+      <c r="A587" t="s">
+        <v>5</v>
+      </c>
+      <c r="B587" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A588" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B587" s="35"/>
-    </row>
-    <row r="588" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A588" s="1" t="s">
+      <c r="B588" s="35"/>
+    </row>
+    <row r="589" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B588" s="34" t="s">
+      <c r="B589" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C588" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D588" s="1" t="s">
+      <c r="C589" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D589" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E588" s="1" t="s">
+      <c r="E589" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F588" s="1" t="s">
+      <c r="F589" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G588" s="1" t="s">
+      <c r="G589" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H588" s="1"/>
-      <c r="I588" s="1"/>
-      <c r="J588" s="1"/>
-      <c r="K588" s="1"/>
-      <c r="L588" s="1"/>
-      <c r="M588" s="1"/>
-      <c r="N588" s="1"/>
-      <c r="O588" s="1"/>
-      <c r="P588" s="1"/>
-      <c r="Q588" s="1"/>
-      <c r="R588" s="1"/>
-      <c r="S588" s="1"/>
-      <c r="T588" s="1"/>
-      <c r="U588" s="1"/>
-      <c r="V588" s="1"/>
-    </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A589" t="str">
-        <f>B582</f>
+      <c r="H589" s="1"/>
+      <c r="I589" s="1"/>
+      <c r="J589" s="1"/>
+      <c r="K589" s="1"/>
+      <c r="L589" s="1"/>
+      <c r="M589" s="1"/>
+      <c r="N589" s="1"/>
+      <c r="O589" s="1"/>
+      <c r="P589" s="1"/>
+      <c r="Q589" s="1"/>
+      <c r="R589" s="1"/>
+      <c r="S589" s="1"/>
+      <c r="T589" s="1"/>
+      <c r="U589" s="1"/>
+      <c r="V589" s="1"/>
+    </row>
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A590" t="str">
+        <f>B583</f>
         <v>carbon dioxide, captured and stored, by land-use change</v>
       </c>
-      <c r="B589" s="35">
-        <v>1</v>
-      </c>
-      <c r="C589" t="str">
+      <c r="B590" s="35">
+        <v>1</v>
+      </c>
+      <c r="C590" t="str">
+        <f>B587</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E590" t="str">
+        <f>B585</f>
+        <v>RER</v>
+      </c>
+      <c r="F590" t="s">
+        <v>15</v>
+      </c>
+      <c r="G590" t="str">
         <f>B586</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E589" t="str">
-        <f>B584</f>
-        <v>RER</v>
-      </c>
-      <c r="F589" t="s">
-        <v>15</v>
-      </c>
-      <c r="G589" t="str">
-        <f>B585</f>
         <v>carbon dioxide, captured</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A590" t="s">
-        <v>255</v>
-      </c>
-      <c r="B590" s="36">
-        <v>1</v>
-      </c>
-      <c r="C590" t="s">
-        <v>6</v>
-      </c>
-      <c r="D590" t="s">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
         <v>256</v>
       </c>
-      <c r="F590" t="s">
+      <c r="B591" s="36">
+        <v>1</v>
+      </c>
+      <c r="C591" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" t="s">
+        <v>257</v>
+      </c>
+      <c r="F591" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="592" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A592" s="1" t="s">
+    <row r="593" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B592" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M592" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
-        <v>7</v>
-      </c>
-      <c r="B593" t="s">
-        <v>8</v>
+      <c r="B593" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="M593" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1</v>
-      </c>
-      <c r="B594">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B594" t="s">
+        <v>8</v>
       </c>
       <c r="M594" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>2</v>
-      </c>
-      <c r="B595" t="s">
-        <v>294</v>
+        <v>1</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
       </c>
       <c r="M595" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B596" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="M596" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B597" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M597" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B598" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="M598" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B599" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M599" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="600" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A600" s="1" t="s">
-        <v>10</v>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>18</v>
+      </c>
+      <c r="B600" t="s">
+        <v>258</v>
       </c>
       <c r="M600" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A601" t="s">
+    <row r="601" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M601" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
         <v>11</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B602" t="s">
         <v>12</v>
       </c>
-      <c r="C601" t="s">
+      <c r="C602" t="s">
         <v>7</v>
       </c>
-      <c r="D601" t="s">
-        <v>5</v>
-      </c>
-      <c r="E601" t="s">
+      <c r="D602" t="s">
+        <v>5</v>
+      </c>
+      <c r="E602" t="s">
         <v>13</v>
       </c>
-      <c r="F601" t="s">
+      <c r="F602" t="s">
         <v>3</v>
       </c>
-      <c r="G601" t="s">
+      <c r="G602" t="s">
         <v>172</v>
       </c>
-      <c r="H601" t="s">
+      <c r="H602" t="s">
         <v>9</v>
       </c>
-      <c r="I601" t="s">
+      <c r="I602" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
         <v>186</v>
       </c>
-      <c r="B602">
+      <c r="B603">
         <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="D602" t="s">
-        <v>6</v>
-      </c>
-      <c r="E602" t="s">
-        <v>85</v>
-      </c>
-      <c r="F602" t="s">
-        <v>20</v>
-      </c>
-      <c r="G602">
-        <v>0</v>
-      </c>
-      <c r="H602" t="s">
-        <v>258</v>
-      </c>
-      <c r="I602" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A603" t="s">
-        <v>232</v>
-      </c>
-      <c r="B603" s="38">
-        <v>6.0000000000000002E-6</v>
       </c>
       <c r="D603" t="s">
         <v>6</v>
@@ -12651,24 +12639,24 @@
         <v>0</v>
       </c>
       <c r="H603" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I603" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>259</v>
-      </c>
-      <c r="B604">
-        <v>8.3199999999999996E-2</v>
+        <v>233</v>
+      </c>
+      <c r="B604" s="38">
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="D604" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E604" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="F604" t="s">
         <v>20</v>
@@ -12677,25 +12665,24 @@
         <v>0</v>
       </c>
       <c r="H604" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I604" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>234</v>
-      </c>
-      <c r="B605" s="33">
-        <f>((B604*1000)-(600*3.78541/1000))/1000</f>
-        <v>8.0928753999999992E-2</v>
+        <v>260</v>
+      </c>
+      <c r="B605">
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="D605" t="s">
         <v>49</v>
       </c>
       <c r="E605" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F605" t="s">
         <v>20</v>
@@ -12704,40 +12691,40 @@
         <v>0</v>
       </c>
       <c r="H605" t="s">
+        <v>262</v>
+      </c>
+      <c r="I605" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>235</v>
+      </c>
+      <c r="B606" s="33">
+        <f>((B605*1000)-(600*3.78541/1000))/1000</f>
+        <v>8.0928753999999992E-2</v>
+      </c>
+      <c r="D606" t="s">
+        <v>49</v>
+      </c>
+      <c r="E606" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A606" t="str">
-        <f>B592</f>
-        <v>carbon dioxide, captured and stored, at wood burning power plant, pipeline 200km, storage 1000m</v>
-      </c>
-      <c r="B606">
-        <v>1</v>
-      </c>
-      <c r="C606" t="s">
-        <v>8</v>
-      </c>
-      <c r="D606" t="s">
-        <v>6</v>
-      </c>
       <c r="F606" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G606">
         <v>0</v>
       </c>
       <c r="H606" t="s">
-        <v>183</v>
-      </c>
-      <c r="I606" t="str">
-        <f>B595</f>
-        <v>carbon dioxide, captured</v>
-      </c>
-    </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A607" s="28" t="s">
-        <v>97</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A607" t="str">
+        <f>B593</f>
+        <v>carbon dioxide, captured and stored, at wood burning power plant, pipeline 200km, storage 1000m</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -12748,11 +12735,8 @@
       <c r="D607" t="s">
         <v>6</v>
       </c>
-      <c r="E607" t="s">
-        <v>264</v>
-      </c>
       <c r="F607" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -12760,45 +12744,47 @@
       <c r="H607" t="s">
         <v>183</v>
       </c>
-      <c r="I607" t="s">
+      <c r="I607" t="str">
+        <f>B596</f>
+        <v>carbon dioxide, captured</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A608" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608" t="s">
+        <v>8</v>
+      </c>
+      <c r="D608" t="s">
+        <v>6</v>
+      </c>
+      <c r="E608" t="s">
+        <v>265</v>
+      </c>
+      <c r="F608" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608" t="s">
+        <v>183</v>
+      </c>
+      <c r="I608" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="608" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B608" s="29">
-        <f>188/761*0.459/3.6</f>
-        <v>3.1498028909329831E-2</v>
-      </c>
-      <c r="C608" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D608" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F608" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G608" s="28">
-        <v>0</v>
-      </c>
-      <c r="H608" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="I608" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N608" s="29"/>
     </row>
     <row r="609" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B609" s="29">
-        <f>123/761*0.459/3.6</f>
-        <v>2.0607752956636003E-2</v>
+        <f>188/761*0.459/3.6</f>
+        <v>3.1498028909329831E-2</v>
       </c>
       <c r="C609" s="28" t="s">
         <v>8</v>
@@ -12825,74 +12811,73 @@
         <v>34</v>
       </c>
       <c r="B610" s="29">
+        <f>123/761*0.459/3.6</f>
+        <v>2.0607752956636003E-2</v>
+      </c>
+      <c r="C610" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D610" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F610" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G610" s="28">
+        <v>0</v>
+      </c>
+      <c r="H610" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I610" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N610" s="29"/>
+    </row>
+    <row r="611" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B611" s="29">
         <f>575/761*0.459/3.6</f>
         <v>9.63370565045992E-2</v>
       </c>
-      <c r="C610" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D610" s="28" t="s">
+      <c r="C611" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D611" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F610" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G610" s="28">
+      <c r="F611" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G611" s="28">
         <v>0</v>
       </c>
-      <c r="H610" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="I610" s="28" t="s">
+      <c r="H611" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="I611" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N610" s="29"/>
-      <c r="Q610" s="30"/>
-    </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A611" t="s">
-        <v>284</v>
-      </c>
-      <c r="B611">
-        <v>1.9099999999999998E-9</v>
-      </c>
-      <c r="C611" t="s">
-        <v>8</v>
-      </c>
-      <c r="D611" t="s">
-        <v>5</v>
-      </c>
-      <c r="E611" t="s">
-        <v>264</v>
-      </c>
-      <c r="F611" t="s">
-        <v>16</v>
-      </c>
-      <c r="G611">
-        <v>0</v>
-      </c>
-      <c r="H611" t="s">
-        <v>265</v>
-      </c>
-      <c r="I611" t="s">
-        <v>285</v>
-      </c>
+      <c r="N611" s="29"/>
+      <c r="Q611" s="30"/>
     </row>
     <row r="612" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B612">
-        <v>1.15E-8</v>
+        <v>1.9099999999999998E-9</v>
       </c>
       <c r="C612" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D612" t="s">
         <v>5</v>
       </c>
       <c r="E612" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F612" t="s">
         <v>16</v>
@@ -12901,27 +12886,27 @@
         <v>0</v>
       </c>
       <c r="H612" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I612" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="613" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B613">
-        <v>8.2600000000000002E-5</v>
+        <v>1.15E-8</v>
       </c>
       <c r="C613" t="s">
         <v>17</v>
       </c>
       <c r="D613" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E613" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F613" t="s">
         <v>16</v>
@@ -12930,27 +12915,27 @@
         <v>0</v>
       </c>
       <c r="H613" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I613" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="614" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B614">
-        <v>1.9099999999999998E-9</v>
+        <v>8.2600000000000002E-5</v>
       </c>
       <c r="C614" t="s">
         <v>17</v>
       </c>
       <c r="D614" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E614" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F614" t="s">
         <v>16</v>
@@ -12959,18 +12944,18 @@
         <v>0</v>
       </c>
       <c r="H614" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I614" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="615" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B615">
-        <v>6.4400000000000005E-10</v>
+        <v>1.9099999999999998E-9</v>
       </c>
       <c r="C615" t="s">
         <v>17</v>
@@ -12979,7 +12964,7 @@
         <v>5</v>
       </c>
       <c r="E615" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F615" t="s">
         <v>16</v>
@@ -12988,27 +12973,27 @@
         <v>0</v>
       </c>
       <c r="H615" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I615" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="616" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>90</v>
-      </c>
-      <c r="B616" s="38">
-        <v>1.4E-3</v>
+        <v>275</v>
+      </c>
+      <c r="B616">
+        <v>6.4400000000000005E-10</v>
       </c>
       <c r="C616" t="s">
         <v>17</v>
       </c>
       <c r="D616" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E616" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F616" t="s">
         <v>16</v>
@@ -13016,28 +13001,28 @@
       <c r="G616">
         <v>0</v>
       </c>
-      <c r="H616" s="28" t="s">
-        <v>226</v>
+      <c r="H616" t="s">
+        <v>276</v>
       </c>
       <c r="I616" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
     </row>
     <row r="617" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>277</v>
-      </c>
-      <c r="B617">
-        <v>1.3399999999999999E-8</v>
+        <v>90</v>
+      </c>
+      <c r="B617" s="38">
+        <v>1.4E-3</v>
       </c>
       <c r="C617" t="s">
         <v>17</v>
       </c>
       <c r="D617" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E617" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F617" t="s">
         <v>16</v>
@@ -13045,28 +13030,28 @@
       <c r="G617">
         <v>0</v>
       </c>
-      <c r="H617" t="s">
-        <v>278</v>
+      <c r="H617" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="I617" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
     </row>
     <row r="618" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="B618">
-        <v>3.0400000000000002E-4</v>
+        <v>1.3399999999999999E-8</v>
       </c>
       <c r="C618" t="s">
         <v>17</v>
       </c>
       <c r="D618" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E618" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F618" t="s">
         <v>16</v>
@@ -13075,28 +13060,27 @@
         <v>0</v>
       </c>
       <c r="H618" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="I618" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
     </row>
     <row r="619" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B619">
-        <f>-1*B616</f>
-        <v>-1.4E-3</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="C619" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D619" t="s">
         <v>6</v>
       </c>
       <c r="E619" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F619" t="s">
         <v>16</v>
@@ -13105,298 +13089,292 @@
         <v>0</v>
       </c>
       <c r="H619" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I619" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="620" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <f>-1*B617</f>
+        <v>-1.4E-3</v>
+      </c>
+      <c r="C620" t="s">
+        <v>21</v>
       </c>
       <c r="D620" t="s">
         <v>6</v>
       </c>
       <c r="E620" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="F620" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G620">
         <v>0</v>
       </c>
       <c r="H620" t="s">
-        <v>283</v>
-      </c>
-      <c r="M620" t="s">
+        <v>259</v>
+      </c>
+      <c r="I620" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>39</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+      <c r="D621" t="s">
+        <v>6</v>
+      </c>
+      <c r="E621" t="s">
+        <v>37</v>
+      </c>
+      <c r="F621" t="s">
+        <v>20</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621" t="s">
+        <v>284</v>
+      </c>
+      <c r="M621" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="622" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A622" s="1" t="s">
+    <row r="623" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B622" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A623" t="s">
-        <v>1</v>
-      </c>
-      <c r="B623">
-        <v>1</v>
+      <c r="B623" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="624" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>2</v>
-      </c>
-      <c r="B624" t="s">
-        <v>294</v>
+        <v>1</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B625" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B626" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B627" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B628" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B629" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A630" s="1" t="s">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>9</v>
+      </c>
+      <c r="B630" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A631" s="5" t="s">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A632" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B631" s="5" t="s">
+      <c r="B632" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C631" s="5" t="s">
+      <c r="C632" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D631" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E631" s="5" t="s">
+      <c r="D632" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E632" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F631" s="5" t="s">
+      <c r="F632" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G631" s="5" t="s">
+      <c r="G632" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H631" s="5" t="s">
+      <c r="H632" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I631" s="5" t="s">
+      <c r="I632" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J631" s="5" t="s">
+      <c r="J632" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K631" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L631" s="5" t="s">
+      <c r="K632" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="M631" s="5" t="s">
+      <c r="L632" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M632" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A632" t="str">
-        <f>B622</f>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A633" t="str">
+        <f>B623</f>
         <v>carbon dioxide, captured and stored, from a hydrogen production plant using steam methane reforming of biomethane</v>
       </c>
-      <c r="B632">
-        <v>1</v>
-      </c>
-      <c r="C632" t="s">
-        <v>8</v>
-      </c>
-      <c r="D632" t="s">
-        <v>6</v>
-      </c>
-      <c r="F632" t="s">
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633" t="s">
+        <v>8</v>
+      </c>
+      <c r="D633" t="s">
+        <v>6</v>
+      </c>
+      <c r="F633" t="s">
         <v>15</v>
       </c>
-      <c r="G632" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A633" t="s">
+      <c r="G633" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
         <v>34</v>
       </c>
-      <c r="B633" s="23">
+      <c r="B634" s="23">
         <f>AVERAGE(0.15,0.25)</f>
         <v>0.2</v>
       </c>
-      <c r="C633" t="s">
-        <v>8</v>
-      </c>
-      <c r="D633" t="s">
+      <c r="C634" t="s">
+        <v>8</v>
+      </c>
+      <c r="D634" t="s">
         <v>23</v>
       </c>
-      <c r="F633" t="s">
-        <v>16</v>
-      </c>
-      <c r="G633" t="s">
+      <c r="F634" t="s">
+        <v>16</v>
+      </c>
+      <c r="G634" t="s">
         <v>24</v>
       </c>
-      <c r="H633" t="s">
-        <v>310</v>
-      </c>
-      <c r="I633">
-        <v>5</v>
-      </c>
-      <c r="J633" s="23">
-        <f>B633</f>
+      <c r="H634" t="s">
+        <v>311</v>
+      </c>
+      <c r="I634">
+        <v>5</v>
+      </c>
+      <c r="J634" s="23">
+        <f>B634</f>
         <v>0.2</v>
       </c>
-      <c r="K633">
+      <c r="K634">
         <v>0.15</v>
       </c>
-      <c r="L633">
+      <c r="L634">
         <v>0.25</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A634" t="s">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
         <v>31</v>
       </c>
-      <c r="B634">
+      <c r="B635">
         <f>AVERAGE(1,2)</f>
         <v>1.5</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C635" t="s">
         <v>131</v>
       </c>
-      <c r="D634" t="s">
-        <v>6</v>
-      </c>
-      <c r="F634" t="s">
-        <v>16</v>
-      </c>
-      <c r="G634" t="s">
+      <c r="D635" t="s">
+        <v>6</v>
+      </c>
+      <c r="F635" t="s">
+        <v>16</v>
+      </c>
+      <c r="G635" t="s">
         <v>32</v>
       </c>
-      <c r="H634" t="s">
-        <v>311</v>
-      </c>
-      <c r="I634">
-        <v>5</v>
-      </c>
-      <c r="J634" s="23">
-        <f>B634</f>
+      <c r="H635" t="s">
+        <v>312</v>
+      </c>
+      <c r="I635">
+        <v>5</v>
+      </c>
+      <c r="J635" s="23">
+        <f>B635</f>
         <v>1.5</v>
       </c>
-      <c r="K634">
-        <v>1</v>
-      </c>
-      <c r="L634">
+      <c r="K635">
+        <v>1</v>
+      </c>
+      <c r="L635">
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A635" t="s">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
         <v>34</v>
       </c>
-      <c r="B635">
+      <c r="B636">
         <f>AVERAGE(0.1,0.15)</f>
         <v>0.125</v>
       </c>
-      <c r="C635" t="s">
-        <v>8</v>
-      </c>
-      <c r="D635" t="s">
+      <c r="C636" t="s">
+        <v>8</v>
+      </c>
+      <c r="D636" t="s">
         <v>23</v>
       </c>
-      <c r="F635" t="s">
-        <v>16</v>
-      </c>
-      <c r="G635" t="s">
+      <c r="F636" t="s">
+        <v>16</v>
+      </c>
+      <c r="G636" t="s">
         <v>24</v>
-      </c>
-      <c r="H635" t="s">
-        <v>312</v>
-      </c>
-      <c r="I635">
-        <v>5</v>
-      </c>
-      <c r="J635" s="23">
-        <f>B635</f>
-        <v>0.125</v>
-      </c>
-      <c r="K635">
-        <v>0.1</v>
-      </c>
-      <c r="L635">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="636" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A636" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B636">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C636" t="s">
-        <v>17</v>
-      </c>
-      <c r="D636" t="s">
-        <v>6</v>
-      </c>
-      <c r="F636" t="s">
-        <v>16</v>
-      </c>
-      <c r="G636" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="H636" t="s">
         <v>313</v>
@@ -13406,84 +13384,97 @@
       </c>
       <c r="J636" s="23">
         <f>B636</f>
+        <v>0.125</v>
+      </c>
+      <c r="K636">
+        <v>0.1</v>
+      </c>
+      <c r="L636">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A637" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B637">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K636">
+      <c r="C637" t="s">
+        <v>17</v>
+      </c>
+      <c r="D637" t="s">
+        <v>6</v>
+      </c>
+      <c r="F637" t="s">
+        <v>16</v>
+      </c>
+      <c r="G637" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H637" t="s">
+        <v>314</v>
+      </c>
+      <c r="I637">
+        <v>5</v>
+      </c>
+      <c r="J637" s="23">
+        <f>B637</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K637">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L636">
+      <c r="L637">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A637" t="s">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
         <v>34</v>
       </c>
-      <c r="B637">
+      <c r="B638">
         <f>AVERAGE(0.08,0.12)</f>
         <v>0.1</v>
       </c>
-      <c r="C637" t="s">
-        <v>8</v>
-      </c>
-      <c r="D637" t="s">
+      <c r="C638" t="s">
+        <v>8</v>
+      </c>
+      <c r="D638" t="s">
         <v>23</v>
       </c>
-      <c r="F637" t="s">
-        <v>16</v>
-      </c>
-      <c r="G637" t="s">
+      <c r="F638" t="s">
+        <v>16</v>
+      </c>
+      <c r="G638" t="s">
         <v>24</v>
-      </c>
-      <c r="H637" t="s">
-        <v>314</v>
-      </c>
-      <c r="I637">
-        <v>5</v>
-      </c>
-      <c r="J637" s="23">
-        <f>B637</f>
-        <v>0.1</v>
-      </c>
-      <c r="K637">
-        <v>0.08</v>
-      </c>
-      <c r="L637">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A638" t="s">
-        <v>42</v>
-      </c>
-      <c r="B638" s="6">
-        <v>1.2E-5</v>
-      </c>
-      <c r="C638" t="s">
-        <v>17</v>
-      </c>
-      <c r="D638" t="s">
-        <v>6</v>
-      </c>
-      <c r="F638" t="s">
-        <v>16</v>
-      </c>
-      <c r="G638" t="s">
-        <v>30</v>
       </c>
       <c r="H638" t="s">
         <v>315</v>
       </c>
+      <c r="I638">
+        <v>5</v>
+      </c>
+      <c r="J638" s="23">
+        <f>B638</f>
+        <v>0.1</v>
+      </c>
+      <c r="K638">
+        <v>0.08</v>
+      </c>
+      <c r="L638">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B639" s="6">
-        <v>3.9999999999999998E-6</v>
+        <v>1.2E-5</v>
       </c>
       <c r="C639" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D639" t="s">
         <v>6</v>
@@ -13492,7 +13483,7 @@
         <v>16</v>
       </c>
       <c r="G639" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H639" t="s">
         <v>316</v>
@@ -13500,289 +13491,312 @@
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
+        <v>43</v>
+      </c>
+      <c r="B640" s="6">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C640" t="s">
+        <v>8</v>
+      </c>
+      <c r="D640" t="s">
+        <v>6</v>
+      </c>
+      <c r="F640" t="s">
+        <v>16</v>
+      </c>
+      <c r="G640" t="s">
+        <v>50</v>
+      </c>
+      <c r="H640" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
         <v>195</v>
       </c>
-      <c r="B640" s="6">
-        <f>B634*-1/1000</f>
+      <c r="B641" s="6">
+        <f>B635*-1/1000</f>
         <v>-1.5E-3</v>
       </c>
-      <c r="C640" t="s">
+      <c r="C641" t="s">
         <v>131</v>
       </c>
-      <c r="D640" t="s">
+      <c r="D641" t="s">
         <v>49</v>
       </c>
-      <c r="F640" t="s">
-        <v>16</v>
-      </c>
-      <c r="G640" t="s">
+      <c r="F641" t="s">
+        <v>16</v>
+      </c>
+      <c r="G641" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A641" s="28" t="s">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A642" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B641">
-        <v>1</v>
-      </c>
-      <c r="C641" t="s">
-        <v>8</v>
-      </c>
-      <c r="D641" t="s">
-        <v>6</v>
-      </c>
-      <c r="F641" t="s">
-        <v>16</v>
-      </c>
-      <c r="G641" t="s">
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642" t="s">
+        <v>6</v>
+      </c>
+      <c r="F642" t="s">
+        <v>16</v>
+      </c>
+      <c r="G642" t="s">
         <v>98</v>
       </c>
-      <c r="H641" t="s">
+      <c r="H642" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A642" t="s">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
         <v>39</v>
       </c>
-      <c r="B642">
-        <v>1</v>
-      </c>
-      <c r="D642" t="s">
-        <v>6</v>
-      </c>
-      <c r="E642" t="s">
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="D643" t="s">
+        <v>6</v>
+      </c>
+      <c r="E643" t="s">
         <v>37</v>
       </c>
-      <c r="F642" t="s">
+      <c r="F643" t="s">
         <v>20</v>
       </c>
-      <c r="G642">
+      <c r="G643">
         <v>0</v>
       </c>
-      <c r="H642" t="s">
-        <v>283</v>
-      </c>
-      <c r="M642" t="s">
+      <c r="H643" t="s">
+        <v>284</v>
+      </c>
+      <c r="M643" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A644" s="1" t="s">
+    <row r="645" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B644" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A645" t="s">
-        <v>1</v>
-      </c>
-      <c r="B645">
-        <v>1</v>
+      <c r="B645" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>2</v>
-      </c>
-      <c r="B646" t="s">
-        <v>294</v>
+        <v>1</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B647" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B648" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B649" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>18</v>
-      </c>
-      <c r="B650" s="6" t="s">
-        <v>319</v>
+        <v>7</v>
+      </c>
+      <c r="B650" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
+        <v>18</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
         <v>9</v>
       </c>
-      <c r="B651" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="652" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A652" s="1" t="s">
+      <c r="B652" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A653" s="5" t="s">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A654" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B653" s="5" t="s">
+      <c r="B654" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C653" s="5" t="s">
+      <c r="C654" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D653" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E653" s="5" t="s">
+      <c r="D654" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E654" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F653" s="5" t="s">
+      <c r="F654" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G653" s="5" t="s">
+      <c r="G654" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H653" s="5" t="s">
+      <c r="H654" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I653" s="5" t="s">
+      <c r="I654" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J653" s="5" t="s">
+      <c r="J654" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K653" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L653" s="5" t="s">
+      <c r="K654" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="M653" s="5" t="s">
+      <c r="L654" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M654" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A654" t="str">
-        <f>B644</f>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A655" t="str">
+        <f>B645</f>
         <v>carbon dioxide, captured and stored, from a biomass fermentation plant</v>
       </c>
-      <c r="B654">
-        <v>1</v>
-      </c>
-      <c r="C654" t="s">
-        <v>8</v>
-      </c>
-      <c r="D654" t="s">
-        <v>6</v>
-      </c>
-      <c r="F654" t="s">
+      <c r="B655">
+        <v>1</v>
+      </c>
+      <c r="C655" t="s">
+        <v>8</v>
+      </c>
+      <c r="D655" t="s">
+        <v>6</v>
+      </c>
+      <c r="F655" t="s">
         <v>15</v>
       </c>
-      <c r="G654" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A655" t="s">
+      <c r="G655" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
         <v>34</v>
       </c>
-      <c r="B655" s="23">
+      <c r="B656" s="23">
         <v>0.11</v>
       </c>
-      <c r="C655" t="s">
-        <v>8</v>
-      </c>
-      <c r="D655" t="s">
+      <c r="C656" t="s">
+        <v>8</v>
+      </c>
+      <c r="D656" t="s">
         <v>23</v>
       </c>
-      <c r="F655" t="s">
-        <v>16</v>
-      </c>
-      <c r="G655" t="s">
+      <c r="F656" t="s">
+        <v>16</v>
+      </c>
+      <c r="G656" t="s">
         <v>24</v>
       </c>
-      <c r="H655" t="s">
-        <v>310</v>
-      </c>
-      <c r="I655">
-        <v>5</v>
-      </c>
-      <c r="J655" s="23">
-        <f>B655</f>
+      <c r="H656" t="s">
+        <v>311</v>
+      </c>
+      <c r="I656">
+        <v>5</v>
+      </c>
+      <c r="J656" s="23">
+        <f>B656</f>
         <v>0.11</v>
       </c>
-      <c r="K655">
+      <c r="K656">
         <v>0.1</v>
       </c>
-      <c r="L655">
+      <c r="L656">
         <v>0.2</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A656" s="28" t="s">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A657" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B656">
-        <v>1</v>
-      </c>
-      <c r="C656" t="s">
-        <v>8</v>
-      </c>
-      <c r="D656" t="s">
-        <v>6</v>
-      </c>
-      <c r="F656" t="s">
-        <v>16</v>
-      </c>
-      <c r="G656" t="s">
+      <c r="B657">
+        <v>1</v>
+      </c>
+      <c r="C657" t="s">
+        <v>8</v>
+      </c>
+      <c r="D657" t="s">
+        <v>6</v>
+      </c>
+      <c r="F657" t="s">
+        <v>16</v>
+      </c>
+      <c r="G657" t="s">
         <v>98</v>
       </c>
-      <c r="H656" t="s">
+      <c r="H657" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A657" t="s">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
         <v>39</v>
       </c>
-      <c r="B657">
-        <v>1</v>
-      </c>
-      <c r="D657" t="s">
-        <v>6</v>
-      </c>
-      <c r="E657" t="s">
+      <c r="B658">
+        <v>1</v>
+      </c>
+      <c r="D658" t="s">
+        <v>6</v>
+      </c>
+      <c r="E658" t="s">
         <v>37</v>
       </c>
-      <c r="F657" t="s">
+      <c r="F658" t="s">
         <v>20</v>
       </c>
-      <c r="H657" t="s">
-        <v>283</v>
-      </c>
-      <c r="M657" t="s">
+      <c r="H658" t="s">
+        <v>284</v>
+      </c>
+      <c r="M658" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V620" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V621" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
